--- a/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
+++ b/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="5"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265"/>
   </bookViews>
   <sheets>
     <sheet name="Tobias" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="Michi" sheetId="6" r:id="rId6"/>
     <sheet name="Sonja" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="142">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -438,13 +438,22 @@
   <si>
     <t>So., 12.08.2018</t>
   </si>
+  <si>
+    <t>Tobias</t>
+  </si>
+  <si>
+    <t>GDD erstellt, Mechaniken ausgearbeitet</t>
+  </si>
+  <si>
+    <t>Mechaniken ausgearbeiten, Art Meeting</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -707,10 +716,10 @@
     <xf numFmtId="2" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -734,7 +743,7 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1059,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H184" sqref="A1:H184"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,7 +1107,9 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1165,34 +1176,50 @@
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
       <c r="E7" s="12">
-        <f t="shared" ref="E7:E12" si="0">(B7-C7)*-24-D7</f>
-        <v>0</v>
+        <f>(B7-C7)*-24-D7</f>
+        <v>8</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="15">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D8" s="17">
+        <v>2</v>
+      </c>
       <c r="E8" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(B8-C8)*-24-D8</f>
+        <v>6</v>
       </c>
       <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>141</v>
+      </c>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1203,7 +1230,7 @@
       <c r="C9" s="15"/>
       <c r="D9" s="17"/>
       <c r="E9" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E9:E12" si="0">(B9-C9)*-24-D9</f>
         <v>0</v>
       </c>
       <c r="F9" s="9"/>
@@ -1264,7 +1291,7 @@
       </c>
       <c r="E13" s="22">
         <f>SUM(E6:E12)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1279,7 +1306,7 @@
       </c>
       <c r="E14" s="19">
         <f>SUM(E13)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1440,7 +1467,7 @@
       </c>
       <c r="E24" s="19">
         <f>SUM(E13+E23)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1601,7 +1628,7 @@
       </c>
       <c r="E34" s="19">
         <f>SUM(E13+E23+E33)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1762,7 +1789,7 @@
       </c>
       <c r="E44" s="19">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -1923,7 +1950,7 @@
       </c>
       <c r="E54" s="19">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2084,7 +2111,7 @@
       </c>
       <c r="E64" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2245,7 +2272,7 @@
       </c>
       <c r="E74" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2406,7 +2433,7 @@
       </c>
       <c r="E84" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2567,7 +2594,7 @@
       </c>
       <c r="E94" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2728,7 +2755,7 @@
       </c>
       <c r="E104" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -2889,7 +2916,7 @@
       </c>
       <c r="E114" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3050,7 +3077,7 @@
       </c>
       <c r="E124" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3211,7 +3238,7 @@
       </c>
       <c r="E134" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3372,7 +3399,7 @@
       </c>
       <c r="E144" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3533,7 +3560,7 @@
       </c>
       <c r="E154" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3693,7 +3720,7 @@
       </c>
       <c r="E164" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3854,7 +3881,7 @@
       </c>
       <c r="E174" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4015,7 +4042,7 @@
       </c>
       <c r="E184" s="18">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
@@ -15927,8 +15954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
+++ b/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tobias" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="145">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -446,6 +446,15 @@
   </si>
   <si>
     <t>Mechaniken ausgearbeiten, Art Meeting</t>
+  </si>
+  <si>
+    <t>Konzept Raum 1 &amp; Sketch Raum 2</t>
+  </si>
+  <si>
+    <t>Sketch &amp; Konzept Raum 1</t>
+  </si>
+  <si>
+    <t>Konzept Raum 1 &amp; Loa &amp; Gegenstände in Raum1</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -10006,8 +10015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G11:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10119,45 +10128,69 @@
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="15">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.6875</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
       <c r="E7" s="12">
         <f t="shared" ref="E7:E12" si="0">(B7-C7)*-24-D7</f>
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>143</v>
+      </c>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.6875</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
       <c r="E8" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>142</v>
+      </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="17"/>
+      <c r="B9" s="15">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0.3</v>
+      </c>
       <c r="E9" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>144</v>
+      </c>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10214,7 +10247,7 @@
       </c>
       <c r="E13" s="22">
         <f>SUM(E6:E12)</f>
-        <v>7</v>
+        <v>30.7</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -10229,7 +10262,7 @@
       </c>
       <c r="E14" s="19">
         <f>SUM(E13)</f>
-        <v>7</v>
+        <v>30.7</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -10390,7 +10423,7 @@
       </c>
       <c r="E24" s="19">
         <f>SUM(E13+E23)</f>
-        <v>7</v>
+        <v>30.7</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -10551,7 +10584,7 @@
       </c>
       <c r="E34" s="19">
         <f>SUM(E13+E23+E33)</f>
-        <v>7</v>
+        <v>30.7</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -10712,7 +10745,7 @@
       </c>
       <c r="E44" s="19">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>7</v>
+        <v>30.7</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -10873,7 +10906,7 @@
       </c>
       <c r="E54" s="19">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>7</v>
+        <v>30.7</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -11034,7 +11067,7 @@
       </c>
       <c r="E64" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>7</v>
+        <v>30.7</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -11195,7 +11228,7 @@
       </c>
       <c r="E74" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>7</v>
+        <v>30.7</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -11356,7 +11389,7 @@
       </c>
       <c r="E84" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>7</v>
+        <v>30.7</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -11517,7 +11550,7 @@
       </c>
       <c r="E94" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>7</v>
+        <v>30.7</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -11678,7 +11711,7 @@
       </c>
       <c r="E104" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>7</v>
+        <v>30.7</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -11839,7 +11872,7 @@
       </c>
       <c r="E114" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>7</v>
+        <v>30.7</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -12000,7 +12033,7 @@
       </c>
       <c r="E124" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>7</v>
+        <v>30.7</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -12161,7 +12194,7 @@
       </c>
       <c r="E134" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>7</v>
+        <v>30.7</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -12322,7 +12355,7 @@
       </c>
       <c r="E144" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>7</v>
+        <v>30.7</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -12483,7 +12516,7 @@
       </c>
       <c r="E154" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>7</v>
+        <v>30.7</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -12643,7 +12676,7 @@
       </c>
       <c r="E164" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>7</v>
+        <v>30.7</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -12804,7 +12837,7 @@
       </c>
       <c r="E174" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>7</v>
+        <v>30.7</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -12965,7 +12998,7 @@
       </c>
       <c r="E184" s="18">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>7</v>
+        <v>30.7</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
+++ b/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265"/>
   </bookViews>
   <sheets>
     <sheet name="Tobias" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="146">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -455,6 +455,9 @@
   </si>
   <si>
     <t>Konzept Raum 1 &amp; Loa &amp; Gegenstände in Raum1</t>
+  </si>
+  <si>
+    <t>Vision Statement, Meetings</t>
   </si>
 </sst>
 </file>
@@ -1077,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,19 +1234,27 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="17"/>
+      <c r="B9" s="15">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1.5</v>
+      </c>
       <c r="E9" s="12">
         <f t="shared" ref="E9:E12" si="0">(B9-C9)*-24-D9</f>
-        <v>0</v>
+        <v>7.3333333333333339</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1300,7 +1311,7 @@
       </c>
       <c r="E13" s="22">
         <f>SUM(E6:E12)</f>
-        <v>21</v>
+        <v>28.333333333333336</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1315,7 +1326,7 @@
       </c>
       <c r="E14" s="19">
         <f>SUM(E13)</f>
-        <v>21</v>
+        <v>28.333333333333336</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1476,7 +1487,7 @@
       </c>
       <c r="E24" s="19">
         <f>SUM(E13+E23)</f>
-        <v>21</v>
+        <v>28.333333333333336</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1637,7 +1648,7 @@
       </c>
       <c r="E34" s="19">
         <f>SUM(E13+E23+E33)</f>
-        <v>21</v>
+        <v>28.333333333333336</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1798,7 +1809,7 @@
       </c>
       <c r="E44" s="19">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>21</v>
+        <v>28.333333333333336</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -1959,7 +1970,7 @@
       </c>
       <c r="E54" s="19">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>21</v>
+        <v>28.333333333333336</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2120,7 +2131,7 @@
       </c>
       <c r="E64" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>21</v>
+        <v>28.333333333333336</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2281,7 +2292,7 @@
       </c>
       <c r="E74" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>21</v>
+        <v>28.333333333333336</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2442,7 +2453,7 @@
       </c>
       <c r="E84" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>21</v>
+        <v>28.333333333333336</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2603,7 +2614,7 @@
       </c>
       <c r="E94" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>21</v>
+        <v>28.333333333333336</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2764,7 +2775,7 @@
       </c>
       <c r="E104" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>21</v>
+        <v>28.333333333333336</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -2925,7 +2936,7 @@
       </c>
       <c r="E114" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>21</v>
+        <v>28.333333333333336</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3086,7 +3097,7 @@
       </c>
       <c r="E124" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>21</v>
+        <v>28.333333333333336</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3247,7 +3258,7 @@
       </c>
       <c r="E134" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>21</v>
+        <v>28.333333333333336</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3408,7 +3419,7 @@
       </c>
       <c r="E144" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>21</v>
+        <v>28.333333333333336</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3569,7 +3580,7 @@
       </c>
       <c r="E154" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>21</v>
+        <v>28.333333333333336</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3729,7 +3740,7 @@
       </c>
       <c r="E164" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>21</v>
+        <v>28.333333333333336</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3890,7 +3901,7 @@
       </c>
       <c r="E174" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>21</v>
+        <v>28.333333333333336</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4051,7 +4062,7 @@
       </c>
       <c r="E184" s="18">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>21</v>
+        <v>28.333333333333336</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
@@ -10015,7 +10026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G11:G12"/>
     </sheetView>
   </sheetViews>

--- a/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
+++ b/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="148">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -455,6 +455,15 @@
   </si>
   <si>
     <t>Konzept Raum 1 &amp; Loa &amp; Gegenstände in Raum1</t>
+  </si>
+  <si>
+    <t>Mood Conzept, Farbpaltette, Art Meeting, Größenvergleiche</t>
+  </si>
+  <si>
+    <t>Art Bibel, Voodoo Puppe, Blockout Puppe, Puppenansichten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farb Conzepte </t>
   </si>
 </sst>
 </file>
@@ -4068,7 +4077,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4176,34 +4185,50 @@
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
       <c r="E7" s="12">
         <f t="shared" ref="E7:E12" si="0">(B7-C7)*-24-D7</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>146</v>
+      </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="15">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D8" s="17">
+        <v>2</v>
+      </c>
       <c r="E8" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4218,7 +4243,9 @@
         <v>0</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>147</v>
+      </c>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4275,7 +4302,7 @@
       </c>
       <c r="E13" s="22">
         <f>SUM(E6:E12)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -4290,7 +4317,7 @@
       </c>
       <c r="E14" s="19">
         <f>SUM(E13)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -4451,7 +4478,7 @@
       </c>
       <c r="E24" s="19">
         <f>SUM(E13+E23)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -4612,7 +4639,7 @@
       </c>
       <c r="E34" s="19">
         <f>SUM(E13+E23+E33)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -4773,7 +4800,7 @@
       </c>
       <c r="E44" s="19">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -4934,7 +4961,7 @@
       </c>
       <c r="E54" s="19">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -5095,7 +5122,7 @@
       </c>
       <c r="E64" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -5256,7 +5283,7 @@
       </c>
       <c r="E74" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -5417,7 +5444,7 @@
       </c>
       <c r="E84" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -5578,7 +5605,7 @@
       </c>
       <c r="E94" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -5739,7 +5766,7 @@
       </c>
       <c r="E104" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -5900,7 +5927,7 @@
       </c>
       <c r="E114" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -6061,7 +6088,7 @@
       </c>
       <c r="E124" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -6222,7 +6249,7 @@
       </c>
       <c r="E134" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -6383,7 +6410,7 @@
       </c>
       <c r="E144" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -6544,7 +6571,7 @@
       </c>
       <c r="E154" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -6704,7 +6731,7 @@
       </c>
       <c r="E164" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -6865,7 +6892,7 @@
       </c>
       <c r="E174" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -7026,7 +7053,7 @@
       </c>
       <c r="E184" s="18">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
+++ b/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
@@ -1081,7 +1081,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,14 +1242,14 @@
         <v>0.38194444444444442</v>
       </c>
       <c r="C9" s="15">
-        <v>0.75</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D9" s="17">
         <v>1.5</v>
       </c>
       <c r="E9" s="12">
-        <f t="shared" ref="E9:E12" si="0">(B9-C9)*-24-D9</f>
-        <v>7.3333333333333339</v>
+        <f>(B9-C9)*-24-D9</f>
+        <v>7.8333333333333357</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
@@ -1265,7 +1265,7 @@
       <c r="C10" s="15"/>
       <c r="D10" s="17"/>
       <c r="E10" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E9:E12" si="0">(B10-C10)*-24-D10</f>
         <v>0</v>
       </c>
       <c r="F10" s="9"/>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="E13" s="22">
         <f>SUM(E6:E12)</f>
-        <v>28.333333333333336</v>
+        <v>28.833333333333336</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="E14" s="19">
         <f>SUM(E13)</f>
-        <v>28.333333333333336</v>
+        <v>28.833333333333336</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="E24" s="19">
         <f>SUM(E13+E23)</f>
-        <v>28.333333333333336</v>
+        <v>28.833333333333336</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="E34" s="19">
         <f>SUM(E13+E23+E33)</f>
-        <v>28.333333333333336</v>
+        <v>28.833333333333336</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="E44" s="19">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>28.333333333333336</v>
+        <v>28.833333333333336</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="E54" s="19">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>28.333333333333336</v>
+        <v>28.833333333333336</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="E64" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>28.333333333333336</v>
+        <v>28.833333333333336</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="E74" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>28.333333333333336</v>
+        <v>28.833333333333336</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="E84" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>28.333333333333336</v>
+        <v>28.833333333333336</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2614,7 +2614,7 @@
       </c>
       <c r="E94" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>28.333333333333336</v>
+        <v>28.833333333333336</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="E104" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>28.333333333333336</v>
+        <v>28.833333333333336</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="E114" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>28.333333333333336</v>
+        <v>28.833333333333336</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="E124" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>28.333333333333336</v>
+        <v>28.833333333333336</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="E134" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>28.333333333333336</v>
+        <v>28.833333333333336</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="E144" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>28.333333333333336</v>
+        <v>28.833333333333336</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="E154" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>28.333333333333336</v>
+        <v>28.833333333333336</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="E164" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>28.333333333333336</v>
+        <v>28.833333333333336</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="E174" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>28.333333333333336</v>
+        <v>28.833333333333336</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4062,7 +4062,7 @@
       </c>
       <c r="E184" s="18">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>28.333333333333336</v>
+        <v>28.833333333333336</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
+++ b/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tobias" sheetId="1" r:id="rId1"/>
@@ -4076,8 +4076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4235,12 +4235,18 @@
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="17"/>
+      <c r="B9" s="15">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.78125</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1.5</v>
+      </c>
       <c r="E9" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.0833333333333339</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
@@ -4302,7 +4308,7 @@
       </c>
       <c r="E13" s="22">
         <f>SUM(E6:E12)</f>
-        <v>21</v>
+        <v>29.083333333333336</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -4317,7 +4323,7 @@
       </c>
       <c r="E14" s="19">
         <f>SUM(E13)</f>
-        <v>21</v>
+        <v>29.083333333333336</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -4478,7 +4484,7 @@
       </c>
       <c r="E24" s="19">
         <f>SUM(E13+E23)</f>
-        <v>21</v>
+        <v>29.083333333333336</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -4639,7 +4645,7 @@
       </c>
       <c r="E34" s="19">
         <f>SUM(E13+E23+E33)</f>
-        <v>21</v>
+        <v>29.083333333333336</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -4800,7 +4806,7 @@
       </c>
       <c r="E44" s="19">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>21</v>
+        <v>29.083333333333336</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -4961,7 +4967,7 @@
       </c>
       <c r="E54" s="19">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>21</v>
+        <v>29.083333333333336</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -5122,7 +5128,7 @@
       </c>
       <c r="E64" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>21</v>
+        <v>29.083333333333336</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -5283,7 +5289,7 @@
       </c>
       <c r="E74" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>21</v>
+        <v>29.083333333333336</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -5444,7 +5450,7 @@
       </c>
       <c r="E84" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>21</v>
+        <v>29.083333333333336</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -5605,7 +5611,7 @@
       </c>
       <c r="E94" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>21</v>
+        <v>29.083333333333336</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -5766,7 +5772,7 @@
       </c>
       <c r="E104" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>21</v>
+        <v>29.083333333333336</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -5927,7 +5933,7 @@
       </c>
       <c r="E114" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>21</v>
+        <v>29.083333333333336</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -6088,7 +6094,7 @@
       </c>
       <c r="E124" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>21</v>
+        <v>29.083333333333336</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -6249,7 +6255,7 @@
       </c>
       <c r="E134" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>21</v>
+        <v>29.083333333333336</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -6410,7 +6416,7 @@
       </c>
       <c r="E144" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>21</v>
+        <v>29.083333333333336</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -6571,7 +6577,7 @@
       </c>
       <c r="E154" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>21</v>
+        <v>29.083333333333336</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -6731,7 +6737,7 @@
       </c>
       <c r="E164" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>21</v>
+        <v>29.083333333333336</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -6892,7 +6898,7 @@
       </c>
       <c r="E174" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>21</v>
+        <v>29.083333333333336</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -7053,7 +7059,7 @@
       </c>
       <c r="E184" s="18">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>21</v>
+        <v>29.083333333333336</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
@@ -10042,7 +10048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G11:G12"/>
     </sheetView>
   </sheetViews>

--- a/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
+++ b/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tobias" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="147">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t>Vision Statement, Meetings</t>
+  </si>
+  <si>
+    <t>Gate 0</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -1265,7 +1268,7 @@
       <c r="C10" s="15"/>
       <c r="D10" s="17"/>
       <c r="E10" s="12">
-        <f t="shared" ref="E9:E12" si="0">(B10-C10)*-24-D10</f>
+        <f t="shared" ref="E10:E12" si="0">(B10-C10)*-24-D10</f>
         <v>0</v>
       </c>
       <c r="F10" s="9"/>
@@ -10026,8 +10029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G11:G12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10217,7 +10220,9 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">

--- a/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
+++ b/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="153">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -465,6 +465,21 @@
   <si>
     <t xml:space="preserve">Farb Conzepte </t>
   </si>
+  <si>
+    <t>Vision Meeting</t>
+  </si>
+  <si>
+    <t>Pitch-Präsentation</t>
+  </si>
+  <si>
+    <t>Mechaniken + GDD ausgearbeitet (Game Loop)</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
 </sst>
 </file>
 
@@ -521,7 +536,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -550,6 +565,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -693,7 +714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -781,6 +802,9 @@
     </xf>
     <xf numFmtId="2" fontId="6" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1087,7 +1111,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,7 +1195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -1188,10 +1212,10 @@
         <f>(B6-C6)*-24-D6</f>
         <v>7</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8" t="s">
+        <v>148</v>
+      </c>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -1240,34 +1264,50 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="17"/>
+      <c r="B9" s="15">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1.5</v>
+      </c>
       <c r="E9" s="12">
         <f t="shared" ref="E9:E12" si="0">(B9-C9)*-24-D9</f>
-        <v>0</v>
+        <v>7.8333333333333357</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>150</v>
+      </c>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="12">
+      <c r="B10" s="15">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>149</v>
+      </c>
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1307,9 +1347,9 @@
       <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="22" t="e">
         <f>SUM(E6:E12)</f>
-        <v>21</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1322,9 +1362,9 @@
       <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="19" t="e">
         <f>SUM(E13)</f>
-        <v>21</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1390,15 +1430,21 @@
       <c r="A18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="15">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.75</v>
+      </c>
       <c r="D18" s="17"/>
       <c r="E18" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.2500000000000009</v>
       </c>
       <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="G18" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1470,7 +1516,7 @@
       </c>
       <c r="E23" s="22">
         <f>SUM(E16:E22)</f>
-        <v>0</v>
+        <v>1.2500000000000009</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1483,9 +1529,9 @@
       <c r="D24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="19" t="e">
         <f>SUM(E13+E23)</f>
-        <v>21</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1644,9 +1690,9 @@
       <c r="D34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="19" t="e">
         <f>SUM(E13+E23+E33)</f>
-        <v>21</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1805,9 +1851,9 @@
       <c r="D44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="19" t="e">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>21</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -1966,9 +2012,9 @@
       <c r="D54" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E54" s="19" t="e">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>21</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2127,9 +2173,9 @@
       <c r="D64" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E64" s="19">
+      <c r="E64" s="19" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>21</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2288,9 +2334,9 @@
       <c r="D74" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="19">
+      <c r="E74" s="19" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>21</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2449,9 +2495,9 @@
       <c r="D84" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E84" s="19">
+      <c r="E84" s="19" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>21</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2610,9 +2656,9 @@
       <c r="D94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E94" s="19">
+      <c r="E94" s="19" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>21</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2771,9 +2817,9 @@
       <c r="D104" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E104" s="19">
+      <c r="E104" s="19" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>21</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -2932,9 +2978,9 @@
       <c r="D114" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E114" s="19">
+      <c r="E114" s="19" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>21</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3093,9 +3139,9 @@
       <c r="D124" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E124" s="19">
+      <c r="E124" s="19" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>21</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3254,9 +3300,9 @@
       <c r="D134" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E134" s="19">
+      <c r="E134" s="19" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>21</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3415,9 +3461,9 @@
       <c r="D144" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E144" s="19">
+      <c r="E144" s="19" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>21</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3576,9 +3622,9 @@
       <c r="D154" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E154" s="19">
+      <c r="E154" s="19" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>21</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3736,9 +3782,9 @@
       <c r="D164" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E164" s="19">
+      <c r="E164" s="19" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>21</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3897,9 +3943,9 @@
       <c r="D174" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E174" s="19">
+      <c r="E174" s="19" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>21</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4058,9 +4104,9 @@
       <c r="D184" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E184" s="18">
+      <c r="E184" s="18" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>21</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
@@ -4077,7 +4123,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4118,8 +4164,12 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="15">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0.75</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -4132,7 +4182,9 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
@@ -4179,10 +4231,9 @@
         <f>(B6-C6)*-24-D6</f>
         <v>7</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>152</v>
+      </c>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -4258,15 +4309,21 @@
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
+      <c r="B10" s="15">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>151</v>
+      </c>
       <c r="D10" s="17"/>
-      <c r="E10" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E10" s="12" t="e">
+        <f>(B10-C10)*-24-D10</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>149</v>
+      </c>
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4306,9 +4363,9 @@
       <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="22" t="e">
         <f>SUM(E6:E12)</f>
-        <v>29.083333333333336</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -4321,9 +4378,9 @@
       <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="19" t="e">
         <f>SUM(E13)</f>
-        <v>29.083333333333336</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -4389,15 +4446,21 @@
       <c r="A18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="15">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.75</v>
+      </c>
       <c r="D18" s="17"/>
       <c r="E18" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.2500000000000009</v>
       </c>
       <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="G18" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4469,7 +4532,7 @@
       </c>
       <c r="E23" s="22">
         <f>SUM(E16:E22)</f>
-        <v>0</v>
+        <v>1.2500000000000009</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -4482,9 +4545,9 @@
       <c r="D24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="19" t="e">
         <f>SUM(E13+E23)</f>
-        <v>29.083333333333336</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -4643,9 +4706,9 @@
       <c r="D34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="19" t="e">
         <f>SUM(E13+E23+E33)</f>
-        <v>29.083333333333336</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -4804,9 +4867,9 @@
       <c r="D44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="19" t="e">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>29.083333333333336</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -4965,9 +5028,9 @@
       <c r="D54" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E54" s="19" t="e">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>29.083333333333336</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -5126,9 +5189,9 @@
       <c r="D64" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E64" s="19">
+      <c r="E64" s="19" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>29.083333333333336</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -5287,9 +5350,9 @@
       <c r="D74" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="19">
+      <c r="E74" s="19" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>29.083333333333336</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -5448,9 +5511,9 @@
       <c r="D84" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E84" s="19">
+      <c r="E84" s="19" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>29.083333333333336</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -5609,9 +5672,9 @@
       <c r="D94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E94" s="19">
+      <c r="E94" s="19" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>29.083333333333336</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -5770,9 +5833,9 @@
       <c r="D104" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E104" s="19">
+      <c r="E104" s="19" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>29.083333333333336</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -5931,9 +5994,9 @@
       <c r="D114" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E114" s="19">
+      <c r="E114" s="19" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>29.083333333333336</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -6092,9 +6155,9 @@
       <c r="D124" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E124" s="19">
+      <c r="E124" s="19" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>29.083333333333336</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -6253,9 +6316,9 @@
       <c r="D134" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E134" s="19">
+      <c r="E134" s="19" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>29.083333333333336</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -6414,9 +6477,9 @@
       <c r="D144" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E144" s="19">
+      <c r="E144" s="19" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>29.083333333333336</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -6575,9 +6638,9 @@
       <c r="D154" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E154" s="19">
+      <c r="E154" s="19" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>29.083333333333336</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -6735,9 +6798,9 @@
       <c r="D164" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E164" s="19">
+      <c r="E164" s="19" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>29.083333333333336</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -6896,9 +6959,9 @@
       <c r="D174" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E174" s="19">
+      <c r="E174" s="19" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>29.083333333333336</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -7057,9 +7120,9 @@
       <c r="D184" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E184" s="18">
+      <c r="E184" s="18" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>29.083333333333336</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
+++ b/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tobias" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="154">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t>Meeting</t>
+  </si>
+  <si>
+    <t>Gate 0</t>
   </si>
 </sst>
 </file>
@@ -4122,7 +4125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -10111,8 +10114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G11:G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10202,7 +10205,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="14">
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="C6" s="14">
         <v>0.75</v>
@@ -10212,7 +10215,7 @@
       </c>
       <c r="E6" s="12">
         <f>(B6-C6)*-24-D6</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
@@ -10293,16 +10296,24 @@
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
       <c r="E10" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.5000000000000009</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -10343,7 +10354,7 @@
       </c>
       <c r="E13" s="22">
         <f>SUM(E6:E12)</f>
-        <v>30.7</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -10358,7 +10369,7 @@
       </c>
       <c r="E14" s="19">
         <f>SUM(E13)</f>
-        <v>30.7</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -10519,7 +10530,7 @@
       </c>
       <c r="E24" s="19">
         <f>SUM(E13+E23)</f>
-        <v>30.7</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -10680,7 +10691,7 @@
       </c>
       <c r="E34" s="19">
         <f>SUM(E13+E23+E33)</f>
-        <v>30.7</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -10841,7 +10852,7 @@
       </c>
       <c r="E44" s="19">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>30.7</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -11002,7 +11013,7 @@
       </c>
       <c r="E54" s="19">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>30.7</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -11163,7 +11174,7 @@
       </c>
       <c r="E64" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>30.7</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -11324,7 +11335,7 @@
       </c>
       <c r="E74" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>30.7</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -11485,7 +11496,7 @@
       </c>
       <c r="E84" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>30.7</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -11646,7 +11657,7 @@
       </c>
       <c r="E94" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>30.7</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -11807,7 +11818,7 @@
       </c>
       <c r="E104" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>30.7</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -11968,7 +11979,7 @@
       </c>
       <c r="E114" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>30.7</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -12129,7 +12140,7 @@
       </c>
       <c r="E124" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>30.7</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -12290,7 +12301,7 @@
       </c>
       <c r="E134" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>30.7</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -12451,7 +12462,7 @@
       </c>
       <c r="E144" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>30.7</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -12612,7 +12623,7 @@
       </c>
       <c r="E154" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>30.7</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -12772,7 +12783,7 @@
       </c>
       <c r="E164" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>30.7</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -12933,7 +12944,7 @@
       </c>
       <c r="E174" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>30.7</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -13094,7 +13105,7 @@
       </c>
       <c r="E184" s="18">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>30.7</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
+++ b/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="155">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t>Gate 0</t>
+  </si>
+  <si>
+    <t>Neues Konzept Raum 1</t>
   </si>
 </sst>
 </file>
@@ -10115,7 +10118,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10208,14 +10211,14 @@
         <v>0.375</v>
       </c>
       <c r="C6" s="14">
-        <v>0.75</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D6" s="13">
         <v>1</v>
       </c>
       <c r="E6" s="12">
         <f>(B6-C6)*-24-D6</f>
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
@@ -10354,7 +10357,7 @@
       </c>
       <c r="E13" s="22">
         <f>SUM(E6:E12)</f>
-        <v>37.200000000000003</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -10369,7 +10372,7 @@
       </c>
       <c r="E14" s="19">
         <f>SUM(E13)</f>
-        <v>37.200000000000003</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -10450,15 +10453,23 @@
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="17"/>
+      <c r="B19" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D19" s="17">
+        <v>0</v>
+      </c>
       <c r="E19" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.5000000000000009</v>
       </c>
       <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="G19" s="9" t="s">
+        <v>154</v>
+      </c>
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10515,7 +10526,7 @@
       </c>
       <c r="E23" s="22">
         <f>SUM(E16:E22)</f>
-        <v>0</v>
+        <v>3.5000000000000009</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -10530,7 +10541,7 @@
       </c>
       <c r="E24" s="19">
         <f>SUM(E13+E23)</f>
-        <v>37.200000000000003</v>
+        <v>41.2</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -10691,7 +10702,7 @@
       </c>
       <c r="E34" s="19">
         <f>SUM(E13+E23+E33)</f>
-        <v>37.200000000000003</v>
+        <v>41.2</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -10852,7 +10863,7 @@
       </c>
       <c r="E44" s="19">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>37.200000000000003</v>
+        <v>41.2</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -11013,7 +11024,7 @@
       </c>
       <c r="E54" s="19">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>37.200000000000003</v>
+        <v>41.2</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -11174,7 +11185,7 @@
       </c>
       <c r="E64" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>37.200000000000003</v>
+        <v>41.2</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -11335,7 +11346,7 @@
       </c>
       <c r="E74" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>37.200000000000003</v>
+        <v>41.2</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -11496,7 +11507,7 @@
       </c>
       <c r="E84" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>37.200000000000003</v>
+        <v>41.2</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -11657,7 +11668,7 @@
       </c>
       <c r="E94" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>37.200000000000003</v>
+        <v>41.2</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -11818,7 +11829,7 @@
       </c>
       <c r="E104" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>37.200000000000003</v>
+        <v>41.2</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -11979,7 +11990,7 @@
       </c>
       <c r="E114" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>37.200000000000003</v>
+        <v>41.2</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -12140,7 +12151,7 @@
       </c>
       <c r="E124" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>37.200000000000003</v>
+        <v>41.2</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -12301,7 +12312,7 @@
       </c>
       <c r="E134" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>37.200000000000003</v>
+        <v>41.2</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -12462,7 +12473,7 @@
       </c>
       <c r="E144" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>37.200000000000003</v>
+        <v>41.2</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -12623,7 +12634,7 @@
       </c>
       <c r="E154" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>37.200000000000003</v>
+        <v>41.2</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -12783,7 +12794,7 @@
       </c>
       <c r="E164" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>37.200000000000003</v>
+        <v>41.2</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -12944,7 +12955,7 @@
       </c>
       <c r="E174" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>37.200000000000003</v>
+        <v>41.2</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -13105,7 +13116,7 @@
       </c>
       <c r="E184" s="18">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>37.200000000000003</v>
+        <v>41.2</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
+++ b/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="156">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -485,6 +485,9 @@
   </si>
   <si>
     <t>Neues Konzept Raum 1</t>
+  </si>
+  <si>
+    <t>Referenzen, Konzept Raum 2</t>
   </si>
 </sst>
 </file>
@@ -10117,8 +10120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10476,15 +10479,19 @@
       <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="15">
+        <v>0.36458333333333331</v>
+      </c>
       <c r="C20" s="15"/>
       <c r="D20" s="17"/>
       <c r="E20" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-8.75</v>
       </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="G20" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10526,7 +10533,7 @@
       </c>
       <c r="E23" s="22">
         <f>SUM(E16:E22)</f>
-        <v>3.5000000000000009</v>
+        <v>-5.2499999999999991</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -10541,7 +10548,7 @@
       </c>
       <c r="E24" s="19">
         <f>SUM(E13+E23)</f>
-        <v>41.2</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -10702,7 +10709,7 @@
       </c>
       <c r="E34" s="19">
         <f>SUM(E13+E23+E33)</f>
-        <v>41.2</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -10863,7 +10870,7 @@
       </c>
       <c r="E44" s="19">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>41.2</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -11024,7 +11031,7 @@
       </c>
       <c r="E54" s="19">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>41.2</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -11185,7 +11192,7 @@
       </c>
       <c r="E64" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>41.2</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -11346,7 +11353,7 @@
       </c>
       <c r="E74" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>41.2</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -11507,7 +11514,7 @@
       </c>
       <c r="E84" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>41.2</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -11668,7 +11675,7 @@
       </c>
       <c r="E94" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>41.2</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -11829,7 +11836,7 @@
       </c>
       <c r="E104" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>41.2</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -11990,7 +11997,7 @@
       </c>
       <c r="E114" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>41.2</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -12151,7 +12158,7 @@
       </c>
       <c r="E124" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>41.2</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -12312,7 +12319,7 @@
       </c>
       <c r="E134" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>41.2</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -12473,7 +12480,7 @@
       </c>
       <c r="E144" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>41.2</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -12634,7 +12641,7 @@
       </c>
       <c r="E154" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>41.2</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -12794,7 +12801,7 @@
       </c>
       <c r="E164" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>41.2</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -12955,7 +12962,7 @@
       </c>
       <c r="E174" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>41.2</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -13116,7 +13123,7 @@
       </c>
       <c r="E184" s="18">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>41.2</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
+++ b/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
@@ -10120,8 +10120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10482,11 +10482,15 @@
       <c r="B20" s="15">
         <v>0.36458333333333331</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="17"/>
+      <c r="C20" s="15">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0.3</v>
+      </c>
       <c r="E20" s="12">
         <f t="shared" si="1"/>
-        <v>-8.75</v>
+        <v>5.45</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9" t="s">
@@ -10533,7 +10537,7 @@
       </c>
       <c r="E23" s="22">
         <f>SUM(E16:E22)</f>
-        <v>-5.2499999999999991</v>
+        <v>8.9500000000000011</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -10548,7 +10552,7 @@
       </c>
       <c r="E24" s="19">
         <f>SUM(E13+E23)</f>
-        <v>32.450000000000003</v>
+        <v>46.650000000000006</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -10709,7 +10713,7 @@
       </c>
       <c r="E34" s="19">
         <f>SUM(E13+E23+E33)</f>
-        <v>32.450000000000003</v>
+        <v>46.650000000000006</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -10870,7 +10874,7 @@
       </c>
       <c r="E44" s="19">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>32.450000000000003</v>
+        <v>46.650000000000006</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -11031,7 +11035,7 @@
       </c>
       <c r="E54" s="19">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>32.450000000000003</v>
+        <v>46.650000000000006</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -11192,7 +11196,7 @@
       </c>
       <c r="E64" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>32.450000000000003</v>
+        <v>46.650000000000006</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -11353,7 +11357,7 @@
       </c>
       <c r="E74" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>32.450000000000003</v>
+        <v>46.650000000000006</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -11514,7 +11518,7 @@
       </c>
       <c r="E84" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>32.450000000000003</v>
+        <v>46.650000000000006</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -11675,7 +11679,7 @@
       </c>
       <c r="E94" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>32.450000000000003</v>
+        <v>46.650000000000006</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -11836,7 +11840,7 @@
       </c>
       <c r="E104" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>32.450000000000003</v>
+        <v>46.650000000000006</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -11997,7 +12001,7 @@
       </c>
       <c r="E114" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>32.450000000000003</v>
+        <v>46.650000000000006</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -12158,7 +12162,7 @@
       </c>
       <c r="E124" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>32.450000000000003</v>
+        <v>46.650000000000006</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -12319,7 +12323,7 @@
       </c>
       <c r="E134" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>32.450000000000003</v>
+        <v>46.650000000000006</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -12480,7 +12484,7 @@
       </c>
       <c r="E144" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>32.450000000000003</v>
+        <v>46.650000000000006</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -12641,7 +12645,7 @@
       </c>
       <c r="E154" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>32.450000000000003</v>
+        <v>46.650000000000006</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -12801,7 +12805,7 @@
       </c>
       <c r="E164" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>32.450000000000003</v>
+        <v>46.650000000000006</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -12962,7 +12966,7 @@
       </c>
       <c r="E174" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>32.450000000000003</v>
+        <v>46.650000000000006</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -13123,7 +13127,7 @@
       </c>
       <c r="E184" s="18">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>32.450000000000003</v>
+        <v>46.650000000000006</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
+++ b/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tobias" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="157">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -489,6 +489,9 @@
   <si>
     <t>Referenzen, Konzept Raum 2</t>
   </si>
+  <si>
+    <t>Assetliste</t>
+  </si>
 </sst>
 </file>
 
@@ -545,7 +548,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -579,6 +582,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,7 +768,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -813,6 +858,168 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4131,95 +4338,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="26" style="11" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="72" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="65" customWidth="1"/>
+    <col min="4" max="4" width="26" style="58" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="50" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="76" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="86" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="81"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="81"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="67">
         <v>0.69791666666666663</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="60">
         <v>0.75</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="81"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="7" t="s">
+      <c r="B4" s="68"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="82"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="83" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4227,197 +4434,197 @@
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="70">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="63">
         <v>0.75</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="54">
         <v>1</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="41">
         <f>(B6-C6)*-24-D6</f>
         <v>7</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="84"/>
     </row>
     <row r="7" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="67">
         <v>0.375</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="60">
         <v>0.75</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="55">
         <v>1</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="41">
         <f t="shared" ref="E7:E12" si="0">(B7-C7)*-24-D7</f>
         <v>8</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="77"/>
+      <c r="G7" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="84"/>
     </row>
     <row r="8" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="67">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="60">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="55">
         <v>2</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="41">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9" t="s">
+      <c r="F8" s="77"/>
+      <c r="G8" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="84"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="67">
         <v>0.38194444444444442</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="60">
         <v>0.78125</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="55">
         <v>1.5</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="41">
         <f t="shared" si="0"/>
         <v>8.0833333333333339</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9" t="s">
+      <c r="F9" s="77"/>
+      <c r="G9" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="84"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="67">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="12" t="e">
+      <c r="D10" s="55"/>
+      <c r="E10" s="41" t="e">
         <f>(B10-C10)*-24-D10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9" t="s">
+      <c r="F10" s="77"/>
+      <c r="G10" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="84"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="21">
+      <c r="B11" s="67"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="84"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25">
+      <c r="B12" s="71"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="85"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
+      <c r="B13" s="66"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="22" t="e">
+      <c r="E13" s="44" t="e">
         <f>SUM(E6:E12)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="81"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
+      <c r="B14" s="68"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="19" t="e">
+      <c r="E14" s="45" t="e">
         <f>SUM(E13)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="82"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="83" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4425,166 +4632,174 @@
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="12">
+      <c r="B16" s="67"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="41">
         <f>(B16-C16)*-24-D16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="84"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="12">
+      <c r="B17" s="67"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="41">
         <f t="shared" ref="E17:E22" si="1">(B17-C17)*-24-D17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="84"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="67">
         <v>0.69791666666666663</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="60">
         <v>0.75</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="12">
+      <c r="D18" s="55"/>
+      <c r="E18" s="41">
         <f t="shared" si="1"/>
         <v>1.2500000000000009</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9" t="s">
+      <c r="F18" s="77"/>
+      <c r="G18" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="H18" s="9"/>
+      <c r="H18" s="84"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="12">
+      <c r="B19" s="67"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="84"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="12">
+      <c r="B20" s="67">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C20" s="60">
+        <v>0.71875</v>
+      </c>
+      <c r="D20" s="55">
+        <v>1</v>
+      </c>
+      <c r="E20" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+        <v>4.75</v>
+      </c>
+      <c r="F20" s="77"/>
+      <c r="G20" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" s="84"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="21">
+      <c r="B21" s="67"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="84"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25">
+      <c r="B22" s="71"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="85"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
+      <c r="B23" s="66"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="44">
         <f>SUM(E16:E22)</f>
-        <v>1.2500000000000009</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="F23" s="73"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="81"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
+      <c r="B24" s="68"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="19" t="e">
+      <c r="E24" s="45" t="e">
         <f>SUM(E13+E23)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="82"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="83" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4592,160 +4807,160 @@
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="12">
+      <c r="B26" s="67"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="41">
         <f>(B26-C26)*-24-D26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="84"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="12">
+      <c r="B27" s="67"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="41">
         <f t="shared" ref="E27:E32" si="2">(B27-C27)*-24-D27</f>
         <v>0</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="84"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="12">
+      <c r="B28" s="67"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="84"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="12">
+      <c r="B29" s="67"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="84"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="12">
+      <c r="B30" s="67"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="84"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="21">
+      <c r="B31" s="67"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="84"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="25">
+      <c r="B32" s="71"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="85"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
+      <c r="B33" s="66"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="44">
         <f>SUM(E26:E32)</f>
         <v>0</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="81"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3" t="s">
+      <c r="B34" s="68"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="19" t="e">
+      <c r="E34" s="45" t="e">
         <f>SUM(E13+E23+E33)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="82"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="83" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4753,160 +4968,160 @@
       <c r="A36" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="12">
+      <c r="B36" s="67"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="41">
         <f>(B36-C36)*-24-D36</f>
         <v>0</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="84"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="12">
+      <c r="B37" s="67"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="41">
         <f t="shared" ref="E37:E42" si="3">(B37-C37)*-24-D37</f>
         <v>0</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="84"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="12">
+      <c r="B38" s="67"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="84"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="12">
+      <c r="B39" s="67"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="84"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="12">
+      <c r="B40" s="67"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="84"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="21">
+      <c r="B41" s="67"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="84"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="25">
+      <c r="B42" s="71"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F42" s="26"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="85"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2" t="s">
+      <c r="B43" s="66"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="44">
         <f>SUM(E36:E42)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="81"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3" t="s">
+      <c r="B44" s="68"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="19" t="e">
+      <c r="E44" s="45" t="e">
         <f>SUM(E13+E23+E33+E43)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="82"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="83" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4914,160 +5129,160 @@
       <c r="A46" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="12">
+      <c r="B46" s="67"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="41">
         <f>(B46-C46)*-24-D46</f>
         <v>0</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="84"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="12">
+      <c r="B47" s="67"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="41">
         <f t="shared" ref="E47:E52" si="4">(B47-C47)*-24-D47</f>
         <v>0</v>
       </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="84"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="12">
+      <c r="B48" s="67"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="41">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="84"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="12">
+      <c r="B49" s="67"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="41">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="84"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="12">
+      <c r="B50" s="67"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="41">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="84"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="21">
+      <c r="B51" s="67"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="84"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="25">
+      <c r="B52" s="71"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="43">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F52" s="26"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="85"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2" t="s">
+      <c r="B53" s="66"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="22">
+      <c r="E53" s="44">
         <f>SUM(E46:E52)</f>
         <v>0</v>
       </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="81"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3" t="s">
+      <c r="B54" s="68"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="19" t="e">
+      <c r="E54" s="45" t="e">
         <f>SUM(E13+E23+E33+E43+E53)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="82"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="H55" s="83" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5075,160 +5290,160 @@
       <c r="A56" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="12">
+      <c r="B56" s="67"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="41">
         <f>(B56-C56)*-24-D56</f>
         <v>0</v>
       </c>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="84"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="12">
+      <c r="B57" s="67"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="41">
         <f t="shared" ref="E57:E62" si="5">(B57-C57)*-24-D57</f>
         <v>0</v>
       </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="84"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="12">
+      <c r="B58" s="67"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="84"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="12">
+      <c r="B59" s="67"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="84"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="12">
+      <c r="B60" s="67"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="84"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="21">
+      <c r="B61" s="67"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
+      <c r="F61" s="77"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="84"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="25">
+      <c r="B62" s="71"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="43">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F62" s="26"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
+      <c r="F62" s="78"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="85"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2" t="s">
+      <c r="B63" s="66"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="22">
+      <c r="E63" s="44">
         <f>SUM(E56:E62)</f>
         <v>0</v>
       </c>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+      <c r="F63" s="73"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="81"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3" t="s">
+      <c r="B64" s="68"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E64" s="19" t="e">
+      <c r="E64" s="45" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="82"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="G65" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="H65" s="83" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5236,160 +5451,160 @@
       <c r="A66" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="12">
+      <c r="B66" s="67"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="41">
         <f>(B66-C66)*-24-D66</f>
         <v>0</v>
       </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="84"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="12">
+      <c r="B67" s="67"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="41">
         <f t="shared" ref="E67:E72" si="6">(B67-C67)*-24-D67</f>
         <v>0</v>
       </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="84"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="12">
+      <c r="B68" s="67"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="41">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="84"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="12">
+      <c r="B69" s="67"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="41">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="84"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="12">
+      <c r="B70" s="67"/>
+      <c r="C70" s="60"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="41">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
+      <c r="F70" s="77"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="84"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="12">
+      <c r="B71" s="67"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="41">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="84"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="29">
+      <c r="B72" s="71"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="57"/>
+      <c r="E72" s="47">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
+      <c r="F72" s="80"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="85"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2" t="s">
+      <c r="B73" s="66"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E73" s="18">
+      <c r="E73" s="48">
         <f>SUM(E66:E72)</f>
         <v>0</v>
       </c>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
+      <c r="F73" s="73"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="81"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3" t="s">
+      <c r="B74" s="68"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="19" t="e">
+      <c r="E74" s="45" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
+      <c r="F74" s="79"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="82"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F75" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="G75" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H75" s="5" t="s">
+      <c r="H75" s="83" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5397,160 +5612,160 @@
       <c r="A76" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="12">
+      <c r="B76" s="67"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="41">
         <f>(B76-C76)*-24-D76</f>
         <v>0</v>
       </c>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
+      <c r="F76" s="77"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="84"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="12">
+      <c r="B77" s="67"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="41">
         <f t="shared" ref="E77:E82" si="7">(B77-C77)*-24-D77</f>
         <v>0</v>
       </c>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="84"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="12">
+      <c r="B78" s="67"/>
+      <c r="C78" s="60"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="41">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="84"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="12">
+      <c r="B79" s="67"/>
+      <c r="C79" s="60"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="41">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
+      <c r="F79" s="77"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="84"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="12">
+      <c r="B80" s="67"/>
+      <c r="C80" s="60"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="41">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
+      <c r="F80" s="77"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="84"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="12">
+      <c r="B81" s="67"/>
+      <c r="C81" s="60"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="41">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
+      <c r="F81" s="77"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="84"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="29">
+      <c r="B82" s="71"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="47">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
+      <c r="F82" s="80"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="85"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2" t="s">
+      <c r="B83" s="66"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E83" s="18">
+      <c r="E83" s="48">
         <f>SUM(E76:E82)</f>
         <v>0</v>
       </c>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
+      <c r="F83" s="73"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="81"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3" t="s">
+      <c r="B84" s="68"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E84" s="19" t="e">
+      <c r="E84" s="45" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
+      <c r="F84" s="79"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="82"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E85" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F85" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G85" s="5" t="s">
+      <c r="G85" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H85" s="5" t="s">
+      <c r="H85" s="83" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5558,160 +5773,160 @@
       <c r="A86" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="12">
+      <c r="B86" s="67"/>
+      <c r="C86" s="60"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="41">
         <f>(B86-C86)*-24-D86</f>
         <v>0</v>
       </c>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="84"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="12">
+      <c r="B87" s="67"/>
+      <c r="C87" s="60"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="41">
         <f t="shared" ref="E87:E92" si="8">(B87-C87)*-24-D87</f>
         <v>0</v>
       </c>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
+      <c r="F87" s="77"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="84"/>
     </row>
     <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="12">
+      <c r="B88" s="67"/>
+      <c r="C88" s="60"/>
+      <c r="D88" s="55"/>
+      <c r="E88" s="41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
+      <c r="F88" s="77"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="84"/>
     </row>
     <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="12">
+      <c r="B89" s="67"/>
+      <c r="C89" s="60"/>
+      <c r="D89" s="55"/>
+      <c r="E89" s="41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
+      <c r="F89" s="77"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="84"/>
     </row>
     <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="12">
+      <c r="B90" s="67"/>
+      <c r="C90" s="60"/>
+      <c r="D90" s="55"/>
+      <c r="E90" s="41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
+      <c r="F90" s="77"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="84"/>
     </row>
     <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="12">
+      <c r="B91" s="67"/>
+      <c r="C91" s="60"/>
+      <c r="D91" s="55"/>
+      <c r="E91" s="41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
+      <c r="F91" s="77"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="84"/>
     </row>
     <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B92" s="23"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="29">
+      <c r="B92" s="71"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="57"/>
+      <c r="E92" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F92" s="20"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="20"/>
+      <c r="F92" s="80"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="85"/>
     </row>
     <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2" t="s">
+      <c r="B93" s="66"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E93" s="18">
+      <c r="E93" s="48">
         <f>SUM(E86:E92)</f>
         <v>0</v>
       </c>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
+      <c r="F93" s="73"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="81"/>
     </row>
     <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3" t="s">
+      <c r="B94" s="68"/>
+      <c r="C94" s="61"/>
+      <c r="D94" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E94" s="19" t="e">
+      <c r="E94" s="45" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
+      <c r="F94" s="79"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="82"/>
     </row>
     <row r="95" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E95" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G95" s="5" t="s">
+      <c r="G95" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H95" s="5" t="s">
+      <c r="H95" s="83" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5719,160 +5934,160 @@
       <c r="A96" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B96" s="15"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="12">
+      <c r="B96" s="67"/>
+      <c r="C96" s="60"/>
+      <c r="D96" s="55"/>
+      <c r="E96" s="41">
         <f>(B96-C96)*-24-D96</f>
         <v>0</v>
       </c>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
+      <c r="F96" s="77"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="84"/>
     </row>
     <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B97" s="15"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="12">
+      <c r="B97" s="67"/>
+      <c r="C97" s="60"/>
+      <c r="D97" s="55"/>
+      <c r="E97" s="41">
         <f t="shared" ref="E97:E102" si="9">(B97-C97)*-24-D97</f>
         <v>0</v>
       </c>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
+      <c r="F97" s="77"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="84"/>
     </row>
     <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B98" s="15"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="12">
+      <c r="B98" s="67"/>
+      <c r="C98" s="60"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="41">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
+      <c r="F98" s="77"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="84"/>
     </row>
     <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="12">
+      <c r="B99" s="67"/>
+      <c r="C99" s="60"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="41">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
+      <c r="F99" s="77"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="84"/>
     </row>
     <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="12">
+      <c r="B100" s="67"/>
+      <c r="C100" s="60"/>
+      <c r="D100" s="55"/>
+      <c r="E100" s="41">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="84"/>
     </row>
     <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B101" s="15"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="12">
+      <c r="B101" s="67"/>
+      <c r="C101" s="60"/>
+      <c r="D101" s="55"/>
+      <c r="E101" s="41">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
+      <c r="F101" s="77"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="84"/>
     </row>
     <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B102" s="23"/>
-      <c r="C102" s="23"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="29">
+      <c r="B102" s="71"/>
+      <c r="C102" s="64"/>
+      <c r="D102" s="57"/>
+      <c r="E102" s="47">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F102" s="20"/>
-      <c r="G102" s="20"/>
-      <c r="H102" s="20"/>
+      <c r="F102" s="80"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="85"/>
     </row>
     <row r="103" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2" t="s">
+      <c r="B103" s="66"/>
+      <c r="C103" s="59"/>
+      <c r="D103" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E103" s="18">
+      <c r="E103" s="48">
         <f>SUM(E96:E102)</f>
         <v>0</v>
       </c>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
+      <c r="F103" s="73"/>
+      <c r="G103" s="31"/>
+      <c r="H103" s="81"/>
     </row>
     <row r="104" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3" t="s">
+      <c r="B104" s="68"/>
+      <c r="C104" s="61"/>
+      <c r="D104" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E104" s="19" t="e">
+      <c r="E104" s="45" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
+      <c r="F104" s="79"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="82"/>
     </row>
     <row r="105" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D105" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="E105" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F105" s="5" t="s">
+      <c r="F105" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G105" s="5" t="s">
+      <c r="G105" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H105" s="5" t="s">
+      <c r="H105" s="83" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5880,160 +6095,160 @@
       <c r="A106" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B106" s="15"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="12">
+      <c r="B106" s="67"/>
+      <c r="C106" s="60"/>
+      <c r="D106" s="55"/>
+      <c r="E106" s="41">
         <f>(B106-C106)*-24-D106</f>
         <v>0</v>
       </c>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
+      <c r="F106" s="77"/>
+      <c r="G106" s="35"/>
+      <c r="H106" s="84"/>
     </row>
     <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B107" s="15"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="12">
+      <c r="B107" s="67"/>
+      <c r="C107" s="60"/>
+      <c r="D107" s="55"/>
+      <c r="E107" s="41">
         <f t="shared" ref="E107:E112" si="10">(B107-C107)*-24-D107</f>
         <v>0</v>
       </c>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
+      <c r="F107" s="77"/>
+      <c r="G107" s="35"/>
+      <c r="H107" s="84"/>
     </row>
     <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B108" s="15"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="12">
+      <c r="B108" s="67"/>
+      <c r="C108" s="60"/>
+      <c r="D108" s="55"/>
+      <c r="E108" s="41">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
+      <c r="F108" s="77"/>
+      <c r="G108" s="35"/>
+      <c r="H108" s="84"/>
     </row>
     <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B109" s="15"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="12">
+      <c r="B109" s="67"/>
+      <c r="C109" s="60"/>
+      <c r="D109" s="55"/>
+      <c r="E109" s="41">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
+      <c r="F109" s="77"/>
+      <c r="G109" s="35"/>
+      <c r="H109" s="84"/>
     </row>
     <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B110" s="15"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="12">
+      <c r="B110" s="67"/>
+      <c r="C110" s="60"/>
+      <c r="D110" s="55"/>
+      <c r="E110" s="41">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9"/>
+      <c r="F110" s="77"/>
+      <c r="G110" s="35"/>
+      <c r="H110" s="84"/>
     </row>
     <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B111" s="15"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="12">
+      <c r="B111" s="67"/>
+      <c r="C111" s="60"/>
+      <c r="D111" s="55"/>
+      <c r="E111" s="41">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
+      <c r="F111" s="77"/>
+      <c r="G111" s="35"/>
+      <c r="H111" s="84"/>
     </row>
     <row r="112" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B112" s="23"/>
-      <c r="C112" s="23"/>
-      <c r="D112" s="28"/>
-      <c r="E112" s="29">
+      <c r="B112" s="71"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="57"/>
+      <c r="E112" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F112" s="20"/>
-      <c r="G112" s="20"/>
-      <c r="H112" s="20"/>
+      <c r="F112" s="80"/>
+      <c r="G112" s="36"/>
+      <c r="H112" s="85"/>
     </row>
     <row r="113" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2" t="s">
+      <c r="B113" s="66"/>
+      <c r="C113" s="59"/>
+      <c r="D113" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E113" s="18">
+      <c r="E113" s="48">
         <f>SUM(E106:E112)</f>
         <v>0</v>
       </c>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
+      <c r="F113" s="73"/>
+      <c r="G113" s="31"/>
+      <c r="H113" s="81"/>
     </row>
     <row r="114" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3" t="s">
+      <c r="B114" s="68"/>
+      <c r="C114" s="61"/>
+      <c r="D114" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E114" s="19" t="e">
+      <c r="E114" s="45" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
+      <c r="F114" s="79"/>
+      <c r="G114" s="32"/>
+      <c r="H114" s="82"/>
     </row>
     <row r="115" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D115" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E115" s="5" t="s">
+      <c r="E115" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F115" s="5" t="s">
+      <c r="F115" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G115" s="5" t="s">
+      <c r="G115" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H115" s="5" t="s">
+      <c r="H115" s="83" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6041,160 +6256,160 @@
       <c r="A116" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B116" s="15"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="12">
+      <c r="B116" s="67"/>
+      <c r="C116" s="60"/>
+      <c r="D116" s="55"/>
+      <c r="E116" s="41">
         <f>(B116-C116)*-24-D116</f>
         <v>0</v>
       </c>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
+      <c r="F116" s="77"/>
+      <c r="G116" s="35"/>
+      <c r="H116" s="84"/>
     </row>
     <row r="117" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B117" s="15"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="17"/>
-      <c r="E117" s="12">
+      <c r="B117" s="67"/>
+      <c r="C117" s="60"/>
+      <c r="D117" s="55"/>
+      <c r="E117" s="41">
         <f t="shared" ref="E117:E122" si="11">(B117-C117)*-24-D117</f>
         <v>0</v>
       </c>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
+      <c r="F117" s="77"/>
+      <c r="G117" s="35"/>
+      <c r="H117" s="84"/>
     </row>
     <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B118" s="15"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="17"/>
-      <c r="E118" s="12">
+      <c r="B118" s="67"/>
+      <c r="C118" s="60"/>
+      <c r="D118" s="55"/>
+      <c r="E118" s="41">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="9"/>
+      <c r="F118" s="77"/>
+      <c r="G118" s="35"/>
+      <c r="H118" s="84"/>
     </row>
     <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B119" s="15"/>
-      <c r="C119" s="15"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="12">
+      <c r="B119" s="67"/>
+      <c r="C119" s="60"/>
+      <c r="D119" s="55"/>
+      <c r="E119" s="41">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
+      <c r="F119" s="77"/>
+      <c r="G119" s="35"/>
+      <c r="H119" s="84"/>
     </row>
     <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B120" s="15"/>
-      <c r="C120" s="15"/>
-      <c r="D120" s="17"/>
-      <c r="E120" s="12">
+      <c r="B120" s="67"/>
+      <c r="C120" s="60"/>
+      <c r="D120" s="55"/>
+      <c r="E120" s="41">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
+      <c r="F120" s="77"/>
+      <c r="G120" s="35"/>
+      <c r="H120" s="84"/>
     </row>
     <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B121" s="15"/>
-      <c r="C121" s="15"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="12">
+      <c r="B121" s="67"/>
+      <c r="C121" s="60"/>
+      <c r="D121" s="55"/>
+      <c r="E121" s="41">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
+      <c r="F121" s="77"/>
+      <c r="G121" s="35"/>
+      <c r="H121" s="84"/>
     </row>
     <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B122" s="23"/>
-      <c r="C122" s="23"/>
-      <c r="D122" s="28"/>
-      <c r="E122" s="29">
+      <c r="B122" s="71"/>
+      <c r="C122" s="64"/>
+      <c r="D122" s="57"/>
+      <c r="E122" s="47">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F122" s="20"/>
-      <c r="G122" s="20"/>
-      <c r="H122" s="20"/>
+      <c r="F122" s="80"/>
+      <c r="G122" s="36"/>
+      <c r="H122" s="85"/>
     </row>
     <row r="123" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2" t="s">
+      <c r="B123" s="66"/>
+      <c r="C123" s="59"/>
+      <c r="D123" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E123" s="18">
+      <c r="E123" s="48">
         <f>SUM(E116:E122)</f>
         <v>0</v>
       </c>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
+      <c r="F123" s="73"/>
+      <c r="G123" s="31"/>
+      <c r="H123" s="81"/>
     </row>
     <row r="124" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3" t="s">
+      <c r="B124" s="68"/>
+      <c r="C124" s="61"/>
+      <c r="D124" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E124" s="19" t="e">
+      <c r="E124" s="45" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
+      <c r="F124" s="79"/>
+      <c r="G124" s="32"/>
+      <c r="H124" s="82"/>
     </row>
     <row r="125" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C125" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="D125" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E125" s="5" t="s">
+      <c r="E125" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F125" s="5" t="s">
+      <c r="F125" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G125" s="5" t="s">
+      <c r="G125" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H125" s="5" t="s">
+      <c r="H125" s="83" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6202,160 +6417,160 @@
       <c r="A126" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B126" s="15"/>
-      <c r="C126" s="15"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="12">
+      <c r="B126" s="67"/>
+      <c r="C126" s="60"/>
+      <c r="D126" s="55"/>
+      <c r="E126" s="41">
         <f>(B126-C126)*-24-D126</f>
         <v>0</v>
       </c>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9"/>
+      <c r="F126" s="77"/>
+      <c r="G126" s="35"/>
+      <c r="H126" s="84"/>
     </row>
     <row r="127" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B127" s="15"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="17"/>
-      <c r="E127" s="12">
+      <c r="B127" s="67"/>
+      <c r="C127" s="60"/>
+      <c r="D127" s="55"/>
+      <c r="E127" s="41">
         <f t="shared" ref="E127:E132" si="12">(B127-C127)*-24-D127</f>
         <v>0</v>
       </c>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
+      <c r="F127" s="77"/>
+      <c r="G127" s="35"/>
+      <c r="H127" s="84"/>
     </row>
     <row r="128" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B128" s="15"/>
-      <c r="C128" s="15"/>
-      <c r="D128" s="17"/>
-      <c r="E128" s="12">
+      <c r="B128" s="67"/>
+      <c r="C128" s="60"/>
+      <c r="D128" s="55"/>
+      <c r="E128" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9"/>
+      <c r="F128" s="77"/>
+      <c r="G128" s="35"/>
+      <c r="H128" s="84"/>
     </row>
     <row r="129" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B129" s="15"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="17"/>
-      <c r="E129" s="12">
+      <c r="B129" s="67"/>
+      <c r="C129" s="60"/>
+      <c r="D129" s="55"/>
+      <c r="E129" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
+      <c r="F129" s="77"/>
+      <c r="G129" s="35"/>
+      <c r="H129" s="84"/>
     </row>
     <row r="130" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B130" s="15"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="17"/>
-      <c r="E130" s="12">
+      <c r="B130" s="67"/>
+      <c r="C130" s="60"/>
+      <c r="D130" s="55"/>
+      <c r="E130" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
+      <c r="F130" s="77"/>
+      <c r="G130" s="35"/>
+      <c r="H130" s="84"/>
     </row>
     <row r="131" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B131" s="15"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="17"/>
-      <c r="E131" s="12">
+      <c r="B131" s="67"/>
+      <c r="C131" s="60"/>
+      <c r="D131" s="55"/>
+      <c r="E131" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
+      <c r="F131" s="77"/>
+      <c r="G131" s="35"/>
+      <c r="H131" s="84"/>
     </row>
     <row r="132" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B132" s="23"/>
-      <c r="C132" s="23"/>
-      <c r="D132" s="28"/>
-      <c r="E132" s="29">
+      <c r="B132" s="71"/>
+      <c r="C132" s="64"/>
+      <c r="D132" s="57"/>
+      <c r="E132" s="47">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F132" s="20"/>
-      <c r="G132" s="20"/>
-      <c r="H132" s="20"/>
+      <c r="F132" s="80"/>
+      <c r="G132" s="36"/>
+      <c r="H132" s="85"/>
     </row>
     <row r="133" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2" t="s">
+      <c r="B133" s="66"/>
+      <c r="C133" s="59"/>
+      <c r="D133" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E133" s="18">
+      <c r="E133" s="48">
         <f>SUM(E126:E132)</f>
         <v>0</v>
       </c>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
+      <c r="F133" s="73"/>
+      <c r="G133" s="31"/>
+      <c r="H133" s="81"/>
     </row>
     <row r="134" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3" t="s">
+      <c r="B134" s="68"/>
+      <c r="C134" s="61"/>
+      <c r="D134" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E134" s="19" t="e">
+      <c r="E134" s="45" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
+      <c r="F134" s="79"/>
+      <c r="G134" s="32"/>
+      <c r="H134" s="82"/>
     </row>
     <row r="135" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C135" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D135" s="5" t="s">
+      <c r="D135" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E135" s="5" t="s">
+      <c r="E135" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F135" s="5" t="s">
+      <c r="F135" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G135" s="5" t="s">
+      <c r="G135" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H135" s="5" t="s">
+      <c r="H135" s="83" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6363,160 +6578,160 @@
       <c r="A136" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B136" s="15"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="16"/>
-      <c r="E136" s="12">
+      <c r="B136" s="67"/>
+      <c r="C136" s="60"/>
+      <c r="D136" s="55"/>
+      <c r="E136" s="41">
         <f>(B136-C136)*-24-D136</f>
         <v>0</v>
       </c>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="9"/>
+      <c r="F136" s="77"/>
+      <c r="G136" s="35"/>
+      <c r="H136" s="84"/>
     </row>
     <row r="137" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B137" s="15"/>
-      <c r="C137" s="15"/>
-      <c r="D137" s="17"/>
-      <c r="E137" s="12">
+      <c r="B137" s="67"/>
+      <c r="C137" s="60"/>
+      <c r="D137" s="55"/>
+      <c r="E137" s="41">
         <f t="shared" ref="E137:E142" si="13">(B137-C137)*-24-D137</f>
         <v>0</v>
       </c>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="9"/>
+      <c r="F137" s="77"/>
+      <c r="G137" s="35"/>
+      <c r="H137" s="84"/>
     </row>
     <row r="138" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B138" s="15"/>
-      <c r="C138" s="15"/>
-      <c r="D138" s="17"/>
-      <c r="E138" s="12">
+      <c r="B138" s="67"/>
+      <c r="C138" s="60"/>
+      <c r="D138" s="55"/>
+      <c r="E138" s="41">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="9"/>
+      <c r="F138" s="77"/>
+      <c r="G138" s="35"/>
+      <c r="H138" s="84"/>
     </row>
     <row r="139" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B139" s="15"/>
-      <c r="C139" s="15"/>
-      <c r="D139" s="17"/>
-      <c r="E139" s="12">
+      <c r="B139" s="67"/>
+      <c r="C139" s="60"/>
+      <c r="D139" s="55"/>
+      <c r="E139" s="41">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="9"/>
+      <c r="F139" s="77"/>
+      <c r="G139" s="35"/>
+      <c r="H139" s="84"/>
     </row>
     <row r="140" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B140" s="15"/>
-      <c r="C140" s="15"/>
-      <c r="D140" s="17"/>
-      <c r="E140" s="12">
+      <c r="B140" s="67"/>
+      <c r="C140" s="60"/>
+      <c r="D140" s="55"/>
+      <c r="E140" s="41">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="9"/>
+      <c r="F140" s="77"/>
+      <c r="G140" s="35"/>
+      <c r="H140" s="84"/>
     </row>
     <row r="141" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B141" s="15"/>
-      <c r="C141" s="15"/>
-      <c r="D141" s="17"/>
-      <c r="E141" s="12">
+      <c r="B141" s="67"/>
+      <c r="C141" s="60"/>
+      <c r="D141" s="55"/>
+      <c r="E141" s="41">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="9"/>
+      <c r="F141" s="77"/>
+      <c r="G141" s="35"/>
+      <c r="H141" s="84"/>
     </row>
     <row r="142" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B142" s="23"/>
-      <c r="C142" s="23"/>
-      <c r="D142" s="28"/>
-      <c r="E142" s="29">
+      <c r="B142" s="71"/>
+      <c r="C142" s="64"/>
+      <c r="D142" s="57"/>
+      <c r="E142" s="47">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F142" s="20"/>
-      <c r="G142" s="20"/>
-      <c r="H142" s="20"/>
+      <c r="F142" s="80"/>
+      <c r="G142" s="36"/>
+      <c r="H142" s="85"/>
     </row>
     <row r="143" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2" t="s">
+      <c r="B143" s="66"/>
+      <c r="C143" s="59"/>
+      <c r="D143" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E143" s="18">
+      <c r="E143" s="48">
         <f>SUM(E136:E142)</f>
         <v>0</v>
       </c>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
+      <c r="F143" s="73"/>
+      <c r="G143" s="31"/>
+      <c r="H143" s="81"/>
     </row>
     <row r="144" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3" t="s">
+      <c r="B144" s="68"/>
+      <c r="C144" s="61"/>
+      <c r="D144" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E144" s="19" t="e">
+      <c r="E144" s="45" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
+      <c r="F144" s="79"/>
+      <c r="G144" s="32"/>
+      <c r="H144" s="82"/>
     </row>
     <row r="145" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C145" s="5" t="s">
+      <c r="C145" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="D145" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E145" s="5" t="s">
+      <c r="E145" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F145" s="5" t="s">
+      <c r="F145" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G145" s="5" t="s">
+      <c r="G145" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H145" s="5" t="s">
+      <c r="H145" s="83" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6524,160 +6739,160 @@
       <c r="A146" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B146" s="15"/>
-      <c r="C146" s="15"/>
-      <c r="D146" s="16"/>
-      <c r="E146" s="12">
+      <c r="B146" s="67"/>
+      <c r="C146" s="60"/>
+      <c r="D146" s="55"/>
+      <c r="E146" s="41">
         <f>(B146-C146)*-24-D146</f>
         <v>0</v>
       </c>
-      <c r="F146" s="9"/>
-      <c r="G146" s="9"/>
-      <c r="H146" s="9"/>
+      <c r="F146" s="77"/>
+      <c r="G146" s="35"/>
+      <c r="H146" s="84"/>
     </row>
     <row r="147" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B147" s="15"/>
-      <c r="C147" s="15"/>
-      <c r="D147" s="17"/>
-      <c r="E147" s="12">
+      <c r="B147" s="67"/>
+      <c r="C147" s="60"/>
+      <c r="D147" s="55"/>
+      <c r="E147" s="41">
         <f t="shared" ref="E147:E152" si="14">(B147-C147)*-24-D147</f>
         <v>0</v>
       </c>
-      <c r="F147" s="9"/>
-      <c r="G147" s="9"/>
-      <c r="H147" s="9"/>
+      <c r="F147" s="77"/>
+      <c r="G147" s="35"/>
+      <c r="H147" s="84"/>
     </row>
     <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B148" s="15"/>
-      <c r="C148" s="15"/>
-      <c r="D148" s="17"/>
-      <c r="E148" s="12">
+      <c r="B148" s="67"/>
+      <c r="C148" s="60"/>
+      <c r="D148" s="55"/>
+      <c r="E148" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F148" s="9"/>
-      <c r="G148" s="9"/>
-      <c r="H148" s="9"/>
+      <c r="F148" s="77"/>
+      <c r="G148" s="35"/>
+      <c r="H148" s="84"/>
     </row>
     <row r="149" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B149" s="15"/>
-      <c r="C149" s="15"/>
-      <c r="D149" s="17"/>
-      <c r="E149" s="12">
+      <c r="B149" s="67"/>
+      <c r="C149" s="60"/>
+      <c r="D149" s="55"/>
+      <c r="E149" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F149" s="9"/>
-      <c r="G149" s="9"/>
-      <c r="H149" s="9"/>
+      <c r="F149" s="77"/>
+      <c r="G149" s="35"/>
+      <c r="H149" s="84"/>
     </row>
     <row r="150" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B150" s="15"/>
-      <c r="C150" s="15"/>
-      <c r="D150" s="17"/>
-      <c r="E150" s="12">
+      <c r="B150" s="67"/>
+      <c r="C150" s="60"/>
+      <c r="D150" s="55"/>
+      <c r="E150" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F150" s="9"/>
-      <c r="G150" s="9"/>
-      <c r="H150" s="9"/>
+      <c r="F150" s="77"/>
+      <c r="G150" s="35"/>
+      <c r="H150" s="84"/>
     </row>
     <row r="151" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B151" s="15"/>
-      <c r="C151" s="15"/>
-      <c r="D151" s="17"/>
-      <c r="E151" s="12">
+      <c r="B151" s="67"/>
+      <c r="C151" s="60"/>
+      <c r="D151" s="55"/>
+      <c r="E151" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F151" s="9"/>
-      <c r="G151" s="9"/>
-      <c r="H151" s="9"/>
+      <c r="F151" s="77"/>
+      <c r="G151" s="35"/>
+      <c r="H151" s="84"/>
     </row>
     <row r="152" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B152" s="23"/>
-      <c r="C152" s="23"/>
-      <c r="D152" s="28"/>
-      <c r="E152" s="29">
+      <c r="B152" s="71"/>
+      <c r="C152" s="64"/>
+      <c r="D152" s="57"/>
+      <c r="E152" s="47">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F152" s="20"/>
-      <c r="G152" s="20"/>
-      <c r="H152" s="20"/>
+      <c r="F152" s="80"/>
+      <c r="G152" s="36"/>
+      <c r="H152" s="85"/>
     </row>
     <row r="153" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2" t="s">
+      <c r="B153" s="66"/>
+      <c r="C153" s="59"/>
+      <c r="D153" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E153" s="18">
+      <c r="E153" s="48">
         <f>SUM(E146:E152)</f>
         <v>0</v>
       </c>
-      <c r="F153" s="2"/>
-      <c r="G153" s="2"/>
-      <c r="H153" s="2"/>
+      <c r="F153" s="73"/>
+      <c r="G153" s="31"/>
+      <c r="H153" s="81"/>
     </row>
     <row r="154" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3" t="s">
+      <c r="B154" s="68"/>
+      <c r="C154" s="61"/>
+      <c r="D154" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E154" s="19" t="e">
+      <c r="E154" s="45" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F154" s="3"/>
-      <c r="G154" s="3"/>
-      <c r="H154" s="3"/>
+      <c r="F154" s="79"/>
+      <c r="G154" s="32"/>
+      <c r="H154" s="82"/>
     </row>
     <row r="155" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="C155" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D155" s="5" t="s">
+      <c r="D155" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E155" s="5" t="s">
+      <c r="E155" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F155" s="5" t="s">
+      <c r="F155" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G155" s="5" t="s">
+      <c r="G155" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H155" s="5" t="s">
+      <c r="H155" s="83" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6685,159 +6900,159 @@
       <c r="A156" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B156" s="15"/>
-      <c r="C156" s="15"/>
-      <c r="D156" s="16"/>
-      <c r="E156" s="12">
+      <c r="B156" s="67"/>
+      <c r="C156" s="60"/>
+      <c r="D156" s="55"/>
+      <c r="E156" s="41">
         <f>(B156-C156)*-24-D156</f>
         <v>0</v>
       </c>
-      <c r="F156" s="9"/>
-      <c r="G156" s="9"/>
-      <c r="H156" s="9"/>
+      <c r="F156" s="77"/>
+      <c r="G156" s="35"/>
+      <c r="H156" s="84"/>
     </row>
     <row r="157" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B157" s="15"/>
-      <c r="C157" s="15"/>
-      <c r="D157" s="17"/>
-      <c r="E157" s="12">
+      <c r="B157" s="67"/>
+      <c r="C157" s="60"/>
+      <c r="D157" s="55"/>
+      <c r="E157" s="41">
         <f t="shared" ref="E157:E161" si="15">(B157-C157)*-24-D157</f>
         <v>0</v>
       </c>
-      <c r="F157" s="9"/>
-      <c r="G157" s="9"/>
-      <c r="H157" s="9"/>
+      <c r="F157" s="77"/>
+      <c r="G157" s="35"/>
+      <c r="H157" s="84"/>
     </row>
     <row r="158" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B158" s="15"/>
-      <c r="C158" s="15"/>
-      <c r="D158" s="17"/>
-      <c r="E158" s="12">
+      <c r="B158" s="67"/>
+      <c r="C158" s="60"/>
+      <c r="D158" s="55"/>
+      <c r="E158" s="41">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F158" s="9"/>
-      <c r="G158" s="9"/>
-      <c r="H158" s="9"/>
+      <c r="F158" s="77"/>
+      <c r="G158" s="35"/>
+      <c r="H158" s="84"/>
     </row>
     <row r="159" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B159" s="15"/>
-      <c r="C159" s="15"/>
-      <c r="D159" s="17"/>
-      <c r="E159" s="12">
+      <c r="B159" s="67"/>
+      <c r="C159" s="60"/>
+      <c r="D159" s="55"/>
+      <c r="E159" s="41">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F159" s="9"/>
-      <c r="G159" s="9"/>
-      <c r="H159" s="9"/>
+      <c r="F159" s="77"/>
+      <c r="G159" s="35"/>
+      <c r="H159" s="84"/>
     </row>
     <row r="160" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B160" s="15"/>
-      <c r="C160" s="15"/>
-      <c r="D160" s="17"/>
-      <c r="E160" s="12">
+      <c r="B160" s="67"/>
+      <c r="C160" s="60"/>
+      <c r="D160" s="55"/>
+      <c r="E160" s="41">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F160" s="9"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="9"/>
+      <c r="F160" s="77"/>
+      <c r="G160" s="35"/>
+      <c r="H160" s="84"/>
     </row>
     <row r="161" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B161" s="15"/>
-      <c r="C161" s="15"/>
-      <c r="D161" s="17"/>
-      <c r="E161" s="12">
+      <c r="B161" s="67"/>
+      <c r="C161" s="60"/>
+      <c r="D161" s="55"/>
+      <c r="E161" s="41">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F161" s="9"/>
-      <c r="G161" s="9"/>
-      <c r="H161" s="9"/>
+      <c r="F161" s="77"/>
+      <c r="G161" s="35"/>
+      <c r="H161" s="84"/>
     </row>
     <row r="162" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B162" s="23"/>
-      <c r="C162" s="23"/>
-      <c r="D162" s="28"/>
-      <c r="E162" s="28">
-        <v>0</v>
-      </c>
-      <c r="F162" s="20"/>
-      <c r="G162" s="20"/>
-      <c r="H162" s="20"/>
+      <c r="B162" s="71"/>
+      <c r="C162" s="64"/>
+      <c r="D162" s="57"/>
+      <c r="E162" s="49">
+        <v>0</v>
+      </c>
+      <c r="F162" s="80"/>
+      <c r="G162" s="36"/>
+      <c r="H162" s="85"/>
     </row>
     <row r="163" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2" t="s">
+      <c r="B163" s="66"/>
+      <c r="C163" s="59"/>
+      <c r="D163" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E163" s="18">
+      <c r="E163" s="48">
         <f>SUM(E156:E162)</f>
         <v>0</v>
       </c>
-      <c r="F163" s="2"/>
-      <c r="G163" s="2"/>
-      <c r="H163" s="2"/>
+      <c r="F163" s="73"/>
+      <c r="G163" s="31"/>
+      <c r="H163" s="81"/>
     </row>
     <row r="164" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3" t="s">
+      <c r="B164" s="68"/>
+      <c r="C164" s="61"/>
+      <c r="D164" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E164" s="19" t="e">
+      <c r="E164" s="45" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
+      <c r="F164" s="79"/>
+      <c r="G164" s="32"/>
+      <c r="H164" s="82"/>
     </row>
     <row r="165" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B165" s="5" t="s">
+      <c r="B165" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="C165" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D165" s="5" t="s">
+      <c r="D165" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E165" s="5" t="s">
+      <c r="E165" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F165" s="5" t="s">
+      <c r="F165" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G165" s="5" t="s">
+      <c r="G165" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H165" s="5" t="s">
+      <c r="H165" s="83" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6845,160 +7060,160 @@
       <c r="A166" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B166" s="15"/>
-      <c r="C166" s="15"/>
-      <c r="D166" s="16"/>
-      <c r="E166" s="12">
+      <c r="B166" s="67"/>
+      <c r="C166" s="60"/>
+      <c r="D166" s="55"/>
+      <c r="E166" s="41">
         <f>(B166-C166)*-24-D166</f>
         <v>0</v>
       </c>
-      <c r="F166" s="9"/>
-      <c r="G166" s="9"/>
-      <c r="H166" s="9"/>
+      <c r="F166" s="77"/>
+      <c r="G166" s="35"/>
+      <c r="H166" s="84"/>
     </row>
     <row r="167" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B167" s="15"/>
-      <c r="C167" s="15"/>
-      <c r="D167" s="17"/>
-      <c r="E167" s="12">
+      <c r="B167" s="67"/>
+      <c r="C167" s="60"/>
+      <c r="D167" s="55"/>
+      <c r="E167" s="41">
         <f t="shared" ref="E167:E172" si="16">(B167-C167)*-24-D167</f>
         <v>0</v>
       </c>
-      <c r="F167" s="9"/>
-      <c r="G167" s="9"/>
-      <c r="H167" s="9"/>
+      <c r="F167" s="77"/>
+      <c r="G167" s="35"/>
+      <c r="H167" s="84"/>
     </row>
     <row r="168" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B168" s="15"/>
-      <c r="C168" s="15"/>
-      <c r="D168" s="17"/>
-      <c r="E168" s="12">
+      <c r="B168" s="67"/>
+      <c r="C168" s="60"/>
+      <c r="D168" s="55"/>
+      <c r="E168" s="41">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F168" s="9"/>
-      <c r="G168" s="9"/>
-      <c r="H168" s="9"/>
+      <c r="F168" s="77"/>
+      <c r="G168" s="35"/>
+      <c r="H168" s="84"/>
     </row>
     <row r="169" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B169" s="15"/>
-      <c r="C169" s="15"/>
-      <c r="D169" s="17"/>
-      <c r="E169" s="12">
+      <c r="B169" s="67"/>
+      <c r="C169" s="60"/>
+      <c r="D169" s="55"/>
+      <c r="E169" s="41">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F169" s="9"/>
-      <c r="G169" s="9"/>
-      <c r="H169" s="9"/>
+      <c r="F169" s="77"/>
+      <c r="G169" s="35"/>
+      <c r="H169" s="84"/>
     </row>
     <row r="170" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B170" s="15"/>
-      <c r="C170" s="15"/>
-      <c r="D170" s="17"/>
-      <c r="E170" s="12">
+      <c r="B170" s="67"/>
+      <c r="C170" s="60"/>
+      <c r="D170" s="55"/>
+      <c r="E170" s="41">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F170" s="9"/>
-      <c r="G170" s="9"/>
-      <c r="H170" s="9"/>
+      <c r="F170" s="77"/>
+      <c r="G170" s="35"/>
+      <c r="H170" s="84"/>
     </row>
     <row r="171" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B171" s="15"/>
-      <c r="C171" s="15"/>
-      <c r="D171" s="17"/>
-      <c r="E171" s="12">
+      <c r="B171" s="67"/>
+      <c r="C171" s="60"/>
+      <c r="D171" s="55"/>
+      <c r="E171" s="41">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F171" s="9"/>
-      <c r="G171" s="9"/>
-      <c r="H171" s="9"/>
+      <c r="F171" s="77"/>
+      <c r="G171" s="35"/>
+      <c r="H171" s="84"/>
     </row>
     <row r="172" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B172" s="23"/>
-      <c r="C172" s="23"/>
-      <c r="D172" s="28"/>
-      <c r="E172" s="29">
+      <c r="B172" s="71"/>
+      <c r="C172" s="64"/>
+      <c r="D172" s="57"/>
+      <c r="E172" s="47">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F172" s="20"/>
-      <c r="G172" s="20"/>
-      <c r="H172" s="20"/>
+      <c r="F172" s="80"/>
+      <c r="G172" s="36"/>
+      <c r="H172" s="85"/>
     </row>
     <row r="173" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2" t="s">
+      <c r="B173" s="66"/>
+      <c r="C173" s="59"/>
+      <c r="D173" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E173" s="18">
+      <c r="E173" s="48">
         <f>SUM(E166:E172)</f>
         <v>0</v>
       </c>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
+      <c r="F173" s="73"/>
+      <c r="G173" s="31"/>
+      <c r="H173" s="81"/>
     </row>
     <row r="174" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
-      <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3" t="s">
+      <c r="B174" s="68"/>
+      <c r="C174" s="61"/>
+      <c r="D174" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E174" s="19" t="e">
+      <c r="E174" s="45" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F174" s="3"/>
-      <c r="G174" s="3"/>
-      <c r="H174" s="3"/>
+      <c r="F174" s="79"/>
+      <c r="G174" s="32"/>
+      <c r="H174" s="82"/>
     </row>
     <row r="175" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="B175" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C175" s="5" t="s">
+      <c r="C175" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D175" s="5" t="s">
+      <c r="D175" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E175" s="5" t="s">
+      <c r="E175" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F175" s="5" t="s">
+      <c r="F175" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G175" s="5" t="s">
+      <c r="G175" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H175" s="5" t="s">
+      <c r="H175" s="83" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7006,136 +7221,136 @@
       <c r="A176" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B176" s="15"/>
-      <c r="C176" s="15"/>
-      <c r="D176" s="16"/>
-      <c r="E176" s="12">
+      <c r="B176" s="67"/>
+      <c r="C176" s="60"/>
+      <c r="D176" s="55"/>
+      <c r="E176" s="41">
         <f>(B176-C176)*-24-D176</f>
         <v>0</v>
       </c>
-      <c r="F176" s="9"/>
-      <c r="G176" s="9"/>
-      <c r="H176" s="9"/>
+      <c r="F176" s="77"/>
+      <c r="G176" s="35"/>
+      <c r="H176" s="84"/>
     </row>
     <row r="177" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B177" s="15"/>
-      <c r="C177" s="15"/>
-      <c r="D177" s="17"/>
-      <c r="E177" s="12">
+      <c r="B177" s="67"/>
+      <c r="C177" s="60"/>
+      <c r="D177" s="55"/>
+      <c r="E177" s="41">
         <f t="shared" ref="E177:E182" si="17">(B177-C177)*-24-D177</f>
         <v>0</v>
       </c>
-      <c r="F177" s="9"/>
-      <c r="G177" s="9"/>
-      <c r="H177" s="9"/>
+      <c r="F177" s="77"/>
+      <c r="G177" s="35"/>
+      <c r="H177" s="84"/>
     </row>
     <row r="178" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B178" s="15"/>
-      <c r="C178" s="15"/>
-      <c r="D178" s="17"/>
-      <c r="E178" s="12">
+      <c r="B178" s="67"/>
+      <c r="C178" s="60"/>
+      <c r="D178" s="55"/>
+      <c r="E178" s="41">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F178" s="9"/>
-      <c r="G178" s="9"/>
-      <c r="H178" s="9"/>
+      <c r="F178" s="77"/>
+      <c r="G178" s="35"/>
+      <c r="H178" s="84"/>
     </row>
     <row r="179" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B179" s="15"/>
-      <c r="C179" s="15"/>
-      <c r="D179" s="17"/>
-      <c r="E179" s="12">
+      <c r="B179" s="67"/>
+      <c r="C179" s="60"/>
+      <c r="D179" s="55"/>
+      <c r="E179" s="41">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F179" s="9"/>
-      <c r="G179" s="9"/>
-      <c r="H179" s="9"/>
+      <c r="F179" s="77"/>
+      <c r="G179" s="35"/>
+      <c r="H179" s="84"/>
     </row>
     <row r="180" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B180" s="15"/>
-      <c r="C180" s="15"/>
-      <c r="D180" s="17"/>
-      <c r="E180" s="12">
+      <c r="B180" s="67"/>
+      <c r="C180" s="60"/>
+      <c r="D180" s="55"/>
+      <c r="E180" s="41">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F180" s="9"/>
-      <c r="G180" s="9"/>
-      <c r="H180" s="9"/>
+      <c r="F180" s="77"/>
+      <c r="G180" s="35"/>
+      <c r="H180" s="84"/>
     </row>
     <row r="181" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B181" s="15"/>
-      <c r="C181" s="15"/>
-      <c r="D181" s="17"/>
-      <c r="E181" s="12">
+      <c r="B181" s="67"/>
+      <c r="C181" s="60"/>
+      <c r="D181" s="55"/>
+      <c r="E181" s="41">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F181" s="9"/>
-      <c r="G181" s="9"/>
-      <c r="H181" s="9"/>
+      <c r="F181" s="77"/>
+      <c r="G181" s="35"/>
+      <c r="H181" s="84"/>
     </row>
     <row r="182" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B182" s="23"/>
-      <c r="C182" s="23"/>
-      <c r="D182" s="28"/>
-      <c r="E182" s="29">
+      <c r="B182" s="71"/>
+      <c r="C182" s="64"/>
+      <c r="D182" s="57"/>
+      <c r="E182" s="47">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F182" s="20"/>
-      <c r="G182" s="20"/>
-      <c r="H182" s="20"/>
+      <c r="F182" s="80"/>
+      <c r="G182" s="36"/>
+      <c r="H182" s="85"/>
     </row>
     <row r="183" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2" t="s">
+      <c r="B183" s="66"/>
+      <c r="C183" s="59"/>
+      <c r="D183" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E183" s="18">
+      <c r="E183" s="48">
         <f>SUM(E176:E182)</f>
         <v>0</v>
       </c>
-      <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
-      <c r="H183" s="2"/>
+      <c r="F183" s="73"/>
+      <c r="G183" s="31"/>
+      <c r="H183" s="81"/>
     </row>
     <row r="184" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2" t="s">
+      <c r="B184" s="66"/>
+      <c r="C184" s="59"/>
+      <c r="D184" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E184" s="18" t="e">
+      <c r="E184" s="48" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F184" s="2"/>
-      <c r="G184" s="2"/>
-      <c r="H184" s="2"/>
+      <c r="F184" s="73"/>
+      <c r="G184" s="31"/>
+      <c r="H184" s="81"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -10120,7 +10335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>

--- a/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
+++ b/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
@@ -4339,7 +4339,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4807,12 +4807,14 @@
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="67"/>
+      <c r="B26" s="67">
+        <v>0.375</v>
+      </c>
       <c r="C26" s="60"/>
       <c r="D26" s="55"/>
       <c r="E26" s="41">
         <f>(B26-C26)*-24-D26</f>
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="F26" s="77"/>
       <c r="G26" s="35"/>
@@ -4917,7 +4919,7 @@
       </c>
       <c r="E33" s="44">
         <f>SUM(E26:E32)</f>
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="F33" s="73"/>
       <c r="G33" s="31"/>

--- a/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
+++ b/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lazarus\Documents\GitHub\Voodoo\_Organisation\Zeitplanung\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Tobias" sheetId="1" r:id="rId1"/>
@@ -14,13 +19,14 @@
     <sheet name="Levin" sheetId="5" r:id="rId5"/>
     <sheet name="Michi" sheetId="6" r:id="rId6"/>
     <sheet name="Sonja" sheetId="7" r:id="rId7"/>
+    <sheet name="Artjom" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="157">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -496,7 +502,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
@@ -1033,14 +1039,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1078,9 +1087,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1115,7 +1124,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1150,7 +1159,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4338,8 +4347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19307,16 +19316,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22271,4 +22284,2976 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H184"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12">
+        <f>(B6-C6)*-24-D6</f>
+        <v>7</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="12">
+        <f t="shared" ref="E7:E12" si="0">(B7-C7)*-24-D7</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="22">
+        <f>SUM(E6:E12)</f>
+        <v>7</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="19">
+        <f>SUM(E13)</f>
+        <v>7</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="12">
+        <f>(B16-C16)*-24-D16</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="12">
+        <f t="shared" ref="E17:E22" si="1">(B17-C17)*-24-D17</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="22">
+        <f>SUM(E16:E22)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="19">
+        <f>SUM(E13+E23)</f>
+        <v>7</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="12">
+        <f>(B26-C26)*-24-D26</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="12">
+        <f t="shared" ref="E27:E32" si="2">(B27-C27)*-24-D27</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="26"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+    </row>
+    <row r="33" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="22">
+        <f>SUM(E26:E32)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="19">
+        <f>SUM(E13+E23+E33)</f>
+        <v>7</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="12">
+        <f>(B36-C36)*-24-D36</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="12">
+        <f t="shared" ref="E37:E42" si="3">(B37-C37)*-24-D37</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="26"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+    </row>
+    <row r="43" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="22">
+        <f>SUM(E36:E42)</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="19">
+        <f>SUM(E13+E23+E33+E43)</f>
+        <v>7</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="12">
+        <f>(B46-C46)*-24-D46</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="12">
+        <f t="shared" ref="E47:E52" si="4">(B47-C47)*-24-D47</f>
+        <v>0</v>
+      </c>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+    </row>
+    <row r="48" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+    </row>
+    <row r="49" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+    </row>
+    <row r="50" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+    </row>
+    <row r="51" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="26"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+    </row>
+    <row r="53" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="22">
+        <f>SUM(E46:E52)</f>
+        <v>0</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="19">
+        <f>SUM(E13+E23+E33+E43+E53)</f>
+        <v>7</v>
+      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="12">
+        <f>(B56-C56)*-24-D56</f>
+        <v>0</v>
+      </c>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+    </row>
+    <row r="57" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="12">
+        <f t="shared" ref="E57:E62" si="5">(B57-C57)*-24-D57</f>
+        <v>0</v>
+      </c>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+    </row>
+    <row r="58" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+    </row>
+    <row r="59" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+    </row>
+    <row r="60" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+    </row>
+    <row r="61" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+    </row>
+    <row r="62" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="26"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+    </row>
+    <row r="63" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="22">
+        <f>SUM(E56:E62)</f>
+        <v>0</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="19">
+        <f>SUM(E13+E23+E33+E43+E53+E63)</f>
+        <v>7</v>
+      </c>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="12">
+        <f>(B66-C66)*-24-D66</f>
+        <v>0</v>
+      </c>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+    </row>
+    <row r="67" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="12">
+        <f t="shared" ref="E67:E72" si="6">(B67-C67)*-24-D67</f>
+        <v>0</v>
+      </c>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+    </row>
+    <row r="68" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+    </row>
+    <row r="69" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+    </row>
+    <row r="70" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+    </row>
+    <row r="71" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+    </row>
+    <row r="72" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+    </row>
+    <row r="73" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="18">
+        <f>SUM(E66:E72)</f>
+        <v>0</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="19">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
+        <v>7</v>
+      </c>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="12">
+        <f>(B76-C76)*-24-D76</f>
+        <v>0</v>
+      </c>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+    </row>
+    <row r="77" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="12">
+        <f t="shared" ref="E77:E82" si="7">(B77-C77)*-24-D77</f>
+        <v>0</v>
+      </c>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+    </row>
+    <row r="78" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+    </row>
+    <row r="79" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+    </row>
+    <row r="80" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+    </row>
+    <row r="81" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+    </row>
+    <row r="82" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
+    </row>
+    <row r="83" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="18">
+        <f>SUM(E76:E82)</f>
+        <v>0</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" s="19">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
+        <v>7</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="12">
+        <f>(B86-C86)*-24-D86</f>
+        <v>0</v>
+      </c>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+    </row>
+    <row r="87" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="12">
+        <f t="shared" ref="E87:E92" si="8">(B87-C87)*-24-D87</f>
+        <v>0</v>
+      </c>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+    </row>
+    <row r="88" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+    </row>
+    <row r="89" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+    </row>
+    <row r="90" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+    </row>
+    <row r="91" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+    </row>
+    <row r="92" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+    </row>
+    <row r="93" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="18">
+        <f>SUM(E86:E92)</f>
+        <v>0</v>
+      </c>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" s="19">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
+        <v>7</v>
+      </c>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="12">
+        <f>(B96-C96)*-24-D96</f>
+        <v>0</v>
+      </c>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+    </row>
+    <row r="97" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="12">
+        <f t="shared" ref="E97:E102" si="9">(B97-C97)*-24-D97</f>
+        <v>0</v>
+      </c>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+    </row>
+    <row r="98" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+    </row>
+    <row r="99" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+    </row>
+    <row r="100" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+    </row>
+    <row r="101" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+    </row>
+    <row r="102" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B102" s="23"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F102" s="20"/>
+      <c r="G102" s="20"/>
+      <c r="H102" s="20"/>
+    </row>
+    <row r="103" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" s="18">
+        <f>SUM(E96:E102)</f>
+        <v>0</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+    </row>
+    <row r="104" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E104" s="19">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
+        <v>7</v>
+      </c>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+    </row>
+    <row r="105" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B106" s="15"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="12">
+        <f>(B106-C106)*-24-D106</f>
+        <v>0</v>
+      </c>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+    </row>
+    <row r="107" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="12">
+        <f t="shared" ref="E107:E112" si="10">(B107-C107)*-24-D107</f>
+        <v>0</v>
+      </c>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+    </row>
+    <row r="108" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B108" s="15"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+    </row>
+    <row r="109" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+    </row>
+    <row r="110" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+    </row>
+    <row r="111" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+    </row>
+    <row r="112" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B112" s="23"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F112" s="20"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="20"/>
+    </row>
+    <row r="113" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113" s="18">
+        <f>SUM(E106:E112)</f>
+        <v>0</v>
+      </c>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+    </row>
+    <row r="114" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114" s="19">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
+        <v>7</v>
+      </c>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+    </row>
+    <row r="115" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B116" s="15"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="12">
+        <f>(B116-C116)*-24-D116</f>
+        <v>0</v>
+      </c>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+    </row>
+    <row r="117" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B117" s="15"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="12">
+        <f t="shared" ref="E117:E122" si="11">(B117-C117)*-24-D117</f>
+        <v>0</v>
+      </c>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+    </row>
+    <row r="118" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B118" s="15"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+    </row>
+    <row r="119" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B119" s="15"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+    </row>
+    <row r="120" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B120" s="15"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+    </row>
+    <row r="121" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B121" s="15"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+    </row>
+    <row r="122" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B122" s="23"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="28"/>
+      <c r="E122" s="29">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F122" s="20"/>
+      <c r="G122" s="20"/>
+      <c r="H122" s="20"/>
+    </row>
+    <row r="123" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" s="18">
+        <f>SUM(E116:E122)</f>
+        <v>0</v>
+      </c>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+    </row>
+    <row r="124" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E124" s="19">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
+        <v>7</v>
+      </c>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+    </row>
+    <row r="125" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B126" s="15"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="12">
+        <f>(B126-C126)*-24-D126</f>
+        <v>0</v>
+      </c>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+    </row>
+    <row r="127" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B127" s="15"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="12">
+        <f t="shared" ref="E127:E132" si="12">(B127-C127)*-24-D127</f>
+        <v>0</v>
+      </c>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+    </row>
+    <row r="128" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B128" s="15"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+    </row>
+    <row r="129" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B129" s="15"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+    </row>
+    <row r="130" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B130" s="15"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+    </row>
+    <row r="131" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B131" s="15"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+    </row>
+    <row r="132" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B132" s="23"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="28"/>
+      <c r="E132" s="29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F132" s="20"/>
+      <c r="G132" s="20"/>
+      <c r="H132" s="20"/>
+    </row>
+    <row r="133" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" s="18">
+        <f>SUM(E126:E132)</f>
+        <v>0</v>
+      </c>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+    </row>
+    <row r="134" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134" s="19">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
+        <v>7</v>
+      </c>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+    </row>
+    <row r="135" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H135" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B136" s="15"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="16"/>
+      <c r="E136" s="12">
+        <f>(B136-C136)*-24-D136</f>
+        <v>0</v>
+      </c>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+    </row>
+    <row r="137" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B137" s="15"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="17"/>
+      <c r="E137" s="12">
+        <f t="shared" ref="E137:E142" si="13">(B137-C137)*-24-D137</f>
+        <v>0</v>
+      </c>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+    </row>
+    <row r="138" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B138" s="15"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
+    </row>
+    <row r="139" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B139" s="15"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="17"/>
+      <c r="E139" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+    </row>
+    <row r="140" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B140" s="15"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="17"/>
+      <c r="E140" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+    </row>
+    <row r="141" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B141" s="15"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+    </row>
+    <row r="142" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B142" s="23"/>
+      <c r="C142" s="23"/>
+      <c r="D142" s="28"/>
+      <c r="E142" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F142" s="20"/>
+      <c r="G142" s="20"/>
+      <c r="H142" s="20"/>
+    </row>
+    <row r="143" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E143" s="18">
+        <f>SUM(E136:E142)</f>
+        <v>0</v>
+      </c>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+    </row>
+    <row r="144" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E144" s="19">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
+        <v>7</v>
+      </c>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+    </row>
+    <row r="145" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H145" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B146" s="15"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="12">
+        <f>(B146-C146)*-24-D146</f>
+        <v>0</v>
+      </c>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
+    </row>
+    <row r="147" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B147" s="15"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="12">
+        <f t="shared" ref="E147:E152" si="14">(B147-C147)*-24-D147</f>
+        <v>0</v>
+      </c>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="9"/>
+    </row>
+    <row r="148" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B148" s="15"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="9"/>
+    </row>
+    <row r="149" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B149" s="15"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="9"/>
+    </row>
+    <row r="150" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B150" s="15"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="17"/>
+      <c r="E150" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="9"/>
+    </row>
+    <row r="151" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B151" s="15"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="17"/>
+      <c r="E151" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
+    </row>
+    <row r="152" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B152" s="23"/>
+      <c r="C152" s="23"/>
+      <c r="D152" s="28"/>
+      <c r="E152" s="29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F152" s="20"/>
+      <c r="G152" s="20"/>
+      <c r="H152" s="20"/>
+    </row>
+    <row r="153" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E153" s="18">
+        <f>SUM(E146:E152)</f>
+        <v>0</v>
+      </c>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+    </row>
+    <row r="154" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E154" s="19">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
+        <v>7</v>
+      </c>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3"/>
+    </row>
+    <row r="155" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H155" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B156" s="15"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="16"/>
+      <c r="E156" s="12">
+        <f>(B156-C156)*-24-D156</f>
+        <v>0</v>
+      </c>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="9"/>
+    </row>
+    <row r="157" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B157" s="15"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="17"/>
+      <c r="E157" s="12">
+        <f t="shared" ref="E157:E161" si="15">(B157-C157)*-24-D157</f>
+        <v>0</v>
+      </c>
+      <c r="F157" s="9"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="9"/>
+    </row>
+    <row r="158" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B158" s="15"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="9"/>
+    </row>
+    <row r="159" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B159" s="15"/>
+      <c r="C159" s="15"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="9"/>
+    </row>
+    <row r="160" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B160" s="15"/>
+      <c r="C160" s="15"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9"/>
+    </row>
+    <row r="161" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B161" s="15"/>
+      <c r="C161" s="15"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="9"/>
+    </row>
+    <row r="162" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B162" s="23"/>
+      <c r="C162" s="23"/>
+      <c r="D162" s="28"/>
+      <c r="E162" s="28">
+        <v>0</v>
+      </c>
+      <c r="F162" s="20"/>
+      <c r="G162" s="20"/>
+      <c r="H162" s="20"/>
+    </row>
+    <row r="163" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E163" s="18">
+        <f>SUM(E156:E162)</f>
+        <v>0</v>
+      </c>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+    </row>
+    <row r="164" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E164" s="19">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
+        <v>7</v>
+      </c>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3"/>
+    </row>
+    <row r="165" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G165" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H165" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B166" s="15"/>
+      <c r="C166" s="15"/>
+      <c r="D166" s="16"/>
+      <c r="E166" s="12">
+        <f>(B166-C166)*-24-D166</f>
+        <v>0</v>
+      </c>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="9"/>
+    </row>
+    <row r="167" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B167" s="15"/>
+      <c r="C167" s="15"/>
+      <c r="D167" s="17"/>
+      <c r="E167" s="12">
+        <f t="shared" ref="E167:E172" si="16">(B167-C167)*-24-D167</f>
+        <v>0</v>
+      </c>
+      <c r="F167" s="9"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="9"/>
+    </row>
+    <row r="168" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B168" s="15"/>
+      <c r="C168" s="15"/>
+      <c r="D168" s="17"/>
+      <c r="E168" s="12">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F168" s="9"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="9"/>
+    </row>
+    <row r="169" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B169" s="15"/>
+      <c r="C169" s="15"/>
+      <c r="D169" s="17"/>
+      <c r="E169" s="12">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F169" s="9"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="9"/>
+    </row>
+    <row r="170" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B170" s="15"/>
+      <c r="C170" s="15"/>
+      <c r="D170" s="17"/>
+      <c r="E170" s="12">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="9"/>
+    </row>
+    <row r="171" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B171" s="15"/>
+      <c r="C171" s="15"/>
+      <c r="D171" s="17"/>
+      <c r="E171" s="12">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="9"/>
+    </row>
+    <row r="172" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B172" s="23"/>
+      <c r="C172" s="23"/>
+      <c r="D172" s="28"/>
+      <c r="E172" s="29">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F172" s="20"/>
+      <c r="G172" s="20"/>
+      <c r="H172" s="20"/>
+    </row>
+    <row r="173" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E173" s="18">
+        <f>SUM(E166:E172)</f>
+        <v>0</v>
+      </c>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+    </row>
+    <row r="174" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="3"/>
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E174" s="19">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
+        <v>7</v>
+      </c>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+    </row>
+    <row r="175" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G175" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H175" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B176" s="15"/>
+      <c r="C176" s="15"/>
+      <c r="D176" s="16"/>
+      <c r="E176" s="12">
+        <f>(B176-C176)*-24-D176</f>
+        <v>0</v>
+      </c>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="9"/>
+    </row>
+    <row r="177" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B177" s="15"/>
+      <c r="C177" s="15"/>
+      <c r="D177" s="17"/>
+      <c r="E177" s="12">
+        <f t="shared" ref="E177:E182" si="17">(B177-C177)*-24-D177</f>
+        <v>0</v>
+      </c>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="9"/>
+    </row>
+    <row r="178" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B178" s="15"/>
+      <c r="C178" s="15"/>
+      <c r="D178" s="17"/>
+      <c r="E178" s="12">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="9"/>
+    </row>
+    <row r="179" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B179" s="15"/>
+      <c r="C179" s="15"/>
+      <c r="D179" s="17"/>
+      <c r="E179" s="12">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F179" s="9"/>
+      <c r="G179" s="9"/>
+      <c r="H179" s="9"/>
+    </row>
+    <row r="180" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B180" s="15"/>
+      <c r="C180" s="15"/>
+      <c r="D180" s="17"/>
+      <c r="E180" s="12">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="9"/>
+    </row>
+    <row r="181" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B181" s="15"/>
+      <c r="C181" s="15"/>
+      <c r="D181" s="17"/>
+      <c r="E181" s="12">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F181" s="9"/>
+      <c r="G181" s="9"/>
+      <c r="H181" s="9"/>
+    </row>
+    <row r="182" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B182" s="23"/>
+      <c r="C182" s="23"/>
+      <c r="D182" s="28"/>
+      <c r="E182" s="29">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F182" s="20"/>
+      <c r="G182" s="20"/>
+      <c r="H182" s="20"/>
+    </row>
+    <row r="183" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E183" s="18">
+        <f>SUM(E176:E182)</f>
+        <v>0</v>
+      </c>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+    </row>
+    <row r="184" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E184" s="18">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
+        <v>7</v>
+      </c>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
+++ b/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lazarus\Documents\GitHub\Voodoo\_Organisation\Zeitplanung\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="6"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tobias" sheetId="1" r:id="rId1"/>
@@ -21,12 +16,12 @@
     <sheet name="Sonja" sheetId="7" r:id="rId7"/>
     <sheet name="Artjom" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="158">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -498,11 +493,14 @@
   <si>
     <t>Assetliste</t>
   </si>
+  <si>
+    <t>Konzept Fetisch, 3D Wand &amp; Tür</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
@@ -1047,9 +1045,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1087,9 +1085,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1124,7 +1122,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1159,7 +1157,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10346,8 +10344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10814,15 +10812,23 @@
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
+      <c r="B26" s="15">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C26" s="15">
+        <v>0.6875</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0</v>
+      </c>
       <c r="E26" s="12">
         <f>(B26-C26)*-24-D26</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="G26" s="9" t="s">
+        <v>157</v>
+      </c>
       <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10924,7 +10930,7 @@
       </c>
       <c r="E33" s="22">
         <f>SUM(E26:E32)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -10939,7 +10945,7 @@
       </c>
       <c r="E34" s="19">
         <f>SUM(E13+E23+E33)</f>
-        <v>46.650000000000006</v>
+        <v>53.650000000000006</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -11100,7 +11106,7 @@
       </c>
       <c r="E44" s="19">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>46.650000000000006</v>
+        <v>53.650000000000006</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -11261,7 +11267,7 @@
       </c>
       <c r="E54" s="19">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>46.650000000000006</v>
+        <v>53.650000000000006</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -11422,7 +11428,7 @@
       </c>
       <c r="E64" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>46.650000000000006</v>
+        <v>53.650000000000006</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -11583,7 +11589,7 @@
       </c>
       <c r="E74" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>46.650000000000006</v>
+        <v>53.650000000000006</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -11744,7 +11750,7 @@
       </c>
       <c r="E84" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>46.650000000000006</v>
+        <v>53.650000000000006</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -11905,7 +11911,7 @@
       </c>
       <c r="E94" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>46.650000000000006</v>
+        <v>53.650000000000006</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -12066,7 +12072,7 @@
       </c>
       <c r="E104" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>46.650000000000006</v>
+        <v>53.650000000000006</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -12227,7 +12233,7 @@
       </c>
       <c r="E114" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>46.650000000000006</v>
+        <v>53.650000000000006</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -12388,7 +12394,7 @@
       </c>
       <c r="E124" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>46.650000000000006</v>
+        <v>53.650000000000006</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -12549,7 +12555,7 @@
       </c>
       <c r="E134" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>46.650000000000006</v>
+        <v>53.650000000000006</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -12710,7 +12716,7 @@
       </c>
       <c r="E144" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>46.650000000000006</v>
+        <v>53.650000000000006</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -12871,7 +12877,7 @@
       </c>
       <c r="E154" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>46.650000000000006</v>
+        <v>53.650000000000006</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -13031,7 +13037,7 @@
       </c>
       <c r="E164" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>46.650000000000006</v>
+        <v>53.650000000000006</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -13192,7 +13198,7 @@
       </c>
       <c r="E174" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>46.650000000000006</v>
+        <v>53.650000000000006</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -13353,7 +13359,7 @@
       </c>
       <c r="E184" s="18">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>46.650000000000006</v>
+        <v>53.650000000000006</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
@@ -19316,7 +19322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -22648,7 +22654,7 @@
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
     </row>
-    <row r="23" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -22678,7 +22684,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>2</v>
       </c>
@@ -22704,7 +22710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
@@ -22719,7 +22725,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
@@ -22734,7 +22740,7 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
@@ -22749,7 +22755,7 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
@@ -22764,7 +22770,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
@@ -22779,7 +22785,7 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
@@ -22794,7 +22800,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>33</v>
       </c>
@@ -22809,7 +22815,7 @@
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
     </row>
-    <row r="33" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -22839,7 +22845,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>2</v>
       </c>
@@ -22865,7 +22871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>34</v>
       </c>
@@ -22880,7 +22886,7 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>35</v>
       </c>
@@ -22895,7 +22901,7 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>36</v>
       </c>
@@ -22910,7 +22916,7 @@
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>37</v>
       </c>
@@ -22925,7 +22931,7 @@
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>38</v>
       </c>
@@ -22940,7 +22946,7 @@
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>39</v>
       </c>
@@ -22955,7 +22961,7 @@
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>40</v>
       </c>
@@ -22970,7 +22976,7 @@
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
     </row>
-    <row r="43" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -23000,7 +23006,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>2</v>
       </c>
@@ -23026,7 +23032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>41</v>
       </c>
@@ -23041,7 +23047,7 @@
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>42</v>
       </c>
@@ -23056,7 +23062,7 @@
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
     </row>
-    <row r="48" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>43</v>
       </c>
@@ -23071,7 +23077,7 @@
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>44</v>
       </c>
@@ -23086,7 +23092,7 @@
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>45</v>
       </c>
@@ -23101,7 +23107,7 @@
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>46</v>
       </c>
@@ -23116,7 +23122,7 @@
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>47</v>
       </c>
@@ -23131,7 +23137,7 @@
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
     </row>
-    <row r="53" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -23161,7 +23167,7 @@
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>2</v>
       </c>
@@ -23187,7 +23193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>48</v>
       </c>
@@ -23202,7 +23208,7 @@
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>49</v>
       </c>
@@ -23217,7 +23223,7 @@
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>50</v>
       </c>
@@ -23232,7 +23238,7 @@
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>51</v>
       </c>
@@ -23247,7 +23253,7 @@
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>52</v>
       </c>
@@ -23262,7 +23268,7 @@
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>53</v>
       </c>
@@ -23277,7 +23283,7 @@
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>54</v>
       </c>
@@ -23292,7 +23298,7 @@
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
     </row>
-    <row r="63" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -23322,7 +23328,7 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>2</v>
       </c>
@@ -23348,7 +23354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>55</v>
       </c>
@@ -23363,7 +23369,7 @@
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>56</v>
       </c>
@@ -23378,7 +23384,7 @@
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>57</v>
       </c>
@@ -23393,7 +23399,7 @@
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>58</v>
       </c>
@@ -23408,7 +23414,7 @@
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>59</v>
       </c>
@@ -23423,7 +23429,7 @@
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>60</v>
       </c>
@@ -23438,7 +23444,7 @@
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>61</v>
       </c>
@@ -23453,7 +23459,7 @@
       <c r="G72" s="20"/>
       <c r="H72" s="20"/>
     </row>
-    <row r="73" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -23483,7 +23489,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>2</v>
       </c>
@@ -23509,7 +23515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>62</v>
       </c>
@@ -23524,7 +23530,7 @@
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>63</v>
       </c>
@@ -23539,7 +23545,7 @@
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>64</v>
       </c>
@@ -23554,7 +23560,7 @@
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>65</v>
       </c>
@@ -23569,7 +23575,7 @@
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>66</v>
       </c>
@@ -23584,7 +23590,7 @@
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>67</v>
       </c>
@@ -23599,7 +23605,7 @@
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>68</v>
       </c>
@@ -23614,7 +23620,7 @@
       <c r="G82" s="20"/>
       <c r="H82" s="20"/>
     </row>
-    <row r="83" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -23644,7 +23650,7 @@
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>2</v>
       </c>
@@ -23670,7 +23676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>69</v>
       </c>
@@ -23685,7 +23691,7 @@
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>70</v>
       </c>
@@ -23700,7 +23706,7 @@
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
     </row>
-    <row r="88" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>71</v>
       </c>
@@ -23715,7 +23721,7 @@
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
     </row>
-    <row r="89" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>72</v>
       </c>
@@ -23730,7 +23736,7 @@
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
     </row>
-    <row r="90" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>73</v>
       </c>
@@ -23745,7 +23751,7 @@
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
     </row>
-    <row r="91" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>74</v>
       </c>
@@ -23760,7 +23766,7 @@
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
     </row>
-    <row r="92" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>75</v>
       </c>
@@ -23775,7 +23781,7 @@
       <c r="G92" s="20"/>
       <c r="H92" s="20"/>
     </row>
-    <row r="93" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -23805,7 +23811,7 @@
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
     </row>
-    <row r="95" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>2</v>
       </c>
@@ -23831,7 +23837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>76</v>
       </c>
@@ -23846,7 +23852,7 @@
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
     </row>
-    <row r="97" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>77</v>
       </c>
@@ -23861,7 +23867,7 @@
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
     </row>
-    <row r="98" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>78</v>
       </c>
@@ -23876,7 +23882,7 @@
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
     </row>
-    <row r="99" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>79</v>
       </c>
@@ -23891,7 +23897,7 @@
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
     </row>
-    <row r="100" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>80</v>
       </c>
@@ -23906,7 +23912,7 @@
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
     </row>
-    <row r="101" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>81</v>
       </c>
@@ -23921,7 +23927,7 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
     </row>
-    <row r="102" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>82</v>
       </c>
@@ -23936,7 +23942,7 @@
       <c r="G102" s="20"/>
       <c r="H102" s="20"/>
     </row>
-    <row r="103" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -23966,7 +23972,7 @@
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
     </row>
-    <row r="105" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>2</v>
       </c>
@@ -23992,7 +23998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>83</v>
       </c>
@@ -24007,7 +24013,7 @@
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
     </row>
-    <row r="107" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>84</v>
       </c>
@@ -24022,7 +24028,7 @@
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
     </row>
-    <row r="108" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>85</v>
       </c>
@@ -24037,7 +24043,7 @@
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
     </row>
-    <row r="109" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>86</v>
       </c>
@@ -24052,7 +24058,7 @@
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
     </row>
-    <row r="110" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>87</v>
       </c>
@@ -24067,7 +24073,7 @@
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
     </row>
-    <row r="111" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>88</v>
       </c>
@@ -24082,7 +24088,7 @@
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
     </row>
-    <row r="112" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>89</v>
       </c>
@@ -24097,7 +24103,7 @@
       <c r="G112" s="20"/>
       <c r="H112" s="20"/>
     </row>
-    <row r="113" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -24127,7 +24133,7 @@
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
     </row>
-    <row r="115" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>2</v>
       </c>
@@ -24153,7 +24159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>90</v>
       </c>
@@ -24168,7 +24174,7 @@
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
     </row>
-    <row r="117" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>91</v>
       </c>
@@ -24183,7 +24189,7 @@
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
     </row>
-    <row r="118" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>92</v>
       </c>
@@ -24198,7 +24204,7 @@
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
     </row>
-    <row r="119" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>93</v>
       </c>
@@ -24213,7 +24219,7 @@
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
     </row>
-    <row r="120" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>94</v>
       </c>
@@ -24228,7 +24234,7 @@
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
     </row>
-    <row r="121" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>95</v>
       </c>
@@ -24243,7 +24249,7 @@
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
     </row>
-    <row r="122" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>96</v>
       </c>
@@ -24258,7 +24264,7 @@
       <c r="G122" s="20"/>
       <c r="H122" s="20"/>
     </row>
-    <row r="123" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -24288,7 +24294,7 @@
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
     </row>
-    <row r="125" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>2</v>
       </c>
@@ -24314,7 +24320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="s">
         <v>97</v>
       </c>
@@ -24329,7 +24335,7 @@
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
     </row>
-    <row r="127" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
         <v>98</v>
       </c>
@@ -24344,7 +24350,7 @@
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
     </row>
-    <row r="128" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
         <v>99</v>
       </c>
@@ -24359,7 +24365,7 @@
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
     </row>
-    <row r="129" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
         <v>100</v>
       </c>
@@ -24374,7 +24380,7 @@
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
     </row>
-    <row r="130" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
         <v>101</v>
       </c>
@@ -24389,7 +24395,7 @@
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
     </row>
-    <row r="131" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
         <v>102</v>
       </c>
@@ -24404,7 +24410,7 @@
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
     </row>
-    <row r="132" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
         <v>103</v>
       </c>
@@ -24419,7 +24425,7 @@
       <c r="G132" s="20"/>
       <c r="H132" s="20"/>
     </row>
-    <row r="133" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -24449,7 +24455,7 @@
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
     </row>
-    <row r="135" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>2</v>
       </c>
@@ -24475,7 +24481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="s">
         <v>104</v>
       </c>
@@ -24490,7 +24496,7 @@
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
     </row>
-    <row r="137" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>105</v>
       </c>
@@ -24505,7 +24511,7 @@
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
     </row>
-    <row r="138" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
         <v>106</v>
       </c>
@@ -24520,7 +24526,7 @@
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
     </row>
-    <row r="139" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
         <v>107</v>
       </c>
@@ -24535,7 +24541,7 @@
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
     </row>
-    <row r="140" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
         <v>108</v>
       </c>
@@ -24550,7 +24556,7 @@
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
     </row>
-    <row r="141" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
         <v>109</v>
       </c>
@@ -24565,7 +24571,7 @@
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
     </row>
-    <row r="142" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
         <v>110</v>
       </c>
@@ -24580,7 +24586,7 @@
       <c r="G142" s="20"/>
       <c r="H142" s="20"/>
     </row>
-    <row r="143" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -24610,7 +24616,7 @@
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
     </row>
-    <row r="145" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>2</v>
       </c>
@@ -24636,7 +24642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="10" t="s">
         <v>111</v>
       </c>
@@ -24651,7 +24657,7 @@
       <c r="G146" s="9"/>
       <c r="H146" s="9"/>
     </row>
-    <row r="147" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="10" t="s">
         <v>112</v>
       </c>
@@ -24666,7 +24672,7 @@
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
     </row>
-    <row r="148" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="10" t="s">
         <v>113</v>
       </c>
@@ -24681,7 +24687,7 @@
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
     </row>
-    <row r="149" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="10" t="s">
         <v>114</v>
       </c>
@@ -24696,7 +24702,7 @@
       <c r="G149" s="9"/>
       <c r="H149" s="9"/>
     </row>
-    <row r="150" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="10" t="s">
         <v>115</v>
       </c>
@@ -24711,7 +24717,7 @@
       <c r="G150" s="9"/>
       <c r="H150" s="9"/>
     </row>
-    <row r="151" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
         <v>116</v>
       </c>
@@ -24726,7 +24732,7 @@
       <c r="G151" s="9"/>
       <c r="H151" s="9"/>
     </row>
-    <row r="152" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
         <v>117</v>
       </c>
@@ -24741,7 +24747,7 @@
       <c r="G152" s="20"/>
       <c r="H152" s="20"/>
     </row>
-    <row r="153" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -24771,7 +24777,7 @@
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
     </row>
-    <row r="155" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>2</v>
       </c>
@@ -24797,7 +24803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
         <v>118</v>
       </c>
@@ -24812,7 +24818,7 @@
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
     </row>
-    <row r="157" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
         <v>119</v>
       </c>
@@ -24827,7 +24833,7 @@
       <c r="G157" s="9"/>
       <c r="H157" s="9"/>
     </row>
-    <row r="158" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="10" t="s">
         <v>120</v>
       </c>
@@ -24842,7 +24848,7 @@
       <c r="G158" s="9"/>
       <c r="H158" s="9"/>
     </row>
-    <row r="159" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10" t="s">
         <v>121</v>
       </c>
@@ -24857,7 +24863,7 @@
       <c r="G159" s="9"/>
       <c r="H159" s="9"/>
     </row>
-    <row r="160" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="10" t="s">
         <v>122</v>
       </c>
@@ -24872,7 +24878,7 @@
       <c r="G160" s="9"/>
       <c r="H160" s="9"/>
     </row>
-    <row r="161" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="10" t="s">
         <v>123</v>
       </c>
@@ -24887,7 +24893,7 @@
       <c r="G161" s="9"/>
       <c r="H161" s="9"/>
     </row>
-    <row r="162" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="10" t="s">
         <v>124</v>
       </c>
@@ -24901,7 +24907,7 @@
       <c r="G162" s="20"/>
       <c r="H162" s="20"/>
     </row>
-    <row r="163" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -24931,7 +24937,7 @@
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
     </row>
-    <row r="165" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>2</v>
       </c>
@@ -24957,7 +24963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="10" t="s">
         <v>125</v>
       </c>
@@ -24972,7 +24978,7 @@
       <c r="G166" s="9"/>
       <c r="H166" s="9"/>
     </row>
-    <row r="167" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="s">
         <v>126</v>
       </c>
@@ -24987,7 +24993,7 @@
       <c r="G167" s="9"/>
       <c r="H167" s="9"/>
     </row>
-    <row r="168" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="10" t="s">
         <v>127</v>
       </c>
@@ -25002,7 +25008,7 @@
       <c r="G168" s="9"/>
       <c r="H168" s="9"/>
     </row>
-    <row r="169" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10" t="s">
         <v>128</v>
       </c>
@@ -25017,7 +25023,7 @@
       <c r="G169" s="9"/>
       <c r="H169" s="9"/>
     </row>
-    <row r="170" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="10" t="s">
         <v>129</v>
       </c>
@@ -25032,7 +25038,7 @@
       <c r="G170" s="9"/>
       <c r="H170" s="9"/>
     </row>
-    <row r="171" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="10" t="s">
         <v>130</v>
       </c>
@@ -25047,7 +25053,7 @@
       <c r="G171" s="9"/>
       <c r="H171" s="9"/>
     </row>
-    <row r="172" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="10" t="s">
         <v>131</v>
       </c>
@@ -25062,7 +25068,7 @@
       <c r="G172" s="20"/>
       <c r="H172" s="20"/>
     </row>
-    <row r="173" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -25092,7 +25098,7 @@
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
     </row>
-    <row r="175" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>2</v>
       </c>
@@ -25118,7 +25124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="10" t="s">
         <v>132</v>
       </c>
@@ -25133,7 +25139,7 @@
       <c r="G176" s="9"/>
       <c r="H176" s="9"/>
     </row>
-    <row r="177" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="10" t="s">
         <v>133</v>
       </c>
@@ -25148,7 +25154,7 @@
       <c r="G177" s="9"/>
       <c r="H177" s="9"/>
     </row>
-    <row r="178" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="10" t="s">
         <v>134</v>
       </c>
@@ -25163,7 +25169,7 @@
       <c r="G178" s="9"/>
       <c r="H178" s="9"/>
     </row>
-    <row r="179" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="10" t="s">
         <v>135</v>
       </c>
@@ -25178,7 +25184,7 @@
       <c r="G179" s="9"/>
       <c r="H179" s="9"/>
     </row>
-    <row r="180" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="10" t="s">
         <v>136</v>
       </c>
@@ -25193,7 +25199,7 @@
       <c r="G180" s="9"/>
       <c r="H180" s="9"/>
     </row>
-    <row r="181" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="10" t="s">
         <v>137</v>
       </c>
@@ -25208,7 +25214,7 @@
       <c r="G181" s="9"/>
       <c r="H181" s="9"/>
     </row>
-    <row r="182" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="10" t="s">
         <v>138</v>
       </c>
@@ -25223,7 +25229,7 @@
       <c r="G182" s="20"/>
       <c r="H182" s="20"/>
     </row>
-    <row r="183" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>

--- a/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
+++ b/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lazarus\Documents\GitHub\Voodoo\_Organisation\Zeitplanung\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="6"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265"/>
   </bookViews>
   <sheets>
     <sheet name="Tobias" sheetId="1" r:id="rId1"/>
@@ -21,12 +16,12 @@
     <sheet name="Sonja" sheetId="7" r:id="rId7"/>
     <sheet name="Artjom" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="158">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -498,11 +493,14 @@
   <si>
     <t>Assetliste</t>
   </si>
+  <si>
+    <t>GDD ausgearbeitet, Whitebox Level erstellt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
@@ -554,7 +552,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -583,12 +581,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -863,7 +855,25 @@
     <xf numFmtId="2" fontId="6" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -875,18 +885,34 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -899,32 +925,22 @@
     <xf numFmtId="2" fontId="4" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="2" fontId="6" fillId="8" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -933,21 +949,13 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -970,62 +978,46 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1047,9 +1039,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1087,9 +1079,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1124,7 +1116,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1159,7 +1151,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1335,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,15 +1511,15 @@
       <c r="B10" s="15">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>151</v>
+      <c r="C10" s="86">
+        <v>0.70833333333333337</v>
       </c>
       <c r="D10" s="17">
         <v>1</v>
       </c>
-      <c r="E10" s="12" t="e">
+      <c r="E10" s="12">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>6.5000000000000018</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9" t="s">
@@ -1572,9 +1564,9 @@
       <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="22" t="e">
+      <c r="E13" s="22">
         <f>SUM(E6:E12)</f>
-        <v>#VALUE!</v>
+        <v>35.333333333333336</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1587,9 +1579,9 @@
       <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="19" t="e">
+      <c r="E14" s="19">
         <f>SUM(E13)</f>
-        <v>#VALUE!</v>
+        <v>35.333333333333336</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1754,9 +1746,9 @@
       <c r="D24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="19" t="e">
+      <c r="E24" s="19">
         <f>SUM(E13+E23)</f>
-        <v>#VALUE!</v>
+        <v>36.583333333333336</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1788,19 +1780,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
+      <c r="B26" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="C26" s="15">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D26" s="16">
+        <v>1.5</v>
+      </c>
       <c r="E26" s="12">
         <f>(B26-C26)*-24-D26</f>
-        <v>0</v>
+        <v>6.8333333333333321</v>
       </c>
       <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="G26" s="9" t="s">
+        <v>157</v>
+      </c>
       <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="E33" s="22">
         <f>SUM(E26:E32)</f>
-        <v>0</v>
+        <v>6.8333333333333321</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1915,9 +1915,9 @@
       <c r="D34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="19" t="e">
+      <c r="E34" s="19">
         <f>SUM(E13+E23+E33)</f>
-        <v>#VALUE!</v>
+        <v>43.416666666666671</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -2076,9 +2076,9 @@
       <c r="D44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="19" t="e">
+      <c r="E44" s="19">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>#VALUE!</v>
+        <v>43.416666666666671</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -2237,9 +2237,9 @@
       <c r="D54" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="19" t="e">
+      <c r="E54" s="19">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>#VALUE!</v>
+        <v>43.416666666666671</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2398,9 +2398,9 @@
       <c r="D64" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E64" s="19" t="e">
+      <c r="E64" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>#VALUE!</v>
+        <v>43.416666666666671</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2559,9 +2559,9 @@
       <c r="D74" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="19" t="e">
+      <c r="E74" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>#VALUE!</v>
+        <v>43.416666666666671</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2720,9 +2720,9 @@
       <c r="D84" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E84" s="19" t="e">
+      <c r="E84" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>#VALUE!</v>
+        <v>43.416666666666671</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2881,9 +2881,9 @@
       <c r="D94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E94" s="19" t="e">
+      <c r="E94" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>#VALUE!</v>
+        <v>43.416666666666671</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -3042,9 +3042,9 @@
       <c r="D104" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E104" s="19" t="e">
+      <c r="E104" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>#VALUE!</v>
+        <v>43.416666666666671</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3203,9 +3203,9 @@
       <c r="D114" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E114" s="19" t="e">
+      <c r="E114" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>#VALUE!</v>
+        <v>43.416666666666671</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3364,9 +3364,9 @@
       <c r="D124" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E124" s="19" t="e">
+      <c r="E124" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>#VALUE!</v>
+        <v>43.416666666666671</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3525,9 +3525,9 @@
       <c r="D134" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E134" s="19" t="e">
+      <c r="E134" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>#VALUE!</v>
+        <v>43.416666666666671</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3686,9 +3686,9 @@
       <c r="D144" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E144" s="19" t="e">
+      <c r="E144" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>#VALUE!</v>
+        <v>43.416666666666671</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3847,9 +3847,9 @@
       <c r="D154" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E154" s="19" t="e">
+      <c r="E154" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>#VALUE!</v>
+        <v>43.416666666666671</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -4007,9 +4007,9 @@
       <c r="D164" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E164" s="19" t="e">
+      <c r="E164" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>#VALUE!</v>
+        <v>43.416666666666671</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4168,9 +4168,9 @@
       <c r="D174" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E174" s="19" t="e">
+      <c r="E174" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>#VALUE!</v>
+        <v>43.416666666666671</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4329,9 +4329,9 @@
       <c r="D184" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E184" s="18" t="e">
+      <c r="E184" s="18">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>#VALUE!</v>
+        <v>43.416666666666671</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
@@ -4354,88 +4354,88 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="72" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="65" customWidth="1"/>
-    <col min="4" max="4" width="26" style="58" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="50" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="76" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="86" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="71" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="64" customWidth="1"/>
+    <col min="4" max="4" width="26" style="57" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="49" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="85" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="81"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="81"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67">
+      <c r="B3" s="66">
         <v>0.69791666666666663</v>
       </c>
-      <c r="C3" s="60">
+      <c r="C3" s="59">
         <v>0.75</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="81"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="80"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="74" t="s">
+      <c r="B4" s="67"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="82"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="81"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="83" t="s">
+      <c r="H5" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4443,197 +4443,197 @@
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="70">
+      <c r="B6" s="69">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="62">
         <v>0.75</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="53">
         <v>1</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="40">
         <f>(B6-C6)*-24-D6</f>
         <v>7</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="H6" s="84"/>
+      <c r="H6" s="83"/>
     </row>
     <row r="7" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="66">
         <v>0.375</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="59">
         <v>0.75</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="54">
         <v>1</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="40">
         <f t="shared" ref="E7:E12" si="0">(B7-C7)*-24-D7</f>
         <v>8</v>
       </c>
-      <c r="F7" s="77"/>
-      <c r="G7" s="35" t="s">
+      <c r="F7" s="76"/>
+      <c r="G7" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="H7" s="84"/>
+      <c r="H7" s="83"/>
     </row>
     <row r="8" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="67">
+      <c r="B8" s="66">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C8" s="60">
+      <c r="C8" s="59">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="54">
         <v>2</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="40">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F8" s="77"/>
-      <c r="G8" s="35" t="s">
+      <c r="F8" s="76"/>
+      <c r="G8" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="H8" s="84"/>
+      <c r="H8" s="83"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="67">
+      <c r="B9" s="66">
         <v>0.38194444444444442</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="59">
         <v>0.78125</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="54">
         <v>1.5</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="40">
         <f t="shared" si="0"/>
         <v>8.0833333333333339</v>
       </c>
-      <c r="F9" s="77"/>
-      <c r="G9" s="35" t="s">
+      <c r="F9" s="76"/>
+      <c r="G9" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="84"/>
+      <c r="H9" s="83"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="67">
+      <c r="B10" s="66">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="41" t="e">
+      <c r="D10" s="54"/>
+      <c r="E10" s="40" t="e">
         <f>(B10-C10)*-24-D10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F10" s="77"/>
-      <c r="G10" s="35" t="s">
+      <c r="F10" s="76"/>
+      <c r="G10" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="H10" s="84"/>
+      <c r="H10" s="83"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="42">
+      <c r="B11" s="66"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="77"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="84"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="83"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="43">
+      <c r="B12" s="70"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="78"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="85"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="84"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="51" t="s">
+      <c r="B13" s="65"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="44" t="e">
+      <c r="E13" s="43" t="e">
         <f>SUM(E6:E12)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F13" s="73"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="81"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="80"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="52" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="45" t="e">
+      <c r="E14" s="44" t="e">
         <f>SUM(E13)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F14" s="79"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="82"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="81"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="75" t="s">
+      <c r="F15" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="83" t="s">
+      <c r="H15" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4641,174 +4641,174 @@
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="41">
+      <c r="B16" s="66"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="40">
         <f>(B16-C16)*-24-D16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="77"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="84"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="83"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="41">
+      <c r="B17" s="66"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="40">
         <f t="shared" ref="E17:E22" si="1">(B17-C17)*-24-D17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="77"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="84"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="83"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="67">
+      <c r="B18" s="66">
         <v>0.69791666666666663</v>
       </c>
-      <c r="C18" s="60">
+      <c r="C18" s="59">
         <v>0.75</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="41">
+      <c r="D18" s="54"/>
+      <c r="E18" s="40">
         <f t="shared" si="1"/>
         <v>1.2500000000000009</v>
       </c>
-      <c r="F18" s="77"/>
-      <c r="G18" s="35" t="s">
+      <c r="F18" s="76"/>
+      <c r="G18" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="H18" s="84"/>
+      <c r="H18" s="83"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="41">
+      <c r="B19" s="66"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="77"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="84"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="83"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="67">
+      <c r="B20" s="66">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C20" s="60">
+      <c r="C20" s="59">
         <v>0.71875</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="54">
         <v>1</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="40">
         <f t="shared" si="1"/>
         <v>4.75</v>
       </c>
-      <c r="F20" s="77"/>
-      <c r="G20" s="35" t="s">
+      <c r="F20" s="76"/>
+      <c r="G20" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="H20" s="84"/>
+      <c r="H20" s="83"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="42">
+      <c r="B21" s="66"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="77"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="84"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="83"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="43">
+      <c r="B22" s="70"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="78"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="85"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="84"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="51" t="s">
+      <c r="B23" s="65"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="43">
         <f>SUM(E16:E22)</f>
         <v>6.0000000000000009</v>
       </c>
-      <c r="F23" s="73"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="81"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="80"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="52" t="s">
+      <c r="B24" s="67"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="45" t="e">
+      <c r="E24" s="44" t="e">
         <f>SUM(E13+E23)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F24" s="79"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="82"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="81"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="75" t="s">
+      <c r="F25" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="33" t="s">
+      <c r="G25" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="83" t="s">
+      <c r="H25" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4816,162 +4816,162 @@
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="67">
+      <c r="B26" s="66">
         <v>0.375</v>
       </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="41">
+      <c r="C26" s="59"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="40">
         <f>(B26-C26)*-24-D26</f>
         <v>-9</v>
       </c>
-      <c r="F26" s="77"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="84"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="83"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="67"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="41">
+      <c r="B27" s="66"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="40">
         <f t="shared" ref="E27:E32" si="2">(B27-C27)*-24-D27</f>
         <v>0</v>
       </c>
-      <c r="F27" s="77"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="84"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="83"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="41">
+      <c r="B28" s="66"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F28" s="77"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="84"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="83"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="67"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="41">
+      <c r="B29" s="66"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F29" s="77"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="84"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="83"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="67"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="41">
+      <c r="B30" s="66"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F30" s="77"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="84"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="83"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="67"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="42">
+      <c r="B31" s="66"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F31" s="77"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="84"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="83"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="71"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="43">
+      <c r="B32" s="70"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F32" s="78"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="85"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="84"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="51" t="s">
+      <c r="B33" s="65"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="44">
+      <c r="E33" s="43">
         <f>SUM(E26:E32)</f>
         <v>-9</v>
       </c>
-      <c r="F33" s="73"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="81"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="80"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="52" t="s">
+      <c r="B34" s="67"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="45" t="e">
+      <c r="E34" s="44" t="e">
         <f>SUM(E13+E23+E33)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F34" s="79"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="82"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="81"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="53" t="s">
+      <c r="D35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="46" t="s">
+      <c r="E35" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="75" t="s">
+      <c r="F35" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="G35" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="83" t="s">
+      <c r="H35" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4979,160 +4979,160 @@
       <c r="A36" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="67"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="41">
+      <c r="B36" s="66"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="40">
         <f>(B36-C36)*-24-D36</f>
         <v>0</v>
       </c>
-      <c r="F36" s="77"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="84"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="83"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="67"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="41">
+      <c r="B37" s="66"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="40">
         <f t="shared" ref="E37:E42" si="3">(B37-C37)*-24-D37</f>
         <v>0</v>
       </c>
-      <c r="F37" s="77"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="84"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="83"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="67"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="41">
+      <c r="B38" s="66"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F38" s="77"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="84"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="83"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="67"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="41">
+      <c r="B39" s="66"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F39" s="77"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="84"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="83"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="67"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="41">
+      <c r="B40" s="66"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F40" s="77"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="84"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="83"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="67"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="42">
+      <c r="B41" s="66"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F41" s="77"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="84"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="83"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="71"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="43">
+      <c r="B42" s="70"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F42" s="78"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="85"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="84"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="51" t="s">
+      <c r="B43" s="65"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="44">
+      <c r="E43" s="43">
         <f>SUM(E36:E42)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="73"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="81"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="80"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
-      <c r="B44" s="68"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="52" t="s">
+      <c r="B44" s="67"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="45" t="e">
+      <c r="E44" s="44" t="e">
         <f>SUM(E13+E23+E33+E43)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F44" s="79"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="82"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="81"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="69" t="s">
+      <c r="B45" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="62" t="s">
+      <c r="C45" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="53" t="s">
+      <c r="D45" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F45" s="75" t="s">
+      <c r="F45" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="33" t="s">
+      <c r="G45" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="83" t="s">
+      <c r="H45" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5140,160 +5140,160 @@
       <c r="A46" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="67"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="41">
+      <c r="B46" s="66"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="40">
         <f>(B46-C46)*-24-D46</f>
         <v>0</v>
       </c>
-      <c r="F46" s="77"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="84"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="83"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="67"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="41">
+      <c r="B47" s="66"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="40">
         <f t="shared" ref="E47:E52" si="4">(B47-C47)*-24-D47</f>
         <v>0</v>
       </c>
-      <c r="F47" s="77"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="84"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="83"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="67"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="41">
+      <c r="B48" s="66"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F48" s="77"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="84"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="83"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="67"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="41">
+      <c r="B49" s="66"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F49" s="77"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="84"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="83"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="67"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="41">
+      <c r="B50" s="66"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F50" s="77"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="84"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="83"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="67"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="42">
+      <c r="B51" s="66"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="41">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F51" s="77"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="84"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="83"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="43">
+      <c r="B52" s="70"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F52" s="78"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="85"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="84"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
-      <c r="B53" s="66"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="51" t="s">
+      <c r="B53" s="65"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="44">
+      <c r="E53" s="43">
         <f>SUM(E46:E52)</f>
         <v>0</v>
       </c>
-      <c r="F53" s="73"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="81"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="80"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
-      <c r="B54" s="68"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="52" t="s">
+      <c r="B54" s="67"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="45" t="e">
+      <c r="E54" s="44" t="e">
         <f>SUM(E13+E23+E33+E43+E53)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F54" s="79"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="82"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="81"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="69" t="s">
+      <c r="B55" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="62" t="s">
+      <c r="C55" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="53" t="s">
+      <c r="D55" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="40" t="s">
+      <c r="E55" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F55" s="75" t="s">
+      <c r="F55" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G55" s="33" t="s">
+      <c r="G55" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H55" s="83" t="s">
+      <c r="H55" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5301,160 +5301,160 @@
       <c r="A56" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="67"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="41">
+      <c r="B56" s="66"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="40">
         <f>(B56-C56)*-24-D56</f>
         <v>0</v>
       </c>
-      <c r="F56" s="77"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="84"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="83"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="67"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="41">
+      <c r="B57" s="66"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="40">
         <f t="shared" ref="E57:E62" si="5">(B57-C57)*-24-D57</f>
         <v>0</v>
       </c>
-      <c r="F57" s="77"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="84"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="83"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B58" s="67"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="41">
+      <c r="B58" s="66"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F58" s="77"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="84"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="83"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="67"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="41">
+      <c r="B59" s="66"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F59" s="77"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="84"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="83"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="67"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="41">
+      <c r="B60" s="66"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F60" s="77"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="84"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="83"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="67"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="42">
+      <c r="B61" s="66"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F61" s="77"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="84"/>
+      <c r="F61" s="76"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="83"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="71"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="43">
+      <c r="B62" s="70"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F62" s="78"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="85"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="84"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
-      <c r="B63" s="66"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="51" t="s">
+      <c r="B63" s="65"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="44">
+      <c r="E63" s="43">
         <f>SUM(E56:E62)</f>
         <v>0</v>
       </c>
-      <c r="F63" s="73"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="81"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="80"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
-      <c r="B64" s="68"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="52" t="s">
+      <c r="B64" s="67"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E64" s="45" t="e">
+      <c r="E64" s="44" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F64" s="79"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="82"/>
+      <c r="F64" s="78"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="81"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B65" s="69" t="s">
+      <c r="B65" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="62" t="s">
+      <c r="C65" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D65" s="53" t="s">
+      <c r="D65" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="40" t="s">
+      <c r="E65" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F65" s="75" t="s">
+      <c r="F65" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G65" s="33" t="s">
+      <c r="G65" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H65" s="83" t="s">
+      <c r="H65" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5462,160 +5462,160 @@
       <c r="A66" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B66" s="67"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="41">
+      <c r="B66" s="66"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="40">
         <f>(B66-C66)*-24-D66</f>
         <v>0</v>
       </c>
-      <c r="F66" s="77"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="84"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="83"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B67" s="67"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="41">
+      <c r="B67" s="66"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="40">
         <f t="shared" ref="E67:E72" si="6">(B67-C67)*-24-D67</f>
         <v>0</v>
       </c>
-      <c r="F67" s="77"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="84"/>
+      <c r="F67" s="76"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="83"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B68" s="67"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="41">
+      <c r="B68" s="66"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="40">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F68" s="77"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="84"/>
+      <c r="F68" s="76"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="83"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B69" s="67"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="41">
+      <c r="B69" s="66"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="40">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F69" s="77"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="84"/>
+      <c r="F69" s="76"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="83"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B70" s="67"/>
-      <c r="C70" s="60"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="41">
+      <c r="B70" s="66"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="40">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F70" s="77"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="84"/>
+      <c r="F70" s="76"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="83"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B71" s="67"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="41">
+      <c r="B71" s="66"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="40">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F71" s="77"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="84"/>
+      <c r="F71" s="76"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="83"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B72" s="71"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="57"/>
-      <c r="E72" s="47">
+      <c r="B72" s="70"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F72" s="80"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="85"/>
+      <c r="F72" s="79"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="84"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
-      <c r="B73" s="66"/>
-      <c r="C73" s="59"/>
-      <c r="D73" s="51" t="s">
+      <c r="B73" s="65"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E73" s="48">
+      <c r="E73" s="47">
         <f>SUM(E66:E72)</f>
         <v>0</v>
       </c>
-      <c r="F73" s="73"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="81"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="80"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
-      <c r="B74" s="68"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="52" t="s">
+      <c r="B74" s="67"/>
+      <c r="C74" s="60"/>
+      <c r="D74" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="45" t="e">
+      <c r="E74" s="44" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F74" s="79"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="82"/>
+      <c r="F74" s="78"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="81"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="69" t="s">
+      <c r="B75" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="62" t="s">
+      <c r="C75" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D75" s="53" t="s">
+      <c r="D75" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E75" s="40" t="s">
+      <c r="E75" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F75" s="75" t="s">
+      <c r="F75" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G75" s="33" t="s">
+      <c r="G75" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H75" s="83" t="s">
+      <c r="H75" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5623,160 +5623,160 @@
       <c r="A76" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B76" s="67"/>
-      <c r="C76" s="60"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="41">
+      <c r="B76" s="66"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="40">
         <f>(B76-C76)*-24-D76</f>
         <v>0</v>
       </c>
-      <c r="F76" s="77"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="84"/>
+      <c r="F76" s="76"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="83"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B77" s="67"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="41">
+      <c r="B77" s="66"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="40">
         <f t="shared" ref="E77:E82" si="7">(B77-C77)*-24-D77</f>
         <v>0</v>
       </c>
-      <c r="F77" s="77"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="84"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="83"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B78" s="67"/>
-      <c r="C78" s="60"/>
-      <c r="D78" s="55"/>
-      <c r="E78" s="41">
+      <c r="B78" s="66"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F78" s="77"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="84"/>
+      <c r="F78" s="76"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="83"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B79" s="67"/>
-      <c r="C79" s="60"/>
-      <c r="D79" s="55"/>
-      <c r="E79" s="41">
+      <c r="B79" s="66"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F79" s="77"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="84"/>
+      <c r="F79" s="76"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="83"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B80" s="67"/>
-      <c r="C80" s="60"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="41">
+      <c r="B80" s="66"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F80" s="77"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="84"/>
+      <c r="F80" s="76"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="83"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B81" s="67"/>
-      <c r="C81" s="60"/>
-      <c r="D81" s="55"/>
-      <c r="E81" s="41">
+      <c r="B81" s="66"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F81" s="77"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="84"/>
+      <c r="F81" s="76"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="83"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B82" s="71"/>
-      <c r="C82" s="64"/>
-      <c r="D82" s="57"/>
-      <c r="E82" s="47">
+      <c r="B82" s="70"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F82" s="80"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="85"/>
+      <c r="F82" s="79"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="84"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
-      <c r="B83" s="66"/>
-      <c r="C83" s="59"/>
-      <c r="D83" s="51" t="s">
+      <c r="B83" s="65"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E83" s="48">
+      <c r="E83" s="47">
         <f>SUM(E76:E82)</f>
         <v>0</v>
       </c>
-      <c r="F83" s="73"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="81"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="80"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
-      <c r="B84" s="68"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="52" t="s">
+      <c r="B84" s="67"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E84" s="45" t="e">
+      <c r="E84" s="44" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F84" s="79"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="82"/>
+      <c r="F84" s="78"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="81"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B85" s="69" t="s">
+      <c r="B85" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="62" t="s">
+      <c r="C85" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D85" s="53" t="s">
+      <c r="D85" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E85" s="40" t="s">
+      <c r="E85" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F85" s="75" t="s">
+      <c r="F85" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G85" s="33" t="s">
+      <c r="G85" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H85" s="83" t="s">
+      <c r="H85" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5784,160 +5784,160 @@
       <c r="A86" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B86" s="67"/>
-      <c r="C86" s="60"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="41">
+      <c r="B86" s="66"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="40">
         <f>(B86-C86)*-24-D86</f>
         <v>0</v>
       </c>
-      <c r="F86" s="77"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="84"/>
+      <c r="F86" s="76"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="83"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B87" s="67"/>
-      <c r="C87" s="60"/>
-      <c r="D87" s="55"/>
-      <c r="E87" s="41">
+      <c r="B87" s="66"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="40">
         <f t="shared" ref="E87:E92" si="8">(B87-C87)*-24-D87</f>
         <v>0</v>
       </c>
-      <c r="F87" s="77"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="84"/>
+      <c r="F87" s="76"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="83"/>
     </row>
     <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B88" s="67"/>
-      <c r="C88" s="60"/>
-      <c r="D88" s="55"/>
-      <c r="E88" s="41">
+      <c r="B88" s="66"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="40">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F88" s="77"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="84"/>
+      <c r="F88" s="76"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="83"/>
     </row>
     <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B89" s="67"/>
-      <c r="C89" s="60"/>
-      <c r="D89" s="55"/>
-      <c r="E89" s="41">
+      <c r="B89" s="66"/>
+      <c r="C89" s="59"/>
+      <c r="D89" s="54"/>
+      <c r="E89" s="40">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F89" s="77"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="84"/>
+      <c r="F89" s="76"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="83"/>
     </row>
     <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B90" s="67"/>
-      <c r="C90" s="60"/>
-      <c r="D90" s="55"/>
-      <c r="E90" s="41">
+      <c r="B90" s="66"/>
+      <c r="C90" s="59"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="40">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F90" s="77"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="84"/>
+      <c r="F90" s="76"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="83"/>
     </row>
     <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B91" s="67"/>
-      <c r="C91" s="60"/>
-      <c r="D91" s="55"/>
-      <c r="E91" s="41">
+      <c r="B91" s="66"/>
+      <c r="C91" s="59"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="40">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F91" s="77"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="84"/>
+      <c r="F91" s="76"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="83"/>
     </row>
     <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B92" s="71"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="57"/>
-      <c r="E92" s="47">
+      <c r="B92" s="70"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F92" s="80"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="85"/>
+      <c r="F92" s="79"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="84"/>
     </row>
     <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
-      <c r="B93" s="66"/>
-      <c r="C93" s="59"/>
-      <c r="D93" s="51" t="s">
+      <c r="B93" s="65"/>
+      <c r="C93" s="58"/>
+      <c r="D93" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E93" s="48">
+      <c r="E93" s="47">
         <f>SUM(E86:E92)</f>
         <v>0</v>
       </c>
-      <c r="F93" s="73"/>
-      <c r="G93" s="31"/>
-      <c r="H93" s="81"/>
+      <c r="F93" s="72"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="80"/>
     </row>
     <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
-      <c r="B94" s="68"/>
-      <c r="C94" s="61"/>
-      <c r="D94" s="52" t="s">
+      <c r="B94" s="67"/>
+      <c r="C94" s="60"/>
+      <c r="D94" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E94" s="45" t="e">
+      <c r="E94" s="44" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F94" s="79"/>
-      <c r="G94" s="32"/>
-      <c r="H94" s="82"/>
+      <c r="F94" s="78"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="81"/>
     </row>
     <row r="95" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B95" s="69" t="s">
+      <c r="B95" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C95" s="62" t="s">
+      <c r="C95" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D95" s="53" t="s">
+      <c r="D95" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E95" s="40" t="s">
+      <c r="E95" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F95" s="75" t="s">
+      <c r="F95" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G95" s="33" t="s">
+      <c r="G95" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H95" s="83" t="s">
+      <c r="H95" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5945,160 +5945,160 @@
       <c r="A96" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B96" s="67"/>
-      <c r="C96" s="60"/>
-      <c r="D96" s="55"/>
-      <c r="E96" s="41">
+      <c r="B96" s="66"/>
+      <c r="C96" s="59"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="40">
         <f>(B96-C96)*-24-D96</f>
         <v>0</v>
       </c>
-      <c r="F96" s="77"/>
-      <c r="G96" s="35"/>
-      <c r="H96" s="84"/>
+      <c r="F96" s="76"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="83"/>
     </row>
     <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B97" s="67"/>
-      <c r="C97" s="60"/>
-      <c r="D97" s="55"/>
-      <c r="E97" s="41">
+      <c r="B97" s="66"/>
+      <c r="C97" s="59"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="40">
         <f t="shared" ref="E97:E102" si="9">(B97-C97)*-24-D97</f>
         <v>0</v>
       </c>
-      <c r="F97" s="77"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="84"/>
+      <c r="F97" s="76"/>
+      <c r="G97" s="34"/>
+      <c r="H97" s="83"/>
     </row>
     <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B98" s="67"/>
-      <c r="C98" s="60"/>
-      <c r="D98" s="55"/>
-      <c r="E98" s="41">
+      <c r="B98" s="66"/>
+      <c r="C98" s="59"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="40">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F98" s="77"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="84"/>
+      <c r="F98" s="76"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="83"/>
     </row>
     <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B99" s="67"/>
-      <c r="C99" s="60"/>
-      <c r="D99" s="55"/>
-      <c r="E99" s="41">
+      <c r="B99" s="66"/>
+      <c r="C99" s="59"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="40">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F99" s="77"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="84"/>
+      <c r="F99" s="76"/>
+      <c r="G99" s="34"/>
+      <c r="H99" s="83"/>
     </row>
     <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B100" s="67"/>
-      <c r="C100" s="60"/>
-      <c r="D100" s="55"/>
-      <c r="E100" s="41">
+      <c r="B100" s="66"/>
+      <c r="C100" s="59"/>
+      <c r="D100" s="54"/>
+      <c r="E100" s="40">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F100" s="77"/>
-      <c r="G100" s="35"/>
-      <c r="H100" s="84"/>
+      <c r="F100" s="76"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="83"/>
     </row>
     <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B101" s="67"/>
-      <c r="C101" s="60"/>
-      <c r="D101" s="55"/>
-      <c r="E101" s="41">
+      <c r="B101" s="66"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="40">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F101" s="77"/>
-      <c r="G101" s="35"/>
-      <c r="H101" s="84"/>
+      <c r="F101" s="76"/>
+      <c r="G101" s="34"/>
+      <c r="H101" s="83"/>
     </row>
     <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B102" s="71"/>
-      <c r="C102" s="64"/>
-      <c r="D102" s="57"/>
-      <c r="E102" s="47">
+      <c r="B102" s="70"/>
+      <c r="C102" s="63"/>
+      <c r="D102" s="56"/>
+      <c r="E102" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F102" s="80"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="85"/>
+      <c r="F102" s="79"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="84"/>
     </row>
     <row r="103" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
-      <c r="B103" s="66"/>
-      <c r="C103" s="59"/>
-      <c r="D103" s="51" t="s">
+      <c r="B103" s="65"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E103" s="48">
+      <c r="E103" s="47">
         <f>SUM(E96:E102)</f>
         <v>0</v>
       </c>
-      <c r="F103" s="73"/>
-      <c r="G103" s="31"/>
-      <c r="H103" s="81"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="80"/>
     </row>
     <row r="104" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
-      <c r="B104" s="68"/>
-      <c r="C104" s="61"/>
-      <c r="D104" s="52" t="s">
+      <c r="B104" s="67"/>
+      <c r="C104" s="60"/>
+      <c r="D104" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E104" s="45" t="e">
+      <c r="E104" s="44" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F104" s="79"/>
-      <c r="G104" s="32"/>
-      <c r="H104" s="82"/>
+      <c r="F104" s="78"/>
+      <c r="G104" s="31"/>
+      <c r="H104" s="81"/>
     </row>
     <row r="105" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B105" s="69" t="s">
+      <c r="B105" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C105" s="62" t="s">
+      <c r="C105" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D105" s="53" t="s">
+      <c r="D105" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E105" s="40" t="s">
+      <c r="E105" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F105" s="75" t="s">
+      <c r="F105" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G105" s="33" t="s">
+      <c r="G105" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H105" s="83" t="s">
+      <c r="H105" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6106,160 +6106,160 @@
       <c r="A106" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B106" s="67"/>
-      <c r="C106" s="60"/>
-      <c r="D106" s="55"/>
-      <c r="E106" s="41">
+      <c r="B106" s="66"/>
+      <c r="C106" s="59"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="40">
         <f>(B106-C106)*-24-D106</f>
         <v>0</v>
       </c>
-      <c r="F106" s="77"/>
-      <c r="G106" s="35"/>
-      <c r="H106" s="84"/>
+      <c r="F106" s="76"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="83"/>
     </row>
     <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B107" s="67"/>
-      <c r="C107" s="60"/>
-      <c r="D107" s="55"/>
-      <c r="E107" s="41">
+      <c r="B107" s="66"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="54"/>
+      <c r="E107" s="40">
         <f t="shared" ref="E107:E112" si="10">(B107-C107)*-24-D107</f>
         <v>0</v>
       </c>
-      <c r="F107" s="77"/>
-      <c r="G107" s="35"/>
-      <c r="H107" s="84"/>
+      <c r="F107" s="76"/>
+      <c r="G107" s="34"/>
+      <c r="H107" s="83"/>
     </row>
     <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B108" s="67"/>
-      <c r="C108" s="60"/>
-      <c r="D108" s="55"/>
-      <c r="E108" s="41">
+      <c r="B108" s="66"/>
+      <c r="C108" s="59"/>
+      <c r="D108" s="54"/>
+      <c r="E108" s="40">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F108" s="77"/>
-      <c r="G108" s="35"/>
-      <c r="H108" s="84"/>
+      <c r="F108" s="76"/>
+      <c r="G108" s="34"/>
+      <c r="H108" s="83"/>
     </row>
     <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B109" s="67"/>
-      <c r="C109" s="60"/>
-      <c r="D109" s="55"/>
-      <c r="E109" s="41">
+      <c r="B109" s="66"/>
+      <c r="C109" s="59"/>
+      <c r="D109" s="54"/>
+      <c r="E109" s="40">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F109" s="77"/>
-      <c r="G109" s="35"/>
-      <c r="H109" s="84"/>
+      <c r="F109" s="76"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="83"/>
     </row>
     <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B110" s="67"/>
-      <c r="C110" s="60"/>
-      <c r="D110" s="55"/>
-      <c r="E110" s="41">
+      <c r="B110" s="66"/>
+      <c r="C110" s="59"/>
+      <c r="D110" s="54"/>
+      <c r="E110" s="40">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F110" s="77"/>
-      <c r="G110" s="35"/>
-      <c r="H110" s="84"/>
+      <c r="F110" s="76"/>
+      <c r="G110" s="34"/>
+      <c r="H110" s="83"/>
     </row>
     <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B111" s="67"/>
-      <c r="C111" s="60"/>
-      <c r="D111" s="55"/>
-      <c r="E111" s="41">
+      <c r="B111" s="66"/>
+      <c r="C111" s="59"/>
+      <c r="D111" s="54"/>
+      <c r="E111" s="40">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F111" s="77"/>
-      <c r="G111" s="35"/>
-      <c r="H111" s="84"/>
+      <c r="F111" s="76"/>
+      <c r="G111" s="34"/>
+      <c r="H111" s="83"/>
     </row>
     <row r="112" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B112" s="71"/>
-      <c r="C112" s="64"/>
-      <c r="D112" s="57"/>
-      <c r="E112" s="47">
+      <c r="B112" s="70"/>
+      <c r="C112" s="63"/>
+      <c r="D112" s="56"/>
+      <c r="E112" s="46">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F112" s="80"/>
-      <c r="G112" s="36"/>
-      <c r="H112" s="85"/>
+      <c r="F112" s="79"/>
+      <c r="G112" s="35"/>
+      <c r="H112" s="84"/>
     </row>
     <row r="113" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
-      <c r="B113" s="66"/>
-      <c r="C113" s="59"/>
-      <c r="D113" s="51" t="s">
+      <c r="B113" s="65"/>
+      <c r="C113" s="58"/>
+      <c r="D113" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E113" s="48">
+      <c r="E113" s="47">
         <f>SUM(E106:E112)</f>
         <v>0</v>
       </c>
-      <c r="F113" s="73"/>
-      <c r="G113" s="31"/>
-      <c r="H113" s="81"/>
+      <c r="F113" s="72"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="80"/>
     </row>
     <row r="114" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
-      <c r="B114" s="68"/>
-      <c r="C114" s="61"/>
-      <c r="D114" s="52" t="s">
+      <c r="B114" s="67"/>
+      <c r="C114" s="60"/>
+      <c r="D114" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E114" s="45" t="e">
+      <c r="E114" s="44" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F114" s="79"/>
-      <c r="G114" s="32"/>
-      <c r="H114" s="82"/>
+      <c r="F114" s="78"/>
+      <c r="G114" s="31"/>
+      <c r="H114" s="81"/>
     </row>
     <row r="115" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B115" s="69" t="s">
+      <c r="B115" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C115" s="62" t="s">
+      <c r="C115" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D115" s="53" t="s">
+      <c r="D115" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E115" s="40" t="s">
+      <c r="E115" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F115" s="75" t="s">
+      <c r="F115" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G115" s="33" t="s">
+      <c r="G115" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H115" s="83" t="s">
+      <c r="H115" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6267,160 +6267,160 @@
       <c r="A116" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B116" s="67"/>
-      <c r="C116" s="60"/>
-      <c r="D116" s="55"/>
-      <c r="E116" s="41">
+      <c r="B116" s="66"/>
+      <c r="C116" s="59"/>
+      <c r="D116" s="54"/>
+      <c r="E116" s="40">
         <f>(B116-C116)*-24-D116</f>
         <v>0</v>
       </c>
-      <c r="F116" s="77"/>
-      <c r="G116" s="35"/>
-      <c r="H116" s="84"/>
+      <c r="F116" s="76"/>
+      <c r="G116" s="34"/>
+      <c r="H116" s="83"/>
     </row>
     <row r="117" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B117" s="67"/>
-      <c r="C117" s="60"/>
-      <c r="D117" s="55"/>
-      <c r="E117" s="41">
+      <c r="B117" s="66"/>
+      <c r="C117" s="59"/>
+      <c r="D117" s="54"/>
+      <c r="E117" s="40">
         <f t="shared" ref="E117:E122" si="11">(B117-C117)*-24-D117</f>
         <v>0</v>
       </c>
-      <c r="F117" s="77"/>
-      <c r="G117" s="35"/>
-      <c r="H117" s="84"/>
+      <c r="F117" s="76"/>
+      <c r="G117" s="34"/>
+      <c r="H117" s="83"/>
     </row>
     <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B118" s="67"/>
-      <c r="C118" s="60"/>
-      <c r="D118" s="55"/>
-      <c r="E118" s="41">
+      <c r="B118" s="66"/>
+      <c r="C118" s="59"/>
+      <c r="D118" s="54"/>
+      <c r="E118" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F118" s="77"/>
-      <c r="G118" s="35"/>
-      <c r="H118" s="84"/>
+      <c r="F118" s="76"/>
+      <c r="G118" s="34"/>
+      <c r="H118" s="83"/>
     </row>
     <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B119" s="67"/>
-      <c r="C119" s="60"/>
-      <c r="D119" s="55"/>
-      <c r="E119" s="41">
+      <c r="B119" s="66"/>
+      <c r="C119" s="59"/>
+      <c r="D119" s="54"/>
+      <c r="E119" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F119" s="77"/>
-      <c r="G119" s="35"/>
-      <c r="H119" s="84"/>
+      <c r="F119" s="76"/>
+      <c r="G119" s="34"/>
+      <c r="H119" s="83"/>
     </row>
     <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B120" s="67"/>
-      <c r="C120" s="60"/>
-      <c r="D120" s="55"/>
-      <c r="E120" s="41">
+      <c r="B120" s="66"/>
+      <c r="C120" s="59"/>
+      <c r="D120" s="54"/>
+      <c r="E120" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F120" s="77"/>
-      <c r="G120" s="35"/>
-      <c r="H120" s="84"/>
+      <c r="F120" s="76"/>
+      <c r="G120" s="34"/>
+      <c r="H120" s="83"/>
     </row>
     <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B121" s="67"/>
-      <c r="C121" s="60"/>
-      <c r="D121" s="55"/>
-      <c r="E121" s="41">
+      <c r="B121" s="66"/>
+      <c r="C121" s="59"/>
+      <c r="D121" s="54"/>
+      <c r="E121" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F121" s="77"/>
-      <c r="G121" s="35"/>
-      <c r="H121" s="84"/>
+      <c r="F121" s="76"/>
+      <c r="G121" s="34"/>
+      <c r="H121" s="83"/>
     </row>
     <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B122" s="71"/>
-      <c r="C122" s="64"/>
-      <c r="D122" s="57"/>
-      <c r="E122" s="47">
+      <c r="B122" s="70"/>
+      <c r="C122" s="63"/>
+      <c r="D122" s="56"/>
+      <c r="E122" s="46">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F122" s="80"/>
-      <c r="G122" s="36"/>
-      <c r="H122" s="85"/>
+      <c r="F122" s="79"/>
+      <c r="G122" s="35"/>
+      <c r="H122" s="84"/>
     </row>
     <row r="123" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
-      <c r="B123" s="66"/>
-      <c r="C123" s="59"/>
-      <c r="D123" s="51" t="s">
+      <c r="B123" s="65"/>
+      <c r="C123" s="58"/>
+      <c r="D123" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E123" s="48">
+      <c r="E123" s="47">
         <f>SUM(E116:E122)</f>
         <v>0</v>
       </c>
-      <c r="F123" s="73"/>
-      <c r="G123" s="31"/>
-      <c r="H123" s="81"/>
+      <c r="F123" s="72"/>
+      <c r="G123" s="30"/>
+      <c r="H123" s="80"/>
     </row>
     <row r="124" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
-      <c r="B124" s="68"/>
-      <c r="C124" s="61"/>
-      <c r="D124" s="52" t="s">
+      <c r="B124" s="67"/>
+      <c r="C124" s="60"/>
+      <c r="D124" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E124" s="45" t="e">
+      <c r="E124" s="44" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F124" s="79"/>
-      <c r="G124" s="32"/>
-      <c r="H124" s="82"/>
+      <c r="F124" s="78"/>
+      <c r="G124" s="31"/>
+      <c r="H124" s="81"/>
     </row>
     <row r="125" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B125" s="69" t="s">
+      <c r="B125" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C125" s="62" t="s">
+      <c r="C125" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D125" s="53" t="s">
+      <c r="D125" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E125" s="40" t="s">
+      <c r="E125" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F125" s="75" t="s">
+      <c r="F125" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G125" s="33" t="s">
+      <c r="G125" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H125" s="83" t="s">
+      <c r="H125" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6428,160 +6428,160 @@
       <c r="A126" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B126" s="67"/>
-      <c r="C126" s="60"/>
-      <c r="D126" s="55"/>
-      <c r="E126" s="41">
+      <c r="B126" s="66"/>
+      <c r="C126" s="59"/>
+      <c r="D126" s="54"/>
+      <c r="E126" s="40">
         <f>(B126-C126)*-24-D126</f>
         <v>0</v>
       </c>
-      <c r="F126" s="77"/>
-      <c r="G126" s="35"/>
-      <c r="H126" s="84"/>
+      <c r="F126" s="76"/>
+      <c r="G126" s="34"/>
+      <c r="H126" s="83"/>
     </row>
     <row r="127" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B127" s="67"/>
-      <c r="C127" s="60"/>
-      <c r="D127" s="55"/>
-      <c r="E127" s="41">
+      <c r="B127" s="66"/>
+      <c r="C127" s="59"/>
+      <c r="D127" s="54"/>
+      <c r="E127" s="40">
         <f t="shared" ref="E127:E132" si="12">(B127-C127)*-24-D127</f>
         <v>0</v>
       </c>
-      <c r="F127" s="77"/>
-      <c r="G127" s="35"/>
-      <c r="H127" s="84"/>
+      <c r="F127" s="76"/>
+      <c r="G127" s="34"/>
+      <c r="H127" s="83"/>
     </row>
     <row r="128" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B128" s="67"/>
-      <c r="C128" s="60"/>
-      <c r="D128" s="55"/>
-      <c r="E128" s="41">
+      <c r="B128" s="66"/>
+      <c r="C128" s="59"/>
+      <c r="D128" s="54"/>
+      <c r="E128" s="40">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F128" s="77"/>
-      <c r="G128" s="35"/>
-      <c r="H128" s="84"/>
+      <c r="F128" s="76"/>
+      <c r="G128" s="34"/>
+      <c r="H128" s="83"/>
     </row>
     <row r="129" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B129" s="67"/>
-      <c r="C129" s="60"/>
-      <c r="D129" s="55"/>
-      <c r="E129" s="41">
+      <c r="B129" s="66"/>
+      <c r="C129" s="59"/>
+      <c r="D129" s="54"/>
+      <c r="E129" s="40">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F129" s="77"/>
-      <c r="G129" s="35"/>
-      <c r="H129" s="84"/>
+      <c r="F129" s="76"/>
+      <c r="G129" s="34"/>
+      <c r="H129" s="83"/>
     </row>
     <row r="130" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B130" s="67"/>
-      <c r="C130" s="60"/>
-      <c r="D130" s="55"/>
-      <c r="E130" s="41">
+      <c r="B130" s="66"/>
+      <c r="C130" s="59"/>
+      <c r="D130" s="54"/>
+      <c r="E130" s="40">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F130" s="77"/>
-      <c r="G130" s="35"/>
-      <c r="H130" s="84"/>
+      <c r="F130" s="76"/>
+      <c r="G130" s="34"/>
+      <c r="H130" s="83"/>
     </row>
     <row r="131" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B131" s="67"/>
-      <c r="C131" s="60"/>
-      <c r="D131" s="55"/>
-      <c r="E131" s="41">
+      <c r="B131" s="66"/>
+      <c r="C131" s="59"/>
+      <c r="D131" s="54"/>
+      <c r="E131" s="40">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F131" s="77"/>
-      <c r="G131" s="35"/>
-      <c r="H131" s="84"/>
+      <c r="F131" s="76"/>
+      <c r="G131" s="34"/>
+      <c r="H131" s="83"/>
     </row>
     <row r="132" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B132" s="71"/>
-      <c r="C132" s="64"/>
-      <c r="D132" s="57"/>
-      <c r="E132" s="47">
+      <c r="B132" s="70"/>
+      <c r="C132" s="63"/>
+      <c r="D132" s="56"/>
+      <c r="E132" s="46">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F132" s="80"/>
-      <c r="G132" s="36"/>
-      <c r="H132" s="85"/>
+      <c r="F132" s="79"/>
+      <c r="G132" s="35"/>
+      <c r="H132" s="84"/>
     </row>
     <row r="133" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
-      <c r="B133" s="66"/>
-      <c r="C133" s="59"/>
-      <c r="D133" s="51" t="s">
+      <c r="B133" s="65"/>
+      <c r="C133" s="58"/>
+      <c r="D133" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E133" s="48">
+      <c r="E133" s="47">
         <f>SUM(E126:E132)</f>
         <v>0</v>
       </c>
-      <c r="F133" s="73"/>
-      <c r="G133" s="31"/>
-      <c r="H133" s="81"/>
+      <c r="F133" s="72"/>
+      <c r="G133" s="30"/>
+      <c r="H133" s="80"/>
     </row>
     <row r="134" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
-      <c r="B134" s="68"/>
-      <c r="C134" s="61"/>
-      <c r="D134" s="52" t="s">
+      <c r="B134" s="67"/>
+      <c r="C134" s="60"/>
+      <c r="D134" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E134" s="45" t="e">
+      <c r="E134" s="44" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F134" s="79"/>
-      <c r="G134" s="32"/>
-      <c r="H134" s="82"/>
+      <c r="F134" s="78"/>
+      <c r="G134" s="31"/>
+      <c r="H134" s="81"/>
     </row>
     <row r="135" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B135" s="69" t="s">
+      <c r="B135" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C135" s="62" t="s">
+      <c r="C135" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D135" s="53" t="s">
+      <c r="D135" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E135" s="40" t="s">
+      <c r="E135" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F135" s="75" t="s">
+      <c r="F135" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G135" s="33" t="s">
+      <c r="G135" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H135" s="83" t="s">
+      <c r="H135" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6589,160 +6589,160 @@
       <c r="A136" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B136" s="67"/>
-      <c r="C136" s="60"/>
-      <c r="D136" s="55"/>
-      <c r="E136" s="41">
+      <c r="B136" s="66"/>
+      <c r="C136" s="59"/>
+      <c r="D136" s="54"/>
+      <c r="E136" s="40">
         <f>(B136-C136)*-24-D136</f>
         <v>0</v>
       </c>
-      <c r="F136" s="77"/>
-      <c r="G136" s="35"/>
-      <c r="H136" s="84"/>
+      <c r="F136" s="76"/>
+      <c r="G136" s="34"/>
+      <c r="H136" s="83"/>
     </row>
     <row r="137" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B137" s="67"/>
-      <c r="C137" s="60"/>
-      <c r="D137" s="55"/>
-      <c r="E137" s="41">
+      <c r="B137" s="66"/>
+      <c r="C137" s="59"/>
+      <c r="D137" s="54"/>
+      <c r="E137" s="40">
         <f t="shared" ref="E137:E142" si="13">(B137-C137)*-24-D137</f>
         <v>0</v>
       </c>
-      <c r="F137" s="77"/>
-      <c r="G137" s="35"/>
-      <c r="H137" s="84"/>
+      <c r="F137" s="76"/>
+      <c r="G137" s="34"/>
+      <c r="H137" s="83"/>
     </row>
     <row r="138" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B138" s="67"/>
-      <c r="C138" s="60"/>
-      <c r="D138" s="55"/>
-      <c r="E138" s="41">
+      <c r="B138" s="66"/>
+      <c r="C138" s="59"/>
+      <c r="D138" s="54"/>
+      <c r="E138" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F138" s="77"/>
-      <c r="G138" s="35"/>
-      <c r="H138" s="84"/>
+      <c r="F138" s="76"/>
+      <c r="G138" s="34"/>
+      <c r="H138" s="83"/>
     </row>
     <row r="139" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B139" s="67"/>
-      <c r="C139" s="60"/>
-      <c r="D139" s="55"/>
-      <c r="E139" s="41">
+      <c r="B139" s="66"/>
+      <c r="C139" s="59"/>
+      <c r="D139" s="54"/>
+      <c r="E139" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F139" s="77"/>
-      <c r="G139" s="35"/>
-      <c r="H139" s="84"/>
+      <c r="F139" s="76"/>
+      <c r="G139" s="34"/>
+      <c r="H139" s="83"/>
     </row>
     <row r="140" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B140" s="67"/>
-      <c r="C140" s="60"/>
-      <c r="D140" s="55"/>
-      <c r="E140" s="41">
+      <c r="B140" s="66"/>
+      <c r="C140" s="59"/>
+      <c r="D140" s="54"/>
+      <c r="E140" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F140" s="77"/>
-      <c r="G140" s="35"/>
-      <c r="H140" s="84"/>
+      <c r="F140" s="76"/>
+      <c r="G140" s="34"/>
+      <c r="H140" s="83"/>
     </row>
     <row r="141" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B141" s="67"/>
-      <c r="C141" s="60"/>
-      <c r="D141" s="55"/>
-      <c r="E141" s="41">
+      <c r="B141" s="66"/>
+      <c r="C141" s="59"/>
+      <c r="D141" s="54"/>
+      <c r="E141" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F141" s="77"/>
-      <c r="G141" s="35"/>
-      <c r="H141" s="84"/>
+      <c r="F141" s="76"/>
+      <c r="G141" s="34"/>
+      <c r="H141" s="83"/>
     </row>
     <row r="142" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B142" s="71"/>
-      <c r="C142" s="64"/>
-      <c r="D142" s="57"/>
-      <c r="E142" s="47">
+      <c r="B142" s="70"/>
+      <c r="C142" s="63"/>
+      <c r="D142" s="56"/>
+      <c r="E142" s="46">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F142" s="80"/>
-      <c r="G142" s="36"/>
-      <c r="H142" s="85"/>
+      <c r="F142" s="79"/>
+      <c r="G142" s="35"/>
+      <c r="H142" s="84"/>
     </row>
     <row r="143" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
-      <c r="B143" s="66"/>
-      <c r="C143" s="59"/>
-      <c r="D143" s="51" t="s">
+      <c r="B143" s="65"/>
+      <c r="C143" s="58"/>
+      <c r="D143" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E143" s="48">
+      <c r="E143" s="47">
         <f>SUM(E136:E142)</f>
         <v>0</v>
       </c>
-      <c r="F143" s="73"/>
-      <c r="G143" s="31"/>
-      <c r="H143" s="81"/>
+      <c r="F143" s="72"/>
+      <c r="G143" s="30"/>
+      <c r="H143" s="80"/>
     </row>
     <row r="144" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
-      <c r="B144" s="68"/>
-      <c r="C144" s="61"/>
-      <c r="D144" s="52" t="s">
+      <c r="B144" s="67"/>
+      <c r="C144" s="60"/>
+      <c r="D144" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E144" s="45" t="e">
+      <c r="E144" s="44" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F144" s="79"/>
-      <c r="G144" s="32"/>
-      <c r="H144" s="82"/>
+      <c r="F144" s="78"/>
+      <c r="G144" s="31"/>
+      <c r="H144" s="81"/>
     </row>
     <row r="145" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B145" s="69" t="s">
+      <c r="B145" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C145" s="62" t="s">
+      <c r="C145" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D145" s="53" t="s">
+      <c r="D145" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E145" s="40" t="s">
+      <c r="E145" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F145" s="75" t="s">
+      <c r="F145" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G145" s="33" t="s">
+      <c r="G145" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H145" s="83" t="s">
+      <c r="H145" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6750,160 +6750,160 @@
       <c r="A146" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B146" s="67"/>
-      <c r="C146" s="60"/>
-      <c r="D146" s="55"/>
-      <c r="E146" s="41">
+      <c r="B146" s="66"/>
+      <c r="C146" s="59"/>
+      <c r="D146" s="54"/>
+      <c r="E146" s="40">
         <f>(B146-C146)*-24-D146</f>
         <v>0</v>
       </c>
-      <c r="F146" s="77"/>
-      <c r="G146" s="35"/>
-      <c r="H146" s="84"/>
+      <c r="F146" s="76"/>
+      <c r="G146" s="34"/>
+      <c r="H146" s="83"/>
     </row>
     <row r="147" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B147" s="67"/>
-      <c r="C147" s="60"/>
-      <c r="D147" s="55"/>
-      <c r="E147" s="41">
+      <c r="B147" s="66"/>
+      <c r="C147" s="59"/>
+      <c r="D147" s="54"/>
+      <c r="E147" s="40">
         <f t="shared" ref="E147:E152" si="14">(B147-C147)*-24-D147</f>
         <v>0</v>
       </c>
-      <c r="F147" s="77"/>
-      <c r="G147" s="35"/>
-      <c r="H147" s="84"/>
+      <c r="F147" s="76"/>
+      <c r="G147" s="34"/>
+      <c r="H147" s="83"/>
     </row>
     <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B148" s="67"/>
-      <c r="C148" s="60"/>
-      <c r="D148" s="55"/>
-      <c r="E148" s="41">
+      <c r="B148" s="66"/>
+      <c r="C148" s="59"/>
+      <c r="D148" s="54"/>
+      <c r="E148" s="40">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F148" s="77"/>
-      <c r="G148" s="35"/>
-      <c r="H148" s="84"/>
+      <c r="F148" s="76"/>
+      <c r="G148" s="34"/>
+      <c r="H148" s="83"/>
     </row>
     <row r="149" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B149" s="67"/>
-      <c r="C149" s="60"/>
-      <c r="D149" s="55"/>
-      <c r="E149" s="41">
+      <c r="B149" s="66"/>
+      <c r="C149" s="59"/>
+      <c r="D149" s="54"/>
+      <c r="E149" s="40">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F149" s="77"/>
-      <c r="G149" s="35"/>
-      <c r="H149" s="84"/>
+      <c r="F149" s="76"/>
+      <c r="G149" s="34"/>
+      <c r="H149" s="83"/>
     </row>
     <row r="150" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B150" s="67"/>
-      <c r="C150" s="60"/>
-      <c r="D150" s="55"/>
-      <c r="E150" s="41">
+      <c r="B150" s="66"/>
+      <c r="C150" s="59"/>
+      <c r="D150" s="54"/>
+      <c r="E150" s="40">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F150" s="77"/>
-      <c r="G150" s="35"/>
-      <c r="H150" s="84"/>
+      <c r="F150" s="76"/>
+      <c r="G150" s="34"/>
+      <c r="H150" s="83"/>
     </row>
     <row r="151" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B151" s="67"/>
-      <c r="C151" s="60"/>
-      <c r="D151" s="55"/>
-      <c r="E151" s="41">
+      <c r="B151" s="66"/>
+      <c r="C151" s="59"/>
+      <c r="D151" s="54"/>
+      <c r="E151" s="40">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F151" s="77"/>
-      <c r="G151" s="35"/>
-      <c r="H151" s="84"/>
+      <c r="F151" s="76"/>
+      <c r="G151" s="34"/>
+      <c r="H151" s="83"/>
     </row>
     <row r="152" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B152" s="71"/>
-      <c r="C152" s="64"/>
-      <c r="D152" s="57"/>
-      <c r="E152" s="47">
+      <c r="B152" s="70"/>
+      <c r="C152" s="63"/>
+      <c r="D152" s="56"/>
+      <c r="E152" s="46">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F152" s="80"/>
-      <c r="G152" s="36"/>
-      <c r="H152" s="85"/>
+      <c r="F152" s="79"/>
+      <c r="G152" s="35"/>
+      <c r="H152" s="84"/>
     </row>
     <row r="153" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
-      <c r="B153" s="66"/>
-      <c r="C153" s="59"/>
-      <c r="D153" s="51" t="s">
+      <c r="B153" s="65"/>
+      <c r="C153" s="58"/>
+      <c r="D153" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E153" s="48">
+      <c r="E153" s="47">
         <f>SUM(E146:E152)</f>
         <v>0</v>
       </c>
-      <c r="F153" s="73"/>
-      <c r="G153" s="31"/>
-      <c r="H153" s="81"/>
+      <c r="F153" s="72"/>
+      <c r="G153" s="30"/>
+      <c r="H153" s="80"/>
     </row>
     <row r="154" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
-      <c r="B154" s="68"/>
-      <c r="C154" s="61"/>
-      <c r="D154" s="52" t="s">
+      <c r="B154" s="67"/>
+      <c r="C154" s="60"/>
+      <c r="D154" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E154" s="45" t="e">
+      <c r="E154" s="44" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F154" s="79"/>
-      <c r="G154" s="32"/>
-      <c r="H154" s="82"/>
+      <c r="F154" s="78"/>
+      <c r="G154" s="31"/>
+      <c r="H154" s="81"/>
     </row>
     <row r="155" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B155" s="69" t="s">
+      <c r="B155" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C155" s="62" t="s">
+      <c r="C155" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D155" s="53" t="s">
+      <c r="D155" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E155" s="40" t="s">
+      <c r="E155" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F155" s="75" t="s">
+      <c r="F155" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G155" s="33" t="s">
+      <c r="G155" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H155" s="83" t="s">
+      <c r="H155" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6911,159 +6911,159 @@
       <c r="A156" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B156" s="67"/>
-      <c r="C156" s="60"/>
-      <c r="D156" s="55"/>
-      <c r="E156" s="41">
+      <c r="B156" s="66"/>
+      <c r="C156" s="59"/>
+      <c r="D156" s="54"/>
+      <c r="E156" s="40">
         <f>(B156-C156)*-24-D156</f>
         <v>0</v>
       </c>
-      <c r="F156" s="77"/>
-      <c r="G156" s="35"/>
-      <c r="H156" s="84"/>
+      <c r="F156" s="76"/>
+      <c r="G156" s="34"/>
+      <c r="H156" s="83"/>
     </row>
     <row r="157" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B157" s="67"/>
-      <c r="C157" s="60"/>
-      <c r="D157" s="55"/>
-      <c r="E157" s="41">
+      <c r="B157" s="66"/>
+      <c r="C157" s="59"/>
+      <c r="D157" s="54"/>
+      <c r="E157" s="40">
         <f t="shared" ref="E157:E161" si="15">(B157-C157)*-24-D157</f>
         <v>0</v>
       </c>
-      <c r="F157" s="77"/>
-      <c r="G157" s="35"/>
-      <c r="H157" s="84"/>
+      <c r="F157" s="76"/>
+      <c r="G157" s="34"/>
+      <c r="H157" s="83"/>
     </row>
     <row r="158" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B158" s="67"/>
-      <c r="C158" s="60"/>
-      <c r="D158" s="55"/>
-      <c r="E158" s="41">
+      <c r="B158" s="66"/>
+      <c r="C158" s="59"/>
+      <c r="D158" s="54"/>
+      <c r="E158" s="40">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F158" s="77"/>
-      <c r="G158" s="35"/>
-      <c r="H158" s="84"/>
+      <c r="F158" s="76"/>
+      <c r="G158" s="34"/>
+      <c r="H158" s="83"/>
     </row>
     <row r="159" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B159" s="67"/>
-      <c r="C159" s="60"/>
-      <c r="D159" s="55"/>
-      <c r="E159" s="41">
+      <c r="B159" s="66"/>
+      <c r="C159" s="59"/>
+      <c r="D159" s="54"/>
+      <c r="E159" s="40">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F159" s="77"/>
-      <c r="G159" s="35"/>
-      <c r="H159" s="84"/>
+      <c r="F159" s="76"/>
+      <c r="G159" s="34"/>
+      <c r="H159" s="83"/>
     </row>
     <row r="160" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B160" s="67"/>
-      <c r="C160" s="60"/>
-      <c r="D160" s="55"/>
-      <c r="E160" s="41">
+      <c r="B160" s="66"/>
+      <c r="C160" s="59"/>
+      <c r="D160" s="54"/>
+      <c r="E160" s="40">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F160" s="77"/>
-      <c r="G160" s="35"/>
-      <c r="H160" s="84"/>
+      <c r="F160" s="76"/>
+      <c r="G160" s="34"/>
+      <c r="H160" s="83"/>
     </row>
     <row r="161" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B161" s="67"/>
-      <c r="C161" s="60"/>
-      <c r="D161" s="55"/>
-      <c r="E161" s="41">
+      <c r="B161" s="66"/>
+      <c r="C161" s="59"/>
+      <c r="D161" s="54"/>
+      <c r="E161" s="40">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F161" s="77"/>
-      <c r="G161" s="35"/>
-      <c r="H161" s="84"/>
+      <c r="F161" s="76"/>
+      <c r="G161" s="34"/>
+      <c r="H161" s="83"/>
     </row>
     <row r="162" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B162" s="71"/>
-      <c r="C162" s="64"/>
-      <c r="D162" s="57"/>
-      <c r="E162" s="49">
-        <v>0</v>
-      </c>
-      <c r="F162" s="80"/>
-      <c r="G162" s="36"/>
-      <c r="H162" s="85"/>
+      <c r="B162" s="70"/>
+      <c r="C162" s="63"/>
+      <c r="D162" s="56"/>
+      <c r="E162" s="48">
+        <v>0</v>
+      </c>
+      <c r="F162" s="79"/>
+      <c r="G162" s="35"/>
+      <c r="H162" s="84"/>
     </row>
     <row r="163" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
-      <c r="B163" s="66"/>
-      <c r="C163" s="59"/>
-      <c r="D163" s="51" t="s">
+      <c r="B163" s="65"/>
+      <c r="C163" s="58"/>
+      <c r="D163" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E163" s="48">
+      <c r="E163" s="47">
         <f>SUM(E156:E162)</f>
         <v>0</v>
       </c>
-      <c r="F163" s="73"/>
-      <c r="G163" s="31"/>
-      <c r="H163" s="81"/>
+      <c r="F163" s="72"/>
+      <c r="G163" s="30"/>
+      <c r="H163" s="80"/>
     </row>
     <row r="164" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
-      <c r="B164" s="68"/>
-      <c r="C164" s="61"/>
-      <c r="D164" s="52" t="s">
+      <c r="B164" s="67"/>
+      <c r="C164" s="60"/>
+      <c r="D164" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E164" s="45" t="e">
+      <c r="E164" s="44" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F164" s="79"/>
-      <c r="G164" s="32"/>
-      <c r="H164" s="82"/>
+      <c r="F164" s="78"/>
+      <c r="G164" s="31"/>
+      <c r="H164" s="81"/>
     </row>
     <row r="165" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B165" s="69" t="s">
+      <c r="B165" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C165" s="62" t="s">
+      <c r="C165" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D165" s="53" t="s">
+      <c r="D165" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E165" s="40" t="s">
+      <c r="E165" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F165" s="75" t="s">
+      <c r="F165" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G165" s="33" t="s">
+      <c r="G165" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H165" s="83" t="s">
+      <c r="H165" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7071,160 +7071,160 @@
       <c r="A166" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B166" s="67"/>
-      <c r="C166" s="60"/>
-      <c r="D166" s="55"/>
-      <c r="E166" s="41">
+      <c r="B166" s="66"/>
+      <c r="C166" s="59"/>
+      <c r="D166" s="54"/>
+      <c r="E166" s="40">
         <f>(B166-C166)*-24-D166</f>
         <v>0</v>
       </c>
-      <c r="F166" s="77"/>
-      <c r="G166" s="35"/>
-      <c r="H166" s="84"/>
+      <c r="F166" s="76"/>
+      <c r="G166" s="34"/>
+      <c r="H166" s="83"/>
     </row>
     <row r="167" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B167" s="67"/>
-      <c r="C167" s="60"/>
-      <c r="D167" s="55"/>
-      <c r="E167" s="41">
+      <c r="B167" s="66"/>
+      <c r="C167" s="59"/>
+      <c r="D167" s="54"/>
+      <c r="E167" s="40">
         <f t="shared" ref="E167:E172" si="16">(B167-C167)*-24-D167</f>
         <v>0</v>
       </c>
-      <c r="F167" s="77"/>
-      <c r="G167" s="35"/>
-      <c r="H167" s="84"/>
+      <c r="F167" s="76"/>
+      <c r="G167" s="34"/>
+      <c r="H167" s="83"/>
     </row>
     <row r="168" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B168" s="67"/>
-      <c r="C168" s="60"/>
-      <c r="D168" s="55"/>
-      <c r="E168" s="41">
+      <c r="B168" s="66"/>
+      <c r="C168" s="59"/>
+      <c r="D168" s="54"/>
+      <c r="E168" s="40">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F168" s="77"/>
-      <c r="G168" s="35"/>
-      <c r="H168" s="84"/>
+      <c r="F168" s="76"/>
+      <c r="G168" s="34"/>
+      <c r="H168" s="83"/>
     </row>
     <row r="169" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B169" s="67"/>
-      <c r="C169" s="60"/>
-      <c r="D169" s="55"/>
-      <c r="E169" s="41">
+      <c r="B169" s="66"/>
+      <c r="C169" s="59"/>
+      <c r="D169" s="54"/>
+      <c r="E169" s="40">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F169" s="77"/>
-      <c r="G169" s="35"/>
-      <c r="H169" s="84"/>
+      <c r="F169" s="76"/>
+      <c r="G169" s="34"/>
+      <c r="H169" s="83"/>
     </row>
     <row r="170" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B170" s="67"/>
-      <c r="C170" s="60"/>
-      <c r="D170" s="55"/>
-      <c r="E170" s="41">
+      <c r="B170" s="66"/>
+      <c r="C170" s="59"/>
+      <c r="D170" s="54"/>
+      <c r="E170" s="40">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F170" s="77"/>
-      <c r="G170" s="35"/>
-      <c r="H170" s="84"/>
+      <c r="F170" s="76"/>
+      <c r="G170" s="34"/>
+      <c r="H170" s="83"/>
     </row>
     <row r="171" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B171" s="67"/>
-      <c r="C171" s="60"/>
-      <c r="D171" s="55"/>
-      <c r="E171" s="41">
+      <c r="B171" s="66"/>
+      <c r="C171" s="59"/>
+      <c r="D171" s="54"/>
+      <c r="E171" s="40">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F171" s="77"/>
-      <c r="G171" s="35"/>
-      <c r="H171" s="84"/>
+      <c r="F171" s="76"/>
+      <c r="G171" s="34"/>
+      <c r="H171" s="83"/>
     </row>
     <row r="172" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B172" s="71"/>
-      <c r="C172" s="64"/>
-      <c r="D172" s="57"/>
-      <c r="E172" s="47">
+      <c r="B172" s="70"/>
+      <c r="C172" s="63"/>
+      <c r="D172" s="56"/>
+      <c r="E172" s="46">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F172" s="80"/>
-      <c r="G172" s="36"/>
-      <c r="H172" s="85"/>
+      <c r="F172" s="79"/>
+      <c r="G172" s="35"/>
+      <c r="H172" s="84"/>
     </row>
     <row r="173" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
-      <c r="B173" s="66"/>
-      <c r="C173" s="59"/>
-      <c r="D173" s="51" t="s">
+      <c r="B173" s="65"/>
+      <c r="C173" s="58"/>
+      <c r="D173" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E173" s="48">
+      <c r="E173" s="47">
         <f>SUM(E166:E172)</f>
         <v>0</v>
       </c>
-      <c r="F173" s="73"/>
-      <c r="G173" s="31"/>
-      <c r="H173" s="81"/>
+      <c r="F173" s="72"/>
+      <c r="G173" s="30"/>
+      <c r="H173" s="80"/>
     </row>
     <row r="174" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
-      <c r="B174" s="68"/>
-      <c r="C174" s="61"/>
-      <c r="D174" s="52" t="s">
+      <c r="B174" s="67"/>
+      <c r="C174" s="60"/>
+      <c r="D174" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E174" s="45" t="e">
+      <c r="E174" s="44" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F174" s="79"/>
-      <c r="G174" s="32"/>
-      <c r="H174" s="82"/>
+      <c r="F174" s="78"/>
+      <c r="G174" s="31"/>
+      <c r="H174" s="81"/>
     </row>
     <row r="175" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B175" s="69" t="s">
+      <c r="B175" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C175" s="62" t="s">
+      <c r="C175" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D175" s="53" t="s">
+      <c r="D175" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E175" s="40" t="s">
+      <c r="E175" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F175" s="75" t="s">
+      <c r="F175" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G175" s="33" t="s">
+      <c r="G175" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H175" s="83" t="s">
+      <c r="H175" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7232,136 +7232,136 @@
       <c r="A176" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B176" s="67"/>
-      <c r="C176" s="60"/>
-      <c r="D176" s="55"/>
-      <c r="E176" s="41">
+      <c r="B176" s="66"/>
+      <c r="C176" s="59"/>
+      <c r="D176" s="54"/>
+      <c r="E176" s="40">
         <f>(B176-C176)*-24-D176</f>
         <v>0</v>
       </c>
-      <c r="F176" s="77"/>
-      <c r="G176" s="35"/>
-      <c r="H176" s="84"/>
+      <c r="F176" s="76"/>
+      <c r="G176" s="34"/>
+      <c r="H176" s="83"/>
     </row>
     <row r="177" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B177" s="67"/>
-      <c r="C177" s="60"/>
-      <c r="D177" s="55"/>
-      <c r="E177" s="41">
+      <c r="B177" s="66"/>
+      <c r="C177" s="59"/>
+      <c r="D177" s="54"/>
+      <c r="E177" s="40">
         <f t="shared" ref="E177:E182" si="17">(B177-C177)*-24-D177</f>
         <v>0</v>
       </c>
-      <c r="F177" s="77"/>
-      <c r="G177" s="35"/>
-      <c r="H177" s="84"/>
+      <c r="F177" s="76"/>
+      <c r="G177" s="34"/>
+      <c r="H177" s="83"/>
     </row>
     <row r="178" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B178" s="67"/>
-      <c r="C178" s="60"/>
-      <c r="D178" s="55"/>
-      <c r="E178" s="41">
+      <c r="B178" s="66"/>
+      <c r="C178" s="59"/>
+      <c r="D178" s="54"/>
+      <c r="E178" s="40">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F178" s="77"/>
-      <c r="G178" s="35"/>
-      <c r="H178" s="84"/>
+      <c r="F178" s="76"/>
+      <c r="G178" s="34"/>
+      <c r="H178" s="83"/>
     </row>
     <row r="179" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B179" s="67"/>
-      <c r="C179" s="60"/>
-      <c r="D179" s="55"/>
-      <c r="E179" s="41">
+      <c r="B179" s="66"/>
+      <c r="C179" s="59"/>
+      <c r="D179" s="54"/>
+      <c r="E179" s="40">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F179" s="77"/>
-      <c r="G179" s="35"/>
-      <c r="H179" s="84"/>
+      <c r="F179" s="76"/>
+      <c r="G179" s="34"/>
+      <c r="H179" s="83"/>
     </row>
     <row r="180" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B180" s="67"/>
-      <c r="C180" s="60"/>
-      <c r="D180" s="55"/>
-      <c r="E180" s="41">
+      <c r="B180" s="66"/>
+      <c r="C180" s="59"/>
+      <c r="D180" s="54"/>
+      <c r="E180" s="40">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F180" s="77"/>
-      <c r="G180" s="35"/>
-      <c r="H180" s="84"/>
+      <c r="F180" s="76"/>
+      <c r="G180" s="34"/>
+      <c r="H180" s="83"/>
     </row>
     <row r="181" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B181" s="67"/>
-      <c r="C181" s="60"/>
-      <c r="D181" s="55"/>
-      <c r="E181" s="41">
+      <c r="B181" s="66"/>
+      <c r="C181" s="59"/>
+      <c r="D181" s="54"/>
+      <c r="E181" s="40">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F181" s="77"/>
-      <c r="G181" s="35"/>
-      <c r="H181" s="84"/>
+      <c r="F181" s="76"/>
+      <c r="G181" s="34"/>
+      <c r="H181" s="83"/>
     </row>
     <row r="182" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B182" s="71"/>
-      <c r="C182" s="64"/>
-      <c r="D182" s="57"/>
-      <c r="E182" s="47">
+      <c r="B182" s="70"/>
+      <c r="C182" s="63"/>
+      <c r="D182" s="56"/>
+      <c r="E182" s="46">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F182" s="80"/>
-      <c r="G182" s="36"/>
-      <c r="H182" s="85"/>
+      <c r="F182" s="79"/>
+      <c r="G182" s="35"/>
+      <c r="H182" s="84"/>
     </row>
     <row r="183" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
-      <c r="B183" s="66"/>
-      <c r="C183" s="59"/>
-      <c r="D183" s="51" t="s">
+      <c r="B183" s="65"/>
+      <c r="C183" s="58"/>
+      <c r="D183" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E183" s="48">
+      <c r="E183" s="47">
         <f>SUM(E176:E182)</f>
         <v>0</v>
       </c>
-      <c r="F183" s="73"/>
-      <c r="G183" s="31"/>
-      <c r="H183" s="81"/>
+      <c r="F183" s="72"/>
+      <c r="G183" s="30"/>
+      <c r="H183" s="80"/>
     </row>
     <row r="184" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
-      <c r="B184" s="66"/>
-      <c r="C184" s="59"/>
-      <c r="D184" s="51" t="s">
+      <c r="B184" s="65"/>
+      <c r="C184" s="58"/>
+      <c r="D184" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E184" s="48" t="e">
+      <c r="E184" s="47" t="e">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F184" s="73"/>
-      <c r="G184" s="31"/>
-      <c r="H184" s="81"/>
+      <c r="F184" s="72"/>
+      <c r="G184" s="30"/>
+      <c r="H184" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -19316,7 +19316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -22648,7 +22648,7 @@
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
     </row>
-    <row r="23" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -22678,7 +22678,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>2</v>
       </c>
@@ -22704,7 +22704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
@@ -22719,7 +22719,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
@@ -22734,7 +22734,7 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
@@ -22749,7 +22749,7 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
@@ -22764,7 +22764,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
@@ -22779,7 +22779,7 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
@@ -22794,7 +22794,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>33</v>
       </c>
@@ -22809,7 +22809,7 @@
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
     </row>
-    <row r="33" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -22839,7 +22839,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>2</v>
       </c>
@@ -22865,7 +22865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>34</v>
       </c>
@@ -22880,7 +22880,7 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>35</v>
       </c>
@@ -22895,7 +22895,7 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>36</v>
       </c>
@@ -22910,7 +22910,7 @@
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>37</v>
       </c>
@@ -22925,7 +22925,7 @@
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>38</v>
       </c>
@@ -22940,7 +22940,7 @@
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>39</v>
       </c>
@@ -22955,7 +22955,7 @@
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>40</v>
       </c>
@@ -22970,7 +22970,7 @@
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
     </row>
-    <row r="43" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -23000,7 +23000,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>2</v>
       </c>
@@ -23026,7 +23026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>41</v>
       </c>
@@ -23041,7 +23041,7 @@
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>42</v>
       </c>
@@ -23056,7 +23056,7 @@
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
     </row>
-    <row r="48" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>43</v>
       </c>
@@ -23071,7 +23071,7 @@
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>44</v>
       </c>
@@ -23086,7 +23086,7 @@
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>45</v>
       </c>
@@ -23101,7 +23101,7 @@
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>46</v>
       </c>
@@ -23116,7 +23116,7 @@
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>47</v>
       </c>
@@ -23131,7 +23131,7 @@
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
     </row>
-    <row r="53" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -23161,7 +23161,7 @@
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>2</v>
       </c>
@@ -23187,7 +23187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>48</v>
       </c>
@@ -23202,7 +23202,7 @@
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>49</v>
       </c>
@@ -23217,7 +23217,7 @@
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>50</v>
       </c>
@@ -23232,7 +23232,7 @@
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>51</v>
       </c>
@@ -23247,7 +23247,7 @@
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>52</v>
       </c>
@@ -23262,7 +23262,7 @@
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>53</v>
       </c>
@@ -23277,7 +23277,7 @@
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>54</v>
       </c>
@@ -23292,7 +23292,7 @@
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
     </row>
-    <row r="63" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -23322,7 +23322,7 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>2</v>
       </c>
@@ -23348,7 +23348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>55</v>
       </c>
@@ -23363,7 +23363,7 @@
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>56</v>
       </c>
@@ -23378,7 +23378,7 @@
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>57</v>
       </c>
@@ -23393,7 +23393,7 @@
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>58</v>
       </c>
@@ -23408,7 +23408,7 @@
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>59</v>
       </c>
@@ -23423,7 +23423,7 @@
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>60</v>
       </c>
@@ -23438,7 +23438,7 @@
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>61</v>
       </c>
@@ -23453,7 +23453,7 @@
       <c r="G72" s="20"/>
       <c r="H72" s="20"/>
     </row>
-    <row r="73" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -23483,7 +23483,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>2</v>
       </c>
@@ -23509,7 +23509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>62</v>
       </c>
@@ -23524,7 +23524,7 @@
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>63</v>
       </c>
@@ -23539,7 +23539,7 @@
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>64</v>
       </c>
@@ -23554,7 +23554,7 @@
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>65</v>
       </c>
@@ -23569,7 +23569,7 @@
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>66</v>
       </c>
@@ -23584,7 +23584,7 @@
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>67</v>
       </c>
@@ -23599,7 +23599,7 @@
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>68</v>
       </c>
@@ -23614,7 +23614,7 @@
       <c r="G82" s="20"/>
       <c r="H82" s="20"/>
     </row>
-    <row r="83" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -23644,7 +23644,7 @@
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>2</v>
       </c>
@@ -23670,7 +23670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>69</v>
       </c>
@@ -23685,7 +23685,7 @@
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>70</v>
       </c>
@@ -23700,7 +23700,7 @@
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
     </row>
-    <row r="88" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>71</v>
       </c>
@@ -23715,7 +23715,7 @@
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
     </row>
-    <row r="89" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>72</v>
       </c>
@@ -23730,7 +23730,7 @@
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
     </row>
-    <row r="90" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>73</v>
       </c>
@@ -23745,7 +23745,7 @@
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
     </row>
-    <row r="91" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>74</v>
       </c>
@@ -23760,7 +23760,7 @@
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
     </row>
-    <row r="92" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>75</v>
       </c>
@@ -23775,7 +23775,7 @@
       <c r="G92" s="20"/>
       <c r="H92" s="20"/>
     </row>
-    <row r="93" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -23805,7 +23805,7 @@
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
     </row>
-    <row r="95" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>2</v>
       </c>
@@ -23831,7 +23831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>76</v>
       </c>
@@ -23846,7 +23846,7 @@
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
     </row>
-    <row r="97" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>77</v>
       </c>
@@ -23861,7 +23861,7 @@
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
     </row>
-    <row r="98" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>78</v>
       </c>
@@ -23876,7 +23876,7 @@
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
     </row>
-    <row r="99" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>79</v>
       </c>
@@ -23891,7 +23891,7 @@
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
     </row>
-    <row r="100" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>80</v>
       </c>
@@ -23906,7 +23906,7 @@
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
     </row>
-    <row r="101" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>81</v>
       </c>
@@ -23921,7 +23921,7 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
     </row>
-    <row r="102" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>82</v>
       </c>
@@ -23936,7 +23936,7 @@
       <c r="G102" s="20"/>
       <c r="H102" s="20"/>
     </row>
-    <row r="103" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -23966,7 +23966,7 @@
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
     </row>
-    <row r="105" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>2</v>
       </c>
@@ -23992,7 +23992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>83</v>
       </c>
@@ -24007,7 +24007,7 @@
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
     </row>
-    <row r="107" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>84</v>
       </c>
@@ -24022,7 +24022,7 @@
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
     </row>
-    <row r="108" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>85</v>
       </c>
@@ -24037,7 +24037,7 @@
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
     </row>
-    <row r="109" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>86</v>
       </c>
@@ -24052,7 +24052,7 @@
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
     </row>
-    <row r="110" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>87</v>
       </c>
@@ -24067,7 +24067,7 @@
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
     </row>
-    <row r="111" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>88</v>
       </c>
@@ -24082,7 +24082,7 @@
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
     </row>
-    <row r="112" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>89</v>
       </c>
@@ -24097,7 +24097,7 @@
       <c r="G112" s="20"/>
       <c r="H112" s="20"/>
     </row>
-    <row r="113" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -24127,7 +24127,7 @@
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
     </row>
-    <row r="115" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>2</v>
       </c>
@@ -24153,7 +24153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>90</v>
       </c>
@@ -24168,7 +24168,7 @@
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
     </row>
-    <row r="117" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>91</v>
       </c>
@@ -24183,7 +24183,7 @@
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
     </row>
-    <row r="118" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>92</v>
       </c>
@@ -24198,7 +24198,7 @@
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
     </row>
-    <row r="119" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>93</v>
       </c>
@@ -24213,7 +24213,7 @@
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
     </row>
-    <row r="120" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>94</v>
       </c>
@@ -24228,7 +24228,7 @@
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
     </row>
-    <row r="121" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>95</v>
       </c>
@@ -24243,7 +24243,7 @@
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
     </row>
-    <row r="122" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>96</v>
       </c>
@@ -24258,7 +24258,7 @@
       <c r="G122" s="20"/>
       <c r="H122" s="20"/>
     </row>
-    <row r="123" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -24288,7 +24288,7 @@
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
     </row>
-    <row r="125" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>2</v>
       </c>
@@ -24314,7 +24314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="s">
         <v>97</v>
       </c>
@@ -24329,7 +24329,7 @@
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
     </row>
-    <row r="127" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
         <v>98</v>
       </c>
@@ -24344,7 +24344,7 @@
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
     </row>
-    <row r="128" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
         <v>99</v>
       </c>
@@ -24359,7 +24359,7 @@
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
     </row>
-    <row r="129" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
         <v>100</v>
       </c>
@@ -24374,7 +24374,7 @@
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
     </row>
-    <row r="130" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
         <v>101</v>
       </c>
@@ -24389,7 +24389,7 @@
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
     </row>
-    <row r="131" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
         <v>102</v>
       </c>
@@ -24404,7 +24404,7 @@
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
     </row>
-    <row r="132" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
         <v>103</v>
       </c>
@@ -24419,7 +24419,7 @@
       <c r="G132" s="20"/>
       <c r="H132" s="20"/>
     </row>
-    <row r="133" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -24449,7 +24449,7 @@
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
     </row>
-    <row r="135" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>2</v>
       </c>
@@ -24475,7 +24475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="s">
         <v>104</v>
       </c>
@@ -24490,7 +24490,7 @@
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
     </row>
-    <row r="137" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>105</v>
       </c>
@@ -24505,7 +24505,7 @@
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
     </row>
-    <row r="138" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
         <v>106</v>
       </c>
@@ -24520,7 +24520,7 @@
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
     </row>
-    <row r="139" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
         <v>107</v>
       </c>
@@ -24535,7 +24535,7 @@
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
     </row>
-    <row r="140" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
         <v>108</v>
       </c>
@@ -24550,7 +24550,7 @@
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
     </row>
-    <row r="141" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
         <v>109</v>
       </c>
@@ -24565,7 +24565,7 @@
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
     </row>
-    <row r="142" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
         <v>110</v>
       </c>
@@ -24580,7 +24580,7 @@
       <c r="G142" s="20"/>
       <c r="H142" s="20"/>
     </row>
-    <row r="143" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -24610,7 +24610,7 @@
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
     </row>
-    <row r="145" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>2</v>
       </c>
@@ -24636,7 +24636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="10" t="s">
         <v>111</v>
       </c>
@@ -24651,7 +24651,7 @@
       <c r="G146" s="9"/>
       <c r="H146" s="9"/>
     </row>
-    <row r="147" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="10" t="s">
         <v>112</v>
       </c>
@@ -24666,7 +24666,7 @@
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
     </row>
-    <row r="148" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="10" t="s">
         <v>113</v>
       </c>
@@ -24681,7 +24681,7 @@
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
     </row>
-    <row r="149" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="10" t="s">
         <v>114</v>
       </c>
@@ -24696,7 +24696,7 @@
       <c r="G149" s="9"/>
       <c r="H149" s="9"/>
     </row>
-    <row r="150" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="10" t="s">
         <v>115</v>
       </c>
@@ -24711,7 +24711,7 @@
       <c r="G150" s="9"/>
       <c r="H150" s="9"/>
     </row>
-    <row r="151" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
         <v>116</v>
       </c>
@@ -24726,7 +24726,7 @@
       <c r="G151" s="9"/>
       <c r="H151" s="9"/>
     </row>
-    <row r="152" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
         <v>117</v>
       </c>
@@ -24741,7 +24741,7 @@
       <c r="G152" s="20"/>
       <c r="H152" s="20"/>
     </row>
-    <row r="153" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -24771,7 +24771,7 @@
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
     </row>
-    <row r="155" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>2</v>
       </c>
@@ -24797,7 +24797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
         <v>118</v>
       </c>
@@ -24812,7 +24812,7 @@
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
     </row>
-    <row r="157" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
         <v>119</v>
       </c>
@@ -24827,7 +24827,7 @@
       <c r="G157" s="9"/>
       <c r="H157" s="9"/>
     </row>
-    <row r="158" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="10" t="s">
         <v>120</v>
       </c>
@@ -24842,7 +24842,7 @@
       <c r="G158" s="9"/>
       <c r="H158" s="9"/>
     </row>
-    <row r="159" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10" t="s">
         <v>121</v>
       </c>
@@ -24857,7 +24857,7 @@
       <c r="G159" s="9"/>
       <c r="H159" s="9"/>
     </row>
-    <row r="160" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="10" t="s">
         <v>122</v>
       </c>
@@ -24872,7 +24872,7 @@
       <c r="G160" s="9"/>
       <c r="H160" s="9"/>
     </row>
-    <row r="161" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="10" t="s">
         <v>123</v>
       </c>
@@ -24887,7 +24887,7 @@
       <c r="G161" s="9"/>
       <c r="H161" s="9"/>
     </row>
-    <row r="162" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="10" t="s">
         <v>124</v>
       </c>
@@ -24901,7 +24901,7 @@
       <c r="G162" s="20"/>
       <c r="H162" s="20"/>
     </row>
-    <row r="163" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -24931,7 +24931,7 @@
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
     </row>
-    <row r="165" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>2</v>
       </c>
@@ -24957,7 +24957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="10" t="s">
         <v>125</v>
       </c>
@@ -24972,7 +24972,7 @@
       <c r="G166" s="9"/>
       <c r="H166" s="9"/>
     </row>
-    <row r="167" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="s">
         <v>126</v>
       </c>
@@ -24987,7 +24987,7 @@
       <c r="G167" s="9"/>
       <c r="H167" s="9"/>
     </row>
-    <row r="168" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="10" t="s">
         <v>127</v>
       </c>
@@ -25002,7 +25002,7 @@
       <c r="G168" s="9"/>
       <c r="H168" s="9"/>
     </row>
-    <row r="169" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10" t="s">
         <v>128</v>
       </c>
@@ -25017,7 +25017,7 @@
       <c r="G169" s="9"/>
       <c r="H169" s="9"/>
     </row>
-    <row r="170" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="10" t="s">
         <v>129</v>
       </c>
@@ -25032,7 +25032,7 @@
       <c r="G170" s="9"/>
       <c r="H170" s="9"/>
     </row>
-    <row r="171" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="10" t="s">
         <v>130</v>
       </c>
@@ -25047,7 +25047,7 @@
       <c r="G171" s="9"/>
       <c r="H171" s="9"/>
     </row>
-    <row r="172" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="10" t="s">
         <v>131</v>
       </c>
@@ -25062,7 +25062,7 @@
       <c r="G172" s="20"/>
       <c r="H172" s="20"/>
     </row>
-    <row r="173" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -25092,7 +25092,7 @@
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
     </row>
-    <row r="175" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>2</v>
       </c>
@@ -25118,7 +25118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="10" t="s">
         <v>132</v>
       </c>
@@ -25133,7 +25133,7 @@
       <c r="G176" s="9"/>
       <c r="H176" s="9"/>
     </row>
-    <row r="177" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="10" t="s">
         <v>133</v>
       </c>
@@ -25148,7 +25148,7 @@
       <c r="G177" s="9"/>
       <c r="H177" s="9"/>
     </row>
-    <row r="178" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="10" t="s">
         <v>134</v>
       </c>
@@ -25163,7 +25163,7 @@
       <c r="G178" s="9"/>
       <c r="H178" s="9"/>
     </row>
-    <row r="179" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="10" t="s">
         <v>135</v>
       </c>
@@ -25178,7 +25178,7 @@
       <c r="G179" s="9"/>
       <c r="H179" s="9"/>
     </row>
-    <row r="180" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="10" t="s">
         <v>136</v>
       </c>
@@ -25193,7 +25193,7 @@
       <c r="G180" s="9"/>
       <c r="H180" s="9"/>
     </row>
-    <row r="181" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="10" t="s">
         <v>137</v>
       </c>
@@ -25208,7 +25208,7 @@
       <c r="G181" s="9"/>
       <c r="H181" s="9"/>
     </row>
-    <row r="182" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="10" t="s">
         <v>138</v>
       </c>
@@ -25223,7 +25223,7 @@
       <c r="G182" s="20"/>
       <c r="H182" s="20"/>
     </row>
-    <row r="183" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>

--- a/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
+++ b/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tobias" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="158">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -476,9 +476,6 @@
     <t>Mechaniken + GDD ausgearbeitet (Game Loop)</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>Meeting</t>
   </si>
   <si>
@@ -495,6 +492,9 @@
   </si>
   <si>
     <t>Konzept Fetisch, 3D Wand &amp; Tür</t>
+  </si>
+  <si>
+    <t>Assetliste, Voodoo Puppe Mesh</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,12 +581,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -861,7 +855,25 @@
     <xf numFmtId="2" fontId="6" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -873,18 +885,34 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -897,32 +925,22 @@
     <xf numFmtId="2" fontId="4" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="2" fontId="6" fillId="8" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -931,21 +949,13 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -968,64 +978,46 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
@@ -1334,7 +1326,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,15 +1509,15 @@
       <c r="B10" s="15">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>151</v>
+      <c r="C10" s="86">
+        <v>0.70833333333333337</v>
       </c>
       <c r="D10" s="17">
         <v>1</v>
       </c>
-      <c r="E10" s="12" t="e">
+      <c r="E10" s="12">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>6.5000000000000018</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9" t="s">
@@ -1570,9 +1562,9 @@
       <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="22" t="e">
+      <c r="E13" s="22">
         <f>SUM(E6:E12)</f>
-        <v>#VALUE!</v>
+        <v>35.333333333333336</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1585,9 +1577,9 @@
       <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="19" t="e">
+      <c r="E14" s="19">
         <f>SUM(E13)</f>
-        <v>#VALUE!</v>
+        <v>35.333333333333336</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1752,9 +1744,9 @@
       <c r="D24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="19" t="e">
+      <c r="E24" s="19">
         <f>SUM(E13+E23)</f>
-        <v>#VALUE!</v>
+        <v>36.583333333333336</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1913,9 +1905,9 @@
       <c r="D34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="19" t="e">
+      <c r="E34" s="19">
         <f>SUM(E13+E23+E33)</f>
-        <v>#VALUE!</v>
+        <v>36.583333333333336</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -2074,9 +2066,9 @@
       <c r="D44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="19" t="e">
+      <c r="E44" s="19">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>#VALUE!</v>
+        <v>36.583333333333336</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -2235,9 +2227,9 @@
       <c r="D54" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="19" t="e">
+      <c r="E54" s="19">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>#VALUE!</v>
+        <v>36.583333333333336</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2396,9 +2388,9 @@
       <c r="D64" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E64" s="19" t="e">
+      <c r="E64" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>#VALUE!</v>
+        <v>36.583333333333336</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2557,9 +2549,9 @@
       <c r="D74" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="19" t="e">
+      <c r="E74" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>#VALUE!</v>
+        <v>36.583333333333336</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2718,9 +2710,9 @@
       <c r="D84" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E84" s="19" t="e">
+      <c r="E84" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>#VALUE!</v>
+        <v>36.583333333333336</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2879,9 +2871,9 @@
       <c r="D94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E94" s="19" t="e">
+      <c r="E94" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>#VALUE!</v>
+        <v>36.583333333333336</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -3040,9 +3032,9 @@
       <c r="D104" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E104" s="19" t="e">
+      <c r="E104" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>#VALUE!</v>
+        <v>36.583333333333336</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3201,9 +3193,9 @@
       <c r="D114" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E114" s="19" t="e">
+      <c r="E114" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>#VALUE!</v>
+        <v>36.583333333333336</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3362,9 +3354,9 @@
       <c r="D124" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E124" s="19" t="e">
+      <c r="E124" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>#VALUE!</v>
+        <v>36.583333333333336</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3523,9 +3515,9 @@
       <c r="D134" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E134" s="19" t="e">
+      <c r="E134" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>#VALUE!</v>
+        <v>36.583333333333336</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3684,9 +3676,9 @@
       <c r="D144" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E144" s="19" t="e">
+      <c r="E144" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>#VALUE!</v>
+        <v>36.583333333333336</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3845,9 +3837,9 @@
       <c r="D154" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E154" s="19" t="e">
+      <c r="E154" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>#VALUE!</v>
+        <v>36.583333333333336</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -4005,9 +3997,9 @@
       <c r="D164" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E164" s="19" t="e">
+      <c r="E164" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>#VALUE!</v>
+        <v>36.583333333333336</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4166,9 +4158,9 @@
       <c r="D174" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E174" s="19" t="e">
+      <c r="E174" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>#VALUE!</v>
+        <v>36.583333333333336</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4327,9 +4319,9 @@
       <c r="D184" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E184" s="18" t="e">
+      <c r="E184" s="18">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>#VALUE!</v>
+        <v>36.583333333333336</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
@@ -4345,95 +4337,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="72" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="65" customWidth="1"/>
-    <col min="4" max="4" width="26" style="58" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="50" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="76" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="86" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="71" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="64" customWidth="1"/>
+    <col min="4" max="4" width="26" style="57" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="49" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="85" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="81"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="81"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67">
+      <c r="B3" s="66">
         <v>0.69791666666666663</v>
       </c>
-      <c r="C3" s="60">
+      <c r="C3" s="59">
         <v>0.75</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="81"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="80"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="74" t="s">
+      <c r="B4" s="67"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="82"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="81"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="83" t="s">
+      <c r="H5" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4441,197 +4433,197 @@
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="70">
+      <c r="B6" s="69">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="62">
         <v>0.75</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="53">
         <v>1</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="40">
         <f>(B6-C6)*-24-D6</f>
         <v>7</v>
       </c>
-      <c r="G6" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="H6" s="84"/>
+      <c r="G6" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="83"/>
     </row>
     <row r="7" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="66">
         <v>0.375</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="59">
         <v>0.75</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="54">
         <v>1</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="40">
         <f t="shared" ref="E7:E12" si="0">(B7-C7)*-24-D7</f>
         <v>8</v>
       </c>
-      <c r="F7" s="77"/>
-      <c r="G7" s="35" t="s">
+      <c r="F7" s="76"/>
+      <c r="G7" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="H7" s="84"/>
+      <c r="H7" s="83"/>
     </row>
     <row r="8" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="67">
+      <c r="B8" s="66">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C8" s="60">
+      <c r="C8" s="59">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="54">
         <v>2</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="40">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F8" s="77"/>
-      <c r="G8" s="35" t="s">
+      <c r="F8" s="76"/>
+      <c r="G8" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="H8" s="84"/>
+      <c r="H8" s="83"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="67">
+      <c r="B9" s="66">
         <v>0.38194444444444442</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="59">
         <v>0.78125</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="54">
         <v>1.5</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="40">
         <f t="shared" si="0"/>
         <v>8.0833333333333339</v>
       </c>
-      <c r="F9" s="77"/>
-      <c r="G9" s="35" t="s">
+      <c r="F9" s="76"/>
+      <c r="G9" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="84"/>
+      <c r="H9" s="83"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="67">
+      <c r="B10" s="66">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C10" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="41" t="e">
+      <c r="C10" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D10" s="54"/>
+      <c r="E10" s="40">
         <f>(B10-C10)*-24-D10</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F10" s="77"/>
-      <c r="G10" s="35" t="s">
+        <v>7.5000000000000018</v>
+      </c>
+      <c r="F10" s="76"/>
+      <c r="G10" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="H10" s="84"/>
+      <c r="H10" s="83"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="42">
+      <c r="B11" s="66"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="77"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="84"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="83"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="43">
+      <c r="B12" s="70"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="78"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="85"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="84"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="51" t="s">
+      <c r="B13" s="65"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="44" t="e">
+      <c r="E13" s="43">
         <f>SUM(E6:E12)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F13" s="73"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="81"/>
+        <v>36.583333333333336</v>
+      </c>
+      <c r="F13" s="72"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="80"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="52" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="45" t="e">
+      <c r="E14" s="44">
         <f>SUM(E13)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F14" s="79"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="82"/>
+        <v>36.583333333333336</v>
+      </c>
+      <c r="F14" s="78"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="81"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="75" t="s">
+      <c r="F15" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="83" t="s">
+      <c r="H15" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4639,174 +4631,174 @@
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="41">
+      <c r="B16" s="66"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="40">
         <f>(B16-C16)*-24-D16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="77"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="84"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="83"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="41">
+      <c r="B17" s="66"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="40">
         <f t="shared" ref="E17:E22" si="1">(B17-C17)*-24-D17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="77"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="84"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="83"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="67">
+      <c r="B18" s="66">
         <v>0.69791666666666663</v>
       </c>
-      <c r="C18" s="60">
+      <c r="C18" s="59">
         <v>0.75</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="41">
+      <c r="D18" s="54"/>
+      <c r="E18" s="40">
         <f t="shared" si="1"/>
         <v>1.2500000000000009</v>
       </c>
-      <c r="F18" s="77"/>
-      <c r="G18" s="35" t="s">
+      <c r="F18" s="76"/>
+      <c r="G18" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="H18" s="84"/>
+      <c r="H18" s="83"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="41">
+      <c r="B19" s="66"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="77"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="84"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="83"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="67">
+      <c r="B20" s="66">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C20" s="60">
+      <c r="C20" s="59">
         <v>0.71875</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="54">
         <v>1</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="40">
         <f t="shared" si="1"/>
         <v>4.75</v>
       </c>
-      <c r="F20" s="77"/>
-      <c r="G20" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="H20" s="84"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" s="83"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="42">
+      <c r="B21" s="66"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="77"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="84"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="83"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="43">
+      <c r="B22" s="70"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="78"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="85"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="84"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="51" t="s">
+      <c r="B23" s="65"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="43">
         <f>SUM(E16:E22)</f>
         <v>6.0000000000000009</v>
       </c>
-      <c r="F23" s="73"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="81"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="80"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="52" t="s">
+      <c r="B24" s="67"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="45" t="e">
+      <c r="E24" s="44">
         <f>SUM(E13+E23)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F24" s="79"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="82"/>
+        <v>42.583333333333336</v>
+      </c>
+      <c r="F24" s="78"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="81"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="75" t="s">
+      <c r="F25" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="33" t="s">
+      <c r="G25" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="83" t="s">
+      <c r="H25" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4814,162 +4806,168 @@
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="67">
+      <c r="B26" s="66">
         <v>0.375</v>
       </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="41">
+      <c r="C26" s="59">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D26" s="54">
+        <v>1.5</v>
+      </c>
+      <c r="E26" s="40">
         <f>(B26-C26)*-24-D26</f>
-        <v>-9</v>
-      </c>
-      <c r="F26" s="77"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="84"/>
+        <v>7</v>
+      </c>
+      <c r="F26" s="76"/>
+      <c r="G26" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" s="83"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="67"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="41">
+      <c r="B27" s="66"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="40">
         <f t="shared" ref="E27:E32" si="2">(B27-C27)*-24-D27</f>
         <v>0</v>
       </c>
-      <c r="F27" s="77"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="84"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="83"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="41">
+      <c r="B28" s="66"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F28" s="77"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="84"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="83"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="67"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="41">
+      <c r="B29" s="66"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F29" s="77"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="84"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="83"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="67"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="41">
+      <c r="B30" s="66"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F30" s="77"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="84"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="83"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="67"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="42">
+      <c r="B31" s="66"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F31" s="77"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="84"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="83"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="71"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="43">
+      <c r="B32" s="70"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F32" s="78"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="85"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="84"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="51" t="s">
+      <c r="B33" s="65"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="44">
+      <c r="E33" s="43">
         <f>SUM(E26:E32)</f>
-        <v>-9</v>
-      </c>
-      <c r="F33" s="73"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="81"/>
+        <v>7</v>
+      </c>
+      <c r="F33" s="72"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="80"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="52" t="s">
+      <c r="B34" s="67"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="45" t="e">
+      <c r="E34" s="44">
         <f>SUM(E13+E23+E33)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F34" s="79"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="82"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="F34" s="78"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="81"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="53" t="s">
+      <c r="D35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="46" t="s">
+      <c r="E35" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="75" t="s">
+      <c r="F35" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="G35" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="83" t="s">
+      <c r="H35" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4977,160 +4975,160 @@
       <c r="A36" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="67"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="41">
+      <c r="B36" s="66"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="40">
         <f>(B36-C36)*-24-D36</f>
         <v>0</v>
       </c>
-      <c r="F36" s="77"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="84"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="83"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="67"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="41">
+      <c r="B37" s="66"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="40">
         <f t="shared" ref="E37:E42" si="3">(B37-C37)*-24-D37</f>
         <v>0</v>
       </c>
-      <c r="F37" s="77"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="84"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="83"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="67"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="41">
+      <c r="B38" s="66"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F38" s="77"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="84"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="83"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="67"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="41">
+      <c r="B39" s="66"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F39" s="77"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="84"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="83"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="67"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="41">
+      <c r="B40" s="66"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F40" s="77"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="84"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="83"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="67"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="42">
+      <c r="B41" s="66"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F41" s="77"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="84"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="83"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="71"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="43">
+      <c r="B42" s="70"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F42" s="78"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="85"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="84"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="51" t="s">
+      <c r="B43" s="65"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="44">
+      <c r="E43" s="43">
         <f>SUM(E36:E42)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="73"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="81"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="80"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
-      <c r="B44" s="68"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="52" t="s">
+      <c r="B44" s="67"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="45" t="e">
+      <c r="E44" s="44">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F44" s="79"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="82"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="F44" s="78"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="81"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="69" t="s">
+      <c r="B45" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="62" t="s">
+      <c r="C45" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="53" t="s">
+      <c r="D45" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F45" s="75" t="s">
+      <c r="F45" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="33" t="s">
+      <c r="G45" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="83" t="s">
+      <c r="H45" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5138,160 +5136,160 @@
       <c r="A46" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="67"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="41">
+      <c r="B46" s="66"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="40">
         <f>(B46-C46)*-24-D46</f>
         <v>0</v>
       </c>
-      <c r="F46" s="77"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="84"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="83"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="67"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="41">
+      <c r="B47" s="66"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="40">
         <f t="shared" ref="E47:E52" si="4">(B47-C47)*-24-D47</f>
         <v>0</v>
       </c>
-      <c r="F47" s="77"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="84"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="83"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="67"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="41">
+      <c r="B48" s="66"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F48" s="77"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="84"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="83"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="67"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="41">
+      <c r="B49" s="66"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F49" s="77"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="84"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="83"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="67"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="41">
+      <c r="B50" s="66"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F50" s="77"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="84"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="83"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="67"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="42">
+      <c r="B51" s="66"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="41">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F51" s="77"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="84"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="83"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="43">
+      <c r="B52" s="70"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F52" s="78"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="85"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="84"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
-      <c r="B53" s="66"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="51" t="s">
+      <c r="B53" s="65"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="44">
+      <c r="E53" s="43">
         <f>SUM(E46:E52)</f>
         <v>0</v>
       </c>
-      <c r="F53" s="73"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="81"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="80"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
-      <c r="B54" s="68"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="52" t="s">
+      <c r="B54" s="67"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="45" t="e">
+      <c r="E54" s="44">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F54" s="79"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="82"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="F54" s="78"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="81"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="69" t="s">
+      <c r="B55" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="62" t="s">
+      <c r="C55" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="53" t="s">
+      <c r="D55" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="40" t="s">
+      <c r="E55" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F55" s="75" t="s">
+      <c r="F55" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G55" s="33" t="s">
+      <c r="G55" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H55" s="83" t="s">
+      <c r="H55" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5299,160 +5297,160 @@
       <c r="A56" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="67"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="41">
+      <c r="B56" s="66"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="40">
         <f>(B56-C56)*-24-D56</f>
         <v>0</v>
       </c>
-      <c r="F56" s="77"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="84"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="83"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="67"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="41">
+      <c r="B57" s="66"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="40">
         <f t="shared" ref="E57:E62" si="5">(B57-C57)*-24-D57</f>
         <v>0</v>
       </c>
-      <c r="F57" s="77"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="84"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="83"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B58" s="67"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="41">
+      <c r="B58" s="66"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F58" s="77"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="84"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="83"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="67"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="41">
+      <c r="B59" s="66"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F59" s="77"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="84"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="83"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="67"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="41">
+      <c r="B60" s="66"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F60" s="77"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="84"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="83"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="67"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="42">
+      <c r="B61" s="66"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F61" s="77"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="84"/>
+      <c r="F61" s="76"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="83"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="71"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="43">
+      <c r="B62" s="70"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F62" s="78"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="85"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="84"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
-      <c r="B63" s="66"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="51" t="s">
+      <c r="B63" s="65"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="44">
+      <c r="E63" s="43">
         <f>SUM(E56:E62)</f>
         <v>0</v>
       </c>
-      <c r="F63" s="73"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="81"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="80"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
-      <c r="B64" s="68"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="52" t="s">
+      <c r="B64" s="67"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E64" s="45" t="e">
+      <c r="E64" s="44">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F64" s="79"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="82"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="F64" s="78"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="81"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B65" s="69" t="s">
+      <c r="B65" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="62" t="s">
+      <c r="C65" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D65" s="53" t="s">
+      <c r="D65" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="40" t="s">
+      <c r="E65" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F65" s="75" t="s">
+      <c r="F65" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G65" s="33" t="s">
+      <c r="G65" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H65" s="83" t="s">
+      <c r="H65" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5460,160 +5458,160 @@
       <c r="A66" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B66" s="67"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="41">
+      <c r="B66" s="66"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="40">
         <f>(B66-C66)*-24-D66</f>
         <v>0</v>
       </c>
-      <c r="F66" s="77"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="84"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="83"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B67" s="67"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="41">
+      <c r="B67" s="66"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="40">
         <f t="shared" ref="E67:E72" si="6">(B67-C67)*-24-D67</f>
         <v>0</v>
       </c>
-      <c r="F67" s="77"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="84"/>
+      <c r="F67" s="76"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="83"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B68" s="67"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="41">
+      <c r="B68" s="66"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="40">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F68" s="77"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="84"/>
+      <c r="F68" s="76"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="83"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B69" s="67"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="41">
+      <c r="B69" s="66"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="40">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F69" s="77"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="84"/>
+      <c r="F69" s="76"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="83"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B70" s="67"/>
-      <c r="C70" s="60"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="41">
+      <c r="B70" s="66"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="40">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F70" s="77"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="84"/>
+      <c r="F70" s="76"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="83"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B71" s="67"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="41">
+      <c r="B71" s="66"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="40">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F71" s="77"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="84"/>
+      <c r="F71" s="76"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="83"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B72" s="71"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="57"/>
-      <c r="E72" s="47">
+      <c r="B72" s="70"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F72" s="80"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="85"/>
+      <c r="F72" s="79"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="84"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
-      <c r="B73" s="66"/>
-      <c r="C73" s="59"/>
-      <c r="D73" s="51" t="s">
+      <c r="B73" s="65"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E73" s="48">
+      <c r="E73" s="47">
         <f>SUM(E66:E72)</f>
         <v>0</v>
       </c>
-      <c r="F73" s="73"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="81"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="80"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
-      <c r="B74" s="68"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="52" t="s">
+      <c r="B74" s="67"/>
+      <c r="C74" s="60"/>
+      <c r="D74" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="45" t="e">
+      <c r="E74" s="44">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F74" s="79"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="82"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="F74" s="78"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="81"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="69" t="s">
+      <c r="B75" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="62" t="s">
+      <c r="C75" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D75" s="53" t="s">
+      <c r="D75" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E75" s="40" t="s">
+      <c r="E75" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F75" s="75" t="s">
+      <c r="F75" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G75" s="33" t="s">
+      <c r="G75" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H75" s="83" t="s">
+      <c r="H75" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5621,160 +5619,160 @@
       <c r="A76" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B76" s="67"/>
-      <c r="C76" s="60"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="41">
+      <c r="B76" s="66"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="40">
         <f>(B76-C76)*-24-D76</f>
         <v>0</v>
       </c>
-      <c r="F76" s="77"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="84"/>
+      <c r="F76" s="76"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="83"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B77" s="67"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="41">
+      <c r="B77" s="66"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="40">
         <f t="shared" ref="E77:E82" si="7">(B77-C77)*-24-D77</f>
         <v>0</v>
       </c>
-      <c r="F77" s="77"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="84"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="83"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B78" s="67"/>
-      <c r="C78" s="60"/>
-      <c r="D78" s="55"/>
-      <c r="E78" s="41">
+      <c r="B78" s="66"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F78" s="77"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="84"/>
+      <c r="F78" s="76"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="83"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B79" s="67"/>
-      <c r="C79" s="60"/>
-      <c r="D79" s="55"/>
-      <c r="E79" s="41">
+      <c r="B79" s="66"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F79" s="77"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="84"/>
+      <c r="F79" s="76"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="83"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B80" s="67"/>
-      <c r="C80" s="60"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="41">
+      <c r="B80" s="66"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F80" s="77"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="84"/>
+      <c r="F80" s="76"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="83"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B81" s="67"/>
-      <c r="C81" s="60"/>
-      <c r="D81" s="55"/>
-      <c r="E81" s="41">
+      <c r="B81" s="66"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F81" s="77"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="84"/>
+      <c r="F81" s="76"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="83"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B82" s="71"/>
-      <c r="C82" s="64"/>
-      <c r="D82" s="57"/>
-      <c r="E82" s="47">
+      <c r="B82" s="70"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F82" s="80"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="85"/>
+      <c r="F82" s="79"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="84"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
-      <c r="B83" s="66"/>
-      <c r="C83" s="59"/>
-      <c r="D83" s="51" t="s">
+      <c r="B83" s="65"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E83" s="48">
+      <c r="E83" s="47">
         <f>SUM(E76:E82)</f>
         <v>0</v>
       </c>
-      <c r="F83" s="73"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="81"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="80"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
-      <c r="B84" s="68"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="52" t="s">
+      <c r="B84" s="67"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E84" s="45" t="e">
+      <c r="E84" s="44">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F84" s="79"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="82"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="F84" s="78"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="81"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B85" s="69" t="s">
+      <c r="B85" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="62" t="s">
+      <c r="C85" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D85" s="53" t="s">
+      <c r="D85" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E85" s="40" t="s">
+      <c r="E85" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F85" s="75" t="s">
+      <c r="F85" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G85" s="33" t="s">
+      <c r="G85" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H85" s="83" t="s">
+      <c r="H85" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5782,160 +5780,160 @@
       <c r="A86" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B86" s="67"/>
-      <c r="C86" s="60"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="41">
+      <c r="B86" s="66"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="40">
         <f>(B86-C86)*-24-D86</f>
         <v>0</v>
       </c>
-      <c r="F86" s="77"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="84"/>
+      <c r="F86" s="76"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="83"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B87" s="67"/>
-      <c r="C87" s="60"/>
-      <c r="D87" s="55"/>
-      <c r="E87" s="41">
+      <c r="B87" s="66"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="40">
         <f t="shared" ref="E87:E92" si="8">(B87-C87)*-24-D87</f>
         <v>0</v>
       </c>
-      <c r="F87" s="77"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="84"/>
+      <c r="F87" s="76"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="83"/>
     </row>
     <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B88" s="67"/>
-      <c r="C88" s="60"/>
-      <c r="D88" s="55"/>
-      <c r="E88" s="41">
+      <c r="B88" s="66"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="40">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F88" s="77"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="84"/>
+      <c r="F88" s="76"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="83"/>
     </row>
     <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B89" s="67"/>
-      <c r="C89" s="60"/>
-      <c r="D89" s="55"/>
-      <c r="E89" s="41">
+      <c r="B89" s="66"/>
+      <c r="C89" s="59"/>
+      <c r="D89" s="54"/>
+      <c r="E89" s="40">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F89" s="77"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="84"/>
+      <c r="F89" s="76"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="83"/>
     </row>
     <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B90" s="67"/>
-      <c r="C90" s="60"/>
-      <c r="D90" s="55"/>
-      <c r="E90" s="41">
+      <c r="B90" s="66"/>
+      <c r="C90" s="59"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="40">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F90" s="77"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="84"/>
+      <c r="F90" s="76"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="83"/>
     </row>
     <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B91" s="67"/>
-      <c r="C91" s="60"/>
-      <c r="D91" s="55"/>
-      <c r="E91" s="41">
+      <c r="B91" s="66"/>
+      <c r="C91" s="59"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="40">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F91" s="77"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="84"/>
+      <c r="F91" s="76"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="83"/>
     </row>
     <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B92" s="71"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="57"/>
-      <c r="E92" s="47">
+      <c r="B92" s="70"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F92" s="80"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="85"/>
+      <c r="F92" s="79"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="84"/>
     </row>
     <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
-      <c r="B93" s="66"/>
-      <c r="C93" s="59"/>
-      <c r="D93" s="51" t="s">
+      <c r="B93" s="65"/>
+      <c r="C93" s="58"/>
+      <c r="D93" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E93" s="48">
+      <c r="E93" s="47">
         <f>SUM(E86:E92)</f>
         <v>0</v>
       </c>
-      <c r="F93" s="73"/>
-      <c r="G93" s="31"/>
-      <c r="H93" s="81"/>
+      <c r="F93" s="72"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="80"/>
     </row>
     <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
-      <c r="B94" s="68"/>
-      <c r="C94" s="61"/>
-      <c r="D94" s="52" t="s">
+      <c r="B94" s="67"/>
+      <c r="C94" s="60"/>
+      <c r="D94" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E94" s="45" t="e">
+      <c r="E94" s="44">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F94" s="79"/>
-      <c r="G94" s="32"/>
-      <c r="H94" s="82"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="F94" s="78"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="81"/>
     </row>
     <row r="95" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B95" s="69" t="s">
+      <c r="B95" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C95" s="62" t="s">
+      <c r="C95" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D95" s="53" t="s">
+      <c r="D95" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E95" s="40" t="s">
+      <c r="E95" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F95" s="75" t="s">
+      <c r="F95" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G95" s="33" t="s">
+      <c r="G95" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H95" s="83" t="s">
+      <c r="H95" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5943,160 +5941,160 @@
       <c r="A96" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B96" s="67"/>
-      <c r="C96" s="60"/>
-      <c r="D96" s="55"/>
-      <c r="E96" s="41">
+      <c r="B96" s="66"/>
+      <c r="C96" s="59"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="40">
         <f>(B96-C96)*-24-D96</f>
         <v>0</v>
       </c>
-      <c r="F96" s="77"/>
-      <c r="G96" s="35"/>
-      <c r="H96" s="84"/>
+      <c r="F96" s="76"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="83"/>
     </row>
     <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B97" s="67"/>
-      <c r="C97" s="60"/>
-      <c r="D97" s="55"/>
-      <c r="E97" s="41">
+      <c r="B97" s="66"/>
+      <c r="C97" s="59"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="40">
         <f t="shared" ref="E97:E102" si="9">(B97-C97)*-24-D97</f>
         <v>0</v>
       </c>
-      <c r="F97" s="77"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="84"/>
+      <c r="F97" s="76"/>
+      <c r="G97" s="34"/>
+      <c r="H97" s="83"/>
     </row>
     <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B98" s="67"/>
-      <c r="C98" s="60"/>
-      <c r="D98" s="55"/>
-      <c r="E98" s="41">
+      <c r="B98" s="66"/>
+      <c r="C98" s="59"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="40">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F98" s="77"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="84"/>
+      <c r="F98" s="76"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="83"/>
     </row>
     <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B99" s="67"/>
-      <c r="C99" s="60"/>
-      <c r="D99" s="55"/>
-      <c r="E99" s="41">
+      <c r="B99" s="66"/>
+      <c r="C99" s="59"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="40">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F99" s="77"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="84"/>
+      <c r="F99" s="76"/>
+      <c r="G99" s="34"/>
+      <c r="H99" s="83"/>
     </row>
     <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B100" s="67"/>
-      <c r="C100" s="60"/>
-      <c r="D100" s="55"/>
-      <c r="E100" s="41">
+      <c r="B100" s="66"/>
+      <c r="C100" s="59"/>
+      <c r="D100" s="54"/>
+      <c r="E100" s="40">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F100" s="77"/>
-      <c r="G100" s="35"/>
-      <c r="H100" s="84"/>
+      <c r="F100" s="76"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="83"/>
     </row>
     <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B101" s="67"/>
-      <c r="C101" s="60"/>
-      <c r="D101" s="55"/>
-      <c r="E101" s="41">
+      <c r="B101" s="66"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="40">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F101" s="77"/>
-      <c r="G101" s="35"/>
-      <c r="H101" s="84"/>
+      <c r="F101" s="76"/>
+      <c r="G101" s="34"/>
+      <c r="H101" s="83"/>
     </row>
     <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B102" s="71"/>
-      <c r="C102" s="64"/>
-      <c r="D102" s="57"/>
-      <c r="E102" s="47">
+      <c r="B102" s="70"/>
+      <c r="C102" s="63"/>
+      <c r="D102" s="56"/>
+      <c r="E102" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F102" s="80"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="85"/>
+      <c r="F102" s="79"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="84"/>
     </row>
     <row r="103" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
-      <c r="B103" s="66"/>
-      <c r="C103" s="59"/>
-      <c r="D103" s="51" t="s">
+      <c r="B103" s="65"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E103" s="48">
+      <c r="E103" s="47">
         <f>SUM(E96:E102)</f>
         <v>0</v>
       </c>
-      <c r="F103" s="73"/>
-      <c r="G103" s="31"/>
-      <c r="H103" s="81"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="80"/>
     </row>
     <row r="104" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
-      <c r="B104" s="68"/>
-      <c r="C104" s="61"/>
-      <c r="D104" s="52" t="s">
+      <c r="B104" s="67"/>
+      <c r="C104" s="60"/>
+      <c r="D104" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E104" s="45" t="e">
+      <c r="E104" s="44">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F104" s="79"/>
-      <c r="G104" s="32"/>
-      <c r="H104" s="82"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="F104" s="78"/>
+      <c r="G104" s="31"/>
+      <c r="H104" s="81"/>
     </row>
     <row r="105" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B105" s="69" t="s">
+      <c r="B105" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C105" s="62" t="s">
+      <c r="C105" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D105" s="53" t="s">
+      <c r="D105" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E105" s="40" t="s">
+      <c r="E105" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F105" s="75" t="s">
+      <c r="F105" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G105" s="33" t="s">
+      <c r="G105" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H105" s="83" t="s">
+      <c r="H105" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6104,160 +6102,160 @@
       <c r="A106" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B106" s="67"/>
-      <c r="C106" s="60"/>
-      <c r="D106" s="55"/>
-      <c r="E106" s="41">
+      <c r="B106" s="66"/>
+      <c r="C106" s="59"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="40">
         <f>(B106-C106)*-24-D106</f>
         <v>0</v>
       </c>
-      <c r="F106" s="77"/>
-      <c r="G106" s="35"/>
-      <c r="H106" s="84"/>
+      <c r="F106" s="76"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="83"/>
     </row>
     <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B107" s="67"/>
-      <c r="C107" s="60"/>
-      <c r="D107" s="55"/>
-      <c r="E107" s="41">
+      <c r="B107" s="66"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="54"/>
+      <c r="E107" s="40">
         <f t="shared" ref="E107:E112" si="10">(B107-C107)*-24-D107</f>
         <v>0</v>
       </c>
-      <c r="F107" s="77"/>
-      <c r="G107" s="35"/>
-      <c r="H107" s="84"/>
+      <c r="F107" s="76"/>
+      <c r="G107" s="34"/>
+      <c r="H107" s="83"/>
     </row>
     <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B108" s="67"/>
-      <c r="C108" s="60"/>
-      <c r="D108" s="55"/>
-      <c r="E108" s="41">
+      <c r="B108" s="66"/>
+      <c r="C108" s="59"/>
+      <c r="D108" s="54"/>
+      <c r="E108" s="40">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F108" s="77"/>
-      <c r="G108" s="35"/>
-      <c r="H108" s="84"/>
+      <c r="F108" s="76"/>
+      <c r="G108" s="34"/>
+      <c r="H108" s="83"/>
     </row>
     <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B109" s="67"/>
-      <c r="C109" s="60"/>
-      <c r="D109" s="55"/>
-      <c r="E109" s="41">
+      <c r="B109" s="66"/>
+      <c r="C109" s="59"/>
+      <c r="D109" s="54"/>
+      <c r="E109" s="40">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F109" s="77"/>
-      <c r="G109" s="35"/>
-      <c r="H109" s="84"/>
+      <c r="F109" s="76"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="83"/>
     </row>
     <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B110" s="67"/>
-      <c r="C110" s="60"/>
-      <c r="D110" s="55"/>
-      <c r="E110" s="41">
+      <c r="B110" s="66"/>
+      <c r="C110" s="59"/>
+      <c r="D110" s="54"/>
+      <c r="E110" s="40">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F110" s="77"/>
-      <c r="G110" s="35"/>
-      <c r="H110" s="84"/>
+      <c r="F110" s="76"/>
+      <c r="G110" s="34"/>
+      <c r="H110" s="83"/>
     </row>
     <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B111" s="67"/>
-      <c r="C111" s="60"/>
-      <c r="D111" s="55"/>
-      <c r="E111" s="41">
+      <c r="B111" s="66"/>
+      <c r="C111" s="59"/>
+      <c r="D111" s="54"/>
+      <c r="E111" s="40">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F111" s="77"/>
-      <c r="G111" s="35"/>
-      <c r="H111" s="84"/>
+      <c r="F111" s="76"/>
+      <c r="G111" s="34"/>
+      <c r="H111" s="83"/>
     </row>
     <row r="112" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B112" s="71"/>
-      <c r="C112" s="64"/>
-      <c r="D112" s="57"/>
-      <c r="E112" s="47">
+      <c r="B112" s="70"/>
+      <c r="C112" s="63"/>
+      <c r="D112" s="56"/>
+      <c r="E112" s="46">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F112" s="80"/>
-      <c r="G112" s="36"/>
-      <c r="H112" s="85"/>
+      <c r="F112" s="79"/>
+      <c r="G112" s="35"/>
+      <c r="H112" s="84"/>
     </row>
     <row r="113" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
-      <c r="B113" s="66"/>
-      <c r="C113" s="59"/>
-      <c r="D113" s="51" t="s">
+      <c r="B113" s="65"/>
+      <c r="C113" s="58"/>
+      <c r="D113" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E113" s="48">
+      <c r="E113" s="47">
         <f>SUM(E106:E112)</f>
         <v>0</v>
       </c>
-      <c r="F113" s="73"/>
-      <c r="G113" s="31"/>
-      <c r="H113" s="81"/>
+      <c r="F113" s="72"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="80"/>
     </row>
     <row r="114" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
-      <c r="B114" s="68"/>
-      <c r="C114" s="61"/>
-      <c r="D114" s="52" t="s">
+      <c r="B114" s="67"/>
+      <c r="C114" s="60"/>
+      <c r="D114" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E114" s="45" t="e">
+      <c r="E114" s="44">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F114" s="79"/>
-      <c r="G114" s="32"/>
-      <c r="H114" s="82"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="F114" s="78"/>
+      <c r="G114" s="31"/>
+      <c r="H114" s="81"/>
     </row>
     <row r="115" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B115" s="69" t="s">
+      <c r="B115" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C115" s="62" t="s">
+      <c r="C115" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D115" s="53" t="s">
+      <c r="D115" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E115" s="40" t="s">
+      <c r="E115" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F115" s="75" t="s">
+      <c r="F115" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G115" s="33" t="s">
+      <c r="G115" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H115" s="83" t="s">
+      <c r="H115" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6265,160 +6263,160 @@
       <c r="A116" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B116" s="67"/>
-      <c r="C116" s="60"/>
-      <c r="D116" s="55"/>
-      <c r="E116" s="41">
+      <c r="B116" s="66"/>
+      <c r="C116" s="59"/>
+      <c r="D116" s="54"/>
+      <c r="E116" s="40">
         <f>(B116-C116)*-24-D116</f>
         <v>0</v>
       </c>
-      <c r="F116" s="77"/>
-      <c r="G116" s="35"/>
-      <c r="H116" s="84"/>
+      <c r="F116" s="76"/>
+      <c r="G116" s="34"/>
+      <c r="H116" s="83"/>
     </row>
     <row r="117" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B117" s="67"/>
-      <c r="C117" s="60"/>
-      <c r="D117" s="55"/>
-      <c r="E117" s="41">
+      <c r="B117" s="66"/>
+      <c r="C117" s="59"/>
+      <c r="D117" s="54"/>
+      <c r="E117" s="40">
         <f t="shared" ref="E117:E122" si="11">(B117-C117)*-24-D117</f>
         <v>0</v>
       </c>
-      <c r="F117" s="77"/>
-      <c r="G117" s="35"/>
-      <c r="H117" s="84"/>
+      <c r="F117" s="76"/>
+      <c r="G117" s="34"/>
+      <c r="H117" s="83"/>
     </row>
     <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B118" s="67"/>
-      <c r="C118" s="60"/>
-      <c r="D118" s="55"/>
-      <c r="E118" s="41">
+      <c r="B118" s="66"/>
+      <c r="C118" s="59"/>
+      <c r="D118" s="54"/>
+      <c r="E118" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F118" s="77"/>
-      <c r="G118" s="35"/>
-      <c r="H118" s="84"/>
+      <c r="F118" s="76"/>
+      <c r="G118" s="34"/>
+      <c r="H118" s="83"/>
     </row>
     <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B119" s="67"/>
-      <c r="C119" s="60"/>
-      <c r="D119" s="55"/>
-      <c r="E119" s="41">
+      <c r="B119" s="66"/>
+      <c r="C119" s="59"/>
+      <c r="D119" s="54"/>
+      <c r="E119" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F119" s="77"/>
-      <c r="G119" s="35"/>
-      <c r="H119" s="84"/>
+      <c r="F119" s="76"/>
+      <c r="G119" s="34"/>
+      <c r="H119" s="83"/>
     </row>
     <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B120" s="67"/>
-      <c r="C120" s="60"/>
-      <c r="D120" s="55"/>
-      <c r="E120" s="41">
+      <c r="B120" s="66"/>
+      <c r="C120" s="59"/>
+      <c r="D120" s="54"/>
+      <c r="E120" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F120" s="77"/>
-      <c r="G120" s="35"/>
-      <c r="H120" s="84"/>
+      <c r="F120" s="76"/>
+      <c r="G120" s="34"/>
+      <c r="H120" s="83"/>
     </row>
     <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B121" s="67"/>
-      <c r="C121" s="60"/>
-      <c r="D121" s="55"/>
-      <c r="E121" s="41">
+      <c r="B121" s="66"/>
+      <c r="C121" s="59"/>
+      <c r="D121" s="54"/>
+      <c r="E121" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F121" s="77"/>
-      <c r="G121" s="35"/>
-      <c r="H121" s="84"/>
+      <c r="F121" s="76"/>
+      <c r="G121" s="34"/>
+      <c r="H121" s="83"/>
     </row>
     <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B122" s="71"/>
-      <c r="C122" s="64"/>
-      <c r="D122" s="57"/>
-      <c r="E122" s="47">
+      <c r="B122" s="70"/>
+      <c r="C122" s="63"/>
+      <c r="D122" s="56"/>
+      <c r="E122" s="46">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F122" s="80"/>
-      <c r="G122" s="36"/>
-      <c r="H122" s="85"/>
+      <c r="F122" s="79"/>
+      <c r="G122" s="35"/>
+      <c r="H122" s="84"/>
     </row>
     <row r="123" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
-      <c r="B123" s="66"/>
-      <c r="C123" s="59"/>
-      <c r="D123" s="51" t="s">
+      <c r="B123" s="65"/>
+      <c r="C123" s="58"/>
+      <c r="D123" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E123" s="48">
+      <c r="E123" s="47">
         <f>SUM(E116:E122)</f>
         <v>0</v>
       </c>
-      <c r="F123" s="73"/>
-      <c r="G123" s="31"/>
-      <c r="H123" s="81"/>
+      <c r="F123" s="72"/>
+      <c r="G123" s="30"/>
+      <c r="H123" s="80"/>
     </row>
     <row r="124" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
-      <c r="B124" s="68"/>
-      <c r="C124" s="61"/>
-      <c r="D124" s="52" t="s">
+      <c r="B124" s="67"/>
+      <c r="C124" s="60"/>
+      <c r="D124" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E124" s="45" t="e">
+      <c r="E124" s="44">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F124" s="79"/>
-      <c r="G124" s="32"/>
-      <c r="H124" s="82"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="F124" s="78"/>
+      <c r="G124" s="31"/>
+      <c r="H124" s="81"/>
     </row>
     <row r="125" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B125" s="69" t="s">
+      <c r="B125" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C125" s="62" t="s">
+      <c r="C125" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D125" s="53" t="s">
+      <c r="D125" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E125" s="40" t="s">
+      <c r="E125" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F125" s="75" t="s">
+      <c r="F125" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G125" s="33" t="s">
+      <c r="G125" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H125" s="83" t="s">
+      <c r="H125" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6426,160 +6424,160 @@
       <c r="A126" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B126" s="67"/>
-      <c r="C126" s="60"/>
-      <c r="D126" s="55"/>
-      <c r="E126" s="41">
+      <c r="B126" s="66"/>
+      <c r="C126" s="59"/>
+      <c r="D126" s="54"/>
+      <c r="E126" s="40">
         <f>(B126-C126)*-24-D126</f>
         <v>0</v>
       </c>
-      <c r="F126" s="77"/>
-      <c r="G126" s="35"/>
-      <c r="H126" s="84"/>
+      <c r="F126" s="76"/>
+      <c r="G126" s="34"/>
+      <c r="H126" s="83"/>
     </row>
     <row r="127" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B127" s="67"/>
-      <c r="C127" s="60"/>
-      <c r="D127" s="55"/>
-      <c r="E127" s="41">
+      <c r="B127" s="66"/>
+      <c r="C127" s="59"/>
+      <c r="D127" s="54"/>
+      <c r="E127" s="40">
         <f t="shared" ref="E127:E132" si="12">(B127-C127)*-24-D127</f>
         <v>0</v>
       </c>
-      <c r="F127" s="77"/>
-      <c r="G127" s="35"/>
-      <c r="H127" s="84"/>
+      <c r="F127" s="76"/>
+      <c r="G127" s="34"/>
+      <c r="H127" s="83"/>
     </row>
     <row r="128" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B128" s="67"/>
-      <c r="C128" s="60"/>
-      <c r="D128" s="55"/>
-      <c r="E128" s="41">
+      <c r="B128" s="66"/>
+      <c r="C128" s="59"/>
+      <c r="D128" s="54"/>
+      <c r="E128" s="40">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F128" s="77"/>
-      <c r="G128" s="35"/>
-      <c r="H128" s="84"/>
+      <c r="F128" s="76"/>
+      <c r="G128" s="34"/>
+      <c r="H128" s="83"/>
     </row>
     <row r="129" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B129" s="67"/>
-      <c r="C129" s="60"/>
-      <c r="D129" s="55"/>
-      <c r="E129" s="41">
+      <c r="B129" s="66"/>
+      <c r="C129" s="59"/>
+      <c r="D129" s="54"/>
+      <c r="E129" s="40">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F129" s="77"/>
-      <c r="G129" s="35"/>
-      <c r="H129" s="84"/>
+      <c r="F129" s="76"/>
+      <c r="G129" s="34"/>
+      <c r="H129" s="83"/>
     </row>
     <row r="130" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B130" s="67"/>
-      <c r="C130" s="60"/>
-      <c r="D130" s="55"/>
-      <c r="E130" s="41">
+      <c r="B130" s="66"/>
+      <c r="C130" s="59"/>
+      <c r="D130" s="54"/>
+      <c r="E130" s="40">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F130" s="77"/>
-      <c r="G130" s="35"/>
-      <c r="H130" s="84"/>
+      <c r="F130" s="76"/>
+      <c r="G130" s="34"/>
+      <c r="H130" s="83"/>
     </row>
     <row r="131" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B131" s="67"/>
-      <c r="C131" s="60"/>
-      <c r="D131" s="55"/>
-      <c r="E131" s="41">
+      <c r="B131" s="66"/>
+      <c r="C131" s="59"/>
+      <c r="D131" s="54"/>
+      <c r="E131" s="40">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F131" s="77"/>
-      <c r="G131" s="35"/>
-      <c r="H131" s="84"/>
+      <c r="F131" s="76"/>
+      <c r="G131" s="34"/>
+      <c r="H131" s="83"/>
     </row>
     <row r="132" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B132" s="71"/>
-      <c r="C132" s="64"/>
-      <c r="D132" s="57"/>
-      <c r="E132" s="47">
+      <c r="B132" s="70"/>
+      <c r="C132" s="63"/>
+      <c r="D132" s="56"/>
+      <c r="E132" s="46">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F132" s="80"/>
-      <c r="G132" s="36"/>
-      <c r="H132" s="85"/>
+      <c r="F132" s="79"/>
+      <c r="G132" s="35"/>
+      <c r="H132" s="84"/>
     </row>
     <row r="133" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
-      <c r="B133" s="66"/>
-      <c r="C133" s="59"/>
-      <c r="D133" s="51" t="s">
+      <c r="B133" s="65"/>
+      <c r="C133" s="58"/>
+      <c r="D133" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E133" s="48">
+      <c r="E133" s="47">
         <f>SUM(E126:E132)</f>
         <v>0</v>
       </c>
-      <c r="F133" s="73"/>
-      <c r="G133" s="31"/>
-      <c r="H133" s="81"/>
+      <c r="F133" s="72"/>
+      <c r="G133" s="30"/>
+      <c r="H133" s="80"/>
     </row>
     <row r="134" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
-      <c r="B134" s="68"/>
-      <c r="C134" s="61"/>
-      <c r="D134" s="52" t="s">
+      <c r="B134" s="67"/>
+      <c r="C134" s="60"/>
+      <c r="D134" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E134" s="45" t="e">
+      <c r="E134" s="44">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F134" s="79"/>
-      <c r="G134" s="32"/>
-      <c r="H134" s="82"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="F134" s="78"/>
+      <c r="G134" s="31"/>
+      <c r="H134" s="81"/>
     </row>
     <row r="135" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B135" s="69" t="s">
+      <c r="B135" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C135" s="62" t="s">
+      <c r="C135" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D135" s="53" t="s">
+      <c r="D135" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E135" s="40" t="s">
+      <c r="E135" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F135" s="75" t="s">
+      <c r="F135" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G135" s="33" t="s">
+      <c r="G135" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H135" s="83" t="s">
+      <c r="H135" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6587,160 +6585,160 @@
       <c r="A136" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B136" s="67"/>
-      <c r="C136" s="60"/>
-      <c r="D136" s="55"/>
-      <c r="E136" s="41">
+      <c r="B136" s="66"/>
+      <c r="C136" s="59"/>
+      <c r="D136" s="54"/>
+      <c r="E136" s="40">
         <f>(B136-C136)*-24-D136</f>
         <v>0</v>
       </c>
-      <c r="F136" s="77"/>
-      <c r="G136" s="35"/>
-      <c r="H136" s="84"/>
+      <c r="F136" s="76"/>
+      <c r="G136" s="34"/>
+      <c r="H136" s="83"/>
     </row>
     <row r="137" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B137" s="67"/>
-      <c r="C137" s="60"/>
-      <c r="D137" s="55"/>
-      <c r="E137" s="41">
+      <c r="B137" s="66"/>
+      <c r="C137" s="59"/>
+      <c r="D137" s="54"/>
+      <c r="E137" s="40">
         <f t="shared" ref="E137:E142" si="13">(B137-C137)*-24-D137</f>
         <v>0</v>
       </c>
-      <c r="F137" s="77"/>
-      <c r="G137" s="35"/>
-      <c r="H137" s="84"/>
+      <c r="F137" s="76"/>
+      <c r="G137" s="34"/>
+      <c r="H137" s="83"/>
     </row>
     <row r="138" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B138" s="67"/>
-      <c r="C138" s="60"/>
-      <c r="D138" s="55"/>
-      <c r="E138" s="41">
+      <c r="B138" s="66"/>
+      <c r="C138" s="59"/>
+      <c r="D138" s="54"/>
+      <c r="E138" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F138" s="77"/>
-      <c r="G138" s="35"/>
-      <c r="H138" s="84"/>
+      <c r="F138" s="76"/>
+      <c r="G138" s="34"/>
+      <c r="H138" s="83"/>
     </row>
     <row r="139" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B139" s="67"/>
-      <c r="C139" s="60"/>
-      <c r="D139" s="55"/>
-      <c r="E139" s="41">
+      <c r="B139" s="66"/>
+      <c r="C139" s="59"/>
+      <c r="D139" s="54"/>
+      <c r="E139" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F139" s="77"/>
-      <c r="G139" s="35"/>
-      <c r="H139" s="84"/>
+      <c r="F139" s="76"/>
+      <c r="G139" s="34"/>
+      <c r="H139" s="83"/>
     </row>
     <row r="140" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B140" s="67"/>
-      <c r="C140" s="60"/>
-      <c r="D140" s="55"/>
-      <c r="E140" s="41">
+      <c r="B140" s="66"/>
+      <c r="C140" s="59"/>
+      <c r="D140" s="54"/>
+      <c r="E140" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F140" s="77"/>
-      <c r="G140" s="35"/>
-      <c r="H140" s="84"/>
+      <c r="F140" s="76"/>
+      <c r="G140" s="34"/>
+      <c r="H140" s="83"/>
     </row>
     <row r="141" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B141" s="67"/>
-      <c r="C141" s="60"/>
-      <c r="D141" s="55"/>
-      <c r="E141" s="41">
+      <c r="B141" s="66"/>
+      <c r="C141" s="59"/>
+      <c r="D141" s="54"/>
+      <c r="E141" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F141" s="77"/>
-      <c r="G141" s="35"/>
-      <c r="H141" s="84"/>
+      <c r="F141" s="76"/>
+      <c r="G141" s="34"/>
+      <c r="H141" s="83"/>
     </row>
     <row r="142" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B142" s="71"/>
-      <c r="C142" s="64"/>
-      <c r="D142" s="57"/>
-      <c r="E142" s="47">
+      <c r="B142" s="70"/>
+      <c r="C142" s="63"/>
+      <c r="D142" s="56"/>
+      <c r="E142" s="46">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F142" s="80"/>
-      <c r="G142" s="36"/>
-      <c r="H142" s="85"/>
+      <c r="F142" s="79"/>
+      <c r="G142" s="35"/>
+      <c r="H142" s="84"/>
     </row>
     <row r="143" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
-      <c r="B143" s="66"/>
-      <c r="C143" s="59"/>
-      <c r="D143" s="51" t="s">
+      <c r="B143" s="65"/>
+      <c r="C143" s="58"/>
+      <c r="D143" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E143" s="48">
+      <c r="E143" s="47">
         <f>SUM(E136:E142)</f>
         <v>0</v>
       </c>
-      <c r="F143" s="73"/>
-      <c r="G143" s="31"/>
-      <c r="H143" s="81"/>
+      <c r="F143" s="72"/>
+      <c r="G143" s="30"/>
+      <c r="H143" s="80"/>
     </row>
     <row r="144" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
-      <c r="B144" s="68"/>
-      <c r="C144" s="61"/>
-      <c r="D144" s="52" t="s">
+      <c r="B144" s="67"/>
+      <c r="C144" s="60"/>
+      <c r="D144" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E144" s="45" t="e">
+      <c r="E144" s="44">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F144" s="79"/>
-      <c r="G144" s="32"/>
-      <c r="H144" s="82"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="F144" s="78"/>
+      <c r="G144" s="31"/>
+      <c r="H144" s="81"/>
     </row>
     <row r="145" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B145" s="69" t="s">
+      <c r="B145" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C145" s="62" t="s">
+      <c r="C145" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D145" s="53" t="s">
+      <c r="D145" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E145" s="40" t="s">
+      <c r="E145" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F145" s="75" t="s">
+      <c r="F145" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G145" s="33" t="s">
+      <c r="G145" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H145" s="83" t="s">
+      <c r="H145" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6748,160 +6746,160 @@
       <c r="A146" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B146" s="67"/>
-      <c r="C146" s="60"/>
-      <c r="D146" s="55"/>
-      <c r="E146" s="41">
+      <c r="B146" s="66"/>
+      <c r="C146" s="59"/>
+      <c r="D146" s="54"/>
+      <c r="E146" s="40">
         <f>(B146-C146)*-24-D146</f>
         <v>0</v>
       </c>
-      <c r="F146" s="77"/>
-      <c r="G146" s="35"/>
-      <c r="H146" s="84"/>
+      <c r="F146" s="76"/>
+      <c r="G146" s="34"/>
+      <c r="H146" s="83"/>
     </row>
     <row r="147" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B147" s="67"/>
-      <c r="C147" s="60"/>
-      <c r="D147" s="55"/>
-      <c r="E147" s="41">
+      <c r="B147" s="66"/>
+      <c r="C147" s="59"/>
+      <c r="D147" s="54"/>
+      <c r="E147" s="40">
         <f t="shared" ref="E147:E152" si="14">(B147-C147)*-24-D147</f>
         <v>0</v>
       </c>
-      <c r="F147" s="77"/>
-      <c r="G147" s="35"/>
-      <c r="H147" s="84"/>
+      <c r="F147" s="76"/>
+      <c r="G147" s="34"/>
+      <c r="H147" s="83"/>
     </row>
     <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B148" s="67"/>
-      <c r="C148" s="60"/>
-      <c r="D148" s="55"/>
-      <c r="E148" s="41">
+      <c r="B148" s="66"/>
+      <c r="C148" s="59"/>
+      <c r="D148" s="54"/>
+      <c r="E148" s="40">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F148" s="77"/>
-      <c r="G148" s="35"/>
-      <c r="H148" s="84"/>
+      <c r="F148" s="76"/>
+      <c r="G148" s="34"/>
+      <c r="H148" s="83"/>
     </row>
     <row r="149" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B149" s="67"/>
-      <c r="C149" s="60"/>
-      <c r="D149" s="55"/>
-      <c r="E149" s="41">
+      <c r="B149" s="66"/>
+      <c r="C149" s="59"/>
+      <c r="D149" s="54"/>
+      <c r="E149" s="40">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F149" s="77"/>
-      <c r="G149" s="35"/>
-      <c r="H149" s="84"/>
+      <c r="F149" s="76"/>
+      <c r="G149" s="34"/>
+      <c r="H149" s="83"/>
     </row>
     <row r="150" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B150" s="67"/>
-      <c r="C150" s="60"/>
-      <c r="D150" s="55"/>
-      <c r="E150" s="41">
+      <c r="B150" s="66"/>
+      <c r="C150" s="59"/>
+      <c r="D150" s="54"/>
+      <c r="E150" s="40">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F150" s="77"/>
-      <c r="G150" s="35"/>
-      <c r="H150" s="84"/>
+      <c r="F150" s="76"/>
+      <c r="G150" s="34"/>
+      <c r="H150" s="83"/>
     </row>
     <row r="151" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B151" s="67"/>
-      <c r="C151" s="60"/>
-      <c r="D151" s="55"/>
-      <c r="E151" s="41">
+      <c r="B151" s="66"/>
+      <c r="C151" s="59"/>
+      <c r="D151" s="54"/>
+      <c r="E151" s="40">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F151" s="77"/>
-      <c r="G151" s="35"/>
-      <c r="H151" s="84"/>
+      <c r="F151" s="76"/>
+      <c r="G151" s="34"/>
+      <c r="H151" s="83"/>
     </row>
     <row r="152" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B152" s="71"/>
-      <c r="C152" s="64"/>
-      <c r="D152" s="57"/>
-      <c r="E152" s="47">
+      <c r="B152" s="70"/>
+      <c r="C152" s="63"/>
+      <c r="D152" s="56"/>
+      <c r="E152" s="46">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F152" s="80"/>
-      <c r="G152" s="36"/>
-      <c r="H152" s="85"/>
+      <c r="F152" s="79"/>
+      <c r="G152" s="35"/>
+      <c r="H152" s="84"/>
     </row>
     <row r="153" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
-      <c r="B153" s="66"/>
-      <c r="C153" s="59"/>
-      <c r="D153" s="51" t="s">
+      <c r="B153" s="65"/>
+      <c r="C153" s="58"/>
+      <c r="D153" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E153" s="48">
+      <c r="E153" s="47">
         <f>SUM(E146:E152)</f>
         <v>0</v>
       </c>
-      <c r="F153" s="73"/>
-      <c r="G153" s="31"/>
-      <c r="H153" s="81"/>
+      <c r="F153" s="72"/>
+      <c r="G153" s="30"/>
+      <c r="H153" s="80"/>
     </row>
     <row r="154" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
-      <c r="B154" s="68"/>
-      <c r="C154" s="61"/>
-      <c r="D154" s="52" t="s">
+      <c r="B154" s="67"/>
+      <c r="C154" s="60"/>
+      <c r="D154" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E154" s="45" t="e">
+      <c r="E154" s="44">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F154" s="79"/>
-      <c r="G154" s="32"/>
-      <c r="H154" s="82"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="F154" s="78"/>
+      <c r="G154" s="31"/>
+      <c r="H154" s="81"/>
     </row>
     <row r="155" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B155" s="69" t="s">
+      <c r="B155" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C155" s="62" t="s">
+      <c r="C155" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D155" s="53" t="s">
+      <c r="D155" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E155" s="40" t="s">
+      <c r="E155" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F155" s="75" t="s">
+      <c r="F155" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G155" s="33" t="s">
+      <c r="G155" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H155" s="83" t="s">
+      <c r="H155" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6909,159 +6907,159 @@
       <c r="A156" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B156" s="67"/>
-      <c r="C156" s="60"/>
-      <c r="D156" s="55"/>
-      <c r="E156" s="41">
+      <c r="B156" s="66"/>
+      <c r="C156" s="59"/>
+      <c r="D156" s="54"/>
+      <c r="E156" s="40">
         <f>(B156-C156)*-24-D156</f>
         <v>0</v>
       </c>
-      <c r="F156" s="77"/>
-      <c r="G156" s="35"/>
-      <c r="H156" s="84"/>
+      <c r="F156" s="76"/>
+      <c r="G156" s="34"/>
+      <c r="H156" s="83"/>
     </row>
     <row r="157" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B157" s="67"/>
-      <c r="C157" s="60"/>
-      <c r="D157" s="55"/>
-      <c r="E157" s="41">
+      <c r="B157" s="66"/>
+      <c r="C157" s="59"/>
+      <c r="D157" s="54"/>
+      <c r="E157" s="40">
         <f t="shared" ref="E157:E161" si="15">(B157-C157)*-24-D157</f>
         <v>0</v>
       </c>
-      <c r="F157" s="77"/>
-      <c r="G157" s="35"/>
-      <c r="H157" s="84"/>
+      <c r="F157" s="76"/>
+      <c r="G157" s="34"/>
+      <c r="H157" s="83"/>
     </row>
     <row r="158" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B158" s="67"/>
-      <c r="C158" s="60"/>
-      <c r="D158" s="55"/>
-      <c r="E158" s="41">
+      <c r="B158" s="66"/>
+      <c r="C158" s="59"/>
+      <c r="D158" s="54"/>
+      <c r="E158" s="40">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F158" s="77"/>
-      <c r="G158" s="35"/>
-      <c r="H158" s="84"/>
+      <c r="F158" s="76"/>
+      <c r="G158" s="34"/>
+      <c r="H158" s="83"/>
     </row>
     <row r="159" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B159" s="67"/>
-      <c r="C159" s="60"/>
-      <c r="D159" s="55"/>
-      <c r="E159" s="41">
+      <c r="B159" s="66"/>
+      <c r="C159" s="59"/>
+      <c r="D159" s="54"/>
+      <c r="E159" s="40">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F159" s="77"/>
-      <c r="G159" s="35"/>
-      <c r="H159" s="84"/>
+      <c r="F159" s="76"/>
+      <c r="G159" s="34"/>
+      <c r="H159" s="83"/>
     </row>
     <row r="160" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B160" s="67"/>
-      <c r="C160" s="60"/>
-      <c r="D160" s="55"/>
-      <c r="E160" s="41">
+      <c r="B160" s="66"/>
+      <c r="C160" s="59"/>
+      <c r="D160" s="54"/>
+      <c r="E160" s="40">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F160" s="77"/>
-      <c r="G160" s="35"/>
-      <c r="H160" s="84"/>
+      <c r="F160" s="76"/>
+      <c r="G160" s="34"/>
+      <c r="H160" s="83"/>
     </row>
     <row r="161" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B161" s="67"/>
-      <c r="C161" s="60"/>
-      <c r="D161" s="55"/>
-      <c r="E161" s="41">
+      <c r="B161" s="66"/>
+      <c r="C161" s="59"/>
+      <c r="D161" s="54"/>
+      <c r="E161" s="40">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F161" s="77"/>
-      <c r="G161" s="35"/>
-      <c r="H161" s="84"/>
+      <c r="F161" s="76"/>
+      <c r="G161" s="34"/>
+      <c r="H161" s="83"/>
     </row>
     <row r="162" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B162" s="71"/>
-      <c r="C162" s="64"/>
-      <c r="D162" s="57"/>
-      <c r="E162" s="49">
-        <v>0</v>
-      </c>
-      <c r="F162" s="80"/>
-      <c r="G162" s="36"/>
-      <c r="H162" s="85"/>
+      <c r="B162" s="70"/>
+      <c r="C162" s="63"/>
+      <c r="D162" s="56"/>
+      <c r="E162" s="48">
+        <v>0</v>
+      </c>
+      <c r="F162" s="79"/>
+      <c r="G162" s="35"/>
+      <c r="H162" s="84"/>
     </row>
     <row r="163" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
-      <c r="B163" s="66"/>
-      <c r="C163" s="59"/>
-      <c r="D163" s="51" t="s">
+      <c r="B163" s="65"/>
+      <c r="C163" s="58"/>
+      <c r="D163" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E163" s="48">
+      <c r="E163" s="47">
         <f>SUM(E156:E162)</f>
         <v>0</v>
       </c>
-      <c r="F163" s="73"/>
-      <c r="G163" s="31"/>
-      <c r="H163" s="81"/>
+      <c r="F163" s="72"/>
+      <c r="G163" s="30"/>
+      <c r="H163" s="80"/>
     </row>
     <row r="164" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
-      <c r="B164" s="68"/>
-      <c r="C164" s="61"/>
-      <c r="D164" s="52" t="s">
+      <c r="B164" s="67"/>
+      <c r="C164" s="60"/>
+      <c r="D164" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E164" s="45" t="e">
+      <c r="E164" s="44">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F164" s="79"/>
-      <c r="G164" s="32"/>
-      <c r="H164" s="82"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="F164" s="78"/>
+      <c r="G164" s="31"/>
+      <c r="H164" s="81"/>
     </row>
     <row r="165" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B165" s="69" t="s">
+      <c r="B165" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C165" s="62" t="s">
+      <c r="C165" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D165" s="53" t="s">
+      <c r="D165" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E165" s="40" t="s">
+      <c r="E165" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F165" s="75" t="s">
+      <c r="F165" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G165" s="33" t="s">
+      <c r="G165" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H165" s="83" t="s">
+      <c r="H165" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7069,160 +7067,160 @@
       <c r="A166" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B166" s="67"/>
-      <c r="C166" s="60"/>
-      <c r="D166" s="55"/>
-      <c r="E166" s="41">
+      <c r="B166" s="66"/>
+      <c r="C166" s="59"/>
+      <c r="D166" s="54"/>
+      <c r="E166" s="40">
         <f>(B166-C166)*-24-D166</f>
         <v>0</v>
       </c>
-      <c r="F166" s="77"/>
-      <c r="G166" s="35"/>
-      <c r="H166" s="84"/>
+      <c r="F166" s="76"/>
+      <c r="G166" s="34"/>
+      <c r="H166" s="83"/>
     </row>
     <row r="167" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B167" s="67"/>
-      <c r="C167" s="60"/>
-      <c r="D167" s="55"/>
-      <c r="E167" s="41">
+      <c r="B167" s="66"/>
+      <c r="C167" s="59"/>
+      <c r="D167" s="54"/>
+      <c r="E167" s="40">
         <f t="shared" ref="E167:E172" si="16">(B167-C167)*-24-D167</f>
         <v>0</v>
       </c>
-      <c r="F167" s="77"/>
-      <c r="G167" s="35"/>
-      <c r="H167" s="84"/>
+      <c r="F167" s="76"/>
+      <c r="G167" s="34"/>
+      <c r="H167" s="83"/>
     </row>
     <row r="168" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B168" s="67"/>
-      <c r="C168" s="60"/>
-      <c r="D168" s="55"/>
-      <c r="E168" s="41">
+      <c r="B168" s="66"/>
+      <c r="C168" s="59"/>
+      <c r="D168" s="54"/>
+      <c r="E168" s="40">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F168" s="77"/>
-      <c r="G168" s="35"/>
-      <c r="H168" s="84"/>
+      <c r="F168" s="76"/>
+      <c r="G168" s="34"/>
+      <c r="H168" s="83"/>
     </row>
     <row r="169" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B169" s="67"/>
-      <c r="C169" s="60"/>
-      <c r="D169" s="55"/>
-      <c r="E169" s="41">
+      <c r="B169" s="66"/>
+      <c r="C169" s="59"/>
+      <c r="D169" s="54"/>
+      <c r="E169" s="40">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F169" s="77"/>
-      <c r="G169" s="35"/>
-      <c r="H169" s="84"/>
+      <c r="F169" s="76"/>
+      <c r="G169" s="34"/>
+      <c r="H169" s="83"/>
     </row>
     <row r="170" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B170" s="67"/>
-      <c r="C170" s="60"/>
-      <c r="D170" s="55"/>
-      <c r="E170" s="41">
+      <c r="B170" s="66"/>
+      <c r="C170" s="59"/>
+      <c r="D170" s="54"/>
+      <c r="E170" s="40">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F170" s="77"/>
-      <c r="G170" s="35"/>
-      <c r="H170" s="84"/>
+      <c r="F170" s="76"/>
+      <c r="G170" s="34"/>
+      <c r="H170" s="83"/>
     </row>
     <row r="171" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B171" s="67"/>
-      <c r="C171" s="60"/>
-      <c r="D171" s="55"/>
-      <c r="E171" s="41">
+      <c r="B171" s="66"/>
+      <c r="C171" s="59"/>
+      <c r="D171" s="54"/>
+      <c r="E171" s="40">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F171" s="77"/>
-      <c r="G171" s="35"/>
-      <c r="H171" s="84"/>
+      <c r="F171" s="76"/>
+      <c r="G171" s="34"/>
+      <c r="H171" s="83"/>
     </row>
     <row r="172" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B172" s="71"/>
-      <c r="C172" s="64"/>
-      <c r="D172" s="57"/>
-      <c r="E172" s="47">
+      <c r="B172" s="70"/>
+      <c r="C172" s="63"/>
+      <c r="D172" s="56"/>
+      <c r="E172" s="46">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F172" s="80"/>
-      <c r="G172" s="36"/>
-      <c r="H172" s="85"/>
+      <c r="F172" s="79"/>
+      <c r="G172" s="35"/>
+      <c r="H172" s="84"/>
     </row>
     <row r="173" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
-      <c r="B173" s="66"/>
-      <c r="C173" s="59"/>
-      <c r="D173" s="51" t="s">
+      <c r="B173" s="65"/>
+      <c r="C173" s="58"/>
+      <c r="D173" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E173" s="48">
+      <c r="E173" s="47">
         <f>SUM(E166:E172)</f>
         <v>0</v>
       </c>
-      <c r="F173" s="73"/>
-      <c r="G173" s="31"/>
-      <c r="H173" s="81"/>
+      <c r="F173" s="72"/>
+      <c r="G173" s="30"/>
+      <c r="H173" s="80"/>
     </row>
     <row r="174" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
-      <c r="B174" s="68"/>
-      <c r="C174" s="61"/>
-      <c r="D174" s="52" t="s">
+      <c r="B174" s="67"/>
+      <c r="C174" s="60"/>
+      <c r="D174" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E174" s="45" t="e">
+      <c r="E174" s="44">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F174" s="79"/>
-      <c r="G174" s="32"/>
-      <c r="H174" s="82"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="F174" s="78"/>
+      <c r="G174" s="31"/>
+      <c r="H174" s="81"/>
     </row>
     <row r="175" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B175" s="69" t="s">
+      <c r="B175" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C175" s="62" t="s">
+      <c r="C175" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D175" s="53" t="s">
+      <c r="D175" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E175" s="40" t="s">
+      <c r="E175" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F175" s="75" t="s">
+      <c r="F175" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G175" s="33" t="s">
+      <c r="G175" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H175" s="83" t="s">
+      <c r="H175" s="82" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7230,136 +7228,136 @@
       <c r="A176" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B176" s="67"/>
-      <c r="C176" s="60"/>
-      <c r="D176" s="55"/>
-      <c r="E176" s="41">
+      <c r="B176" s="66"/>
+      <c r="C176" s="59"/>
+      <c r="D176" s="54"/>
+      <c r="E176" s="40">
         <f>(B176-C176)*-24-D176</f>
         <v>0</v>
       </c>
-      <c r="F176" s="77"/>
-      <c r="G176" s="35"/>
-      <c r="H176" s="84"/>
+      <c r="F176" s="76"/>
+      <c r="G176" s="34"/>
+      <c r="H176" s="83"/>
     </row>
     <row r="177" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B177" s="67"/>
-      <c r="C177" s="60"/>
-      <c r="D177" s="55"/>
-      <c r="E177" s="41">
+      <c r="B177" s="66"/>
+      <c r="C177" s="59"/>
+      <c r="D177" s="54"/>
+      <c r="E177" s="40">
         <f t="shared" ref="E177:E182" si="17">(B177-C177)*-24-D177</f>
         <v>0</v>
       </c>
-      <c r="F177" s="77"/>
-      <c r="G177" s="35"/>
-      <c r="H177" s="84"/>
+      <c r="F177" s="76"/>
+      <c r="G177" s="34"/>
+      <c r="H177" s="83"/>
     </row>
     <row r="178" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B178" s="67"/>
-      <c r="C178" s="60"/>
-      <c r="D178" s="55"/>
-      <c r="E178" s="41">
+      <c r="B178" s="66"/>
+      <c r="C178" s="59"/>
+      <c r="D178" s="54"/>
+      <c r="E178" s="40">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F178" s="77"/>
-      <c r="G178" s="35"/>
-      <c r="H178" s="84"/>
+      <c r="F178" s="76"/>
+      <c r="G178" s="34"/>
+      <c r="H178" s="83"/>
     </row>
     <row r="179" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B179" s="67"/>
-      <c r="C179" s="60"/>
-      <c r="D179" s="55"/>
-      <c r="E179" s="41">
+      <c r="B179" s="66"/>
+      <c r="C179" s="59"/>
+      <c r="D179" s="54"/>
+      <c r="E179" s="40">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F179" s="77"/>
-      <c r="G179" s="35"/>
-      <c r="H179" s="84"/>
+      <c r="F179" s="76"/>
+      <c r="G179" s="34"/>
+      <c r="H179" s="83"/>
     </row>
     <row r="180" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B180" s="67"/>
-      <c r="C180" s="60"/>
-      <c r="D180" s="55"/>
-      <c r="E180" s="41">
+      <c r="B180" s="66"/>
+      <c r="C180" s="59"/>
+      <c r="D180" s="54"/>
+      <c r="E180" s="40">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F180" s="77"/>
-      <c r="G180" s="35"/>
-      <c r="H180" s="84"/>
+      <c r="F180" s="76"/>
+      <c r="G180" s="34"/>
+      <c r="H180" s="83"/>
     </row>
     <row r="181" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B181" s="67"/>
-      <c r="C181" s="60"/>
-      <c r="D181" s="55"/>
-      <c r="E181" s="41">
+      <c r="B181" s="66"/>
+      <c r="C181" s="59"/>
+      <c r="D181" s="54"/>
+      <c r="E181" s="40">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F181" s="77"/>
-      <c r="G181" s="35"/>
-      <c r="H181" s="84"/>
+      <c r="F181" s="76"/>
+      <c r="G181" s="34"/>
+      <c r="H181" s="83"/>
     </row>
     <row r="182" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B182" s="71"/>
-      <c r="C182" s="64"/>
-      <c r="D182" s="57"/>
-      <c r="E182" s="47">
+      <c r="B182" s="70"/>
+      <c r="C182" s="63"/>
+      <c r="D182" s="56"/>
+      <c r="E182" s="46">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F182" s="80"/>
-      <c r="G182" s="36"/>
-      <c r="H182" s="85"/>
+      <c r="F182" s="79"/>
+      <c r="G182" s="35"/>
+      <c r="H182" s="84"/>
     </row>
     <row r="183" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
-      <c r="B183" s="66"/>
-      <c r="C183" s="59"/>
-      <c r="D183" s="51" t="s">
+      <c r="B183" s="65"/>
+      <c r="C183" s="58"/>
+      <c r="D183" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E183" s="48">
+      <c r="E183" s="47">
         <f>SUM(E176:E182)</f>
         <v>0</v>
       </c>
-      <c r="F183" s="73"/>
-      <c r="G183" s="31"/>
-      <c r="H183" s="81"/>
+      <c r="F183" s="72"/>
+      <c r="G183" s="30"/>
+      <c r="H183" s="80"/>
     </row>
     <row r="184" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
-      <c r="B184" s="66"/>
-      <c r="C184" s="59"/>
-      <c r="D184" s="51" t="s">
+      <c r="B184" s="65"/>
+      <c r="C184" s="58"/>
+      <c r="D184" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E184" s="48" t="e">
+      <c r="E184" s="47">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F184" s="73"/>
-      <c r="G184" s="31"/>
-      <c r="H184" s="81"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="F184" s="72"/>
+      <c r="G184" s="30"/>
+      <c r="H184" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -10344,7 +10342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -10542,7 +10540,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10695,7 +10693,7 @@
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H19" s="9"/>
     </row>
@@ -10718,7 +10716,7 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H20" s="9"/>
     </row>
@@ -10827,7 +10825,7 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H26" s="9"/>
     </row>

--- a/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
+++ b/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265"/>
   </bookViews>
   <sheets>
     <sheet name="Tobias" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="160">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -495,6 +495,12 @@
   </si>
   <si>
     <t>Assetliste, Voodoo Puppe Mesh</t>
+  </si>
+  <si>
+    <t>GDD ausgearbeitet, Whitebox erstellt</t>
+  </si>
+  <si>
+    <t>GDD ausgearbeitet, Level überarbeitet</t>
   </si>
 </sst>
 </file>
@@ -1325,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1778,34 +1784,50 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
+      <c r="B26" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="C26" s="15">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D26" s="16">
+        <v>1.5</v>
+      </c>
       <c r="E26" s="12">
         <f>(B26-C26)*-24-D26</f>
-        <v>0</v>
+        <v>6.8333333333333321</v>
       </c>
       <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="G26" s="9" t="s">
+        <v>158</v>
+      </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="17"/>
+      <c r="B27" s="15">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C27" s="15">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="D27" s="17">
+        <v>1.4</v>
+      </c>
       <c r="E27" s="12">
         <f t="shared" ref="E27:E32" si="2">(B27-C27)*-24-D27</f>
-        <v>0</v>
+        <v>5.85</v>
       </c>
       <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="G27" s="9" t="s">
+        <v>159</v>
+      </c>
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1892,7 +1914,7 @@
       </c>
       <c r="E33" s="22">
         <f>SUM(E26:E32)</f>
-        <v>0</v>
+        <v>12.683333333333332</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1907,7 +1929,7 @@
       </c>
       <c r="E34" s="19">
         <f>SUM(E13+E23+E33)</f>
-        <v>36.583333333333336</v>
+        <v>49.266666666666666</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -2068,7 +2090,7 @@
       </c>
       <c r="E44" s="19">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>36.583333333333336</v>
+        <v>49.266666666666666</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -2229,7 +2251,7 @@
       </c>
       <c r="E54" s="19">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>36.583333333333336</v>
+        <v>49.266666666666666</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2390,7 +2412,7 @@
       </c>
       <c r="E64" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>36.583333333333336</v>
+        <v>49.266666666666666</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2551,7 +2573,7 @@
       </c>
       <c r="E74" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>36.583333333333336</v>
+        <v>49.266666666666666</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2712,7 +2734,7 @@
       </c>
       <c r="E84" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>36.583333333333336</v>
+        <v>49.266666666666666</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2873,7 +2895,7 @@
       </c>
       <c r="E94" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>36.583333333333336</v>
+        <v>49.266666666666666</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -3034,7 +3056,7 @@
       </c>
       <c r="E104" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>36.583333333333336</v>
+        <v>49.266666666666666</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3195,7 +3217,7 @@
       </c>
       <c r="E114" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>36.583333333333336</v>
+        <v>49.266666666666666</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3356,7 +3378,7 @@
       </c>
       <c r="E124" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>36.583333333333336</v>
+        <v>49.266666666666666</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3517,7 +3539,7 @@
       </c>
       <c r="E134" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>36.583333333333336</v>
+        <v>49.266666666666666</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3678,7 +3700,7 @@
       </c>
       <c r="E144" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>36.583333333333336</v>
+        <v>49.266666666666666</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3839,7 +3861,7 @@
       </c>
       <c r="E154" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>36.583333333333336</v>
+        <v>49.266666666666666</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3999,7 +4021,7 @@
       </c>
       <c r="E164" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>36.583333333333336</v>
+        <v>49.266666666666666</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4160,7 +4182,7 @@
       </c>
       <c r="E174" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>36.583333333333336</v>
+        <v>49.266666666666666</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4321,7 +4343,7 @@
       </c>
       <c r="E184" s="18">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>36.583333333333336</v>
+        <v>49.266666666666666</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
@@ -4337,7 +4359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -22547,7 +22569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
@@ -22562,7 +22584,7 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
@@ -22577,7 +22599,7 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>22</v>
       </c>
@@ -22592,7 +22614,7 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
@@ -22607,7 +22629,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
@@ -22622,7 +22644,7 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
@@ -22637,7 +22659,7 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>26</v>
       </c>

--- a/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
+++ b/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="159">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -495,6 +495,9 @@
   </si>
   <si>
     <t>Assetliste, Voodoo Puppe Mesh</t>
+  </si>
+  <si>
+    <t>Art Bibel, Voodoo Puppe Mesh</t>
   </si>
 </sst>
 </file>
@@ -4337,8 +4340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4829,15 +4832,23 @@
       <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="54"/>
+      <c r="B27" s="66">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C27" s="59">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="D27" s="54">
+        <v>1.25</v>
+      </c>
       <c r="E27" s="40">
         <f t="shared" ref="E27:E32" si="2">(B27-C27)*-24-D27</f>
-        <v>0</v>
+        <v>5.4166666666666679</v>
       </c>
       <c r="F27" s="76"/>
-      <c r="G27" s="34"/>
+      <c r="G27" s="34" t="s">
+        <v>158</v>
+      </c>
       <c r="H27" s="83"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4924,7 +4935,7 @@
       </c>
       <c r="E33" s="43">
         <f>SUM(E26:E32)</f>
-        <v>7</v>
+        <v>12.416666666666668</v>
       </c>
       <c r="F33" s="72"/>
       <c r="G33" s="30"/>
@@ -4939,7 +4950,7 @@
       </c>
       <c r="E34" s="44">
         <f>SUM(E13+E23+E33)</f>
-        <v>49.583333333333336</v>
+        <v>55</v>
       </c>
       <c r="F34" s="78"/>
       <c r="G34" s="31"/>
@@ -5100,7 +5111,7 @@
       </c>
       <c r="E44" s="44">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>49.583333333333336</v>
+        <v>55</v>
       </c>
       <c r="F44" s="78"/>
       <c r="G44" s="31"/>
@@ -5261,7 +5272,7 @@
       </c>
       <c r="E54" s="44">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>49.583333333333336</v>
+        <v>55</v>
       </c>
       <c r="F54" s="78"/>
       <c r="G54" s="31"/>
@@ -5422,7 +5433,7 @@
       </c>
       <c r="E64" s="44">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>49.583333333333336</v>
+        <v>55</v>
       </c>
       <c r="F64" s="78"/>
       <c r="G64" s="31"/>
@@ -5583,7 +5594,7 @@
       </c>
       <c r="E74" s="44">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>49.583333333333336</v>
+        <v>55</v>
       </c>
       <c r="F74" s="78"/>
       <c r="G74" s="31"/>
@@ -5744,7 +5755,7 @@
       </c>
       <c r="E84" s="44">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>49.583333333333336</v>
+        <v>55</v>
       </c>
       <c r="F84" s="78"/>
       <c r="G84" s="31"/>
@@ -5905,7 +5916,7 @@
       </c>
       <c r="E94" s="44">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>49.583333333333336</v>
+        <v>55</v>
       </c>
       <c r="F94" s="78"/>
       <c r="G94" s="31"/>
@@ -6066,7 +6077,7 @@
       </c>
       <c r="E104" s="44">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>49.583333333333336</v>
+        <v>55</v>
       </c>
       <c r="F104" s="78"/>
       <c r="G104" s="31"/>
@@ -6227,7 +6238,7 @@
       </c>
       <c r="E114" s="44">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>49.583333333333336</v>
+        <v>55</v>
       </c>
       <c r="F114" s="78"/>
       <c r="G114" s="31"/>
@@ -6388,7 +6399,7 @@
       </c>
       <c r="E124" s="44">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>49.583333333333336</v>
+        <v>55</v>
       </c>
       <c r="F124" s="78"/>
       <c r="G124" s="31"/>
@@ -6549,7 +6560,7 @@
       </c>
       <c r="E134" s="44">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>49.583333333333336</v>
+        <v>55</v>
       </c>
       <c r="F134" s="78"/>
       <c r="G134" s="31"/>
@@ -6710,7 +6721,7 @@
       </c>
       <c r="E144" s="44">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>49.583333333333336</v>
+        <v>55</v>
       </c>
       <c r="F144" s="78"/>
       <c r="G144" s="31"/>
@@ -6871,7 +6882,7 @@
       </c>
       <c r="E154" s="44">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>49.583333333333336</v>
+        <v>55</v>
       </c>
       <c r="F154" s="78"/>
       <c r="G154" s="31"/>
@@ -7031,7 +7042,7 @@
       </c>
       <c r="E164" s="44">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>49.583333333333336</v>
+        <v>55</v>
       </c>
       <c r="F164" s="78"/>
       <c r="G164" s="31"/>
@@ -7192,7 +7203,7 @@
       </c>
       <c r="E174" s="44">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>49.583333333333336</v>
+        <v>55</v>
       </c>
       <c r="F174" s="78"/>
       <c r="G174" s="31"/>
@@ -7353,7 +7364,7 @@
       </c>
       <c r="E184" s="47">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>49.583333333333336</v>
+        <v>55</v>
       </c>
       <c r="F184" s="72"/>
       <c r="G184" s="30"/>

--- a/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
+++ b/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
@@ -555,7 +555,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -625,6 +625,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,7 +775,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -867,9 +873,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -925,9 +928,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -952,9 +952,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -970,9 +967,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1021,6 +1015,50 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="13" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="13" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="13" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
@@ -1512,7 +1550,7 @@
       <c r="B10" s="15">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C10" s="86">
+      <c r="C10" s="82">
         <v>0.70833333333333337</v>
       </c>
       <c r="D10" s="17">
@@ -4338,647 +4376,826 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H184"/>
+  <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="71" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="64" customWidth="1"/>
-    <col min="4" max="4" width="26" style="57" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="49" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="85" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="67" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="61" customWidth="1"/>
+    <col min="4" max="4" width="26" style="55" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="48" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="81" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="72"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="68"/>
       <c r="G1" s="30"/>
-      <c r="H1" s="80"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="76"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="72"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="30"/>
-      <c r="H2" s="80"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="76"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="63">
         <v>0.69791666666666663</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="57">
         <v>0.75</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="72"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="30"/>
-      <c r="H3" s="80"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="76"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="73" t="s">
+      <c r="B4" s="64"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="31"/>
-      <c r="H4" s="81"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="77"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="70" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="82" t="s">
+      <c r="H5" s="78" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:16" s="89" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="69">
+      <c r="B6" s="84">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C6" s="62">
+      <c r="C6" s="84">
         <v>0.75</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="85">
         <v>1</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="85">
         <f>(B6-C6)*-24-D6</f>
         <v>7</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="F6" s="86"/>
+      <c r="G6" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="H6" s="83"/>
-    </row>
-    <row r="7" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="H6" s="88"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+    </row>
+    <row r="7" spans="1:16" s="89" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="90">
         <v>0.375</v>
       </c>
-      <c r="C7" s="59">
+      <c r="C7" s="90">
         <v>0.75</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="91">
         <v>1</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="85">
         <f t="shared" ref="E7:E12" si="0">(B7-C7)*-24-D7</f>
         <v>8</v>
       </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="34" t="s">
+      <c r="F7" s="88"/>
+      <c r="G7" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="H7" s="83"/>
-    </row>
-    <row r="8" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="H7" s="88"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+    </row>
+    <row r="8" spans="1:16" s="89" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="66">
+      <c r="B8" s="90">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C8" s="59">
+      <c r="C8" s="90">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="91">
         <v>2</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="85">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F8" s="76"/>
-      <c r="G8" s="34" t="s">
+      <c r="F8" s="88"/>
+      <c r="G8" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="H8" s="83"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="H8" s="88"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+    </row>
+    <row r="9" spans="1:16" s="89" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="66">
+      <c r="B9" s="90">
         <v>0.38194444444444442</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="90">
         <v>0.78125</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="91">
         <v>1.5</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="85">
         <f t="shared" si="0"/>
         <v>8.0833333333333339</v>
       </c>
-      <c r="F9" s="76"/>
-      <c r="G9" s="34" t="s">
+      <c r="F9" s="88"/>
+      <c r="G9" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="83"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="H9" s="88"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+    </row>
+    <row r="10" spans="1:16" s="89" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="66">
+      <c r="B10" s="90">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="90">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="40">
+      <c r="D10" s="91"/>
+      <c r="E10" s="85">
         <f>(B10-C10)*-24-D10</f>
         <v>7.5000000000000018</v>
       </c>
-      <c r="F10" s="76"/>
-      <c r="G10" s="34" t="s">
+      <c r="F10" s="88"/>
+      <c r="G10" s="88" t="s">
         <v>149</v>
       </c>
-      <c r="H10" s="83"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="H10" s="88"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="98"/>
+    </row>
+    <row r="11" spans="1:16" s="89" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="41">
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="92">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="76"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="83"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
+    </row>
+    <row r="12" spans="1:16" s="89" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="42">
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="95">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="77"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="84"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="96"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="50" t="s">
+      <c r="B13" s="62"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="42">
         <f>SUM(E6:E12)</f>
         <v>36.583333333333336</v>
       </c>
-      <c r="F13" s="72"/>
+      <c r="F13" s="68"/>
       <c r="G13" s="30"/>
-      <c r="H13" s="80"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="76"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="51" t="s">
+      <c r="B14" s="64"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="43">
         <f>SUM(E13)</f>
         <v>36.583333333333336</v>
       </c>
-      <c r="F14" s="78"/>
+      <c r="F14" s="74"/>
       <c r="G14" s="31"/>
-      <c r="H14" s="81"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="77"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="74" t="s">
+      <c r="F15" s="70" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="82" t="s">
+      <c r="H15" s="78" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+    </row>
+    <row r="16" spans="1:16" s="89" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="40">
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="85">
         <f>(B16-C16)*-24-D16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="76"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="83"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="98"/>
+    </row>
+    <row r="17" spans="1:16" s="89" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="40">
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="85">
         <f t="shared" ref="E17:E22" si="1">(B17-C17)*-24-D17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="76"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="83"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
+    </row>
+    <row r="18" spans="1:16" s="89" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="66">
+      <c r="B18" s="90">
         <v>0.69791666666666663</v>
       </c>
-      <c r="C18" s="59">
+      <c r="C18" s="90">
         <v>0.75</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="40">
+      <c r="D18" s="91"/>
+      <c r="E18" s="85">
         <f t="shared" si="1"/>
         <v>1.2500000000000009</v>
       </c>
-      <c r="F18" s="76"/>
-      <c r="G18" s="34" t="s">
+      <c r="F18" s="88"/>
+      <c r="G18" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="H18" s="83"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="H18" s="88"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
+    </row>
+    <row r="19" spans="1:16" s="89" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="40">
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="76"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="83"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
+    </row>
+    <row r="20" spans="1:16" s="89" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="66">
+      <c r="B20" s="90">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C20" s="59">
+      <c r="C20" s="90">
         <v>0.71875</v>
       </c>
-      <c r="D20" s="54">
+      <c r="D20" s="91">
         <v>1</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="85">
         <f t="shared" si="1"/>
         <v>4.75</v>
       </c>
-      <c r="F20" s="76"/>
-      <c r="G20" s="34" t="s">
+      <c r="F20" s="88"/>
+      <c r="G20" s="88" t="s">
         <v>155</v>
       </c>
-      <c r="H20" s="83"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="H20" s="88"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="98"/>
+      <c r="P20" s="98"/>
+    </row>
+    <row r="21" spans="1:16" s="89" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="41">
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="76"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="83"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
+    </row>
+    <row r="22" spans="1:16" s="89" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="42">
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="95">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="77"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="84"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="96"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="98"/>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="50" t="s">
+      <c r="B23" s="62"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="42">
         <f>SUM(E16:E22)</f>
         <v>6.0000000000000009</v>
       </c>
-      <c r="F23" s="72"/>
+      <c r="F23" s="68"/>
       <c r="G23" s="30"/>
-      <c r="H23" s="80"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="76"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="98"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="51" t="s">
+      <c r="B24" s="64"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="43">
         <f>SUM(E13+E23)</f>
         <v>42.583333333333336</v>
       </c>
-      <c r="F24" s="78"/>
+      <c r="F24" s="74"/>
       <c r="G24" s="31"/>
-      <c r="H24" s="81"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="77"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="98"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="74" t="s">
+      <c r="F25" s="70" t="s">
         <v>7</v>
       </c>
       <c r="G25" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="82" t="s">
+      <c r="H25" s="78" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="98"/>
+    </row>
+    <row r="26" spans="1:16" s="89" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="66">
+      <c r="B26" s="90">
         <v>0.375</v>
       </c>
-      <c r="C26" s="59">
+      <c r="C26" s="90">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D26" s="54">
+      <c r="D26" s="91">
         <v>1.5</v>
       </c>
-      <c r="E26" s="40">
+      <c r="E26" s="85">
         <f>(B26-C26)*-24-D26</f>
         <v>7</v>
       </c>
-      <c r="F26" s="76"/>
-      <c r="G26" s="34" t="s">
+      <c r="F26" s="88"/>
+      <c r="G26" s="88" t="s">
         <v>157</v>
       </c>
-      <c r="H26" s="83"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="H26" s="88"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="98"/>
+    </row>
+    <row r="27" spans="1:16" s="89" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="66">
+      <c r="B27" s="90">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C27" s="59">
+      <c r="C27" s="90">
         <v>0.69444444444444453</v>
       </c>
-      <c r="D27" s="54">
+      <c r="D27" s="91">
         <v>1.25</v>
       </c>
-      <c r="E27" s="40">
+      <c r="E27" s="85">
         <f t="shared" ref="E27:E32" si="2">(B27-C27)*-24-D27</f>
         <v>5.4166666666666679</v>
       </c>
-      <c r="F27" s="76"/>
-      <c r="G27" s="34" t="s">
+      <c r="F27" s="88"/>
+      <c r="G27" s="88" t="s">
         <v>158</v>
       </c>
-      <c r="H27" s="83"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="88"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="98"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="66"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="40">
+      <c r="B28" s="63">
+        <v>0.375</v>
+      </c>
+      <c r="C28" s="57"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="76"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="83"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-9</v>
+      </c>
+      <c r="F28" s="72"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="79"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="40">
+      <c r="B29" s="63"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F29" s="76"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="83"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="72"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="79"/>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="40">
+      <c r="B30" s="63"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F30" s="76"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="83"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="72"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="79"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="41">
+      <c r="B31" s="63"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F31" s="76"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="83"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="72"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="79"/>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="70"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="42">
+      <c r="B32" s="66"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F32" s="77"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="84"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="80"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="50" t="s">
+      <c r="B33" s="62"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="43">
+      <c r="E33" s="42">
         <f>SUM(E26:E32)</f>
-        <v>12.416666666666668</v>
-      </c>
-      <c r="F33" s="72"/>
+        <v>3.4166666666666679</v>
+      </c>
+      <c r="F33" s="68"/>
       <c r="G33" s="30"/>
-      <c r="H33" s="80"/>
+      <c r="H33" s="76"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="51" t="s">
+      <c r="B34" s="64"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="44">
+      <c r="E34" s="43">
         <f>SUM(E13+E23+E33)</f>
-        <v>55</v>
-      </c>
-      <c r="F34" s="78"/>
+        <v>46</v>
+      </c>
+      <c r="F34" s="74"/>
       <c r="G34" s="31"/>
-      <c r="H34" s="81"/>
+      <c r="H34" s="77"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="45" t="s">
+      <c r="E35" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="74" t="s">
+      <c r="F35" s="70" t="s">
         <v>7</v>
       </c>
       <c r="G35" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="82" t="s">
+      <c r="H35" s="78" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4986,160 +5203,160 @@
       <c r="A36" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="66"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="40">
+      <c r="B36" s="63"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="39">
         <f>(B36-C36)*-24-D36</f>
         <v>0</v>
       </c>
-      <c r="F36" s="76"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="83"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="79"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="40">
+      <c r="B37" s="63"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="39">
         <f t="shared" ref="E37:E42" si="3">(B37-C37)*-24-D37</f>
         <v>0</v>
       </c>
-      <c r="F37" s="76"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="83"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="79"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="66"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="40">
+      <c r="B38" s="63"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F38" s="76"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="83"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="79"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="66"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="40">
+      <c r="B39" s="63"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F39" s="76"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="83"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="79"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="66"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="40">
+      <c r="B40" s="63"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F40" s="76"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="83"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="79"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="66"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="41">
+      <c r="B41" s="63"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F41" s="76"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="83"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="79"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="70"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="42">
+      <c r="B42" s="66"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F42" s="77"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="84"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="80"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="50" t="s">
+      <c r="B43" s="62"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="43">
+      <c r="E43" s="42">
         <f>SUM(E36:E42)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="72"/>
+      <c r="F43" s="68"/>
       <c r="G43" s="30"/>
-      <c r="H43" s="80"/>
+      <c r="H43" s="76"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="51" t="s">
+      <c r="B44" s="64"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="44">
+      <c r="E44" s="43">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>55</v>
-      </c>
-      <c r="F44" s="78"/>
+        <v>46</v>
+      </c>
+      <c r="F44" s="74"/>
       <c r="G44" s="31"/>
-      <c r="H44" s="81"/>
+      <c r="H44" s="77"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="68" t="s">
+      <c r="B45" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="61" t="s">
+      <c r="C45" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="52" t="s">
+      <c r="D45" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="39" t="s">
+      <c r="E45" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F45" s="74" t="s">
+      <c r="F45" s="70" t="s">
         <v>7</v>
       </c>
       <c r="G45" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="82" t="s">
+      <c r="H45" s="78" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5147,160 +5364,160 @@
       <c r="A46" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="66"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="40">
+      <c r="B46" s="63"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="39">
         <f>(B46-C46)*-24-D46</f>
         <v>0</v>
       </c>
-      <c r="F46" s="76"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="83"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="79"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="66"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="40">
+      <c r="B47" s="63"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="39">
         <f t="shared" ref="E47:E52" si="4">(B47-C47)*-24-D47</f>
         <v>0</v>
       </c>
-      <c r="F47" s="76"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="83"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="79"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="66"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="40">
+      <c r="B48" s="63"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F48" s="76"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="83"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="79"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="66"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="40">
+      <c r="B49" s="63"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F49" s="76"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="83"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="79"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="66"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="40">
+      <c r="B50" s="63"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F50" s="76"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="83"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="79"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="41">
+      <c r="B51" s="63"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F51" s="76"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="83"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="79"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="70"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="42">
+      <c r="B52" s="66"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="41">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F52" s="77"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="84"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="80"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="50" t="s">
+      <c r="B53" s="62"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="43">
+      <c r="E53" s="42">
         <f>SUM(E46:E52)</f>
         <v>0</v>
       </c>
-      <c r="F53" s="72"/>
+      <c r="F53" s="68"/>
       <c r="G53" s="30"/>
-      <c r="H53" s="80"/>
+      <c r="H53" s="76"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="51" t="s">
+      <c r="B54" s="64"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="44">
+      <c r="E54" s="43">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>55</v>
-      </c>
-      <c r="F54" s="78"/>
+        <v>46</v>
+      </c>
+      <c r="F54" s="74"/>
       <c r="G54" s="31"/>
-      <c r="H54" s="81"/>
+      <c r="H54" s="77"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="68" t="s">
+      <c r="B55" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="61" t="s">
+      <c r="C55" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="52" t="s">
+      <c r="D55" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="39" t="s">
+      <c r="E55" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F55" s="74" t="s">
+      <c r="F55" s="70" t="s">
         <v>7</v>
       </c>
       <c r="G55" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H55" s="82" t="s">
+      <c r="H55" s="78" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5308,160 +5525,160 @@
       <c r="A56" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="66"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="40">
+      <c r="B56" s="63"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="39">
         <f>(B56-C56)*-24-D56</f>
         <v>0</v>
       </c>
-      <c r="F56" s="76"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="83"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="79"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="66"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="40">
+      <c r="B57" s="63"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="39">
         <f t="shared" ref="E57:E62" si="5">(B57-C57)*-24-D57</f>
         <v>0</v>
       </c>
-      <c r="F57" s="76"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="83"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="79"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B58" s="66"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="40">
+      <c r="B58" s="63"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="39">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F58" s="76"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="83"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="79"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="66"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="40">
+      <c r="B59" s="63"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="39">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F59" s="76"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="83"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="79"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="66"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="40">
+      <c r="B60" s="63"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="39">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F60" s="76"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="83"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="79"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="66"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="41">
+      <c r="B61" s="63"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F61" s="76"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="83"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="79"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="70"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="42">
+      <c r="B62" s="66"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F62" s="77"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="84"/>
+      <c r="F62" s="73"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="80"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="50" t="s">
+      <c r="B63" s="62"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="43">
+      <c r="E63" s="42">
         <f>SUM(E56:E62)</f>
         <v>0</v>
       </c>
-      <c r="F63" s="72"/>
+      <c r="F63" s="68"/>
       <c r="G63" s="30"/>
-      <c r="H63" s="80"/>
+      <c r="H63" s="76"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
-      <c r="B64" s="67"/>
-      <c r="C64" s="60"/>
-      <c r="D64" s="51" t="s">
+      <c r="B64" s="64"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E64" s="44">
+      <c r="E64" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>55</v>
-      </c>
-      <c r="F64" s="78"/>
+        <v>46</v>
+      </c>
+      <c r="F64" s="74"/>
       <c r="G64" s="31"/>
-      <c r="H64" s="81"/>
+      <c r="H64" s="77"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B65" s="68" t="s">
+      <c r="B65" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="61" t="s">
+      <c r="C65" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D65" s="52" t="s">
+      <c r="D65" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="39" t="s">
+      <c r="E65" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F65" s="74" t="s">
+      <c r="F65" s="70" t="s">
         <v>7</v>
       </c>
       <c r="G65" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H65" s="82" t="s">
+      <c r="H65" s="78" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5469,160 +5686,160 @@
       <c r="A66" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B66" s="66"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="40">
+      <c r="B66" s="63"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="39">
         <f>(B66-C66)*-24-D66</f>
         <v>0</v>
       </c>
-      <c r="F66" s="76"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="83"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="79"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B67" s="66"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="40">
+      <c r="B67" s="63"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="39">
         <f t="shared" ref="E67:E72" si="6">(B67-C67)*-24-D67</f>
         <v>0</v>
       </c>
-      <c r="F67" s="76"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="83"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="79"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B68" s="66"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="40">
+      <c r="B68" s="63"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F68" s="76"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="83"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="79"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B69" s="66"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="40">
+      <c r="B69" s="63"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F69" s="76"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="83"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="79"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B70" s="66"/>
-      <c r="C70" s="59"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="40">
+      <c r="B70" s="63"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F70" s="76"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="83"/>
+      <c r="F70" s="72"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="79"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B71" s="66"/>
-      <c r="C71" s="59"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="40">
+      <c r="B71" s="63"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F71" s="76"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="83"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="79"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B72" s="70"/>
-      <c r="C72" s="63"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="46">
+      <c r="B72" s="66"/>
+      <c r="C72" s="60"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="45">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F72" s="79"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="84"/>
+      <c r="F72" s="75"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="80"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
-      <c r="B73" s="65"/>
-      <c r="C73" s="58"/>
-      <c r="D73" s="50" t="s">
+      <c r="B73" s="62"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E73" s="47">
+      <c r="E73" s="46">
         <f>SUM(E66:E72)</f>
         <v>0</v>
       </c>
-      <c r="F73" s="72"/>
+      <c r="F73" s="68"/>
       <c r="G73" s="30"/>
-      <c r="H73" s="80"/>
+      <c r="H73" s="76"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
-      <c r="B74" s="67"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="51" t="s">
+      <c r="B74" s="64"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="44">
+      <c r="E74" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>55</v>
-      </c>
-      <c r="F74" s="78"/>
+        <v>46</v>
+      </c>
+      <c r="F74" s="74"/>
       <c r="G74" s="31"/>
-      <c r="H74" s="81"/>
+      <c r="H74" s="77"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="68" t="s">
+      <c r="B75" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="61" t="s">
+      <c r="C75" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D75" s="52" t="s">
+      <c r="D75" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E75" s="39" t="s">
+      <c r="E75" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F75" s="74" t="s">
+      <c r="F75" s="70" t="s">
         <v>7</v>
       </c>
       <c r="G75" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H75" s="82" t="s">
+      <c r="H75" s="78" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5630,160 +5847,160 @@
       <c r="A76" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B76" s="66"/>
-      <c r="C76" s="59"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="40">
+      <c r="B76" s="63"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="39">
         <f>(B76-C76)*-24-D76</f>
         <v>0</v>
       </c>
-      <c r="F76" s="76"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="83"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="79"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B77" s="66"/>
-      <c r="C77" s="59"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="40">
+      <c r="B77" s="63"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="52"/>
+      <c r="E77" s="39">
         <f t="shared" ref="E77:E82" si="7">(B77-C77)*-24-D77</f>
         <v>0</v>
       </c>
-      <c r="F77" s="76"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="83"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="79"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B78" s="66"/>
-      <c r="C78" s="59"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="40">
+      <c r="B78" s="63"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="52"/>
+      <c r="E78" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F78" s="76"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="83"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="79"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B79" s="66"/>
-      <c r="C79" s="59"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="40">
+      <c r="B79" s="63"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="52"/>
+      <c r="E79" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F79" s="76"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="83"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="79"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B80" s="66"/>
-      <c r="C80" s="59"/>
-      <c r="D80" s="54"/>
-      <c r="E80" s="40">
+      <c r="B80" s="63"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="52"/>
+      <c r="E80" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F80" s="76"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="83"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="79"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B81" s="66"/>
-      <c r="C81" s="59"/>
-      <c r="D81" s="54"/>
-      <c r="E81" s="40">
+      <c r="B81" s="63"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="52"/>
+      <c r="E81" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F81" s="76"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="83"/>
+      <c r="F81" s="72"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="79"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B82" s="70"/>
-      <c r="C82" s="63"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="46">
+      <c r="B82" s="66"/>
+      <c r="C82" s="60"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F82" s="79"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="84"/>
+      <c r="F82" s="75"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="80"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
-      <c r="B83" s="65"/>
-      <c r="C83" s="58"/>
-      <c r="D83" s="50" t="s">
+      <c r="B83" s="62"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E83" s="47">
+      <c r="E83" s="46">
         <f>SUM(E76:E82)</f>
         <v>0</v>
       </c>
-      <c r="F83" s="72"/>
+      <c r="F83" s="68"/>
       <c r="G83" s="30"/>
-      <c r="H83" s="80"/>
+      <c r="H83" s="76"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
-      <c r="B84" s="67"/>
-      <c r="C84" s="60"/>
-      <c r="D84" s="51" t="s">
+      <c r="B84" s="64"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E84" s="44">
+      <c r="E84" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>55</v>
-      </c>
-      <c r="F84" s="78"/>
+        <v>46</v>
+      </c>
+      <c r="F84" s="74"/>
       <c r="G84" s="31"/>
-      <c r="H84" s="81"/>
+      <c r="H84" s="77"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B85" s="68" t="s">
+      <c r="B85" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="61" t="s">
+      <c r="C85" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D85" s="52" t="s">
+      <c r="D85" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E85" s="39" t="s">
+      <c r="E85" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F85" s="74" t="s">
+      <c r="F85" s="70" t="s">
         <v>7</v>
       </c>
       <c r="G85" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H85" s="82" t="s">
+      <c r="H85" s="78" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5791,160 +6008,160 @@
       <c r="A86" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B86" s="66"/>
-      <c r="C86" s="59"/>
-      <c r="D86" s="54"/>
-      <c r="E86" s="40">
+      <c r="B86" s="63"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="39">
         <f>(B86-C86)*-24-D86</f>
         <v>0</v>
       </c>
-      <c r="F86" s="76"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="83"/>
+      <c r="F86" s="72"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="79"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B87" s="66"/>
-      <c r="C87" s="59"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="40">
+      <c r="B87" s="63"/>
+      <c r="C87" s="57"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="39">
         <f t="shared" ref="E87:E92" si="8">(B87-C87)*-24-D87</f>
         <v>0</v>
       </c>
-      <c r="F87" s="76"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="83"/>
+      <c r="F87" s="72"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="79"/>
     </row>
     <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B88" s="66"/>
-      <c r="C88" s="59"/>
-      <c r="D88" s="54"/>
-      <c r="E88" s="40">
+      <c r="B88" s="63"/>
+      <c r="C88" s="57"/>
+      <c r="D88" s="52"/>
+      <c r="E88" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F88" s="76"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="83"/>
+      <c r="F88" s="72"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="79"/>
     </row>
     <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B89" s="66"/>
-      <c r="C89" s="59"/>
-      <c r="D89" s="54"/>
-      <c r="E89" s="40">
+      <c r="B89" s="63"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="52"/>
+      <c r="E89" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F89" s="76"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="83"/>
+      <c r="F89" s="72"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="79"/>
     </row>
     <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B90" s="66"/>
-      <c r="C90" s="59"/>
-      <c r="D90" s="54"/>
-      <c r="E90" s="40">
+      <c r="B90" s="63"/>
+      <c r="C90" s="57"/>
+      <c r="D90" s="52"/>
+      <c r="E90" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F90" s="76"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="83"/>
+      <c r="F90" s="72"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="79"/>
     </row>
     <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B91" s="66"/>
-      <c r="C91" s="59"/>
-      <c r="D91" s="54"/>
-      <c r="E91" s="40">
+      <c r="B91" s="63"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="52"/>
+      <c r="E91" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F91" s="76"/>
-      <c r="G91" s="34"/>
-      <c r="H91" s="83"/>
+      <c r="F91" s="72"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="79"/>
     </row>
     <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B92" s="70"/>
-      <c r="C92" s="63"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="46">
+      <c r="B92" s="66"/>
+      <c r="C92" s="60"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F92" s="79"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="84"/>
+      <c r="F92" s="75"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="80"/>
     </row>
     <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
-      <c r="B93" s="65"/>
-      <c r="C93" s="58"/>
-      <c r="D93" s="50" t="s">
+      <c r="B93" s="62"/>
+      <c r="C93" s="56"/>
+      <c r="D93" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E93" s="47">
+      <c r="E93" s="46">
         <f>SUM(E86:E92)</f>
         <v>0</v>
       </c>
-      <c r="F93" s="72"/>
+      <c r="F93" s="68"/>
       <c r="G93" s="30"/>
-      <c r="H93" s="80"/>
+      <c r="H93" s="76"/>
     </row>
     <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
-      <c r="B94" s="67"/>
-      <c r="C94" s="60"/>
-      <c r="D94" s="51" t="s">
+      <c r="B94" s="64"/>
+      <c r="C94" s="58"/>
+      <c r="D94" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E94" s="44">
+      <c r="E94" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>55</v>
-      </c>
-      <c r="F94" s="78"/>
+        <v>46</v>
+      </c>
+      <c r="F94" s="74"/>
       <c r="G94" s="31"/>
-      <c r="H94" s="81"/>
+      <c r="H94" s="77"/>
     </row>
     <row r="95" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B95" s="68" t="s">
+      <c r="B95" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C95" s="61" t="s">
+      <c r="C95" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D95" s="52" t="s">
+      <c r="D95" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E95" s="39" t="s">
+      <c r="E95" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F95" s="74" t="s">
+      <c r="F95" s="70" t="s">
         <v>7</v>
       </c>
       <c r="G95" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H95" s="82" t="s">
+      <c r="H95" s="78" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5952,160 +6169,160 @@
       <c r="A96" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B96" s="66"/>
-      <c r="C96" s="59"/>
-      <c r="D96" s="54"/>
-      <c r="E96" s="40">
+      <c r="B96" s="63"/>
+      <c r="C96" s="57"/>
+      <c r="D96" s="52"/>
+      <c r="E96" s="39">
         <f>(B96-C96)*-24-D96</f>
         <v>0</v>
       </c>
-      <c r="F96" s="76"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="83"/>
+      <c r="F96" s="72"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="79"/>
     </row>
     <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B97" s="66"/>
-      <c r="C97" s="59"/>
-      <c r="D97" s="54"/>
-      <c r="E97" s="40">
+      <c r="B97" s="63"/>
+      <c r="C97" s="57"/>
+      <c r="D97" s="52"/>
+      <c r="E97" s="39">
         <f t="shared" ref="E97:E102" si="9">(B97-C97)*-24-D97</f>
         <v>0</v>
       </c>
-      <c r="F97" s="76"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="83"/>
+      <c r="F97" s="72"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="79"/>
     </row>
     <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B98" s="66"/>
-      <c r="C98" s="59"/>
-      <c r="D98" s="54"/>
-      <c r="E98" s="40">
+      <c r="B98" s="63"/>
+      <c r="C98" s="57"/>
+      <c r="D98" s="52"/>
+      <c r="E98" s="39">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F98" s="76"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="83"/>
+      <c r="F98" s="72"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="79"/>
     </row>
     <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B99" s="66"/>
-      <c r="C99" s="59"/>
-      <c r="D99" s="54"/>
-      <c r="E99" s="40">
+      <c r="B99" s="63"/>
+      <c r="C99" s="57"/>
+      <c r="D99" s="52"/>
+      <c r="E99" s="39">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F99" s="76"/>
-      <c r="G99" s="34"/>
-      <c r="H99" s="83"/>
+      <c r="F99" s="72"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="79"/>
     </row>
     <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B100" s="66"/>
-      <c r="C100" s="59"/>
-      <c r="D100" s="54"/>
-      <c r="E100" s="40">
+      <c r="B100" s="63"/>
+      <c r="C100" s="57"/>
+      <c r="D100" s="52"/>
+      <c r="E100" s="39">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F100" s="76"/>
-      <c r="G100" s="34"/>
-      <c r="H100" s="83"/>
+      <c r="F100" s="72"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="79"/>
     </row>
     <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B101" s="66"/>
-      <c r="C101" s="59"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="40">
+      <c r="B101" s="63"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="52"/>
+      <c r="E101" s="39">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F101" s="76"/>
-      <c r="G101" s="34"/>
-      <c r="H101" s="83"/>
+      <c r="F101" s="72"/>
+      <c r="G101" s="33"/>
+      <c r="H101" s="79"/>
     </row>
     <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B102" s="70"/>
-      <c r="C102" s="63"/>
-      <c r="D102" s="56"/>
-      <c r="E102" s="46">
+      <c r="B102" s="66"/>
+      <c r="C102" s="60"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="45">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F102" s="79"/>
-      <c r="G102" s="35"/>
-      <c r="H102" s="84"/>
+      <c r="F102" s="75"/>
+      <c r="G102" s="34"/>
+      <c r="H102" s="80"/>
     </row>
     <row r="103" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
-      <c r="B103" s="65"/>
-      <c r="C103" s="58"/>
-      <c r="D103" s="50" t="s">
+      <c r="B103" s="62"/>
+      <c r="C103" s="56"/>
+      <c r="D103" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E103" s="47">
+      <c r="E103" s="46">
         <f>SUM(E96:E102)</f>
         <v>0</v>
       </c>
-      <c r="F103" s="72"/>
+      <c r="F103" s="68"/>
       <c r="G103" s="30"/>
-      <c r="H103" s="80"/>
+      <c r="H103" s="76"/>
     </row>
     <row r="104" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
-      <c r="B104" s="67"/>
-      <c r="C104" s="60"/>
-      <c r="D104" s="51" t="s">
+      <c r="B104" s="64"/>
+      <c r="C104" s="58"/>
+      <c r="D104" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E104" s="44">
+      <c r="E104" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>55</v>
-      </c>
-      <c r="F104" s="78"/>
+        <v>46</v>
+      </c>
+      <c r="F104" s="74"/>
       <c r="G104" s="31"/>
-      <c r="H104" s="81"/>
+      <c r="H104" s="77"/>
     </row>
     <row r="105" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B105" s="68" t="s">
+      <c r="B105" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C105" s="61" t="s">
+      <c r="C105" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D105" s="52" t="s">
+      <c r="D105" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E105" s="39" t="s">
+      <c r="E105" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F105" s="74" t="s">
+      <c r="F105" s="70" t="s">
         <v>7</v>
       </c>
       <c r="G105" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H105" s="82" t="s">
+      <c r="H105" s="78" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6113,160 +6330,160 @@
       <c r="A106" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B106" s="66"/>
-      <c r="C106" s="59"/>
-      <c r="D106" s="54"/>
-      <c r="E106" s="40">
+      <c r="B106" s="63"/>
+      <c r="C106" s="57"/>
+      <c r="D106" s="52"/>
+      <c r="E106" s="39">
         <f>(B106-C106)*-24-D106</f>
         <v>0</v>
       </c>
-      <c r="F106" s="76"/>
-      <c r="G106" s="34"/>
-      <c r="H106" s="83"/>
+      <c r="F106" s="72"/>
+      <c r="G106" s="33"/>
+      <c r="H106" s="79"/>
     </row>
     <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B107" s="66"/>
-      <c r="C107" s="59"/>
-      <c r="D107" s="54"/>
-      <c r="E107" s="40">
+      <c r="B107" s="63"/>
+      <c r="C107" s="57"/>
+      <c r="D107" s="52"/>
+      <c r="E107" s="39">
         <f t="shared" ref="E107:E112" si="10">(B107-C107)*-24-D107</f>
         <v>0</v>
       </c>
-      <c r="F107" s="76"/>
-      <c r="G107" s="34"/>
-      <c r="H107" s="83"/>
+      <c r="F107" s="72"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="79"/>
     </row>
     <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B108" s="66"/>
-      <c r="C108" s="59"/>
-      <c r="D108" s="54"/>
-      <c r="E108" s="40">
+      <c r="B108" s="63"/>
+      <c r="C108" s="57"/>
+      <c r="D108" s="52"/>
+      <c r="E108" s="39">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F108" s="76"/>
-      <c r="G108" s="34"/>
-      <c r="H108" s="83"/>
+      <c r="F108" s="72"/>
+      <c r="G108" s="33"/>
+      <c r="H108" s="79"/>
     </row>
     <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B109" s="66"/>
-      <c r="C109" s="59"/>
-      <c r="D109" s="54"/>
-      <c r="E109" s="40">
+      <c r="B109" s="63"/>
+      <c r="C109" s="57"/>
+      <c r="D109" s="52"/>
+      <c r="E109" s="39">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F109" s="76"/>
-      <c r="G109" s="34"/>
-      <c r="H109" s="83"/>
+      <c r="F109" s="72"/>
+      <c r="G109" s="33"/>
+      <c r="H109" s="79"/>
     </row>
     <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B110" s="66"/>
-      <c r="C110" s="59"/>
-      <c r="D110" s="54"/>
-      <c r="E110" s="40">
+      <c r="B110" s="63"/>
+      <c r="C110" s="57"/>
+      <c r="D110" s="52"/>
+      <c r="E110" s="39">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F110" s="76"/>
-      <c r="G110" s="34"/>
-      <c r="H110" s="83"/>
+      <c r="F110" s="72"/>
+      <c r="G110" s="33"/>
+      <c r="H110" s="79"/>
     </row>
     <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B111" s="66"/>
-      <c r="C111" s="59"/>
-      <c r="D111" s="54"/>
-      <c r="E111" s="40">
+      <c r="B111" s="63"/>
+      <c r="C111" s="57"/>
+      <c r="D111" s="52"/>
+      <c r="E111" s="39">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F111" s="76"/>
-      <c r="G111" s="34"/>
-      <c r="H111" s="83"/>
+      <c r="F111" s="72"/>
+      <c r="G111" s="33"/>
+      <c r="H111" s="79"/>
     </row>
     <row r="112" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B112" s="70"/>
-      <c r="C112" s="63"/>
-      <c r="D112" s="56"/>
-      <c r="E112" s="46">
+      <c r="B112" s="66"/>
+      <c r="C112" s="60"/>
+      <c r="D112" s="54"/>
+      <c r="E112" s="45">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F112" s="79"/>
-      <c r="G112" s="35"/>
-      <c r="H112" s="84"/>
+      <c r="F112" s="75"/>
+      <c r="G112" s="34"/>
+      <c r="H112" s="80"/>
     </row>
     <row r="113" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
-      <c r="B113" s="65"/>
-      <c r="C113" s="58"/>
-      <c r="D113" s="50" t="s">
+      <c r="B113" s="62"/>
+      <c r="C113" s="56"/>
+      <c r="D113" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E113" s="47">
+      <c r="E113" s="46">
         <f>SUM(E106:E112)</f>
         <v>0</v>
       </c>
-      <c r="F113" s="72"/>
+      <c r="F113" s="68"/>
       <c r="G113" s="30"/>
-      <c r="H113" s="80"/>
+      <c r="H113" s="76"/>
     </row>
     <row r="114" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
-      <c r="B114" s="67"/>
-      <c r="C114" s="60"/>
-      <c r="D114" s="51" t="s">
+      <c r="B114" s="64"/>
+      <c r="C114" s="58"/>
+      <c r="D114" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E114" s="44">
+      <c r="E114" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>55</v>
-      </c>
-      <c r="F114" s="78"/>
+        <v>46</v>
+      </c>
+      <c r="F114" s="74"/>
       <c r="G114" s="31"/>
-      <c r="H114" s="81"/>
+      <c r="H114" s="77"/>
     </row>
     <row r="115" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B115" s="68" t="s">
+      <c r="B115" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C115" s="61" t="s">
+      <c r="C115" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D115" s="52" t="s">
+      <c r="D115" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E115" s="39" t="s">
+      <c r="E115" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F115" s="74" t="s">
+      <c r="F115" s="70" t="s">
         <v>7</v>
       </c>
       <c r="G115" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H115" s="82" t="s">
+      <c r="H115" s="78" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6274,160 +6491,160 @@
       <c r="A116" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B116" s="66"/>
-      <c r="C116" s="59"/>
-      <c r="D116" s="54"/>
-      <c r="E116" s="40">
+      <c r="B116" s="63"/>
+      <c r="C116" s="57"/>
+      <c r="D116" s="52"/>
+      <c r="E116" s="39">
         <f>(B116-C116)*-24-D116</f>
         <v>0</v>
       </c>
-      <c r="F116" s="76"/>
-      <c r="G116" s="34"/>
-      <c r="H116" s="83"/>
+      <c r="F116" s="72"/>
+      <c r="G116" s="33"/>
+      <c r="H116" s="79"/>
     </row>
     <row r="117" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B117" s="66"/>
-      <c r="C117" s="59"/>
-      <c r="D117" s="54"/>
-      <c r="E117" s="40">
+      <c r="B117" s="63"/>
+      <c r="C117" s="57"/>
+      <c r="D117" s="52"/>
+      <c r="E117" s="39">
         <f t="shared" ref="E117:E122" si="11">(B117-C117)*-24-D117</f>
         <v>0</v>
       </c>
-      <c r="F117" s="76"/>
-      <c r="G117" s="34"/>
-      <c r="H117" s="83"/>
+      <c r="F117" s="72"/>
+      <c r="G117" s="33"/>
+      <c r="H117" s="79"/>
     </row>
     <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B118" s="66"/>
-      <c r="C118" s="59"/>
-      <c r="D118" s="54"/>
-      <c r="E118" s="40">
+      <c r="B118" s="63"/>
+      <c r="C118" s="57"/>
+      <c r="D118" s="52"/>
+      <c r="E118" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F118" s="76"/>
-      <c r="G118" s="34"/>
-      <c r="H118" s="83"/>
+      <c r="F118" s="72"/>
+      <c r="G118" s="33"/>
+      <c r="H118" s="79"/>
     </row>
     <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B119" s="66"/>
-      <c r="C119" s="59"/>
-      <c r="D119" s="54"/>
-      <c r="E119" s="40">
+      <c r="B119" s="63"/>
+      <c r="C119" s="57"/>
+      <c r="D119" s="52"/>
+      <c r="E119" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F119" s="76"/>
-      <c r="G119" s="34"/>
-      <c r="H119" s="83"/>
+      <c r="F119" s="72"/>
+      <c r="G119" s="33"/>
+      <c r="H119" s="79"/>
     </row>
     <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B120" s="66"/>
-      <c r="C120" s="59"/>
-      <c r="D120" s="54"/>
-      <c r="E120" s="40">
+      <c r="B120" s="63"/>
+      <c r="C120" s="57"/>
+      <c r="D120" s="52"/>
+      <c r="E120" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F120" s="76"/>
-      <c r="G120" s="34"/>
-      <c r="H120" s="83"/>
+      <c r="F120" s="72"/>
+      <c r="G120" s="33"/>
+      <c r="H120" s="79"/>
     </row>
     <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B121" s="66"/>
-      <c r="C121" s="59"/>
-      <c r="D121" s="54"/>
-      <c r="E121" s="40">
+      <c r="B121" s="63"/>
+      <c r="C121" s="57"/>
+      <c r="D121" s="52"/>
+      <c r="E121" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F121" s="76"/>
-      <c r="G121" s="34"/>
-      <c r="H121" s="83"/>
+      <c r="F121" s="72"/>
+      <c r="G121" s="33"/>
+      <c r="H121" s="79"/>
     </row>
     <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B122" s="70"/>
-      <c r="C122" s="63"/>
-      <c r="D122" s="56"/>
-      <c r="E122" s="46">
+      <c r="B122" s="66"/>
+      <c r="C122" s="60"/>
+      <c r="D122" s="54"/>
+      <c r="E122" s="45">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F122" s="79"/>
-      <c r="G122" s="35"/>
-      <c r="H122" s="84"/>
+      <c r="F122" s="75"/>
+      <c r="G122" s="34"/>
+      <c r="H122" s="80"/>
     </row>
     <row r="123" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
-      <c r="B123" s="65"/>
-      <c r="C123" s="58"/>
-      <c r="D123" s="50" t="s">
+      <c r="B123" s="62"/>
+      <c r="C123" s="56"/>
+      <c r="D123" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E123" s="47">
+      <c r="E123" s="46">
         <f>SUM(E116:E122)</f>
         <v>0</v>
       </c>
-      <c r="F123" s="72"/>
+      <c r="F123" s="68"/>
       <c r="G123" s="30"/>
-      <c r="H123" s="80"/>
+      <c r="H123" s="76"/>
     </row>
     <row r="124" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
-      <c r="B124" s="67"/>
-      <c r="C124" s="60"/>
-      <c r="D124" s="51" t="s">
+      <c r="B124" s="64"/>
+      <c r="C124" s="58"/>
+      <c r="D124" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E124" s="44">
+      <c r="E124" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>55</v>
-      </c>
-      <c r="F124" s="78"/>
+        <v>46</v>
+      </c>
+      <c r="F124" s="74"/>
       <c r="G124" s="31"/>
-      <c r="H124" s="81"/>
+      <c r="H124" s="77"/>
     </row>
     <row r="125" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B125" s="68" t="s">
+      <c r="B125" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C125" s="61" t="s">
+      <c r="C125" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D125" s="52" t="s">
+      <c r="D125" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E125" s="39" t="s">
+      <c r="E125" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F125" s="74" t="s">
+      <c r="F125" s="70" t="s">
         <v>7</v>
       </c>
       <c r="G125" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H125" s="82" t="s">
+      <c r="H125" s="78" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6435,160 +6652,160 @@
       <c r="A126" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B126" s="66"/>
-      <c r="C126" s="59"/>
-      <c r="D126" s="54"/>
-      <c r="E126" s="40">
+      <c r="B126" s="63"/>
+      <c r="C126" s="57"/>
+      <c r="D126" s="52"/>
+      <c r="E126" s="39">
         <f>(B126-C126)*-24-D126</f>
         <v>0</v>
       </c>
-      <c r="F126" s="76"/>
-      <c r="G126" s="34"/>
-      <c r="H126" s="83"/>
+      <c r="F126" s="72"/>
+      <c r="G126" s="33"/>
+      <c r="H126" s="79"/>
     </row>
     <row r="127" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B127" s="66"/>
-      <c r="C127" s="59"/>
-      <c r="D127" s="54"/>
-      <c r="E127" s="40">
+      <c r="B127" s="63"/>
+      <c r="C127" s="57"/>
+      <c r="D127" s="52"/>
+      <c r="E127" s="39">
         <f t="shared" ref="E127:E132" si="12">(B127-C127)*-24-D127</f>
         <v>0</v>
       </c>
-      <c r="F127" s="76"/>
-      <c r="G127" s="34"/>
-      <c r="H127" s="83"/>
+      <c r="F127" s="72"/>
+      <c r="G127" s="33"/>
+      <c r="H127" s="79"/>
     </row>
     <row r="128" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B128" s="66"/>
-      <c r="C128" s="59"/>
-      <c r="D128" s="54"/>
-      <c r="E128" s="40">
+      <c r="B128" s="63"/>
+      <c r="C128" s="57"/>
+      <c r="D128" s="52"/>
+      <c r="E128" s="39">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F128" s="76"/>
-      <c r="G128" s="34"/>
-      <c r="H128" s="83"/>
+      <c r="F128" s="72"/>
+      <c r="G128" s="33"/>
+      <c r="H128" s="79"/>
     </row>
     <row r="129" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B129" s="66"/>
-      <c r="C129" s="59"/>
-      <c r="D129" s="54"/>
-      <c r="E129" s="40">
+      <c r="B129" s="63"/>
+      <c r="C129" s="57"/>
+      <c r="D129" s="52"/>
+      <c r="E129" s="39">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F129" s="76"/>
-      <c r="G129" s="34"/>
-      <c r="H129" s="83"/>
+      <c r="F129" s="72"/>
+      <c r="G129" s="33"/>
+      <c r="H129" s="79"/>
     </row>
     <row r="130" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B130" s="66"/>
-      <c r="C130" s="59"/>
-      <c r="D130" s="54"/>
-      <c r="E130" s="40">
+      <c r="B130" s="63"/>
+      <c r="C130" s="57"/>
+      <c r="D130" s="52"/>
+      <c r="E130" s="39">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F130" s="76"/>
-      <c r="G130" s="34"/>
-      <c r="H130" s="83"/>
+      <c r="F130" s="72"/>
+      <c r="G130" s="33"/>
+      <c r="H130" s="79"/>
     </row>
     <row r="131" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B131" s="66"/>
-      <c r="C131" s="59"/>
-      <c r="D131" s="54"/>
-      <c r="E131" s="40">
+      <c r="B131" s="63"/>
+      <c r="C131" s="57"/>
+      <c r="D131" s="52"/>
+      <c r="E131" s="39">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F131" s="76"/>
-      <c r="G131" s="34"/>
-      <c r="H131" s="83"/>
+      <c r="F131" s="72"/>
+      <c r="G131" s="33"/>
+      <c r="H131" s="79"/>
     </row>
     <row r="132" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B132" s="70"/>
-      <c r="C132" s="63"/>
-      <c r="D132" s="56"/>
-      <c r="E132" s="46">
+      <c r="B132" s="66"/>
+      <c r="C132" s="60"/>
+      <c r="D132" s="54"/>
+      <c r="E132" s="45">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F132" s="79"/>
-      <c r="G132" s="35"/>
-      <c r="H132" s="84"/>
+      <c r="F132" s="75"/>
+      <c r="G132" s="34"/>
+      <c r="H132" s="80"/>
     </row>
     <row r="133" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
-      <c r="B133" s="65"/>
-      <c r="C133" s="58"/>
-      <c r="D133" s="50" t="s">
+      <c r="B133" s="62"/>
+      <c r="C133" s="56"/>
+      <c r="D133" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E133" s="47">
+      <c r="E133" s="46">
         <f>SUM(E126:E132)</f>
         <v>0</v>
       </c>
-      <c r="F133" s="72"/>
+      <c r="F133" s="68"/>
       <c r="G133" s="30"/>
-      <c r="H133" s="80"/>
+      <c r="H133" s="76"/>
     </row>
     <row r="134" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
-      <c r="B134" s="67"/>
-      <c r="C134" s="60"/>
-      <c r="D134" s="51" t="s">
+      <c r="B134" s="64"/>
+      <c r="C134" s="58"/>
+      <c r="D134" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E134" s="44">
+      <c r="E134" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>55</v>
-      </c>
-      <c r="F134" s="78"/>
+        <v>46</v>
+      </c>
+      <c r="F134" s="74"/>
       <c r="G134" s="31"/>
-      <c r="H134" s="81"/>
+      <c r="H134" s="77"/>
     </row>
     <row r="135" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B135" s="68" t="s">
+      <c r="B135" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C135" s="61" t="s">
+      <c r="C135" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D135" s="52" t="s">
+      <c r="D135" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E135" s="39" t="s">
+      <c r="E135" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F135" s="74" t="s">
+      <c r="F135" s="70" t="s">
         <v>7</v>
       </c>
       <c r="G135" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H135" s="82" t="s">
+      <c r="H135" s="78" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6596,160 +6813,160 @@
       <c r="A136" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B136" s="66"/>
-      <c r="C136" s="59"/>
-      <c r="D136" s="54"/>
-      <c r="E136" s="40">
+      <c r="B136" s="63"/>
+      <c r="C136" s="57"/>
+      <c r="D136" s="52"/>
+      <c r="E136" s="39">
         <f>(B136-C136)*-24-D136</f>
         <v>0</v>
       </c>
-      <c r="F136" s="76"/>
-      <c r="G136" s="34"/>
-      <c r="H136" s="83"/>
+      <c r="F136" s="72"/>
+      <c r="G136" s="33"/>
+      <c r="H136" s="79"/>
     </row>
     <row r="137" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B137" s="66"/>
-      <c r="C137" s="59"/>
-      <c r="D137" s="54"/>
-      <c r="E137" s="40">
+      <c r="B137" s="63"/>
+      <c r="C137" s="57"/>
+      <c r="D137" s="52"/>
+      <c r="E137" s="39">
         <f t="shared" ref="E137:E142" si="13">(B137-C137)*-24-D137</f>
         <v>0</v>
       </c>
-      <c r="F137" s="76"/>
-      <c r="G137" s="34"/>
-      <c r="H137" s="83"/>
+      <c r="F137" s="72"/>
+      <c r="G137" s="33"/>
+      <c r="H137" s="79"/>
     </row>
     <row r="138" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B138" s="66"/>
-      <c r="C138" s="59"/>
-      <c r="D138" s="54"/>
-      <c r="E138" s="40">
+      <c r="B138" s="63"/>
+      <c r="C138" s="57"/>
+      <c r="D138" s="52"/>
+      <c r="E138" s="39">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F138" s="76"/>
-      <c r="G138" s="34"/>
-      <c r="H138" s="83"/>
+      <c r="F138" s="72"/>
+      <c r="G138" s="33"/>
+      <c r="H138" s="79"/>
     </row>
     <row r="139" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B139" s="66"/>
-      <c r="C139" s="59"/>
-      <c r="D139" s="54"/>
-      <c r="E139" s="40">
+      <c r="B139" s="63"/>
+      <c r="C139" s="57"/>
+      <c r="D139" s="52"/>
+      <c r="E139" s="39">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F139" s="76"/>
-      <c r="G139" s="34"/>
-      <c r="H139" s="83"/>
+      <c r="F139" s="72"/>
+      <c r="G139" s="33"/>
+      <c r="H139" s="79"/>
     </row>
     <row r="140" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B140" s="66"/>
-      <c r="C140" s="59"/>
-      <c r="D140" s="54"/>
-      <c r="E140" s="40">
+      <c r="B140" s="63"/>
+      <c r="C140" s="57"/>
+      <c r="D140" s="52"/>
+      <c r="E140" s="39">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F140" s="76"/>
-      <c r="G140" s="34"/>
-      <c r="H140" s="83"/>
+      <c r="F140" s="72"/>
+      <c r="G140" s="33"/>
+      <c r="H140" s="79"/>
     </row>
     <row r="141" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B141" s="66"/>
-      <c r="C141" s="59"/>
-      <c r="D141" s="54"/>
-      <c r="E141" s="40">
+      <c r="B141" s="63"/>
+      <c r="C141" s="57"/>
+      <c r="D141" s="52"/>
+      <c r="E141" s="39">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F141" s="76"/>
-      <c r="G141" s="34"/>
-      <c r="H141" s="83"/>
+      <c r="F141" s="72"/>
+      <c r="G141" s="33"/>
+      <c r="H141" s="79"/>
     </row>
     <row r="142" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B142" s="70"/>
-      <c r="C142" s="63"/>
-      <c r="D142" s="56"/>
-      <c r="E142" s="46">
+      <c r="B142" s="66"/>
+      <c r="C142" s="60"/>
+      <c r="D142" s="54"/>
+      <c r="E142" s="45">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F142" s="79"/>
-      <c r="G142" s="35"/>
-      <c r="H142" s="84"/>
+      <c r="F142" s="75"/>
+      <c r="G142" s="34"/>
+      <c r="H142" s="80"/>
     </row>
     <row r="143" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
-      <c r="B143" s="65"/>
-      <c r="C143" s="58"/>
-      <c r="D143" s="50" t="s">
+      <c r="B143" s="62"/>
+      <c r="C143" s="56"/>
+      <c r="D143" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E143" s="47">
+      <c r="E143" s="46">
         <f>SUM(E136:E142)</f>
         <v>0</v>
       </c>
-      <c r="F143" s="72"/>
+      <c r="F143" s="68"/>
       <c r="G143" s="30"/>
-      <c r="H143" s="80"/>
+      <c r="H143" s="76"/>
     </row>
     <row r="144" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
-      <c r="B144" s="67"/>
-      <c r="C144" s="60"/>
-      <c r="D144" s="51" t="s">
+      <c r="B144" s="64"/>
+      <c r="C144" s="58"/>
+      <c r="D144" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E144" s="44">
+      <c r="E144" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>55</v>
-      </c>
-      <c r="F144" s="78"/>
+        <v>46</v>
+      </c>
+      <c r="F144" s="74"/>
       <c r="G144" s="31"/>
-      <c r="H144" s="81"/>
+      <c r="H144" s="77"/>
     </row>
     <row r="145" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B145" s="68" t="s">
+      <c r="B145" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C145" s="61" t="s">
+      <c r="C145" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D145" s="52" t="s">
+      <c r="D145" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E145" s="39" t="s">
+      <c r="E145" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F145" s="74" t="s">
+      <c r="F145" s="70" t="s">
         <v>7</v>
       </c>
       <c r="G145" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H145" s="82" t="s">
+      <c r="H145" s="78" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6757,160 +6974,160 @@
       <c r="A146" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B146" s="66"/>
-      <c r="C146" s="59"/>
-      <c r="D146" s="54"/>
-      <c r="E146" s="40">
+      <c r="B146" s="63"/>
+      <c r="C146" s="57"/>
+      <c r="D146" s="52"/>
+      <c r="E146" s="39">
         <f>(B146-C146)*-24-D146</f>
         <v>0</v>
       </c>
-      <c r="F146" s="76"/>
-      <c r="G146" s="34"/>
-      <c r="H146" s="83"/>
+      <c r="F146" s="72"/>
+      <c r="G146" s="33"/>
+      <c r="H146" s="79"/>
     </row>
     <row r="147" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B147" s="66"/>
-      <c r="C147" s="59"/>
-      <c r="D147" s="54"/>
-      <c r="E147" s="40">
+      <c r="B147" s="63"/>
+      <c r="C147" s="57"/>
+      <c r="D147" s="52"/>
+      <c r="E147" s="39">
         <f t="shared" ref="E147:E152" si="14">(B147-C147)*-24-D147</f>
         <v>0</v>
       </c>
-      <c r="F147" s="76"/>
-      <c r="G147" s="34"/>
-      <c r="H147" s="83"/>
+      <c r="F147" s="72"/>
+      <c r="G147" s="33"/>
+      <c r="H147" s="79"/>
     </row>
     <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B148" s="66"/>
-      <c r="C148" s="59"/>
-      <c r="D148" s="54"/>
-      <c r="E148" s="40">
+      <c r="B148" s="63"/>
+      <c r="C148" s="57"/>
+      <c r="D148" s="52"/>
+      <c r="E148" s="39">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F148" s="76"/>
-      <c r="G148" s="34"/>
-      <c r="H148" s="83"/>
+      <c r="F148" s="72"/>
+      <c r="G148" s="33"/>
+      <c r="H148" s="79"/>
     </row>
     <row r="149" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B149" s="66"/>
-      <c r="C149" s="59"/>
-      <c r="D149" s="54"/>
-      <c r="E149" s="40">
+      <c r="B149" s="63"/>
+      <c r="C149" s="57"/>
+      <c r="D149" s="52"/>
+      <c r="E149" s="39">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F149" s="76"/>
-      <c r="G149" s="34"/>
-      <c r="H149" s="83"/>
+      <c r="F149" s="72"/>
+      <c r="G149" s="33"/>
+      <c r="H149" s="79"/>
     </row>
     <row r="150" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B150" s="66"/>
-      <c r="C150" s="59"/>
-      <c r="D150" s="54"/>
-      <c r="E150" s="40">
+      <c r="B150" s="63"/>
+      <c r="C150" s="57"/>
+      <c r="D150" s="52"/>
+      <c r="E150" s="39">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F150" s="76"/>
-      <c r="G150" s="34"/>
-      <c r="H150" s="83"/>
+      <c r="F150" s="72"/>
+      <c r="G150" s="33"/>
+      <c r="H150" s="79"/>
     </row>
     <row r="151" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B151" s="66"/>
-      <c r="C151" s="59"/>
-      <c r="D151" s="54"/>
-      <c r="E151" s="40">
+      <c r="B151" s="63"/>
+      <c r="C151" s="57"/>
+      <c r="D151" s="52"/>
+      <c r="E151" s="39">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F151" s="76"/>
-      <c r="G151" s="34"/>
-      <c r="H151" s="83"/>
+      <c r="F151" s="72"/>
+      <c r="G151" s="33"/>
+      <c r="H151" s="79"/>
     </row>
     <row r="152" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B152" s="70"/>
-      <c r="C152" s="63"/>
-      <c r="D152" s="56"/>
-      <c r="E152" s="46">
+      <c r="B152" s="66"/>
+      <c r="C152" s="60"/>
+      <c r="D152" s="54"/>
+      <c r="E152" s="45">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F152" s="79"/>
-      <c r="G152" s="35"/>
-      <c r="H152" s="84"/>
+      <c r="F152" s="75"/>
+      <c r="G152" s="34"/>
+      <c r="H152" s="80"/>
     </row>
     <row r="153" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
-      <c r="B153" s="65"/>
-      <c r="C153" s="58"/>
-      <c r="D153" s="50" t="s">
+      <c r="B153" s="62"/>
+      <c r="C153" s="56"/>
+      <c r="D153" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E153" s="47">
+      <c r="E153" s="46">
         <f>SUM(E146:E152)</f>
         <v>0</v>
       </c>
-      <c r="F153" s="72"/>
+      <c r="F153" s="68"/>
       <c r="G153" s="30"/>
-      <c r="H153" s="80"/>
+      <c r="H153" s="76"/>
     </row>
     <row r="154" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
-      <c r="B154" s="67"/>
-      <c r="C154" s="60"/>
-      <c r="D154" s="51" t="s">
+      <c r="B154" s="64"/>
+      <c r="C154" s="58"/>
+      <c r="D154" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E154" s="44">
+      <c r="E154" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>55</v>
-      </c>
-      <c r="F154" s="78"/>
+        <v>46</v>
+      </c>
+      <c r="F154" s="74"/>
       <c r="G154" s="31"/>
-      <c r="H154" s="81"/>
+      <c r="H154" s="77"/>
     </row>
     <row r="155" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B155" s="68" t="s">
+      <c r="B155" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C155" s="61" t="s">
+      <c r="C155" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D155" s="52" t="s">
+      <c r="D155" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E155" s="39" t="s">
+      <c r="E155" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F155" s="74" t="s">
+      <c r="F155" s="70" t="s">
         <v>7</v>
       </c>
       <c r="G155" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H155" s="82" t="s">
+      <c r="H155" s="78" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6918,159 +7135,159 @@
       <c r="A156" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B156" s="66"/>
-      <c r="C156" s="59"/>
-      <c r="D156" s="54"/>
-      <c r="E156" s="40">
+      <c r="B156" s="63"/>
+      <c r="C156" s="57"/>
+      <c r="D156" s="52"/>
+      <c r="E156" s="39">
         <f>(B156-C156)*-24-D156</f>
         <v>0</v>
       </c>
-      <c r="F156" s="76"/>
-      <c r="G156" s="34"/>
-      <c r="H156" s="83"/>
+      <c r="F156" s="72"/>
+      <c r="G156" s="33"/>
+      <c r="H156" s="79"/>
     </row>
     <row r="157" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B157" s="66"/>
-      <c r="C157" s="59"/>
-      <c r="D157" s="54"/>
-      <c r="E157" s="40">
+      <c r="B157" s="63"/>
+      <c r="C157" s="57"/>
+      <c r="D157" s="52"/>
+      <c r="E157" s="39">
         <f t="shared" ref="E157:E161" si="15">(B157-C157)*-24-D157</f>
         <v>0</v>
       </c>
-      <c r="F157" s="76"/>
-      <c r="G157" s="34"/>
-      <c r="H157" s="83"/>
+      <c r="F157" s="72"/>
+      <c r="G157" s="33"/>
+      <c r="H157" s="79"/>
     </row>
     <row r="158" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B158" s="66"/>
-      <c r="C158" s="59"/>
-      <c r="D158" s="54"/>
-      <c r="E158" s="40">
+      <c r="B158" s="63"/>
+      <c r="C158" s="57"/>
+      <c r="D158" s="52"/>
+      <c r="E158" s="39">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F158" s="76"/>
-      <c r="G158" s="34"/>
-      <c r="H158" s="83"/>
+      <c r="F158" s="72"/>
+      <c r="G158" s="33"/>
+      <c r="H158" s="79"/>
     </row>
     <row r="159" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B159" s="66"/>
-      <c r="C159" s="59"/>
-      <c r="D159" s="54"/>
-      <c r="E159" s="40">
+      <c r="B159" s="63"/>
+      <c r="C159" s="57"/>
+      <c r="D159" s="52"/>
+      <c r="E159" s="39">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F159" s="76"/>
-      <c r="G159" s="34"/>
-      <c r="H159" s="83"/>
+      <c r="F159" s="72"/>
+      <c r="G159" s="33"/>
+      <c r="H159" s="79"/>
     </row>
     <row r="160" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B160" s="66"/>
-      <c r="C160" s="59"/>
-      <c r="D160" s="54"/>
-      <c r="E160" s="40">
+      <c r="B160" s="63"/>
+      <c r="C160" s="57"/>
+      <c r="D160" s="52"/>
+      <c r="E160" s="39">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F160" s="76"/>
-      <c r="G160" s="34"/>
-      <c r="H160" s="83"/>
+      <c r="F160" s="72"/>
+      <c r="G160" s="33"/>
+      <c r="H160" s="79"/>
     </row>
     <row r="161" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B161" s="66"/>
-      <c r="C161" s="59"/>
-      <c r="D161" s="54"/>
-      <c r="E161" s="40">
+      <c r="B161" s="63"/>
+      <c r="C161" s="57"/>
+      <c r="D161" s="52"/>
+      <c r="E161" s="39">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F161" s="76"/>
-      <c r="G161" s="34"/>
-      <c r="H161" s="83"/>
+      <c r="F161" s="72"/>
+      <c r="G161" s="33"/>
+      <c r="H161" s="79"/>
     </row>
     <row r="162" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B162" s="70"/>
-      <c r="C162" s="63"/>
-      <c r="D162" s="56"/>
-      <c r="E162" s="48">
-        <v>0</v>
-      </c>
-      <c r="F162" s="79"/>
-      <c r="G162" s="35"/>
-      <c r="H162" s="84"/>
+      <c r="B162" s="66"/>
+      <c r="C162" s="60"/>
+      <c r="D162" s="54"/>
+      <c r="E162" s="47">
+        <v>0</v>
+      </c>
+      <c r="F162" s="75"/>
+      <c r="G162" s="34"/>
+      <c r="H162" s="80"/>
     </row>
     <row r="163" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
-      <c r="B163" s="65"/>
-      <c r="C163" s="58"/>
-      <c r="D163" s="50" t="s">
+      <c r="B163" s="62"/>
+      <c r="C163" s="56"/>
+      <c r="D163" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E163" s="47">
+      <c r="E163" s="46">
         <f>SUM(E156:E162)</f>
         <v>0</v>
       </c>
-      <c r="F163" s="72"/>
+      <c r="F163" s="68"/>
       <c r="G163" s="30"/>
-      <c r="H163" s="80"/>
+      <c r="H163" s="76"/>
     </row>
     <row r="164" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
-      <c r="B164" s="67"/>
-      <c r="C164" s="60"/>
-      <c r="D164" s="51" t="s">
+      <c r="B164" s="64"/>
+      <c r="C164" s="58"/>
+      <c r="D164" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E164" s="44">
+      <c r="E164" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>55</v>
-      </c>
-      <c r="F164" s="78"/>
+        <v>46</v>
+      </c>
+      <c r="F164" s="74"/>
       <c r="G164" s="31"/>
-      <c r="H164" s="81"/>
+      <c r="H164" s="77"/>
     </row>
     <row r="165" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B165" s="68" t="s">
+      <c r="B165" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C165" s="61" t="s">
+      <c r="C165" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D165" s="52" t="s">
+      <c r="D165" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E165" s="39" t="s">
+      <c r="E165" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F165" s="74" t="s">
+      <c r="F165" s="70" t="s">
         <v>7</v>
       </c>
       <c r="G165" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H165" s="82" t="s">
+      <c r="H165" s="78" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7078,160 +7295,160 @@
       <c r="A166" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B166" s="66"/>
-      <c r="C166" s="59"/>
-      <c r="D166" s="54"/>
-      <c r="E166" s="40">
+      <c r="B166" s="63"/>
+      <c r="C166" s="57"/>
+      <c r="D166" s="52"/>
+      <c r="E166" s="39">
         <f>(B166-C166)*-24-D166</f>
         <v>0</v>
       </c>
-      <c r="F166" s="76"/>
-      <c r="G166" s="34"/>
-      <c r="H166" s="83"/>
+      <c r="F166" s="72"/>
+      <c r="G166" s="33"/>
+      <c r="H166" s="79"/>
     </row>
     <row r="167" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B167" s="66"/>
-      <c r="C167" s="59"/>
-      <c r="D167" s="54"/>
-      <c r="E167" s="40">
+      <c r="B167" s="63"/>
+      <c r="C167" s="57"/>
+      <c r="D167" s="52"/>
+      <c r="E167" s="39">
         <f t="shared" ref="E167:E172" si="16">(B167-C167)*-24-D167</f>
         <v>0</v>
       </c>
-      <c r="F167" s="76"/>
-      <c r="G167" s="34"/>
-      <c r="H167" s="83"/>
+      <c r="F167" s="72"/>
+      <c r="G167" s="33"/>
+      <c r="H167" s="79"/>
     </row>
     <row r="168" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B168" s="66"/>
-      <c r="C168" s="59"/>
-      <c r="D168" s="54"/>
-      <c r="E168" s="40">
+      <c r="B168" s="63"/>
+      <c r="C168" s="57"/>
+      <c r="D168" s="52"/>
+      <c r="E168" s="39">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F168" s="76"/>
-      <c r="G168" s="34"/>
-      <c r="H168" s="83"/>
+      <c r="F168" s="72"/>
+      <c r="G168" s="33"/>
+      <c r="H168" s="79"/>
     </row>
     <row r="169" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B169" s="66"/>
-      <c r="C169" s="59"/>
-      <c r="D169" s="54"/>
-      <c r="E169" s="40">
+      <c r="B169" s="63"/>
+      <c r="C169" s="57"/>
+      <c r="D169" s="52"/>
+      <c r="E169" s="39">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F169" s="76"/>
-      <c r="G169" s="34"/>
-      <c r="H169" s="83"/>
+      <c r="F169" s="72"/>
+      <c r="G169" s="33"/>
+      <c r="H169" s="79"/>
     </row>
     <row r="170" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B170" s="66"/>
-      <c r="C170" s="59"/>
-      <c r="D170" s="54"/>
-      <c r="E170" s="40">
+      <c r="B170" s="63"/>
+      <c r="C170" s="57"/>
+      <c r="D170" s="52"/>
+      <c r="E170" s="39">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F170" s="76"/>
-      <c r="G170" s="34"/>
-      <c r="H170" s="83"/>
+      <c r="F170" s="72"/>
+      <c r="G170" s="33"/>
+      <c r="H170" s="79"/>
     </row>
     <row r="171" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B171" s="66"/>
-      <c r="C171" s="59"/>
-      <c r="D171" s="54"/>
-      <c r="E171" s="40">
+      <c r="B171" s="63"/>
+      <c r="C171" s="57"/>
+      <c r="D171" s="52"/>
+      <c r="E171" s="39">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F171" s="76"/>
-      <c r="G171" s="34"/>
-      <c r="H171" s="83"/>
+      <c r="F171" s="72"/>
+      <c r="G171" s="33"/>
+      <c r="H171" s="79"/>
     </row>
     <row r="172" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B172" s="70"/>
-      <c r="C172" s="63"/>
-      <c r="D172" s="56"/>
-      <c r="E172" s="46">
+      <c r="B172" s="66"/>
+      <c r="C172" s="60"/>
+      <c r="D172" s="54"/>
+      <c r="E172" s="45">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F172" s="79"/>
-      <c r="G172" s="35"/>
-      <c r="H172" s="84"/>
+      <c r="F172" s="75"/>
+      <c r="G172" s="34"/>
+      <c r="H172" s="80"/>
     </row>
     <row r="173" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
-      <c r="B173" s="65"/>
-      <c r="C173" s="58"/>
-      <c r="D173" s="50" t="s">
+      <c r="B173" s="62"/>
+      <c r="C173" s="56"/>
+      <c r="D173" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E173" s="47">
+      <c r="E173" s="46">
         <f>SUM(E166:E172)</f>
         <v>0</v>
       </c>
-      <c r="F173" s="72"/>
+      <c r="F173" s="68"/>
       <c r="G173" s="30"/>
-      <c r="H173" s="80"/>
+      <c r="H173" s="76"/>
     </row>
     <row r="174" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
-      <c r="B174" s="67"/>
-      <c r="C174" s="60"/>
-      <c r="D174" s="51" t="s">
+      <c r="B174" s="64"/>
+      <c r="C174" s="58"/>
+      <c r="D174" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E174" s="44">
+      <c r="E174" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>55</v>
-      </c>
-      <c r="F174" s="78"/>
+        <v>46</v>
+      </c>
+      <c r="F174" s="74"/>
       <c r="G174" s="31"/>
-      <c r="H174" s="81"/>
+      <c r="H174" s="77"/>
     </row>
     <row r="175" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B175" s="68" t="s">
+      <c r="B175" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C175" s="61" t="s">
+      <c r="C175" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D175" s="52" t="s">
+      <c r="D175" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E175" s="39" t="s">
+      <c r="E175" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F175" s="74" t="s">
+      <c r="F175" s="70" t="s">
         <v>7</v>
       </c>
       <c r="G175" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H175" s="82" t="s">
+      <c r="H175" s="78" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7239,136 +7456,136 @@
       <c r="A176" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B176" s="66"/>
-      <c r="C176" s="59"/>
-      <c r="D176" s="54"/>
-      <c r="E176" s="40">
+      <c r="B176" s="63"/>
+      <c r="C176" s="57"/>
+      <c r="D176" s="52"/>
+      <c r="E176" s="39">
         <f>(B176-C176)*-24-D176</f>
         <v>0</v>
       </c>
-      <c r="F176" s="76"/>
-      <c r="G176" s="34"/>
-      <c r="H176" s="83"/>
+      <c r="F176" s="72"/>
+      <c r="G176" s="33"/>
+      <c r="H176" s="79"/>
     </row>
     <row r="177" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B177" s="66"/>
-      <c r="C177" s="59"/>
-      <c r="D177" s="54"/>
-      <c r="E177" s="40">
+      <c r="B177" s="63"/>
+      <c r="C177" s="57"/>
+      <c r="D177" s="52"/>
+      <c r="E177" s="39">
         <f t="shared" ref="E177:E182" si="17">(B177-C177)*-24-D177</f>
         <v>0</v>
       </c>
-      <c r="F177" s="76"/>
-      <c r="G177" s="34"/>
-      <c r="H177" s="83"/>
+      <c r="F177" s="72"/>
+      <c r="G177" s="33"/>
+      <c r="H177" s="79"/>
     </row>
     <row r="178" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B178" s="66"/>
-      <c r="C178" s="59"/>
-      <c r="D178" s="54"/>
-      <c r="E178" s="40">
+      <c r="B178" s="63"/>
+      <c r="C178" s="57"/>
+      <c r="D178" s="52"/>
+      <c r="E178" s="39">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F178" s="76"/>
-      <c r="G178" s="34"/>
-      <c r="H178" s="83"/>
+      <c r="F178" s="72"/>
+      <c r="G178" s="33"/>
+      <c r="H178" s="79"/>
     </row>
     <row r="179" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B179" s="66"/>
-      <c r="C179" s="59"/>
-      <c r="D179" s="54"/>
-      <c r="E179" s="40">
+      <c r="B179" s="63"/>
+      <c r="C179" s="57"/>
+      <c r="D179" s="52"/>
+      <c r="E179" s="39">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F179" s="76"/>
-      <c r="G179" s="34"/>
-      <c r="H179" s="83"/>
+      <c r="F179" s="72"/>
+      <c r="G179" s="33"/>
+      <c r="H179" s="79"/>
     </row>
     <row r="180" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B180" s="66"/>
-      <c r="C180" s="59"/>
-      <c r="D180" s="54"/>
-      <c r="E180" s="40">
+      <c r="B180" s="63"/>
+      <c r="C180" s="57"/>
+      <c r="D180" s="52"/>
+      <c r="E180" s="39">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F180" s="76"/>
-      <c r="G180" s="34"/>
-      <c r="H180" s="83"/>
+      <c r="F180" s="72"/>
+      <c r="G180" s="33"/>
+      <c r="H180" s="79"/>
     </row>
     <row r="181" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B181" s="66"/>
-      <c r="C181" s="59"/>
-      <c r="D181" s="54"/>
-      <c r="E181" s="40">
+      <c r="B181" s="63"/>
+      <c r="C181" s="57"/>
+      <c r="D181" s="52"/>
+      <c r="E181" s="39">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F181" s="76"/>
-      <c r="G181" s="34"/>
-      <c r="H181" s="83"/>
+      <c r="F181" s="72"/>
+      <c r="G181" s="33"/>
+      <c r="H181" s="79"/>
     </row>
     <row r="182" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B182" s="70"/>
-      <c r="C182" s="63"/>
-      <c r="D182" s="56"/>
-      <c r="E182" s="46">
+      <c r="B182" s="66"/>
+      <c r="C182" s="60"/>
+      <c r="D182" s="54"/>
+      <c r="E182" s="45">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F182" s="79"/>
-      <c r="G182" s="35"/>
-      <c r="H182" s="84"/>
+      <c r="F182" s="75"/>
+      <c r="G182" s="34"/>
+      <c r="H182" s="80"/>
     </row>
     <row r="183" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
-      <c r="B183" s="65"/>
-      <c r="C183" s="58"/>
-      <c r="D183" s="50" t="s">
+      <c r="B183" s="62"/>
+      <c r="C183" s="56"/>
+      <c r="D183" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E183" s="47">
+      <c r="E183" s="46">
         <f>SUM(E176:E182)</f>
         <v>0</v>
       </c>
-      <c r="F183" s="72"/>
+      <c r="F183" s="68"/>
       <c r="G183" s="30"/>
-      <c r="H183" s="80"/>
+      <c r="H183" s="76"/>
     </row>
     <row r="184" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
-      <c r="B184" s="65"/>
-      <c r="C184" s="58"/>
-      <c r="D184" s="50" t="s">
+      <c r="B184" s="62"/>
+      <c r="C184" s="56"/>
+      <c r="D184" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="E184" s="47">
+      <c r="E184" s="46">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>55</v>
-      </c>
-      <c r="F184" s="72"/>
+        <v>46</v>
+      </c>
+      <c r="F184" s="68"/>
       <c r="G184" s="30"/>
-      <c r="H184" s="80"/>
+      <c r="H184" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
+++ b/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265"/>
   </bookViews>
   <sheets>
     <sheet name="Tobias" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="161">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -498,6 +498,12 @@
   </si>
   <si>
     <t>Art Bibel, Voodoo Puppe Mesh</t>
+  </si>
+  <si>
+    <t>GDD, Level Design</t>
+  </si>
+  <si>
+    <t>Voodoo Puppe Mesh- lowpoly+ highpoly, Baking, knopf mesh</t>
   </si>
 </sst>
 </file>
@@ -1366,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1823,45 +1829,69 @@
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
+      <c r="B26" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="C26" s="15">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D26" s="16">
+        <v>1.5</v>
+      </c>
       <c r="E26" s="12">
         <f>(B26-C26)*-24-D26</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="G26" s="9" t="s">
+        <v>159</v>
+      </c>
       <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="17"/>
+      <c r="B27" s="15">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C27" s="15">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="D27" s="17">
+        <v>1.25</v>
+      </c>
       <c r="E27" s="12">
         <f t="shared" ref="E27:E32" si="2">(B27-C27)*-24-D27</f>
-        <v>0</v>
+        <v>5.9166666666666696</v>
       </c>
       <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="G27" s="9" t="s">
+        <v>159</v>
+      </c>
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="17"/>
+      <c r="B28" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="C28" s="15">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1.5</v>
+      </c>
       <c r="E28" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.8333333333333321</v>
       </c>
       <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="G28" s="9" t="s">
+        <v>159</v>
+      </c>
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1933,7 +1963,7 @@
       </c>
       <c r="E33" s="22">
         <f>SUM(E26:E32)</f>
-        <v>0</v>
+        <v>19.75</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1948,7 +1978,7 @@
       </c>
       <c r="E34" s="19">
         <f>SUM(E13+E23+E33)</f>
-        <v>36.583333333333336</v>
+        <v>56.333333333333336</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -2109,7 +2139,7 @@
       </c>
       <c r="E44" s="19">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>36.583333333333336</v>
+        <v>56.333333333333336</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -2270,7 +2300,7 @@
       </c>
       <c r="E54" s="19">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>36.583333333333336</v>
+        <v>56.333333333333336</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2431,7 +2461,7 @@
       </c>
       <c r="E64" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>36.583333333333336</v>
+        <v>56.333333333333336</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2592,7 +2622,7 @@
       </c>
       <c r="E74" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>36.583333333333336</v>
+        <v>56.333333333333336</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2753,7 +2783,7 @@
       </c>
       <c r="E84" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>36.583333333333336</v>
+        <v>56.333333333333336</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2914,7 +2944,7 @@
       </c>
       <c r="E94" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>36.583333333333336</v>
+        <v>56.333333333333336</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -3075,7 +3105,7 @@
       </c>
       <c r="E104" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>36.583333333333336</v>
+        <v>56.333333333333336</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3236,7 +3266,7 @@
       </c>
       <c r="E114" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>36.583333333333336</v>
+        <v>56.333333333333336</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3397,7 +3427,7 @@
       </c>
       <c r="E124" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>36.583333333333336</v>
+        <v>56.333333333333336</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3558,7 +3588,7 @@
       </c>
       <c r="E134" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>36.583333333333336</v>
+        <v>56.333333333333336</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3719,7 +3749,7 @@
       </c>
       <c r="E144" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>36.583333333333336</v>
+        <v>56.333333333333336</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3880,7 +3910,7 @@
       </c>
       <c r="E154" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>36.583333333333336</v>
+        <v>56.333333333333336</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -4040,7 +4070,7 @@
       </c>
       <c r="E164" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>36.583333333333336</v>
+        <v>56.333333333333336</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4201,7 +4231,7 @@
       </c>
       <c r="E174" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>36.583333333333336</v>
+        <v>56.333333333333336</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4362,7 +4392,7 @@
       </c>
       <c r="E184" s="18">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>36.583333333333336</v>
+        <v>56.333333333333336</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
@@ -4378,8 +4408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5066,22 +5096,28 @@
       <c r="O27" s="98"/>
       <c r="P27" s="98"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="63">
+      <c r="B28" s="90">
         <v>0.375</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="39">
+      <c r="C28" s="90">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D28" s="91">
+        <v>1.5</v>
+      </c>
+      <c r="E28" s="85">
         <f t="shared" si="2"/>
-        <v>-9</v>
-      </c>
-      <c r="F28" s="72"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="79"/>
+        <v>7</v>
+      </c>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88" t="s">
+        <v>160</v>
+      </c>
+      <c r="H28" s="88"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
@@ -5152,7 +5188,7 @@
       </c>
       <c r="E33" s="42">
         <f>SUM(E26:E32)</f>
-        <v>3.4166666666666679</v>
+        <v>19.416666666666668</v>
       </c>
       <c r="F33" s="68"/>
       <c r="G33" s="30"/>
@@ -5167,7 +5203,7 @@
       </c>
       <c r="E34" s="43">
         <f>SUM(E13+E23+E33)</f>
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F34" s="74"/>
       <c r="G34" s="31"/>
@@ -5328,7 +5364,7 @@
       </c>
       <c r="E44" s="43">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F44" s="74"/>
       <c r="G44" s="31"/>
@@ -5489,7 +5525,7 @@
       </c>
       <c r="E54" s="43">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F54" s="74"/>
       <c r="G54" s="31"/>
@@ -5650,7 +5686,7 @@
       </c>
       <c r="E64" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F64" s="74"/>
       <c r="G64" s="31"/>
@@ -5811,7 +5847,7 @@
       </c>
       <c r="E74" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F74" s="74"/>
       <c r="G74" s="31"/>
@@ -5972,7 +6008,7 @@
       </c>
       <c r="E84" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F84" s="74"/>
       <c r="G84" s="31"/>
@@ -6133,7 +6169,7 @@
       </c>
       <c r="E94" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F94" s="74"/>
       <c r="G94" s="31"/>
@@ -6294,7 +6330,7 @@
       </c>
       <c r="E104" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F104" s="74"/>
       <c r="G104" s="31"/>
@@ -6455,7 +6491,7 @@
       </c>
       <c r="E114" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F114" s="74"/>
       <c r="G114" s="31"/>
@@ -6616,7 +6652,7 @@
       </c>
       <c r="E124" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F124" s="74"/>
       <c r="G124" s="31"/>
@@ -6777,7 +6813,7 @@
       </c>
       <c r="E134" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F134" s="74"/>
       <c r="G134" s="31"/>
@@ -6938,7 +6974,7 @@
       </c>
       <c r="E144" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F144" s="74"/>
       <c r="G144" s="31"/>
@@ -7099,7 +7135,7 @@
       </c>
       <c r="E154" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F154" s="74"/>
       <c r="G154" s="31"/>
@@ -7259,7 +7295,7 @@
       </c>
       <c r="E164" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F164" s="74"/>
       <c r="G164" s="31"/>
@@ -7420,7 +7456,7 @@
       </c>
       <c r="E174" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F174" s="74"/>
       <c r="G174" s="31"/>
@@ -7581,7 +7617,7 @@
       </c>
       <c r="E184" s="46">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F184" s="68"/>
       <c r="G184" s="30"/>

--- a/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
+++ b/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tobias" sheetId="1" r:id="rId1"/>
@@ -1372,7 +1372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -4408,8 +4408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5123,12 +5123,14 @@
       <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="63"/>
+      <c r="B29" s="63">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="C29" s="57"/>
       <c r="D29" s="52"/>
       <c r="E29" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F29" s="72"/>
       <c r="G29" s="33"/>
@@ -5188,7 +5190,7 @@
       </c>
       <c r="E33" s="42">
         <f>SUM(E26:E32)</f>
-        <v>19.416666666666668</v>
+        <v>9.4166666666666679</v>
       </c>
       <c r="F33" s="68"/>
       <c r="G33" s="30"/>
@@ -5203,7 +5205,7 @@
       </c>
       <c r="E34" s="43">
         <f>SUM(E13+E23+E33)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F34" s="74"/>
       <c r="G34" s="31"/>
@@ -5364,7 +5366,7 @@
       </c>
       <c r="E44" s="43">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F44" s="74"/>
       <c r="G44" s="31"/>
@@ -5525,7 +5527,7 @@
       </c>
       <c r="E54" s="43">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F54" s="74"/>
       <c r="G54" s="31"/>
@@ -5686,7 +5688,7 @@
       </c>
       <c r="E64" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F64" s="74"/>
       <c r="G64" s="31"/>
@@ -5847,7 +5849,7 @@
       </c>
       <c r="E74" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F74" s="74"/>
       <c r="G74" s="31"/>
@@ -6008,7 +6010,7 @@
       </c>
       <c r="E84" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F84" s="74"/>
       <c r="G84" s="31"/>
@@ -6169,7 +6171,7 @@
       </c>
       <c r="E94" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F94" s="74"/>
       <c r="G94" s="31"/>
@@ -6330,7 +6332,7 @@
       </c>
       <c r="E104" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F104" s="74"/>
       <c r="G104" s="31"/>
@@ -6491,7 +6493,7 @@
       </c>
       <c r="E114" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F114" s="74"/>
       <c r="G114" s="31"/>
@@ -6652,7 +6654,7 @@
       </c>
       <c r="E124" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F124" s="74"/>
       <c r="G124" s="31"/>
@@ -6813,7 +6815,7 @@
       </c>
       <c r="E134" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F134" s="74"/>
       <c r="G134" s="31"/>
@@ -6974,7 +6976,7 @@
       </c>
       <c r="E144" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F144" s="74"/>
       <c r="G144" s="31"/>
@@ -7135,7 +7137,7 @@
       </c>
       <c r="E154" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F154" s="74"/>
       <c r="G154" s="31"/>
@@ -7295,7 +7297,7 @@
       </c>
       <c r="E164" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F164" s="74"/>
       <c r="G164" s="31"/>
@@ -7456,7 +7458,7 @@
       </c>
       <c r="E174" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F174" s="74"/>
       <c r="G174" s="31"/>
@@ -7617,7 +7619,7 @@
       </c>
       <c r="E184" s="46">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F184" s="68"/>
       <c r="G184" s="30"/>

--- a/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
+++ b/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tobias" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="164">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -504,6 +504,15 @@
   </si>
   <si>
     <t>Voodoo Puppe Mesh- lowpoly+ highpoly, Baking, knopf mesh</t>
+  </si>
+  <si>
+    <t>Konzept Fetisch</t>
+  </si>
+  <si>
+    <t>Krank</t>
+  </si>
+  <si>
+    <t>Home Office</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -4408,7 +4417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -7634,7 +7643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -10608,8 +10617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10725,10 +10734,10 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="C7" s="15">
-        <v>0.6875</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D7" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="12">
         <f t="shared" ref="E7:E12" si="0">(B7-C7)*-24-D7</f>
@@ -10748,10 +10757,10 @@
         <v>0.375</v>
       </c>
       <c r="C8" s="15">
-        <v>0.6875</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D8" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="12">
         <f t="shared" si="0"/>
@@ -10948,14 +10957,14 @@
         <v>0.375</v>
       </c>
       <c r="C19" s="15">
-        <v>0.52083333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D19" s="17">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E19" s="12">
         <f t="shared" si="1"/>
-        <v>3.5000000000000009</v>
+        <v>3.6999999999999993</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9" t="s">
@@ -11025,7 +11034,7 @@
       </c>
       <c r="E23" s="22">
         <f>SUM(E16:E22)</f>
-        <v>8.9500000000000011</v>
+        <v>9.1499999999999986</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -11040,7 +11049,7 @@
       </c>
       <c r="E24" s="19">
         <f>SUM(E13+E23)</f>
-        <v>46.650000000000006</v>
+        <v>46.85</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -11106,7 +11115,9 @@
         <f t="shared" ref="E27:E32" si="2">(B27-C27)*-24-D27</f>
         <v>0</v>
       </c>
-      <c r="F27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
     </row>
@@ -11114,27 +11125,37 @@
       <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
+      <c r="B28" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="15">
+        <v>0.625</v>
+      </c>
       <c r="D28" s="17"/>
       <c r="E28" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>161</v>
+      </c>
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="15"/>
+      <c r="B29" s="15">
+        <v>0.4375</v>
+      </c>
       <c r="C29" s="15"/>
       <c r="D29" s="17"/>
       <c r="E29" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-10.5</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -11194,7 +11215,7 @@
       </c>
       <c r="E33" s="22">
         <f>SUM(E26:E32)</f>
-        <v>7</v>
+        <v>-0.5</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -11209,7 +11230,7 @@
       </c>
       <c r="E34" s="19">
         <f>SUM(E13+E23+E33)</f>
-        <v>53.650000000000006</v>
+        <v>46.35</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -11370,7 +11391,7 @@
       </c>
       <c r="E44" s="19">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>53.650000000000006</v>
+        <v>46.35</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -11531,7 +11552,7 @@
       </c>
       <c r="E54" s="19">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>53.650000000000006</v>
+        <v>46.35</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -11692,7 +11713,7 @@
       </c>
       <c r="E64" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>53.650000000000006</v>
+        <v>46.35</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -11853,7 +11874,7 @@
       </c>
       <c r="E74" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>53.650000000000006</v>
+        <v>46.35</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -12014,7 +12035,7 @@
       </c>
       <c r="E84" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>53.650000000000006</v>
+        <v>46.35</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -12175,7 +12196,7 @@
       </c>
       <c r="E94" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>53.650000000000006</v>
+        <v>46.35</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -12336,7 +12357,7 @@
       </c>
       <c r="E104" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>53.650000000000006</v>
+        <v>46.35</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -12497,7 +12518,7 @@
       </c>
       <c r="E114" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>53.650000000000006</v>
+        <v>46.35</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -12658,7 +12679,7 @@
       </c>
       <c r="E124" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>53.650000000000006</v>
+        <v>46.35</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -12819,7 +12840,7 @@
       </c>
       <c r="E134" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>53.650000000000006</v>
+        <v>46.35</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -12980,7 +13001,7 @@
       </c>
       <c r="E144" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>53.650000000000006</v>
+        <v>46.35</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -13141,7 +13162,7 @@
       </c>
       <c r="E154" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>53.650000000000006</v>
+        <v>46.35</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -13301,7 +13322,7 @@
       </c>
       <c r="E164" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>53.650000000000006</v>
+        <v>46.35</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -13462,7 +13483,7 @@
       </c>
       <c r="E174" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>53.650000000000006</v>
+        <v>46.35</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -13623,7 +13644,7 @@
       </c>
       <c r="E184" s="18">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>53.650000000000006</v>
+        <v>46.35</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
@@ -13638,7 +13659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
+++ b/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Tobias" sheetId="1" r:id="rId1"/>
@@ -4408,7 +4408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -10608,7 +10608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -16612,8 +16612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17077,12 +17077,14 @@
       <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="15"/>
+      <c r="B29" s="15">
+        <v>0.41319444444444442</v>
+      </c>
       <c r="C29" s="15"/>
       <c r="D29" s="17"/>
       <c r="E29" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-9.9166666666666661</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -17142,7 +17144,7 @@
       </c>
       <c r="E33" s="22">
         <f>SUM(E26:E32)</f>
-        <v>0</v>
+        <v>-9.9166666666666661</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -17157,7 +17159,7 @@
       </c>
       <c r="E34" s="19">
         <f>SUM(E13+E23+E33)</f>
-        <v>7</v>
+        <v>-2.9166666666666661</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -17318,7 +17320,7 @@
       </c>
       <c r="E44" s="19">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>7</v>
+        <v>-2.9166666666666661</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -17479,7 +17481,7 @@
       </c>
       <c r="E54" s="19">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>7</v>
+        <v>-2.9166666666666661</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -17640,7 +17642,7 @@
       </c>
       <c r="E64" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>7</v>
+        <v>-2.9166666666666661</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -17801,7 +17803,7 @@
       </c>
       <c r="E74" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>7</v>
+        <v>-2.9166666666666661</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -17962,7 +17964,7 @@
       </c>
       <c r="E84" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>7</v>
+        <v>-2.9166666666666661</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -18123,7 +18125,7 @@
       </c>
       <c r="E94" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>7</v>
+        <v>-2.9166666666666661</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -18284,7 +18286,7 @@
       </c>
       <c r="E104" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>7</v>
+        <v>-2.9166666666666661</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -18445,7 +18447,7 @@
       </c>
       <c r="E114" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>7</v>
+        <v>-2.9166666666666661</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -18606,7 +18608,7 @@
       </c>
       <c r="E124" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>7</v>
+        <v>-2.9166666666666661</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -18767,7 +18769,7 @@
       </c>
       <c r="E134" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>7</v>
+        <v>-2.9166666666666661</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -18928,7 +18930,7 @@
       </c>
       <c r="E144" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>7</v>
+        <v>-2.9166666666666661</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -19089,7 +19091,7 @@
       </c>
       <c r="E154" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>7</v>
+        <v>-2.9166666666666661</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -19249,7 +19251,7 @@
       </c>
       <c r="E164" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>7</v>
+        <v>-2.9166666666666661</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -19410,7 +19412,7 @@
       </c>
       <c r="E174" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>7</v>
+        <v>-2.9166666666666661</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -19571,7 +19573,7 @@
       </c>
       <c r="E184" s="18">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>7</v>
+        <v>-2.9166666666666661</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
+++ b/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Tobias" sheetId="1" r:id="rId1"/>
@@ -1372,7 +1372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -4408,8 +4408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5123,12 +5123,14 @@
       <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="63"/>
+      <c r="B29" s="63">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="C29" s="57"/>
       <c r="D29" s="52"/>
       <c r="E29" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F29" s="72"/>
       <c r="G29" s="33"/>
@@ -5188,7 +5190,7 @@
       </c>
       <c r="E33" s="42">
         <f>SUM(E26:E32)</f>
-        <v>19.416666666666668</v>
+        <v>9.4166666666666679</v>
       </c>
       <c r="F33" s="68"/>
       <c r="G33" s="30"/>
@@ -5203,7 +5205,7 @@
       </c>
       <c r="E34" s="43">
         <f>SUM(E13+E23+E33)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F34" s="74"/>
       <c r="G34" s="31"/>
@@ -5364,7 +5366,7 @@
       </c>
       <c r="E44" s="43">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F44" s="74"/>
       <c r="G44" s="31"/>
@@ -5525,7 +5527,7 @@
       </c>
       <c r="E54" s="43">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F54" s="74"/>
       <c r="G54" s="31"/>
@@ -5686,7 +5688,7 @@
       </c>
       <c r="E64" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F64" s="74"/>
       <c r="G64" s="31"/>
@@ -5847,7 +5849,7 @@
       </c>
       <c r="E74" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F74" s="74"/>
       <c r="G74" s="31"/>
@@ -6008,7 +6010,7 @@
       </c>
       <c r="E84" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F84" s="74"/>
       <c r="G84" s="31"/>
@@ -6169,7 +6171,7 @@
       </c>
       <c r="E94" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F94" s="74"/>
       <c r="G94" s="31"/>
@@ -6330,7 +6332,7 @@
       </c>
       <c r="E104" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F104" s="74"/>
       <c r="G104" s="31"/>
@@ -6491,7 +6493,7 @@
       </c>
       <c r="E114" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F114" s="74"/>
       <c r="G114" s="31"/>
@@ -6652,7 +6654,7 @@
       </c>
       <c r="E124" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F124" s="74"/>
       <c r="G124" s="31"/>
@@ -6813,7 +6815,7 @@
       </c>
       <c r="E134" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F134" s="74"/>
       <c r="G134" s="31"/>
@@ -6974,7 +6976,7 @@
       </c>
       <c r="E144" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F144" s="74"/>
       <c r="G144" s="31"/>
@@ -7135,7 +7137,7 @@
       </c>
       <c r="E154" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F154" s="74"/>
       <c r="G154" s="31"/>
@@ -7295,7 +7297,7 @@
       </c>
       <c r="E164" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F164" s="74"/>
       <c r="G164" s="31"/>
@@ -7456,7 +7458,7 @@
       </c>
       <c r="E174" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F174" s="74"/>
       <c r="G174" s="31"/>
@@ -7617,7 +7619,7 @@
       </c>
       <c r="E184" s="46">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F184" s="68"/>
       <c r="G184" s="30"/>
@@ -10606,7 +10608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -16610,8 +16612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17075,12 +17077,14 @@
       <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="15"/>
+      <c r="B29" s="15">
+        <v>0.41319444444444442</v>
+      </c>
       <c r="C29" s="15"/>
       <c r="D29" s="17"/>
       <c r="E29" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-9.9166666666666661</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -17140,7 +17144,7 @@
       </c>
       <c r="E33" s="22">
         <f>SUM(E26:E32)</f>
-        <v>0</v>
+        <v>-9.9166666666666661</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -17155,7 +17159,7 @@
       </c>
       <c r="E34" s="19">
         <f>SUM(E13+E23+E33)</f>
-        <v>7</v>
+        <v>-2.9166666666666661</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -17316,7 +17320,7 @@
       </c>
       <c r="E44" s="19">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>7</v>
+        <v>-2.9166666666666661</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -17477,7 +17481,7 @@
       </c>
       <c r="E54" s="19">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>7</v>
+        <v>-2.9166666666666661</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -17638,7 +17642,7 @@
       </c>
       <c r="E64" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>7</v>
+        <v>-2.9166666666666661</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -17799,7 +17803,7 @@
       </c>
       <c r="E74" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>7</v>
+        <v>-2.9166666666666661</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -17960,7 +17964,7 @@
       </c>
       <c r="E84" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>7</v>
+        <v>-2.9166666666666661</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -18121,7 +18125,7 @@
       </c>
       <c r="E94" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>7</v>
+        <v>-2.9166666666666661</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -18282,7 +18286,7 @@
       </c>
       <c r="E104" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>7</v>
+        <v>-2.9166666666666661</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -18443,7 +18447,7 @@
       </c>
       <c r="E114" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>7</v>
+        <v>-2.9166666666666661</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -18604,7 +18608,7 @@
       </c>
       <c r="E124" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>7</v>
+        <v>-2.9166666666666661</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -18765,7 +18769,7 @@
       </c>
       <c r="E134" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>7</v>
+        <v>-2.9166666666666661</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -18926,7 +18930,7 @@
       </c>
       <c r="E144" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>7</v>
+        <v>-2.9166666666666661</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -19087,7 +19091,7 @@
       </c>
       <c r="E154" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>7</v>
+        <v>-2.9166666666666661</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -19247,7 +19251,7 @@
       </c>
       <c r="E164" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>7</v>
+        <v>-2.9166666666666661</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -19408,7 +19412,7 @@
       </c>
       <c r="E174" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>7</v>
+        <v>-2.9166666666666661</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -19569,7 +19573,7 @@
       </c>
       <c r="E184" s="18">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>7</v>
+        <v>-2.9166666666666661</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
+++ b/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="5"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Tobias" sheetId="1" r:id="rId1"/>
@@ -16612,7 +16612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -22562,7 +22562,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -22669,31 +22671,43 @@
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D7" s="17">
+        <v>2</v>
+      </c>
       <c r="E7" s="12">
         <f t="shared" ref="E7:E12" si="0">(B7-C7)*-24-D7</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D8" s="17">
+        <v>2</v>
+      </c>
       <c r="E8" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -22729,16 +22743,22 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="17"/>
+      <c r="B11" s="15">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0</v>
+      </c>
       <c r="E11" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.9999999999999991</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -22768,7 +22788,7 @@
       </c>
       <c r="E13" s="22">
         <f>SUM(E6:E12)</f>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -22783,7 +22803,7 @@
       </c>
       <c r="E14" s="19">
         <f>SUM(E13)</f>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -22815,7 +22835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
@@ -22830,7 +22850,7 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
@@ -22845,7 +22865,7 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>22</v>
       </c>
@@ -22860,7 +22880,7 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
@@ -22875,7 +22895,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
@@ -22890,7 +22910,7 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
@@ -22905,7 +22925,7 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
@@ -22944,7 +22964,7 @@
       </c>
       <c r="E24" s="19">
         <f>SUM(E13+E23)</f>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -23105,7 +23125,7 @@
       </c>
       <c r="E34" s="19">
         <f>SUM(E13+E23+E33)</f>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -23266,7 +23286,7 @@
       </c>
       <c r="E44" s="19">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -23427,7 +23447,7 @@
       </c>
       <c r="E54" s="19">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -23588,7 +23608,7 @@
       </c>
       <c r="E64" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -23749,7 +23769,7 @@
       </c>
       <c r="E74" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -23910,7 +23930,7 @@
       </c>
       <c r="E84" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -24071,7 +24091,7 @@
       </c>
       <c r="E94" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -24232,7 +24252,7 @@
       </c>
       <c r="E104" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -24393,7 +24413,7 @@
       </c>
       <c r="E114" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -24554,7 +24574,7 @@
       </c>
       <c r="E124" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -24715,7 +24735,7 @@
       </c>
       <c r="E134" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -24876,7 +24896,7 @@
       </c>
       <c r="E144" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -25037,7 +25057,7 @@
       </c>
       <c r="E154" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -25197,7 +25217,7 @@
       </c>
       <c r="E164" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -25358,7 +25378,7 @@
       </c>
       <c r="E174" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -25519,7 +25539,7 @@
       </c>
       <c r="E184" s="18">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
+++ b/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
@@ -4408,7 +4408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -16612,8 +16612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17080,11 +17080,15 @@
       <c r="B29" s="15">
         <v>0.41319444444444442</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="17"/>
+      <c r="C29" s="15">
+        <v>0.6875</v>
+      </c>
+      <c r="D29" s="17">
+        <v>2</v>
+      </c>
       <c r="E29" s="12">
         <f t="shared" si="2"/>
-        <v>-9.9166666666666661</v>
+        <v>4.5833333333333339</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -17144,7 +17148,7 @@
       </c>
       <c r="E33" s="22">
         <f>SUM(E26:E32)</f>
-        <v>-9.9166666666666661</v>
+        <v>4.5833333333333339</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -17159,7 +17163,7 @@
       </c>
       <c r="E34" s="19">
         <f>SUM(E13+E23+E33)</f>
-        <v>-2.9166666666666661</v>
+        <v>11.583333333333334</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -17320,7 +17324,7 @@
       </c>
       <c r="E44" s="19">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>-2.9166666666666661</v>
+        <v>11.583333333333334</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -17481,7 +17485,7 @@
       </c>
       <c r="E54" s="19">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>-2.9166666666666661</v>
+        <v>11.583333333333334</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -17642,7 +17646,7 @@
       </c>
       <c r="E64" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>-2.9166666666666661</v>
+        <v>11.583333333333334</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -17803,7 +17807,7 @@
       </c>
       <c r="E74" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>-2.9166666666666661</v>
+        <v>11.583333333333334</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -17964,7 +17968,7 @@
       </c>
       <c r="E84" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>-2.9166666666666661</v>
+        <v>11.583333333333334</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -18125,7 +18129,7 @@
       </c>
       <c r="E94" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>-2.9166666666666661</v>
+        <v>11.583333333333334</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -18286,7 +18290,7 @@
       </c>
       <c r="E104" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>-2.9166666666666661</v>
+        <v>11.583333333333334</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -18447,7 +18451,7 @@
       </c>
       <c r="E114" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>-2.9166666666666661</v>
+        <v>11.583333333333334</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -18608,7 +18612,7 @@
       </c>
       <c r="E124" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>-2.9166666666666661</v>
+        <v>11.583333333333334</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -18769,7 +18773,7 @@
       </c>
       <c r="E134" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>-2.9166666666666661</v>
+        <v>11.583333333333334</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -18930,7 +18934,7 @@
       </c>
       <c r="E144" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>-2.9166666666666661</v>
+        <v>11.583333333333334</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -19091,7 +19095,7 @@
       </c>
       <c r="E154" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>-2.9166666666666661</v>
+        <v>11.583333333333334</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -19251,7 +19255,7 @@
       </c>
       <c r="E164" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>-2.9166666666666661</v>
+        <v>11.583333333333334</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -19412,7 +19416,7 @@
       </c>
       <c r="E174" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>-2.9166666666666661</v>
+        <v>11.583333333333334</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -19573,7 +19577,7 @@
       </c>
       <c r="E184" s="18">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>-2.9166666666666661</v>
+        <v>11.583333333333334</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
@@ -22789,7 +22793,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
@@ -22815,7 +22819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
@@ -22830,7 +22834,7 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
@@ -22845,7 +22849,7 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>22</v>
       </c>
@@ -22860,7 +22864,7 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
@@ -22875,7 +22879,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
@@ -22890,7 +22894,7 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
@@ -22905,7 +22909,7 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>26</v>
       </c>

--- a/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
+++ b/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="7"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tobias" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="165">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -491,9 +491,6 @@
     <t>Assetliste</t>
   </si>
   <si>
-    <t>Konzept Fetisch, 3D Wand &amp; Tür</t>
-  </si>
-  <si>
     <t>Assetliste, Voodoo Puppe Mesh</t>
   </si>
   <si>
@@ -504,6 +501,21 @@
   </si>
   <si>
     <t>Voodoo Puppe Mesh- lowpoly+ highpoly, Baking, knopf mesh</t>
+  </si>
+  <si>
+    <t>Krank</t>
+  </si>
+  <si>
+    <t>Home Office</t>
+  </si>
+  <si>
+    <t>Konzept Fetisch</t>
+  </si>
+  <si>
+    <t>3D Assets</t>
+  </si>
+  <si>
+    <t>Konzept Fetisch, 3D Assets</t>
   </si>
 </sst>
 </file>
@@ -1844,7 +1856,7 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H26" s="9"/>
     </row>
@@ -1867,7 +1879,7 @@
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H27" s="9"/>
     </row>
@@ -1890,7 +1902,7 @@
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H28" s="9"/>
     </row>
@@ -5053,7 +5065,7 @@
       </c>
       <c r="F26" s="88"/>
       <c r="G26" s="88" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H26" s="88"/>
       <c r="I26" s="98"/>
@@ -5084,7 +5096,7 @@
       </c>
       <c r="F27" s="88"/>
       <c r="G27" s="88" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H27" s="88"/>
       <c r="I27" s="98"/>
@@ -5115,7 +5127,7 @@
       </c>
       <c r="F28" s="88"/>
       <c r="G28" s="88" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H28" s="88"/>
     </row>
@@ -10608,8 +10620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10725,10 +10737,10 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="C7" s="15">
-        <v>0.6875</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D7" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="12">
         <f t="shared" ref="E7:E12" si="0">(B7-C7)*-24-D7</f>
@@ -10748,10 +10760,10 @@
         <v>0.375</v>
       </c>
       <c r="C8" s="15">
-        <v>0.6875</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D8" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="12">
         <f t="shared" si="0"/>
@@ -10948,14 +10960,14 @@
         <v>0.375</v>
       </c>
       <c r="C19" s="15">
-        <v>0.52083333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D19" s="17">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E19" s="12">
         <f t="shared" si="1"/>
-        <v>3.5000000000000009</v>
+        <v>3.6999999999999993</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9" t="s">
@@ -11025,7 +11037,7 @@
       </c>
       <c r="E23" s="22">
         <f>SUM(E16:E22)</f>
-        <v>8.9500000000000011</v>
+        <v>9.1499999999999986</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -11040,7 +11052,7 @@
       </c>
       <c r="E24" s="19">
         <f>SUM(E13+E23)</f>
-        <v>46.650000000000006</v>
+        <v>46.85</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -11080,10 +11092,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="C26" s="15">
-        <v>0.6875</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D26" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="12">
         <f>(B26-C26)*-24-D26</f>
@@ -11091,7 +11103,7 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="H26" s="9"/>
     </row>
@@ -11106,7 +11118,9 @@
         <f t="shared" ref="E27:E32" si="2">(B27-C27)*-24-D27</f>
         <v>0</v>
       </c>
-      <c r="F27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>160</v>
+      </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
     </row>
@@ -11114,30 +11128,46 @@
       <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
+      <c r="B28" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="15">
+        <v>0.625</v>
+      </c>
       <c r="D28" s="17"/>
       <c r="E28" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="17"/>
+      <c r="B29" s="15">
+        <v>0.4375</v>
+      </c>
+      <c r="C29" s="15">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D29" s="17">
+        <v>0.3</v>
+      </c>
       <c r="E29" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.6999999999999993</v>
       </c>
       <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
+      <c r="G29" s="9" t="s">
+        <v>163</v>
+      </c>
       <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11194,7 +11224,7 @@
       </c>
       <c r="E33" s="22">
         <f>SUM(E26:E32)</f>
-        <v>7</v>
+        <v>16.7</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -11209,7 +11239,7 @@
       </c>
       <c r="E34" s="19">
         <f>SUM(E13+E23+E33)</f>
-        <v>53.650000000000006</v>
+        <v>63.55</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -11370,7 +11400,7 @@
       </c>
       <c r="E44" s="19">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>53.650000000000006</v>
+        <v>63.55</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -11531,7 +11561,7 @@
       </c>
       <c r="E54" s="19">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>53.650000000000006</v>
+        <v>63.55</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -11692,7 +11722,7 @@
       </c>
       <c r="E64" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>53.650000000000006</v>
+        <v>63.55</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -11853,7 +11883,7 @@
       </c>
       <c r="E74" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>53.650000000000006</v>
+        <v>63.55</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -12014,7 +12044,7 @@
       </c>
       <c r="E84" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>53.650000000000006</v>
+        <v>63.55</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -12175,7 +12205,7 @@
       </c>
       <c r="E94" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>53.650000000000006</v>
+        <v>63.55</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -12336,7 +12366,7 @@
       </c>
       <c r="E104" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>53.650000000000006</v>
+        <v>63.55</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -12497,7 +12527,7 @@
       </c>
       <c r="E114" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>53.650000000000006</v>
+        <v>63.55</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -12658,7 +12688,7 @@
       </c>
       <c r="E124" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>53.650000000000006</v>
+        <v>63.55</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -12819,7 +12849,7 @@
       </c>
       <c r="E134" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>53.650000000000006</v>
+        <v>63.55</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -12980,7 +13010,7 @@
       </c>
       <c r="E144" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>53.650000000000006</v>
+        <v>63.55</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -13141,7 +13171,7 @@
       </c>
       <c r="E154" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>53.650000000000006</v>
+        <v>63.55</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -13301,7 +13331,7 @@
       </c>
       <c r="E164" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>53.650000000000006</v>
+        <v>63.55</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -13462,7 +13492,7 @@
       </c>
       <c r="E174" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>53.650000000000006</v>
+        <v>63.55</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -13623,7 +13653,7 @@
       </c>
       <c r="E184" s="18">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>53.650000000000006</v>
+        <v>63.55</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
@@ -22562,7 +22592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
+++ b/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265"/>
   </bookViews>
   <sheets>
     <sheet name="Tobias" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="166">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -516,6 +516,9 @@
   </si>
   <si>
     <t>Konzept Fetisch, 3D Assets</t>
+  </si>
+  <si>
+    <t>Level Design, Recherche</t>
   </si>
 </sst>
 </file>
@@ -1384,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1910,15 +1913,23 @@
       <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="17"/>
+      <c r="B29" s="15">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C29" s="15">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="D29" s="17">
+        <v>2</v>
+      </c>
       <c r="E29" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6666666666666679</v>
       </c>
       <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
+      <c r="G29" s="9" t="s">
+        <v>165</v>
+      </c>
       <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1975,7 +1986,7 @@
       </c>
       <c r="E33" s="22">
         <f>SUM(E26:E32)</f>
-        <v>19.75</v>
+        <v>25.416666666666668</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1990,7 +2001,7 @@
       </c>
       <c r="E34" s="19">
         <f>SUM(E13+E23+E33)</f>
-        <v>56.333333333333336</v>
+        <v>62</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -2151,7 +2162,7 @@
       </c>
       <c r="E44" s="19">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>56.333333333333336</v>
+        <v>62</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -2312,7 +2323,7 @@
       </c>
       <c r="E54" s="19">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>56.333333333333336</v>
+        <v>62</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2473,7 +2484,7 @@
       </c>
       <c r="E64" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>56.333333333333336</v>
+        <v>62</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2634,7 +2645,7 @@
       </c>
       <c r="E74" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>56.333333333333336</v>
+        <v>62</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2795,7 +2806,7 @@
       </c>
       <c r="E84" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>56.333333333333336</v>
+        <v>62</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2956,7 +2967,7 @@
       </c>
       <c r="E94" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>56.333333333333336</v>
+        <v>62</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -3117,7 +3128,7 @@
       </c>
       <c r="E104" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>56.333333333333336</v>
+        <v>62</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3278,7 +3289,7 @@
       </c>
       <c r="E114" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>56.333333333333336</v>
+        <v>62</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3439,7 +3450,7 @@
       </c>
       <c r="E124" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>56.333333333333336</v>
+        <v>62</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3600,7 +3611,7 @@
       </c>
       <c r="E134" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>56.333333333333336</v>
+        <v>62</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3761,7 +3772,7 @@
       </c>
       <c r="E144" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>56.333333333333336</v>
+        <v>62</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3922,7 +3933,7 @@
       </c>
       <c r="E154" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>56.333333333333336</v>
+        <v>62</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -4082,7 +4093,7 @@
       </c>
       <c r="E164" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>56.333333333333336</v>
+        <v>62</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4243,7 +4254,7 @@
       </c>
       <c r="E174" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>56.333333333333336</v>
+        <v>62</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4404,7 +4415,7 @@
       </c>
       <c r="E184" s="18">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>56.333333333333336</v>
+        <v>62</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
@@ -10620,7 +10631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>

--- a/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
+++ b/_Organisation/Zeitplanung/Zeiterfassung Voodoo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="7"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tobias" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="163">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -504,6 +504,12 @@
   </si>
   <si>
     <t>Voodoo Puppe Mesh- lowpoly+ highpoly, Baking, knopf mesh</t>
+  </si>
+  <si>
+    <t>Knopf mesh, Knopf baking, Handsoft</t>
+  </si>
+  <si>
+    <t>Abwesend</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -4408,8 +4414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5120,66 +5126,74 @@
       <c r="H28" s="88"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="63">
+      <c r="B29" s="90">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="39">
+      <c r="C29" s="90">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="91">
+        <v>1.25</v>
+      </c>
+      <c r="E29" s="85">
         <f t="shared" si="2"/>
-        <v>-10</v>
-      </c>
-      <c r="F29" s="72"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="79"/>
+        <v>6.75</v>
+      </c>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88" t="s">
+        <v>161</v>
+      </c>
+      <c r="H29" s="88"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="63"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="39">
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="85">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F30" s="72"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="79"/>
+      <c r="F30" s="88" t="s">
+        <v>162</v>
+      </c>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
     </row>
     <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="40">
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F31" s="72"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="79"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
     </row>
     <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="66"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="41">
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="95">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F32" s="73"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="80"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="97"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
@@ -5190,7 +5204,7 @@
       </c>
       <c r="E33" s="42">
         <f>SUM(E26:E32)</f>
-        <v>9.4166666666666679</v>
+        <v>26.166666666666668</v>
       </c>
       <c r="F33" s="68"/>
       <c r="G33" s="30"/>
@@ -5205,7 +5219,7 @@
       </c>
       <c r="E34" s="43">
         <f>SUM(E13+E23+E33)</f>
-        <v>52</v>
+        <v>68.75</v>
       </c>
       <c r="F34" s="74"/>
       <c r="G34" s="31"/>
@@ -5241,12 +5255,14 @@
       <c r="A36" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="63"/>
+      <c r="B36" s="63">
+        <v>0.375</v>
+      </c>
       <c r="C36" s="57"/>
       <c r="D36" s="52"/>
       <c r="E36" s="39">
         <f>(B36-C36)*-24-D36</f>
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="F36" s="72"/>
       <c r="G36" s="33"/>
@@ -5351,7 +5367,7 @@
       </c>
       <c r="E43" s="42">
         <f>SUM(E36:E42)</f>
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="F43" s="68"/>
       <c r="G43" s="30"/>
@@ -5366,7 +5382,7 @@
       </c>
       <c r="E44" s="43">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>52</v>
+        <v>59.75</v>
       </c>
       <c r="F44" s="74"/>
       <c r="G44" s="31"/>
@@ -5527,7 +5543,7 @@
       </c>
       <c r="E54" s="43">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>52</v>
+        <v>59.75</v>
       </c>
       <c r="F54" s="74"/>
       <c r="G54" s="31"/>
@@ -5688,7 +5704,7 @@
       </c>
       <c r="E64" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>52</v>
+        <v>59.75</v>
       </c>
       <c r="F64" s="74"/>
       <c r="G64" s="31"/>
@@ -5849,7 +5865,7 @@
       </c>
       <c r="E74" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>52</v>
+        <v>59.75</v>
       </c>
       <c r="F74" s="74"/>
       <c r="G74" s="31"/>
@@ -6010,7 +6026,7 @@
       </c>
       <c r="E84" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>52</v>
+        <v>59.75</v>
       </c>
       <c r="F84" s="74"/>
       <c r="G84" s="31"/>
@@ -6171,7 +6187,7 @@
       </c>
       <c r="E94" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>52</v>
+        <v>59.75</v>
       </c>
       <c r="F94" s="74"/>
       <c r="G94" s="31"/>
@@ -6332,7 +6348,7 @@
       </c>
       <c r="E104" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>52</v>
+        <v>59.75</v>
       </c>
       <c r="F104" s="74"/>
       <c r="G104" s="31"/>
@@ -6493,7 +6509,7 @@
       </c>
       <c r="E114" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>52</v>
+        <v>59.75</v>
       </c>
       <c r="F114" s="74"/>
       <c r="G114" s="31"/>
@@ -6654,7 +6670,7 @@
       </c>
       <c r="E124" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>52</v>
+        <v>59.75</v>
       </c>
       <c r="F124" s="74"/>
       <c r="G124" s="31"/>
@@ -6815,7 +6831,7 @@
       </c>
       <c r="E134" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>52</v>
+        <v>59.75</v>
       </c>
       <c r="F134" s="74"/>
       <c r="G134" s="31"/>
@@ -6976,7 +6992,7 @@
       </c>
       <c r="E144" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>52</v>
+        <v>59.75</v>
       </c>
       <c r="F144" s="74"/>
       <c r="G144" s="31"/>
@@ -7137,7 +7153,7 @@
       </c>
       <c r="E154" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>52</v>
+        <v>59.75</v>
       </c>
       <c r="F154" s="74"/>
       <c r="G154" s="31"/>
@@ -7297,7 +7313,7 @@
       </c>
       <c r="E164" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>52</v>
+        <v>59.75</v>
       </c>
       <c r="F164" s="74"/>
       <c r="G164" s="31"/>
@@ -7458,7 +7474,7 @@
       </c>
       <c r="E174" s="43">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>52</v>
+        <v>59.75</v>
       </c>
       <c r="F174" s="74"/>
       <c r="G174" s="31"/>
@@ -7619,7 +7635,7 @@
       </c>
       <c r="E184" s="46">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>52</v>
+        <v>59.75</v>
       </c>
       <c r="F184" s="68"/>
       <c r="G184" s="30"/>
@@ -22562,7 +22578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
